--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" tabRatio="863"/>
   </bookViews>
   <sheets>
-    <sheet name="2022 Driver Ranking" sheetId="1" r:id="rId1"/>
+    <sheet name="2023 Driver Ranking" sheetId="1" r:id="rId1"/>
     <sheet name="2003-2009 Driver Ranking" sheetId="2" r:id="rId2"/>
     <sheet name="1991-2002 Driver Ranking" sheetId="5" r:id="rId3"/>
-    <sheet name="2022 Team Ranking" sheetId="6" r:id="rId4"/>
+    <sheet name="2023 Team Ranking" sheetId="6" r:id="rId4"/>
     <sheet name="2003-2009 Team Ranking" sheetId="7" r:id="rId5"/>
     <sheet name="1991-2002 Team Ranking" sheetId="9" r:id="rId6"/>
     <sheet name="2022 Engine Ranking" sheetId="10" r:id="rId7"/>
@@ -25,9 +25,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AC$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2003-2009 Engine Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2003-2009 Team Ranking'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022 Driver Ranking'!$A$1:$AF$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2022 Engine Ranking'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2022 Team Ranking'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Driver Ranking'!$A$1:$AF$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2023 Team Ranking'!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="112">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aston Martin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Canadian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,9 +368,6 @@
     <t>Red Bull Racing</t>
   </si>
   <si>
-    <t>Alfa Romeo Racing</t>
-  </si>
-  <si>
     <t>Netherlands</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,9 +413,6 @@
   <si>
     <t>Thai</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Bull Powertrains</t>
   </si>
   <si>
     <t>Australia</t>
@@ -477,6 +467,25 @@
   <si>
     <t>American</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honda Powertrains</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Aston Martin Aramco</t>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honda RBPT</t>
   </si>
 </sst>
 </file>
@@ -1028,12 +1037,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
@@ -1082,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>4</v>
@@ -1100,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>11</v>
@@ -1115,22 +1124,22 @@
         <v>12</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -1139,22 +1148,22 @@
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="AC1" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1168,12 +1177,14 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1200,11 +1211,11 @@
       <c r="AD2" s="9"/>
       <c r="AE2" s="9">
         <f>SUM(F3:AB3)+SUM(AC2,AD2)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1215,7 +1226,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28">
         <f>IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3" s="28">
         <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
@@ -1311,53 +1322,55 @@
       <c r="AF3" s="28"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5">
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9">
         <f>SUM(F5:AB5)+SUM(AC4,AD4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="5">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1368,7 +1381,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5" s="28">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
@@ -1464,53 +1477,55 @@
       <c r="AF5" s="28"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6">
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8">
         <f>SUM(F7:AB7)+SUM(AC6,AD6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1521,7 +1536,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="28">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
@@ -1617,53 +1632,55 @@
       <c r="AF7" s="28"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7">
         <f>SUM(F9:AB9)+SUM(AC8,AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1674,7 +1691,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28">
         <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G9" s="28">
         <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
@@ -1770,53 +1787,55 @@
       <c r="AF9" s="28"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15">
         <f>SUM(F11:AB11)+SUM(AC10,AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="9">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="15">
         <f>SUM(F11:AB11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1827,7 +1846,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
@@ -1924,21 +1943,23 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1965,11 +1986,11 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8">
         <f>SUM(F13:AB13)+SUM(AC12,AD12)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF12" s="8">
         <f>SUM(F13:AB13)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1980,7 +2001,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
@@ -2076,53 +2097,55 @@
       <c r="AF13" s="28"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7">
+      <c r="A14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15">
         <f>SUM(F15:AB15)+SUM(AC14,AD14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="15">
         <f>SUM(F15:AB15)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2133,7 +2156,7 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
@@ -2229,53 +2252,55 @@
       <c r="AF15" s="28"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="8">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8">
+      <c r="A16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11">
         <f>SUM(F17:AB17)+SUM(AC16,AD16)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="11">
         <f>SUM(F17:AB17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2286,7 +2311,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="28">
         <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
@@ -2382,53 +2407,55 @@
       <c r="AF17" s="28"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="3">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
         <f>SUM(F19:AB19)+SUM(AC18,AD18)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="2">
         <f>SUM(F19:AB19)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2439,7 +2466,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="28">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
@@ -2535,53 +2562,55 @@
       <c r="AF19" s="28"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="9">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9">
+      <c r="A20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="5">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5">
         <f>SUM(F21:AB21)+SUM(AC20,AD20)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="5">
         <f>SUM(F21:AB21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2592,7 +2621,7 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="28">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
@@ -2689,21 +2718,23 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B22" s="5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <v>12</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2841,51 +2872,53 @@
       <c r="AF23" s="28"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="11">
-        <v>24</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6">
         <f>SUM(F25:AB25)+SUM(AC24,AD24)</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF24" s="6">
         <f>SUM(F25:AB25)</f>
         <v>0</v>
       </c>
@@ -2994,51 +3027,53 @@
       <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="3">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7">
         <f>SUM(F27:AB27)+SUM(AC26,AD26)</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF26" s="7">
         <f>SUM(F27:AB27)</f>
         <v>0</v>
       </c>
@@ -3147,51 +3182,53 @@
       <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2">
+      <c r="A28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="3">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3">
         <f>SUM(F29:AB29)+SUM(AC28,AD28)</f>
         <v>0</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AF28" s="3">
         <f>SUM(F29:AB29)</f>
         <v>0</v>
       </c>
@@ -3300,51 +3337,53 @@
       <c r="AF29" s="28"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="15">
-        <v>44</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15">
+      <c r="A30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="9">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="9">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9">
         <f>SUM(F31:AB31)+SUM(AC30,AD30)</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="15">
+      <c r="AF30" s="9">
         <f>SUM(F31:AB31)</f>
         <v>0</v>
       </c>
@@ -3453,51 +3492,53 @@
       <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="9">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9">
+      <c r="A32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="11">
+        <v>24</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="11">
+        <v>16</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11">
         <f>SUM(F33:AB33)+SUM(AC32,AD32)</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="9">
+      <c r="AF32" s="11">
         <f>SUM(F33:AB33)</f>
         <v>0</v>
       </c>
@@ -3606,51 +3647,53 @@
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="7">
-        <v>55</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7">
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="3">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3">
         <f>SUM(F35:AB35)+SUM(AC34,AD34)</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="7">
+      <c r="AF34" s="3">
         <f>SUM(F35:AB35)</f>
         <v>0</v>
       </c>
@@ -3759,51 +3802,53 @@
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="15">
-        <v>63</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2">
         <f>SUM(F37:AB37)+SUM(AC36,AD36)</f>
         <v>0</v>
       </c>
-      <c r="AF36" s="15">
+      <c r="AF36" s="2">
         <f>SUM(F37:AB37)</f>
         <v>0</v>
       </c>
@@ -3912,51 +3957,53 @@
       <c r="AF37" s="28"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="11">
-        <v>77</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11">
+      <c r="A38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="9">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="9">
+        <v>14</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9">
         <f>SUM(F39:AB39)+SUM(AC38,AD38)</f>
         <v>0</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF38" s="9">
         <f>SUM(F39:AB39)</f>
         <v>0</v>
       </c>
@@ -4066,7 +4113,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" s="6">
         <v>81</v>
@@ -4080,7 +4127,9 @@
       <c r="E40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -4205,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="28">
-        <f t="shared" ref="F3:AB41" si="1">IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
+        <f t="shared" ref="AA41" si="1">IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="28">
@@ -4220,7 +4269,7 @@
   </sheetData>
   <autoFilter ref="A1:AF41">
     <sortState ref="A2:AF40">
-      <sortCondition ref="B1:B41"/>
+      <sortCondition descending="1" ref="AF1:AF41"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4245,26 +4294,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4281,12 +4330,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
@@ -4322,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>2</v>
@@ -4334,13 +4383,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>4</v>
@@ -4352,13 +4401,13 @@
         <v>5</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>11</v>
@@ -4367,22 +4416,22 @@
         <v>12</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -4391,7 +4440,7 @@
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>16</v>
@@ -4411,12 +4460,14 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -4441,7 +4492,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4452,7 +4503,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28">
         <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="28">
         <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
@@ -4545,47 +4596,49 @@
       <c r="AC3" s="28"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -4596,7 +4649,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28">
         <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5" s="28">
         <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
@@ -4689,47 +4742,49 @@
       <c r="AC5" s="28"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6">
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -4740,7 +4795,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="28">
         <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
@@ -4833,47 +4888,49 @@
       <c r="AC7" s="28"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -4884,7 +4941,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28">
         <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="28">
         <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
@@ -4977,47 +5034,49 @@
       <c r="AC9" s="28"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15">
         <f>SUM(F11:AB11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -5028,7 +5087,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
@@ -5122,30 +5181,32 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -5155,13 +5216,13 @@
       <c r="V12" s="42"/>
       <c r="W12" s="42"/>
       <c r="X12" s="42"/>
-      <c r="Y12" s="24"/>
+      <c r="Y12" s="8"/>
       <c r="Z12" s="42"/>
       <c r="AA12" s="42"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8">
         <f>SUM(F13:AB13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -5172,7 +5233,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
@@ -5265,47 +5326,49 @@
       <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7">
+      <c r="A14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18">
         <f>SUM(F15:AB15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -5316,7 +5379,7 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
@@ -5409,47 +5472,49 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="8">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8">
+      <c r="A16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11">
+        <v>8</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11">
         <f>SUM(F17:AB17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -5460,7 +5525,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="28">
         <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
@@ -5553,45 +5618,47 @@
       <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="3">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4">
+      <c r="A18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f>SUM(F19:AB19)</f>
         <v>0</v>
       </c>
@@ -5697,45 +5764,47 @@
       <c r="AC19" s="28"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="9">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="6">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6">
         <f>SUM(F21:AB21)</f>
         <v>0</v>
       </c>
@@ -5841,45 +5910,47 @@
       <c r="AC21" s="28"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="5">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="19">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2">
         <f>SUM(F23:AB23)</f>
         <v>0</v>
       </c>
@@ -5985,45 +6056,47 @@
       <c r="AC23" s="28"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="11">
+      <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22">
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7">
         <f>SUM(F25:AB25)</f>
         <v>0</v>
       </c>
@@ -6130,13 +6203,13 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B26" s="3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>40</v>
@@ -6144,7 +6217,9 @@
       <c r="E26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="4">
+        <v>13</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -6154,11 +6229,11 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="41"/>
       <c r="W26" s="41"/>
@@ -6166,8 +6241,8 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="41"/>
       <c r="AA26" s="41"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3">
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4">
         <f>SUM(F27:AB27)</f>
         <v>0</v>
       </c>
@@ -6273,45 +6348,47 @@
       <c r="AC27" s="28"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2">
+      <c r="A28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9">
+        <v>22</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="9">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9">
         <f>SUM(F29:AB29)</f>
         <v>0</v>
       </c>
@@ -6417,45 +6494,47 @@
       <c r="AC29" s="28"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="15">
-        <v>44</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="A30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="5">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15">
+      <c r="F30" s="5">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20">
         <f>SUM(F31:AB31)</f>
         <v>0</v>
       </c>
@@ -6561,45 +6640,47 @@
       <c r="AC31" s="28"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="9">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9">
+      <c r="A32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="11">
+        <v>24</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="11">
+        <v>16</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22">
         <f>SUM(F33:AB33)</f>
         <v>0</v>
       </c>
@@ -6705,45 +6786,47 @@
       <c r="AC33" s="28"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="7">
-        <v>55</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7">
+      <c r="F34" s="3">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3">
         <f>SUM(F35:AB35)</f>
         <v>0</v>
       </c>
@@ -6849,45 +6932,47 @@
       <c r="AC35" s="28"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="15">
-        <v>63</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2">
         <f>SUM(F37:AB37)</f>
         <v>0</v>
       </c>
@@ -6993,45 +7078,47 @@
       <c r="AC37" s="28"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="11">
-        <v>77</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11">
+      <c r="A38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="9">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="9">
+        <v>14</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9">
         <f>SUM(F39:AB39)</f>
         <v>0</v>
       </c>
@@ -7138,7 +7225,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" s="6">
         <v>81</v>
@@ -7152,7 +7239,9 @@
       <c r="E40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G40" s="31"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -7283,7 +7372,7 @@
   </sheetData>
   <autoFilter ref="A1:AC41">
     <sortState ref="A2:AC40">
-      <sortCondition ref="B1:B41"/>
+      <sortCondition descending="1" ref="AC1:AC41"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7300,12 +7389,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
@@ -7354,13 +7443,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>4</v>
@@ -7372,13 +7461,13 @@
         <v>5</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>11</v>
@@ -7387,22 +7476,22 @@
         <v>12</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -7411,7 +7500,7 @@
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>16</v>
@@ -7431,12 +7520,14 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -7461,7 +7552,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -7472,7 +7563,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28">
         <f>IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="28">
         <f>IF(G2=1,10,IF(G2=2,6,IF(G2=3,4,IF(G2=4,3,IF(G2=5,2,IF(G2=6,1,0))))))</f>
@@ -7565,47 +7656,49 @@
       <c r="AC3" s="28"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20">
+      <c r="G4" s="23"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -7616,7 +7709,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28">
         <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="28">
         <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
@@ -7709,47 +7802,49 @@
       <c r="AC5" s="28"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8">
+        <f>SUM(F7:AB7)</f>
         <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6">
-        <f>SUM(F7:AB7)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -7760,7 +7855,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="28">
         <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
@@ -7853,47 +7948,49 @@
       <c r="AC7" s="28"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -7904,7 +8001,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="28">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
@@ -7997,47 +8094,49 @@
       <c r="AC9" s="28"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15">
         <f>SUM(F11:AB11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -8048,7 +8147,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
@@ -8142,30 +8241,32 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -8173,7 +8274,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="42"/>
-      <c r="W12" s="8"/>
+      <c r="W12" s="24"/>
       <c r="X12" s="42"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="42"/>
@@ -8181,7 +8282,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8">
         <f>SUM(F13:AB13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -8192,7 +8293,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
@@ -8285,45 +8386,47 @@
       <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7">
+      <c r="A14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
         <f>SUM(F15:AB15)</f>
         <v>0</v>
       </c>
@@ -8429,45 +8532,47 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="8">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8">
+      <c r="F16" s="6">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6">
         <f>SUM(F17:AB17)</f>
         <v>0</v>
       </c>
@@ -8573,45 +8678,47 @@
       <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="3">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="19">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2">
         <f>SUM(F19:AB19)</f>
         <v>0</v>
       </c>
@@ -8717,45 +8824,47 @@
       <c r="AC19" s="28"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="9">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7">
         <f>SUM(F21:AB21)</f>
         <v>0</v>
       </c>
@@ -8861,45 +8970,47 @@
       <c r="AC21" s="28"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="5">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4">
         <f>SUM(F23:AB23)</f>
         <v>0</v>
       </c>
@@ -9005,45 +9116,47 @@
       <c r="AC23" s="28"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="11">
-        <v>24</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22">
+      <c r="A24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="9">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9">
         <f>SUM(F25:AB25)</f>
         <v>0</v>
       </c>
@@ -9149,45 +9262,47 @@
       <c r="AC25" s="28"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="3">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20">
         <f>SUM(F27:AB27)</f>
         <v>0</v>
       </c>
@@ -9293,45 +9408,47 @@
       <c r="AC27" s="28"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2">
+      <c r="A28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="11">
+        <v>24</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="11">
+        <v>16</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22">
         <f>SUM(F29:AB29)</f>
         <v>0</v>
       </c>
@@ -9437,45 +9554,47 @@
       <c r="AC29" s="28"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="15">
-        <v>44</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="3">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3">
         <f>SUM(F31:AB31)</f>
         <v>0</v>
       </c>
@@ -9581,45 +9700,47 @@
       <c r="AC31" s="28"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="9">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2">
         <f>SUM(F33:AB33)</f>
         <v>0</v>
       </c>
@@ -9725,45 +9846,47 @@
       <c r="AC33" s="28"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="7">
-        <v>55</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7">
+      <c r="A34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="9">
+        <v>21</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="9">
+        <v>14</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9">
         <f>SUM(F35:AB35)</f>
         <v>0</v>
       </c>
@@ -9870,7 +9993,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="15">
         <v>63</v>
@@ -9884,7 +10007,9 @@
       <c r="E36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="15">
+        <v>7</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -10023,12 +10148,14 @@
         <v>23</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="11">
+        <v>8</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -10158,7 +10285,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" s="6">
         <v>81</v>
@@ -10172,7 +10299,9 @@
       <c r="E40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -10302,8 +10431,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AC41">
-    <sortState ref="A2:AB40">
-      <sortCondition ref="B1:B41"/>
+    <sortState ref="A2:AC40">
+      <sortCondition descending="1" ref="AC1:AC41"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10320,8 +10449,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.375" style="1" bestFit="1" customWidth="1"/>
@@ -10330,150 +10459,210 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="D2" s="10">
+        <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
+        <v>43</v>
+      </c>
+      <c r="E2" s="10">
+        <f>'2023 Driver Ranking'!AF2+'2023 Driver Ranking'!AF4</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE12</f>
+        <v>23</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'2023 Driver Ranking'!AF6+'2023 Driver Ranking'!AF12</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="15">
+        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE14</f>
+        <v>16</v>
+      </c>
+      <c r="E4" s="15">
+        <f>'2023 Driver Ranking'!AF10+'2023 Driver Ranking'!AF14</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE26</f>
+        <v>12</v>
+      </c>
+      <c r="E5" s="7">
+        <f>'2023 Driver Ranking'!AF8+'2023 Driver Ranking'!AF26</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11">
+        <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE32</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <f>'2023 Driver Ranking'!AF16+'2023 Driver Ranking'!AF32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2">
+        <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE36</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <f>'2023 Driver Ranking'!AF18+'2023 Driver Ranking'!AF36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="5">
+        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE22</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <f>'2023 Driver Ranking'!AF20+'2023 Driver Ranking'!AF22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE40</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>'2023 Driver Ranking'!AF24+'2023 Driver Ranking'!AF40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'2023 Driver Ranking'!AE28+'2023 Driver Ranking'!AE34</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f>'2023 Driver Ranking'!AF28+'2023 Driver Ranking'!AF34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="10">
+        <f>'2023 Driver Ranking'!AE30+'2023 Driver Ranking'!AE38</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f>'2023 Driver Ranking'!AF30+'2023 Driver Ranking'!AF38</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E11">
@@ -10495,8 +10684,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -10504,101 +10693,122 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="D2" s="10">
+        <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC4</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC12</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="15">
+        <f>'2003-2009 Driver Ranking'!AC10+'2003-2009 Driver Ranking'!AC14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11">
+        <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2">
+        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6">
+        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -10608,33 +10818,42 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D9" s="3">
+        <f>'2003-2009 Driver Ranking'!AC26+'2003-2009 Driver Ranking'!AC34</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="D10" s="10">
+        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC38</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="D11" s="5">
+        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC30</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D11">
@@ -10655,8 +10874,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -10664,137 +10883,167 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="10">
+        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7">
+        <f>'1991-2002 Driver Ranking'!AC8+'1991-2002 Driver Ranking'!AC20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="15">
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2">
+        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="11">
+        <f>'1991-2002 Driver Ranking'!AC28+'1991-2002 Driver Ranking'!AC38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="3">
+        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="D10" s="10">
+        <f>'1991-2002 Driver Ranking'!AC24+'1991-2002 Driver Ranking'!AC34</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="D11" s="5">
+        <f>'1991-2002 Driver Ranking'!AC14+'1991-2002 Driver Ranking'!AC26</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D11">
@@ -10816,7 +11065,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
@@ -10830,27 +11079,27 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -10858,22 +11107,10 @@
       <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <f>'2022 Team Ranking'!D2+'2022 Team Ranking'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <f>D2/C2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <f>'2022 Team Ranking'!E2+'2022 Team Ranking'!E10</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <f>F2/C2</f>
-        <v>0</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -10885,49 +11122,25 @@
       <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
-        <f>'2022 Team Ranking'!D3+'2022 Team Ranking'!D7+'2022 Team Ranking'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <f>D3/C3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>'2022 Team Ranking'!E3+'2022 Team Ranking'!E7+'2022 Team Ranking'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <f>F3/C3</f>
-        <v>0</v>
-      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="15">
         <v>4</v>
       </c>
-      <c r="D4" s="15">
-        <f>'2022 Team Ranking'!D4+'2022 Team Ranking'!D6+'2022 Team Ranking'!D8+'2022 Team Ranking'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <f>D4/C4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <f>'2022 Team Ranking'!E4+'2022 Team Ranking'!E6+'2022 Team Ranking'!E8+'2022 Team Ranking'!E11</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <f>F4/C4</f>
-        <v>0</v>
-      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -10939,22 +11152,10 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <f>'2022 Team Ranking'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <f>D5/C5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <f>'2022 Team Ranking'!E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <f>F5/C5</f>
-        <v>0</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5">
@@ -10975,7 +11176,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
@@ -10987,36 +11188,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <f>'2003-2009 Team Ranking'!D2+'2003-2009 Team Ranking'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <f>D2/C2</f>
-        <v>0</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -11025,36 +11218,20 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7">
-        <f>'2003-2009 Team Ranking'!D3+'2003-2009 Team Ranking'!D7+'2003-2009 Team Ranking'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <f>D3/C3</f>
-        <v>0</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="15">
-        <v>4</v>
-      </c>
-      <c r="D4" s="15">
-        <f>'2003-2009 Team Ranking'!D4+'2003-2009 Team Ranking'!D6+'2003-2009 Team Ranking'!D8+'2003-2009 Team Ranking'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <f>D4/C4</f>
-        <v>0</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -11063,17 +11240,9 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'2003-2009 Team Ranking'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <f>D5/C5</f>
-        <v>0</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5">
@@ -11094,7 +11263,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
@@ -11106,36 +11275,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <f>'1991-2002 Team Ranking'!D2+'1991-2002 Team Ranking'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <f>D2/C2</f>
-        <v>0</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -11144,36 +11305,20 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7">
-        <f>'1991-2002 Team Ranking'!D3+'1991-2002 Team Ranking'!D7+'1991-2002 Team Ranking'!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <f>D3/C3</f>
-        <v>0</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="15">
-        <v>4</v>
-      </c>
-      <c r="D4" s="15">
-        <f>'1991-2002 Team Ranking'!D4+'1991-2002 Team Ranking'!D5+'1991-2002 Team Ranking'!D9+'1991-2002 Team Ranking'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <f>D4/C4</f>
-        <v>0</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -11182,17 +11327,9 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'1991-2002 Team Ranking'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <f>D5/C5</f>
-        <v>0</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="111">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,9 +467,6 @@
   <si>
     <t>American</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honda Powertrains</t>
   </si>
   <si>
     <t>Alfa Romeo</t>
@@ -1041,7 +1038,7 @@
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -1180,7 +1177,7 @@
         <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -1225,95 +1222,95 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <f>IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
+        <f t="shared" ref="F3:AB3" si="0">IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="G3" s="28">
-        <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="28">
-        <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="28">
-        <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="28">
-        <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="28">
-        <f>IF(K2=1,25,IF(K2=2,18,IF(K2=3,15,IF(K2=4,12,IF(K2=5,10,IF(K2=6,8,IF(K2=7,6,IF(K2=8,4,IF(K2=9,2,IF(K2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="28">
-        <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="28">
-        <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="28">
-        <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="28">
-        <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="28">
-        <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="28">
-        <f>IF(Q2=1,25,IF(Q2=2,18,IF(Q2=3,15,IF(Q2=4,12,IF(Q2=5,10,IF(Q2=6,8,IF(Q2=7,6,IF(Q2=8,4,IF(Q2=9,2,IF(Q2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="28">
-        <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="28">
-        <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="28">
-        <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="35">
-        <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="28">
-        <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="28">
-        <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="35">
-        <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="28">
-        <f>IF(Y2=1,25,IF(Y2=2,18,IF(Y2=3,15,IF(Y2=4,12,IF(Y2=5,10,IF(Y2=6,8,IF(Y2=7,6,IF(Y2=8,4,IF(Y2=9,2,IF(Y2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="28">
-        <f>IF(Z2=1,25,IF(Z2=2,18,IF(Z2=3,15,IF(Z2=4,12,IF(Z2=5,10,IF(Z2=6,8,IF(Z2=7,6,IF(Z2=8,4,IF(Z2=9,2,IF(Z2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="28">
-        <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="28">
-        <f>IF(AB2=1,25,IF(AB2=2,18,IF(AB2=3,15,IF(AB2=4,12,IF(AB2=5,10,IF(AB2=6,8,IF(AB2=7,6,IF(AB2=8,4,IF(AB2=9,2,IF(AB2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="28"/>
@@ -1335,7 +1332,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -1380,95 +1377,95 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
+        <f t="shared" ref="F5:AB5" si="1">IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="G5" s="28">
-        <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="28">
-        <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="28">
-        <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="28">
-        <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="28">
-        <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="28">
-        <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="28">
-        <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="28">
-        <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="28">
-        <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="28">
-        <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="28">
-        <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="28">
-        <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="28">
-        <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="35">
-        <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="28">
-        <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" s="28">
-        <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" s="35">
-        <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5" s="28">
-        <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5" s="28">
-        <f>IF(Z4=1,25,IF(Z4=2,18,IF(Z4=3,15,IF(Z4=4,12,IF(Z4=5,10,IF(Z4=6,8,IF(Z4=7,6,IF(Z4=8,4,IF(Z4=9,2,IF(Z4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="28">
-        <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB5" s="28">
-        <f>IF(AB4=1,25,IF(AB4=2,18,IF(AB4=3,15,IF(AB4=4,12,IF(AB4=5,10,IF(AB4=6,8,IF(AB4=7,6,IF(AB4=8,4,IF(AB4=9,2,IF(AB4=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC5" s="28"/>
@@ -1487,7 +1484,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
@@ -1535,95 +1532,95 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
+        <f t="shared" ref="F7:AB7" si="2">IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="G7" s="28">
-        <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="28">
-        <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="28">
-        <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="28">
-        <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="28">
-        <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="28">
-        <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="35">
-        <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="28">
-        <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="28">
-        <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="35">
-        <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="28">
-        <f>IF(Y6=1,25,IF(Y6=2,18,IF(Y6=3,15,IF(Y6=4,12,IF(Y6=5,10,IF(Y6=6,8,IF(Y6=7,6,IF(Y6=8,4,IF(Y6=9,2,IF(Y6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="28">
-        <f>IF(Z6=1,25,IF(Z6=2,18,IF(Z6=3,15,IF(Z6=4,12,IF(Z6=5,10,IF(Z6=6,8,IF(Z6=7,6,IF(Z6=8,4,IF(Z6=9,2,IF(Z6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="28">
-        <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="28">
-        <f>IF(AB6=1,25,IF(AB6=2,18,IF(AB6=3,15,IF(AB6=4,12,IF(AB6=5,10,IF(AB6=6,8,IF(AB6=7,6,IF(AB6=8,4,IF(AB6=9,2,IF(AB6=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC7" s="28"/>
@@ -1690,95 +1687,95 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
+        <f t="shared" ref="F9:AB9" si="3">IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="G9" s="28">
-        <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="28">
-        <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="28">
-        <f>IF(K8=1,25,IF(K8=2,18,IF(K8=3,15,IF(K8=4,12,IF(K8=5,10,IF(K8=6,8,IF(K8=7,6,IF(K8=8,4,IF(K8=9,2,IF(K8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9" s="28">
-        <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="28">
-        <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="28">
-        <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="28">
-        <f>IF(O8=1,25,IF(O8=2,18,IF(O8=3,15,IF(O8=4,12,IF(O8=5,10,IF(O8=6,8,IF(O8=7,6,IF(O8=8,4,IF(O8=9,2,IF(O8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P9" s="28">
-        <f>IF(P8=1,25,IF(P8=2,18,IF(P8=3,15,IF(P8=4,12,IF(P8=5,10,IF(P8=6,8,IF(P8=7,6,IF(P8=8,4,IF(P8=9,2,IF(P8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="28">
-        <f>IF(Q8=1,25,IF(Q8=2,18,IF(Q8=3,15,IF(Q8=4,12,IF(Q8=5,10,IF(Q8=6,8,IF(Q8=7,6,IF(Q8=8,4,IF(Q8=9,2,IF(Q8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="28">
-        <f>IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9" s="28">
-        <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="28">
-        <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="35">
-        <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9" s="28">
-        <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="28">
-        <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="35">
-        <f>IF(X8=1,25,IF(X8=2,18,IF(X8=3,15,IF(X8=4,12,IF(X8=5,10,IF(X8=6,8,IF(X8=7,6,IF(X8=8,4,IF(X8=9,2,IF(X8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="28">
-        <f>IF(Y8=1,25,IF(Y8=2,18,IF(Y8=3,15,IF(Y8=4,12,IF(Y8=5,10,IF(Y8=6,8,IF(Y8=7,6,IF(Y8=8,4,IF(Y8=9,2,IF(Y8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="28">
-        <f>IF(Z8=1,25,IF(Z8=2,18,IF(Z8=3,15,IF(Z8=4,12,IF(Z8=5,10,IF(Z8=6,8,IF(Z8=7,6,IF(Z8=8,4,IF(Z8=9,2,IF(Z8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="28">
-        <f>IF(AA8=1,25,IF(AA8=2,18,IF(AA8=3,15,IF(AA8=4,12,IF(AA8=5,10,IF(AA8=6,8,IF(AA8=7,6,IF(AA8=8,4,IF(AA8=9,2,IF(AA8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB9" s="28">
-        <f>IF(AB8=1,25,IF(AB8=2,18,IF(AB8=3,15,IF(AB8=4,12,IF(AB8=5,10,IF(AB8=6,8,IF(AB8=7,6,IF(AB8=8,4,IF(AB8=9,2,IF(AB8=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC9" s="28"/>
@@ -1845,95 +1842,95 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28">
-        <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
+        <f t="shared" ref="F11:AB11" si="4">IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="G11" s="28">
-        <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="28">
-        <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="28">
-        <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L11" s="28">
-        <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11" s="28">
-        <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="28">
-        <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" s="28">
-        <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="28">
-        <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="28">
-        <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="28">
-        <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="28">
-        <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U11" s="35">
-        <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="28">
-        <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="28">
-        <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X11" s="35">
-        <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y11" s="28">
-        <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z11" s="28">
-        <f>IF(Z10=1,25,IF(Z10=2,18,IF(Z10=3,15,IF(Z10=4,12,IF(Z10=5,10,IF(Z10=6,8,IF(Z10=7,6,IF(Z10=8,4,IF(Z10=9,2,IF(Z10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="28">
-        <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB11" s="28">
-        <f>IF(AB10=1,25,IF(AB10=2,18,IF(AB10=3,15,IF(AB10=4,12,IF(AB10=5,10,IF(AB10=6,8,IF(AB10=7,6,IF(AB10=8,4,IF(AB10=9,2,IF(AB10=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC11" s="28"/>
@@ -1952,7 +1949,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
@@ -2000,95 +1997,95 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28">
-        <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
+        <f t="shared" ref="F13:AB13" si="5">IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="G13" s="28">
-        <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H13" s="28">
-        <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13" s="28">
-        <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="28">
-        <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L13" s="28">
-        <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13" s="28">
-        <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N13" s="28">
-        <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="28">
-        <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P13" s="28">
-        <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="28">
-        <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="28">
-        <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="28">
-        <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="28">
-        <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="35">
-        <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="28">
-        <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W13" s="28">
-        <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="35">
-        <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="28">
-        <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="28">
-        <f>IF(Z12=1,25,IF(Z12=2,18,IF(Z12=3,15,IF(Z12=4,12,IF(Z12=5,10,IF(Z12=6,8,IF(Z12=7,6,IF(Z12=8,4,IF(Z12=9,2,IF(Z12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="28">
-        <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB13" s="28">
-        <f>IF(AB12=1,25,IF(AB12=2,18,IF(AB12=3,15,IF(AB12=4,12,IF(AB12=5,10,IF(AB12=6,8,IF(AB12=7,6,IF(AB12=8,4,IF(AB12=9,2,IF(AB12=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC13" s="28"/>
@@ -2155,95 +2152,95 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28">
-        <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
+        <f t="shared" ref="F15:AB15" si="6">IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="G15" s="28">
-        <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H15" s="28">
-        <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="28">
-        <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J15" s="28">
-        <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K15" s="28">
-        <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L15" s="28">
-        <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M15" s="28">
-        <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N15" s="28">
-        <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15" s="28">
-        <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="28">
-        <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15" s="28">
-        <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="28">
-        <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="28">
-        <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="28">
-        <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="35">
-        <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="28">
-        <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15" s="28">
-        <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X15" s="35">
-        <f>IF(X14=1,25,IF(X14=2,18,IF(X14=3,15,IF(X14=4,12,IF(X14=5,10,IF(X14=6,8,IF(X14=7,6,IF(X14=8,4,IF(X14=9,2,IF(X14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y15" s="28">
-        <f>IF(Y14=1,25,IF(Y14=2,18,IF(Y14=3,15,IF(Y14=4,12,IF(Y14=5,10,IF(Y14=6,8,IF(Y14=7,6,IF(Y14=8,4,IF(Y14=9,2,IF(Y14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z15" s="28">
-        <f>IF(Z14=1,25,IF(Z14=2,18,IF(Z14=3,15,IF(Z14=4,12,IF(Z14=5,10,IF(Z14=6,8,IF(Z14=7,6,IF(Z14=8,4,IF(Z14=9,2,IF(Z14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA15" s="28">
-        <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB15" s="28">
-        <f>IF(AB14=1,25,IF(AB14=2,18,IF(AB14=3,15,IF(AB14=4,12,IF(AB14=5,10,IF(AB14=6,8,IF(AB14=7,6,IF(AB14=8,4,IF(AB14=9,2,IF(AB14=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC15" s="28"/>
@@ -2262,7 +2259,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>26</v>
@@ -2310,95 +2307,95 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28">
-        <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
+        <f t="shared" ref="F17:AB17" si="7">IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="G17" s="28">
-        <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="28">
-        <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J17" s="28">
-        <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K17" s="28">
-        <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L17" s="28">
-        <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M17" s="28">
-        <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N17" s="28">
-        <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O17" s="28">
-        <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="28">
-        <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="28">
-        <f>IF(Q16=1,25,IF(Q16=2,18,IF(Q16=3,15,IF(Q16=4,12,IF(Q16=5,10,IF(Q16=6,8,IF(Q16=7,6,IF(Q16=8,4,IF(Q16=9,2,IF(Q16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R17" s="28">
-        <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17" s="28">
-        <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="28">
-        <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="35">
-        <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17" s="28">
-        <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="28">
-        <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="35">
-        <f>IF(X16=1,25,IF(X16=2,18,IF(X16=3,15,IF(X16=4,12,IF(X16=5,10,IF(X16=6,8,IF(X16=7,6,IF(X16=8,4,IF(X16=9,2,IF(X16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17" s="28">
-        <f>IF(Y16=1,25,IF(Y16=2,18,IF(Y16=3,15,IF(Y16=4,12,IF(Y16=5,10,IF(Y16=6,8,IF(Y16=7,6,IF(Y16=8,4,IF(Y16=9,2,IF(Y16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z17" s="28">
-        <f>IF(Z16=1,25,IF(Z16=2,18,IF(Z16=3,15,IF(Z16=4,12,IF(Z16=5,10,IF(Z16=6,8,IF(Z16=7,6,IF(Z16=8,4,IF(Z16=9,2,IF(Z16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA17" s="28">
-        <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB17" s="28">
-        <f>IF(AB16=1,25,IF(AB16=2,18,IF(AB16=3,15,IF(AB16=4,12,IF(AB16=5,10,IF(AB16=6,8,IF(AB16=7,6,IF(AB16=8,4,IF(AB16=9,2,IF(AB16=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC17" s="28"/>
@@ -2465,95 +2462,95 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28">
-        <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
+        <f t="shared" ref="F19:AB19" si="8">IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="G19" s="28">
-        <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="28">
-        <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J19" s="28">
-        <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="28">
-        <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19" s="28">
-        <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M19" s="28">
-        <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N19" s="28">
-        <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="28">
-        <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19" s="28">
-        <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="28">
-        <f>IF(Q18=1,25,IF(Q18=2,18,IF(Q18=3,15,IF(Q18=4,12,IF(Q18=5,10,IF(Q18=6,8,IF(Q18=7,6,IF(Q18=8,4,IF(Q18=9,2,IF(Q18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="28">
-        <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S19" s="28">
-        <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T19" s="28">
-        <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U19" s="35">
-        <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V19" s="28">
-        <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W19" s="28">
-        <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19" s="35">
-        <f>IF(X18=1,25,IF(X18=2,18,IF(X18=3,15,IF(X18=4,12,IF(X18=5,10,IF(X18=6,8,IF(X18=7,6,IF(X18=8,4,IF(X18=9,2,IF(X18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19" s="28">
-        <f>IF(Y18=1,25,IF(Y18=2,18,IF(Y18=3,15,IF(Y18=4,12,IF(Y18=5,10,IF(Y18=6,8,IF(Y18=7,6,IF(Y18=8,4,IF(Y18=9,2,IF(Y18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z19" s="28">
-        <f>IF(Z18=1,25,IF(Z18=2,18,IF(Z18=3,15,IF(Z18=4,12,IF(Z18=5,10,IF(Z18=6,8,IF(Z18=7,6,IF(Z18=8,4,IF(Z18=9,2,IF(Z18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA19" s="28">
-        <f>IF(AA18=1,25,IF(AA18=2,18,IF(AA18=3,15,IF(AA18=4,12,IF(AA18=5,10,IF(AA18=6,8,IF(AA18=7,6,IF(AA18=8,4,IF(AA18=9,2,IF(AA18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB19" s="28">
-        <f>IF(AB18=1,25,IF(AB18=2,18,IF(AB18=3,15,IF(AB18=4,12,IF(AB18=5,10,IF(AB18=6,8,IF(AB18=7,6,IF(AB18=8,4,IF(AB18=9,2,IF(AB18=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC19" s="28"/>
@@ -2620,95 +2617,95 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28">
-        <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
+        <f t="shared" ref="F21:AB21" si="9">IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="G21" s="28">
-        <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I21" s="28">
-        <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J21" s="28">
-        <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K21" s="28">
-        <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L21" s="28">
-        <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M21" s="28">
-        <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N21" s="28">
-        <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O21" s="28">
-        <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="28">
-        <f>IF(P20=1,25,IF(P20=2,18,IF(P20=3,15,IF(P20=4,12,IF(P20=5,10,IF(P20=6,8,IF(P20=7,6,IF(P20=8,4,IF(P20=9,2,IF(P20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="28">
-        <f>IF(Q20=1,25,IF(Q20=2,18,IF(Q20=3,15,IF(Q20=4,12,IF(Q20=5,10,IF(Q20=6,8,IF(Q20=7,6,IF(Q20=8,4,IF(Q20=9,2,IF(Q20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R21" s="28">
-        <f>IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S21" s="28">
-        <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T21" s="28">
-        <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U21" s="35">
-        <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V21" s="28">
-        <f>IF(V20=1,25,IF(V20=2,18,IF(V20=3,15,IF(V20=4,12,IF(V20=5,10,IF(V20=6,8,IF(V20=7,6,IF(V20=8,4,IF(V20=9,2,IF(V20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="28">
-        <f>IF(W20=1,25,IF(W20=2,18,IF(W20=3,15,IF(W20=4,12,IF(W20=5,10,IF(W20=6,8,IF(W20=7,6,IF(W20=8,4,IF(W20=9,2,IF(W20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X21" s="35">
-        <f>IF(X20=1,25,IF(X20=2,18,IF(X20=3,15,IF(X20=4,12,IF(X20=5,10,IF(X20=6,8,IF(X20=7,6,IF(X20=8,4,IF(X20=9,2,IF(X20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21" s="28">
-        <f>IF(Y20=1,25,IF(Y20=2,18,IF(Y20=3,15,IF(Y20=4,12,IF(Y20=5,10,IF(Y20=6,8,IF(Y20=7,6,IF(Y20=8,4,IF(Y20=9,2,IF(Y20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z21" s="28">
-        <f>IF(Z20=1,25,IF(Z20=2,18,IF(Z20=3,15,IF(Z20=4,12,IF(Z20=5,10,IF(Z20=6,8,IF(Z20=7,6,IF(Z20=8,4,IF(Z20=9,2,IF(Z20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA21" s="28">
-        <f>IF(AA20=1,25,IF(AA20=2,18,IF(AA20=3,15,IF(AA20=4,12,IF(AA20=5,10,IF(AA20=6,8,IF(AA20=7,6,IF(AA20=8,4,IF(AA20=9,2,IF(AA20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB21" s="28">
-        <f>IF(AB20=1,25,IF(AB20=2,18,IF(AB20=3,15,IF(AB20=4,12,IF(AB20=5,10,IF(AB20=6,8,IF(AB20=7,6,IF(AB20=8,4,IF(AB20=9,2,IF(AB20=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC21" s="28"/>
@@ -2775,95 +2772,95 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28">
-        <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
+        <f t="shared" ref="F23:AB23" si="10">IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="28">
-        <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H23" s="28">
-        <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I23" s="28">
-        <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="28">
-        <f>IF(K22=1,25,IF(K22=2,18,IF(K22=3,15,IF(K22=4,12,IF(K22=5,10,IF(K22=6,8,IF(K22=7,6,IF(K22=8,4,IF(K22=9,2,IF(K22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="28">
-        <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="28">
-        <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N23" s="28">
-        <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O23" s="28">
-        <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P23" s="28">
-        <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="28">
-        <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="28">
-        <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="28">
-        <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="35">
-        <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V23" s="28">
-        <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W23" s="28">
-        <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X23" s="35">
-        <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y23" s="28">
-        <f>IF(Y22=1,25,IF(Y22=2,18,IF(Y22=3,15,IF(Y22=4,12,IF(Y22=5,10,IF(Y22=6,8,IF(Y22=7,6,IF(Y22=8,4,IF(Y22=9,2,IF(Y22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z23" s="28">
-        <f>IF(Z22=1,25,IF(Z22=2,18,IF(Z22=3,15,IF(Z22=4,12,IF(Z22=5,10,IF(Z22=6,8,IF(Z22=7,6,IF(Z22=8,4,IF(Z22=9,2,IF(Z22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA23" s="28">
-        <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB23" s="28">
-        <f>IF(AB22=1,25,IF(AB22=2,18,IF(AB22=3,15,IF(AB22=4,12,IF(AB22=5,10,IF(AB22=6,8,IF(AB22=7,6,IF(AB22=8,4,IF(AB22=9,2,IF(AB22=10,1,0))))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC23" s="28"/>
@@ -2930,95 +2927,95 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28">
-        <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
+        <f t="shared" ref="F25:AB25" si="11">IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I25" s="28">
-        <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f>IF(K24=1,25,IF(K24=2,18,IF(K24=3,15,IF(K24=4,12,IF(K24=5,10,IF(K24=6,8,IF(K24=7,6,IF(K24=8,4,IF(K24=9,2,IF(K24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L25" s="28">
-        <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M25" s="28">
-        <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="28">
-        <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O25" s="28">
-        <f>IF(O24=1,25,IF(O24=2,18,IF(O24=3,15,IF(O24=4,12,IF(O24=5,10,IF(O24=6,8,IF(O24=7,6,IF(O24=8,4,IF(O24=9,2,IF(O24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f>IF(P24=1,25,IF(P24=2,18,IF(P24=3,15,IF(P24=4,12,IF(P24=5,10,IF(P24=6,8,IF(P24=7,6,IF(P24=8,4,IF(P24=9,2,IF(P24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q25" s="28">
-        <f>IF(Q24=1,25,IF(Q24=2,18,IF(Q24=3,15,IF(Q24=4,12,IF(Q24=5,10,IF(Q24=6,8,IF(Q24=7,6,IF(Q24=8,4,IF(Q24=9,2,IF(Q24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25" s="28">
-        <f>IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S25" s="28">
-        <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T25" s="28">
-        <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U25" s="35">
-        <f>IF(U24=1,25,IF(U24=2,18,IF(U24=3,15,IF(U24=4,12,IF(U24=5,10,IF(U24=6,8,IF(U24=7,6,IF(U24=8,4,IF(U24=9,2,IF(U24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V25" s="28">
-        <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W25" s="28">
-        <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X25" s="35">
-        <f>IF(X24=1,25,IF(X24=2,18,IF(X24=3,15,IF(X24=4,12,IF(X24=5,10,IF(X24=6,8,IF(X24=7,6,IF(X24=8,4,IF(X24=9,2,IF(X24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y25" s="28">
-        <f>IF(Y24=1,25,IF(Y24=2,18,IF(Y24=3,15,IF(Y24=4,12,IF(Y24=5,10,IF(Y24=6,8,IF(Y24=7,6,IF(Y24=8,4,IF(Y24=9,2,IF(Y24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z25" s="28">
-        <f>IF(Z24=1,25,IF(Z24=2,18,IF(Z24=3,15,IF(Z24=4,12,IF(Z24=5,10,IF(Z24=6,8,IF(Z24=7,6,IF(Z24=8,4,IF(Z24=9,2,IF(Z24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA25" s="28">
-        <f>IF(AA24=1,25,IF(AA24=2,18,IF(AA24=3,15,IF(AA24=4,12,IF(AA24=5,10,IF(AA24=6,8,IF(AA24=7,6,IF(AA24=8,4,IF(AA24=9,2,IF(AA24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB25" s="28">
-        <f>IF(AB24=1,25,IF(AB24=2,18,IF(AB24=3,15,IF(AB24=4,12,IF(AB24=5,10,IF(AB24=6,8,IF(AB24=7,6,IF(AB24=8,4,IF(AB24=9,2,IF(AB24=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC25" s="28"/>
@@ -3043,7 +3040,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -3085,95 +3082,95 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28">
-        <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
+        <f t="shared" ref="F27:AB27" si="12">IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J27" s="28">
-        <f>IF(J26=1,25,IF(J26=2,18,IF(J26=3,15,IF(J26=4,12,IF(J26=5,10,IF(J26=6,8,IF(J26=7,6,IF(J26=8,4,IF(J26=9,2,IF(J26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K27" s="28">
-        <f>IF(K26=1,25,IF(K26=2,18,IF(K26=3,15,IF(K26=4,12,IF(K26=5,10,IF(K26=6,8,IF(K26=7,6,IF(K26=8,4,IF(K26=9,2,IF(K26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27" s="28">
-        <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27" s="28">
-        <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N27" s="28">
-        <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="28">
-        <f>IF(O26=1,25,IF(O26=2,18,IF(O26=3,15,IF(O26=4,12,IF(O26=5,10,IF(O26=6,8,IF(O26=7,6,IF(O26=8,4,IF(O26=9,2,IF(O26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P27" s="28">
-        <f>IF(P26=1,25,IF(P26=2,18,IF(P26=3,15,IF(P26=4,12,IF(P26=5,10,IF(P26=6,8,IF(P26=7,6,IF(P26=8,4,IF(P26=9,2,IF(P26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27" s="28">
-        <f>IF(Q26=1,25,IF(Q26=2,18,IF(Q26=3,15,IF(Q26=4,12,IF(Q26=5,10,IF(Q26=6,8,IF(Q26=7,6,IF(Q26=8,4,IF(Q26=9,2,IF(Q26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f>IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S27" s="28">
-        <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27" s="28">
-        <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U27" s="35">
-        <f>IF(U26=1,25,IF(U26=2,18,IF(U26=3,15,IF(U26=4,12,IF(U26=5,10,IF(U26=6,8,IF(U26=7,6,IF(U26=8,4,IF(U26=9,2,IF(U26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V27" s="28">
-        <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W27" s="28">
-        <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X27" s="35">
-        <f>IF(X26=1,25,IF(X26=2,18,IF(X26=3,15,IF(X26=4,12,IF(X26=5,10,IF(X26=6,8,IF(X26=7,6,IF(X26=8,4,IF(X26=9,2,IF(X26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y27" s="28">
-        <f>IF(Y26=1,25,IF(Y26=2,18,IF(Y26=3,15,IF(Y26=4,12,IF(Y26=5,10,IF(Y26=6,8,IF(Y26=7,6,IF(Y26=8,4,IF(Y26=9,2,IF(Y26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z27" s="28">
-        <f>IF(Z26=1,25,IF(Z26=2,18,IF(Z26=3,15,IF(Z26=4,12,IF(Z26=5,10,IF(Z26=6,8,IF(Z26=7,6,IF(Z26=8,4,IF(Z26=9,2,IF(Z26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA27" s="28">
-        <f>IF(AA26=1,25,IF(AA26=2,18,IF(AA26=3,15,IF(AA26=4,12,IF(AA26=5,10,IF(AA26=6,8,IF(AA26=7,6,IF(AA26=8,4,IF(AA26=9,2,IF(AA26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB27" s="28">
-        <f>IF(AB26=1,25,IF(AB26=2,18,IF(AB26=3,15,IF(AB26=4,12,IF(AB26=5,10,IF(AB26=6,8,IF(AB26=7,6,IF(AB26=8,4,IF(AB26=9,2,IF(AB26=10,1,0))))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC27" s="28"/>
@@ -3240,95 +3237,95 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28">
-        <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
+        <f t="shared" ref="F29:AB29" si="13">IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="28">
-        <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H29" s="28">
-        <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I29" s="28">
-        <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K29" s="28">
-        <f>IF(K28=1,25,IF(K28=2,18,IF(K28=3,15,IF(K28=4,12,IF(K28=5,10,IF(K28=6,8,IF(K28=7,6,IF(K28=8,4,IF(K28=9,2,IF(K28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L29" s="28">
-        <f>IF(L28=1,25,IF(L28=2,18,IF(L28=3,15,IF(L28=4,12,IF(L28=5,10,IF(L28=6,8,IF(L28=7,6,IF(L28=8,4,IF(L28=9,2,IF(L28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M29" s="28">
-        <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29" s="28">
-        <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O29" s="28">
-        <f>IF(O28=1,25,IF(O28=2,18,IF(O28=3,15,IF(O28=4,12,IF(O28=5,10,IF(O28=6,8,IF(O28=7,6,IF(O28=8,4,IF(O28=9,2,IF(O28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P29" s="28">
-        <f>IF(P28=1,25,IF(P28=2,18,IF(P28=3,15,IF(P28=4,12,IF(P28=5,10,IF(P28=6,8,IF(P28=7,6,IF(P28=8,4,IF(P28=9,2,IF(P28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q29" s="28">
-        <f>IF(Q28=1,25,IF(Q28=2,18,IF(Q28=3,15,IF(Q28=4,12,IF(Q28=5,10,IF(Q28=6,8,IF(Q28=7,6,IF(Q28=8,4,IF(Q28=9,2,IF(Q28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R29" s="28">
-        <f>IF(R28=1,25,IF(R28=2,18,IF(R28=3,15,IF(R28=4,12,IF(R28=5,10,IF(R28=6,8,IF(R28=7,6,IF(R28=8,4,IF(R28=9,2,IF(R28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S29" s="28">
-        <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T29" s="28">
-        <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U29" s="35">
-        <f>IF(U28=1,25,IF(U28=2,18,IF(U28=3,15,IF(U28=4,12,IF(U28=5,10,IF(U28=6,8,IF(U28=7,6,IF(U28=8,4,IF(U28=9,2,IF(U28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V29" s="28">
-        <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W29" s="28">
-        <f>IF(W28=1,25,IF(W28=2,18,IF(W28=3,15,IF(W28=4,12,IF(W28=5,10,IF(W28=6,8,IF(W28=7,6,IF(W28=8,4,IF(W28=9,2,IF(W28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X29" s="35">
-        <f>IF(X28=1,25,IF(X28=2,18,IF(X28=3,15,IF(X28=4,12,IF(X28=5,10,IF(X28=6,8,IF(X28=7,6,IF(X28=8,4,IF(X28=9,2,IF(X28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y29" s="28">
-        <f>IF(Y28=1,25,IF(Y28=2,18,IF(Y28=3,15,IF(Y28=4,12,IF(Y28=5,10,IF(Y28=6,8,IF(Y28=7,6,IF(Y28=8,4,IF(Y28=9,2,IF(Y28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29" s="28">
-        <f>IF(Z28=1,25,IF(Z28=2,18,IF(Z28=3,15,IF(Z28=4,12,IF(Z28=5,10,IF(Z28=6,8,IF(Z28=7,6,IF(Z28=8,4,IF(Z28=9,2,IF(Z28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA29" s="28">
-        <f>IF(AA28=1,25,IF(AA28=2,18,IF(AA28=3,15,IF(AA28=4,12,IF(AA28=5,10,IF(AA28=6,8,IF(AA28=7,6,IF(AA28=8,4,IF(AA28=9,2,IF(AA28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB29" s="28">
-        <f>IF(AB28=1,25,IF(AB28=2,18,IF(AB28=3,15,IF(AB28=4,12,IF(AB28=5,10,IF(AB28=6,8,IF(AB28=7,6,IF(AB28=8,4,IF(AB28=9,2,IF(AB28=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC29" s="28"/>
@@ -3350,7 +3347,7 @@
         <v>78</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="9">
         <v>11</v>
@@ -3395,95 +3392,95 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28">
-        <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
+        <f t="shared" ref="F31:AB31" si="14">IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <f>IF(H30=1,25,IF(H30=2,18,IF(H30=3,15,IF(H30=4,12,IF(H30=5,10,IF(H30=6,8,IF(H30=7,6,IF(H30=8,4,IF(H30=9,2,IF(H30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I31" s="28">
-        <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K31" s="28">
-        <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L31" s="28">
-        <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M31" s="28">
-        <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="28">
-        <f>IF(N30=1,25,IF(N30=2,18,IF(N30=3,15,IF(N30=4,12,IF(N30=5,10,IF(N30=6,8,IF(N30=7,6,IF(N30=8,4,IF(N30=9,2,IF(N30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O31" s="28">
-        <f>IF(O30=1,25,IF(O30=2,18,IF(O30=3,15,IF(O30=4,12,IF(O30=5,10,IF(O30=6,8,IF(O30=7,6,IF(O30=8,4,IF(O30=9,2,IF(O30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P31" s="28">
-        <f>IF(P30=1,25,IF(P30=2,18,IF(P30=3,15,IF(P30=4,12,IF(P30=5,10,IF(P30=6,8,IF(P30=7,6,IF(P30=8,4,IF(P30=9,2,IF(P30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31" s="28">
-        <f>IF(Q30=1,25,IF(Q30=2,18,IF(Q30=3,15,IF(Q30=4,12,IF(Q30=5,10,IF(Q30=6,8,IF(Q30=7,6,IF(Q30=8,4,IF(Q30=9,2,IF(Q30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R31" s="28">
-        <f>IF(R30=1,25,IF(R30=2,18,IF(R30=3,15,IF(R30=4,12,IF(R30=5,10,IF(R30=6,8,IF(R30=7,6,IF(R30=8,4,IF(R30=9,2,IF(R30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S31" s="28">
-        <f>IF(S30=1,25,IF(S30=2,18,IF(S30=3,15,IF(S30=4,12,IF(S30=5,10,IF(S30=6,8,IF(S30=7,6,IF(S30=8,4,IF(S30=9,2,IF(S30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T31" s="28">
-        <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U31" s="35">
-        <f>IF(U30=1,25,IF(U30=2,18,IF(U30=3,15,IF(U30=4,12,IF(U30=5,10,IF(U30=6,8,IF(U30=7,6,IF(U30=8,4,IF(U30=9,2,IF(U30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V31" s="28">
-        <f>IF(V30=1,25,IF(V30=2,18,IF(V30=3,15,IF(V30=4,12,IF(V30=5,10,IF(V30=6,8,IF(V30=7,6,IF(V30=8,4,IF(V30=9,2,IF(V30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="28">
-        <f>IF(W30=1,25,IF(W30=2,18,IF(W30=3,15,IF(W30=4,12,IF(W30=5,10,IF(W30=6,8,IF(W30=7,6,IF(W30=8,4,IF(W30=9,2,IF(W30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X31" s="35">
-        <f>IF(X30=1,25,IF(X30=2,18,IF(X30=3,15,IF(X30=4,12,IF(X30=5,10,IF(X30=6,8,IF(X30=7,6,IF(X30=8,4,IF(X30=9,2,IF(X30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y31" s="28">
-        <f>IF(Y30=1,25,IF(Y30=2,18,IF(Y30=3,15,IF(Y30=4,12,IF(Y30=5,10,IF(Y30=6,8,IF(Y30=7,6,IF(Y30=8,4,IF(Y30=9,2,IF(Y30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z31" s="28">
-        <f>IF(Z30=1,25,IF(Z30=2,18,IF(Z30=3,15,IF(Z30=4,12,IF(Z30=5,10,IF(Z30=6,8,IF(Z30=7,6,IF(Z30=8,4,IF(Z30=9,2,IF(Z30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA31" s="28">
-        <f>IF(AA30=1,25,IF(AA30=2,18,IF(AA30=3,15,IF(AA30=4,12,IF(AA30=5,10,IF(AA30=6,8,IF(AA30=7,6,IF(AA30=8,4,IF(AA30=9,2,IF(AA30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB31" s="28">
-        <f>IF(AB30=1,25,IF(AB30=2,18,IF(AB30=3,15,IF(AB30=4,12,IF(AB30=5,10,IF(AB30=6,8,IF(AB30=7,6,IF(AB30=8,4,IF(AB30=9,2,IF(AB30=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC31" s="28"/>
@@ -3502,7 +3499,7 @@
         <v>88</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>41</v>
@@ -3550,95 +3547,95 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28">
-        <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
+        <f t="shared" ref="F33:AB33" si="15">IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="28">
-        <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I33" s="28">
-        <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J33" s="28">
-        <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K33" s="28">
-        <f>IF(K32=1,25,IF(K32=2,18,IF(K32=3,15,IF(K32=4,12,IF(K32=5,10,IF(K32=6,8,IF(K32=7,6,IF(K32=8,4,IF(K32=9,2,IF(K32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L33" s="28">
-        <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M33" s="28">
-        <f>IF(M32=1,25,IF(M32=2,18,IF(M32=3,15,IF(M32=4,12,IF(M32=5,10,IF(M32=6,8,IF(M32=7,6,IF(M32=8,4,IF(M32=9,2,IF(M32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33" s="28">
-        <f>IF(N32=1,25,IF(N32=2,18,IF(N32=3,15,IF(N32=4,12,IF(N32=5,10,IF(N32=6,8,IF(N32=7,6,IF(N32=8,4,IF(N32=9,2,IF(N32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O33" s="28">
-        <f>IF(O32=1,25,IF(O32=2,18,IF(O32=3,15,IF(O32=4,12,IF(O32=5,10,IF(O32=6,8,IF(O32=7,6,IF(O32=8,4,IF(O32=9,2,IF(O32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P33" s="28">
-        <f>IF(P32=1,25,IF(P32=2,18,IF(P32=3,15,IF(P32=4,12,IF(P32=5,10,IF(P32=6,8,IF(P32=7,6,IF(P32=8,4,IF(P32=9,2,IF(P32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q33" s="28">
-        <f>IF(Q32=1,25,IF(Q32=2,18,IF(Q32=3,15,IF(Q32=4,12,IF(Q32=5,10,IF(Q32=6,8,IF(Q32=7,6,IF(Q32=8,4,IF(Q32=9,2,IF(Q32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="28">
-        <f>IF(R32=1,25,IF(R32=2,18,IF(R32=3,15,IF(R32=4,12,IF(R32=5,10,IF(R32=6,8,IF(R32=7,6,IF(R32=8,4,IF(R32=9,2,IF(R32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S33" s="28">
-        <f>IF(S32=1,25,IF(S32=2,18,IF(S32=3,15,IF(S32=4,12,IF(S32=5,10,IF(S32=6,8,IF(S32=7,6,IF(S32=8,4,IF(S32=9,2,IF(S32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T33" s="28">
-        <f>IF(T32=1,25,IF(T32=2,18,IF(T32=3,15,IF(T32=4,12,IF(T32=5,10,IF(T32=6,8,IF(T32=7,6,IF(T32=8,4,IF(T32=9,2,IF(T32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U33" s="35">
-        <f>IF(U32=1,25,IF(U32=2,18,IF(U32=3,15,IF(U32=4,12,IF(U32=5,10,IF(U32=6,8,IF(U32=7,6,IF(U32=8,4,IF(U32=9,2,IF(U32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V33" s="28">
-        <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W33" s="28">
-        <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X33" s="35">
-        <f>IF(X32=1,25,IF(X32=2,18,IF(X32=3,15,IF(X32=4,12,IF(X32=5,10,IF(X32=6,8,IF(X32=7,6,IF(X32=8,4,IF(X32=9,2,IF(X32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y33" s="28">
-        <f>IF(Y32=1,25,IF(Y32=2,18,IF(Y32=3,15,IF(Y32=4,12,IF(Y32=5,10,IF(Y32=6,8,IF(Y32=7,6,IF(Y32=8,4,IF(Y32=9,2,IF(Y32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z33" s="28">
-        <f>IF(Z32=1,25,IF(Z32=2,18,IF(Z32=3,15,IF(Z32=4,12,IF(Z32=5,10,IF(Z32=6,8,IF(Z32=7,6,IF(Z32=8,4,IF(Z32=9,2,IF(Z32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA33" s="28">
-        <f>IF(AA32=1,25,IF(AA32=2,18,IF(AA32=3,15,IF(AA32=4,12,IF(AA32=5,10,IF(AA32=6,8,IF(AA32=7,6,IF(AA32=8,4,IF(AA32=9,2,IF(AA32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB33" s="28">
-        <f>IF(AB32=1,25,IF(AB32=2,18,IF(AB32=3,15,IF(AB32=4,12,IF(AB32=5,10,IF(AB32=6,8,IF(AB32=7,6,IF(AB32=8,4,IF(AB32=9,2,IF(AB32=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC33" s="28"/>
@@ -3705,95 +3702,95 @@
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28">
-        <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
+        <f t="shared" ref="F35:AB35" si="16">IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="28">
-        <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I35" s="28">
-        <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J35" s="28">
-        <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K35" s="28">
-        <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L35" s="28">
-        <f>IF(L34=1,25,IF(L34=2,18,IF(L34=3,15,IF(L34=4,12,IF(L34=5,10,IF(L34=6,8,IF(L34=7,6,IF(L34=8,4,IF(L34=9,2,IF(L34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M35" s="28">
-        <f>IF(M34=1,25,IF(M34=2,18,IF(M34=3,15,IF(M34=4,12,IF(M34=5,10,IF(M34=6,8,IF(M34=7,6,IF(M34=8,4,IF(M34=9,2,IF(M34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N35" s="28">
-        <f>IF(N34=1,25,IF(N34=2,18,IF(N34=3,15,IF(N34=4,12,IF(N34=5,10,IF(N34=6,8,IF(N34=7,6,IF(N34=8,4,IF(N34=9,2,IF(N34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="28">
-        <f>IF(O34=1,25,IF(O34=2,18,IF(O34=3,15,IF(O34=4,12,IF(O34=5,10,IF(O34=6,8,IF(O34=7,6,IF(O34=8,4,IF(O34=9,2,IF(O34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P35" s="28">
-        <f>IF(P34=1,25,IF(P34=2,18,IF(P34=3,15,IF(P34=4,12,IF(P34=5,10,IF(P34=6,8,IF(P34=7,6,IF(P34=8,4,IF(P34=9,2,IF(P34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q35" s="28">
-        <f>IF(Q34=1,25,IF(Q34=2,18,IF(Q34=3,15,IF(Q34=4,12,IF(Q34=5,10,IF(Q34=6,8,IF(Q34=7,6,IF(Q34=8,4,IF(Q34=9,2,IF(Q34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R35" s="28">
-        <f>IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" s="28">
-        <f>IF(S34=1,25,IF(S34=2,18,IF(S34=3,15,IF(S34=4,12,IF(S34=5,10,IF(S34=6,8,IF(S34=7,6,IF(S34=8,4,IF(S34=9,2,IF(S34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f>IF(T34=1,25,IF(T34=2,18,IF(T34=3,15,IF(T34=4,12,IF(T34=5,10,IF(T34=6,8,IF(T34=7,6,IF(T34=8,4,IF(T34=9,2,IF(T34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U35" s="35">
-        <f>IF(U34=1,25,IF(U34=2,18,IF(U34=3,15,IF(U34=4,12,IF(U34=5,10,IF(U34=6,8,IF(U34=7,6,IF(U34=8,4,IF(U34=9,2,IF(U34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V35" s="28">
-        <f>IF(V34=1,25,IF(V34=2,18,IF(V34=3,15,IF(V34=4,12,IF(V34=5,10,IF(V34=6,8,IF(V34=7,6,IF(V34=8,4,IF(V34=9,2,IF(V34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W35" s="28">
-        <f>IF(W34=1,25,IF(W34=2,18,IF(W34=3,15,IF(W34=4,12,IF(W34=5,10,IF(W34=6,8,IF(W34=7,6,IF(W34=8,4,IF(W34=9,2,IF(W34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X35" s="35">
-        <f>IF(X34=1,25,IF(X34=2,18,IF(X34=3,15,IF(X34=4,12,IF(X34=5,10,IF(X34=6,8,IF(X34=7,6,IF(X34=8,4,IF(X34=9,2,IF(X34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y35" s="28">
-        <f>IF(Y34=1,25,IF(Y34=2,18,IF(Y34=3,15,IF(Y34=4,12,IF(Y34=5,10,IF(Y34=6,8,IF(Y34=7,6,IF(Y34=8,4,IF(Y34=9,2,IF(Y34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z35" s="28">
-        <f>IF(Z34=1,25,IF(Z34=2,18,IF(Z34=3,15,IF(Z34=4,12,IF(Z34=5,10,IF(Z34=6,8,IF(Z34=7,6,IF(Z34=8,4,IF(Z34=9,2,IF(Z34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA35" s="28">
-        <f>IF(AA34=1,25,IF(AA34=2,18,IF(AA34=3,15,IF(AA34=4,12,IF(AA34=5,10,IF(AA34=6,8,IF(AA34=7,6,IF(AA34=8,4,IF(AA34=9,2,IF(AA34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB35" s="28">
-        <f>IF(AB34=1,25,IF(AB34=2,18,IF(AB34=3,15,IF(AB34=4,12,IF(AB34=5,10,IF(AB34=6,8,IF(AB34=7,6,IF(AB34=8,4,IF(AB34=9,2,IF(AB34=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC35" s="28"/>
@@ -3818,7 +3815,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3860,95 +3857,95 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28">
-        <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
+        <f t="shared" ref="F37:AB37" si="17">IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="28">
-        <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I37" s="28">
-        <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37" s="28">
-        <f>IF(J36=1,25,IF(J36=2,18,IF(J36=3,15,IF(J36=4,12,IF(J36=5,10,IF(J36=6,8,IF(J36=7,6,IF(J36=8,4,IF(J36=9,2,IF(J36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K37" s="28">
-        <f>IF(K36=1,25,IF(K36=2,18,IF(K36=3,15,IF(K36=4,12,IF(K36=5,10,IF(K36=6,8,IF(K36=7,6,IF(K36=8,4,IF(K36=9,2,IF(K36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L37" s="28">
-        <f>IF(L36=1,25,IF(L36=2,18,IF(L36=3,15,IF(L36=4,12,IF(L36=5,10,IF(L36=6,8,IF(L36=7,6,IF(L36=8,4,IF(L36=9,2,IF(L36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M37" s="28">
-        <f>IF(M36=1,25,IF(M36=2,18,IF(M36=3,15,IF(M36=4,12,IF(M36=5,10,IF(M36=6,8,IF(M36=7,6,IF(M36=8,4,IF(M36=9,2,IF(M36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N37" s="28">
-        <f>IF(N36=1,25,IF(N36=2,18,IF(N36=3,15,IF(N36=4,12,IF(N36=5,10,IF(N36=6,8,IF(N36=7,6,IF(N36=8,4,IF(N36=9,2,IF(N36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O37" s="28">
-        <f>IF(O36=1,25,IF(O36=2,18,IF(O36=3,15,IF(O36=4,12,IF(O36=5,10,IF(O36=6,8,IF(O36=7,6,IF(O36=8,4,IF(O36=9,2,IF(O36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P37" s="28">
-        <f>IF(P36=1,25,IF(P36=2,18,IF(P36=3,15,IF(P36=4,12,IF(P36=5,10,IF(P36=6,8,IF(P36=7,6,IF(P36=8,4,IF(P36=9,2,IF(P36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q37" s="28">
-        <f>IF(Q36=1,25,IF(Q36=2,18,IF(Q36=3,15,IF(Q36=4,12,IF(Q36=5,10,IF(Q36=6,8,IF(Q36=7,6,IF(Q36=8,4,IF(Q36=9,2,IF(Q36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R37" s="28">
-        <f>IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S37" s="28">
-        <f>IF(S36=1,25,IF(S36=2,18,IF(S36=3,15,IF(S36=4,12,IF(S36=5,10,IF(S36=6,8,IF(S36=7,6,IF(S36=8,4,IF(S36=9,2,IF(S36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T37" s="28">
-        <f>IF(T36=1,25,IF(T36=2,18,IF(T36=3,15,IF(T36=4,12,IF(T36=5,10,IF(T36=6,8,IF(T36=7,6,IF(T36=8,4,IF(T36=9,2,IF(T36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U37" s="35">
-        <f>IF(U36=1,25,IF(U36=2,18,IF(U36=3,15,IF(U36=4,12,IF(U36=5,10,IF(U36=6,8,IF(U36=7,6,IF(U36=8,4,IF(U36=9,2,IF(U36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V37" s="28">
-        <f>IF(V36=1,25,IF(V36=2,18,IF(V36=3,15,IF(V36=4,12,IF(V36=5,10,IF(V36=6,8,IF(V36=7,6,IF(V36=8,4,IF(V36=9,2,IF(V36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W37" s="28">
-        <f>IF(W36=1,25,IF(W36=2,18,IF(W36=3,15,IF(W36=4,12,IF(W36=5,10,IF(W36=6,8,IF(W36=7,6,IF(W36=8,4,IF(W36=9,2,IF(W36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X37" s="35">
-        <f>IF(X36=1,25,IF(X36=2,18,IF(X36=3,15,IF(X36=4,12,IF(X36=5,10,IF(X36=6,8,IF(X36=7,6,IF(X36=8,4,IF(X36=9,2,IF(X36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y37" s="28">
-        <f>IF(Y36=1,25,IF(Y36=2,18,IF(Y36=3,15,IF(Y36=4,12,IF(Y36=5,10,IF(Y36=6,8,IF(Y36=7,6,IF(Y36=8,4,IF(Y36=9,2,IF(Y36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z37" s="28">
-        <f>IF(Z36=1,25,IF(Z36=2,18,IF(Z36=3,15,IF(Z36=4,12,IF(Z36=5,10,IF(Z36=6,8,IF(Z36=7,6,IF(Z36=8,4,IF(Z36=9,2,IF(Z36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA37" s="28">
-        <f>IF(AA36=1,25,IF(AA36=2,18,IF(AA36=3,15,IF(AA36=4,12,IF(AA36=5,10,IF(AA36=6,8,IF(AA36=7,6,IF(AA36=8,4,IF(AA36=9,2,IF(AA36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB37" s="28">
-        <f>IF(AB36=1,25,IF(AB36=2,18,IF(AB36=3,15,IF(AB36=4,12,IF(AB36=5,10,IF(AB36=6,8,IF(AB36=7,6,IF(AB36=8,4,IF(AB36=9,2,IF(AB36=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC37" s="28"/>
@@ -3970,7 +3967,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="9">
         <v>14</v>
@@ -4015,95 +4012,95 @@
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28">
-        <f>IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
+        <f t="shared" ref="F39:AB39" si="18">IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="28">
-        <f>IF(G38=1,25,IF(G38=2,18,IF(G38=3,15,IF(G38=4,12,IF(G38=5,10,IF(G38=6,8,IF(G38=7,6,IF(G38=8,4,IF(G38=9,2,IF(G38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <f>IF(H38=1,25,IF(H38=2,18,IF(H38=3,15,IF(H38=4,12,IF(H38=5,10,IF(H38=6,8,IF(H38=7,6,IF(H38=8,4,IF(H38=9,2,IF(H38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I39" s="28">
-        <f>IF(I38=1,25,IF(I38=2,18,IF(I38=3,15,IF(I38=4,12,IF(I38=5,10,IF(I38=6,8,IF(I38=7,6,IF(I38=8,4,IF(I38=9,2,IF(I38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J39" s="28">
-        <f>IF(J38=1,25,IF(J38=2,18,IF(J38=3,15,IF(J38=4,12,IF(J38=5,10,IF(J38=6,8,IF(J38=7,6,IF(J38=8,4,IF(J38=9,2,IF(J38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39" s="28">
-        <f>IF(K38=1,25,IF(K38=2,18,IF(K38=3,15,IF(K38=4,12,IF(K38=5,10,IF(K38=6,8,IF(K38=7,6,IF(K38=8,4,IF(K38=9,2,IF(K38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L39" s="28">
-        <f>IF(L38=1,25,IF(L38=2,18,IF(L38=3,15,IF(L38=4,12,IF(L38=5,10,IF(L38=6,8,IF(L38=7,6,IF(L38=8,4,IF(L38=9,2,IF(L38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M39" s="28">
-        <f>IF(M38=1,25,IF(M38=2,18,IF(M38=3,15,IF(M38=4,12,IF(M38=5,10,IF(M38=6,8,IF(M38=7,6,IF(M38=8,4,IF(M38=9,2,IF(M38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N39" s="28">
-        <f>IF(N38=1,25,IF(N38=2,18,IF(N38=3,15,IF(N38=4,12,IF(N38=5,10,IF(N38=6,8,IF(N38=7,6,IF(N38=8,4,IF(N38=9,2,IF(N38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O39" s="28">
-        <f>IF(O38=1,25,IF(O38=2,18,IF(O38=3,15,IF(O38=4,12,IF(O38=5,10,IF(O38=6,8,IF(O38=7,6,IF(O38=8,4,IF(O38=9,2,IF(O38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P39" s="28">
-        <f>IF(P38=1,25,IF(P38=2,18,IF(P38=3,15,IF(P38=4,12,IF(P38=5,10,IF(P38=6,8,IF(P38=7,6,IF(P38=8,4,IF(P38=9,2,IF(P38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q39" s="28">
-        <f>IF(Q38=1,25,IF(Q38=2,18,IF(Q38=3,15,IF(Q38=4,12,IF(Q38=5,10,IF(Q38=6,8,IF(Q38=7,6,IF(Q38=8,4,IF(Q38=9,2,IF(Q38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R39" s="28">
-        <f>IF(R38=1,25,IF(R38=2,18,IF(R38=3,15,IF(R38=4,12,IF(R38=5,10,IF(R38=6,8,IF(R38=7,6,IF(R38=8,4,IF(R38=9,2,IF(R38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S39" s="28">
-        <f>IF(S38=1,25,IF(S38=2,18,IF(S38=3,15,IF(S38=4,12,IF(S38=5,10,IF(S38=6,8,IF(S38=7,6,IF(S38=8,4,IF(S38=9,2,IF(S38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T39" s="28">
-        <f>IF(T38=1,25,IF(T38=2,18,IF(T38=3,15,IF(T38=4,12,IF(T38=5,10,IF(T38=6,8,IF(T38=7,6,IF(T38=8,4,IF(T38=9,2,IF(T38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U39" s="35">
-        <f>IF(U38=1,25,IF(U38=2,18,IF(U38=3,15,IF(U38=4,12,IF(U38=5,10,IF(U38=6,8,IF(U38=7,6,IF(U38=8,4,IF(U38=9,2,IF(U38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V39" s="28">
-        <f>IF(V38=1,25,IF(V38=2,18,IF(V38=3,15,IF(V38=4,12,IF(V38=5,10,IF(V38=6,8,IF(V38=7,6,IF(V38=8,4,IF(V38=9,2,IF(V38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W39" s="28">
-        <f>IF(W38=1,25,IF(W38=2,18,IF(W38=3,15,IF(W38=4,12,IF(W38=5,10,IF(W38=6,8,IF(W38=7,6,IF(W38=8,4,IF(W38=9,2,IF(W38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X39" s="35">
-        <f>IF(X38=1,25,IF(X38=2,18,IF(X38=3,15,IF(X38=4,12,IF(X38=5,10,IF(X38=6,8,IF(X38=7,6,IF(X38=8,4,IF(X38=9,2,IF(X38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y39" s="28">
-        <f>IF(Y38=1,25,IF(Y38=2,18,IF(Y38=3,15,IF(Y38=4,12,IF(Y38=5,10,IF(Y38=6,8,IF(Y38=7,6,IF(Y38=8,4,IF(Y38=9,2,IF(Y38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z39" s="28">
-        <f>IF(Z38=1,25,IF(Z38=2,18,IF(Z38=3,15,IF(Z38=4,12,IF(Z38=5,10,IF(Z38=6,8,IF(Z38=7,6,IF(Z38=8,4,IF(Z38=9,2,IF(Z38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA39" s="28">
-        <f>IF(AA38=1,25,IF(AA38=2,18,IF(AA38=3,15,IF(AA38=4,12,IF(AA38=5,10,IF(AA38=6,8,IF(AA38=7,6,IF(AA38=8,4,IF(AA38=9,2,IF(AA38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="28">
-        <f>IF(AB38=1,25,IF(AB38=2,18,IF(AB38=3,15,IF(AB38=4,12,IF(AB38=5,10,IF(AB38=6,8,IF(AB38=7,6,IF(AB38=8,4,IF(AB38=9,2,IF(AB38=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC39" s="28"/>
@@ -4128,7 +4125,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -4170,95 +4167,95 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28">
-        <f t="shared" ref="F41:AB41" si="0">IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
+        <f t="shared" ref="F41:AB41" si="19">IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA41" s="28">
-        <f t="shared" ref="AA41" si="1">IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
+        <f t="shared" ref="AA41" si="20">IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC41" s="28"/>
@@ -4334,7 +4331,7 @@
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -4463,7 +4460,7 @@
         <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -4502,95 +4499,95 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
+        <f t="shared" ref="F3:AB3" si="0">IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="G3" s="28">
-        <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="28">
-        <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="28">
-        <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="28">
-        <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="28">
-        <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="28">
-        <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="28">
-        <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="28">
-        <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="28">
-        <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="28">
-        <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="28">
-        <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="28">
-        <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="28">
-        <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="28">
-        <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="28">
-        <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="35">
-        <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="35">
-        <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="35">
-        <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="28">
-        <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="35">
-        <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="35">
-        <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="28">
-        <f>IF(AB2=1,10,IF(AB2=2,8,IF(AB2=3,6,IF(AB2=4,5,IF(AB2=5,4,IF(AB2=6,3,IF(AB2=7,2,IF(AB2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="28"/>
@@ -4609,7 +4606,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -4648,95 +4645,95 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
+        <f t="shared" ref="F5:AB5" si="1">IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="G5" s="28">
-        <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="28">
-        <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="28">
-        <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="28">
-        <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="28">
-        <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="28">
-        <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="28">
-        <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="28">
-        <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="28">
-        <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="28">
-        <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="28">
-        <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="28">
-        <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="28">
-        <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="28">
-        <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="35">
-        <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" s="35">
-        <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" s="35">
-        <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5" s="28">
-        <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5" s="35">
-        <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="35">
-        <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB5" s="28">
-        <f>IF(AB4=1,10,IF(AB4=2,8,IF(AB4=3,6,IF(AB4=4,5,IF(AB4=5,4,IF(AB4=6,3,IF(AB4=7,2,IF(AB4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC5" s="28"/>
@@ -4752,7 +4749,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
@@ -4794,95 +4791,95 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
+        <f t="shared" ref="F7:AB7" si="2">IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="G7" s="28">
-        <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="28">
-        <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="28">
-        <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="28">
-        <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="28">
-        <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f>IF(Q6=1,10,IF(Q6=2,8,IF(Q6=3,6,IF(Q6=4,5,IF(Q6=5,4,IF(Q6=6,3,IF(Q6=7,2,IF(Q6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="28">
-        <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="28">
-        <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="35">
-        <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="35">
-        <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="35">
-        <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="28">
-        <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="35">
-        <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="35">
-        <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="28">
-        <f>IF(AB6=1,10,IF(AB6=2,8,IF(AB6=3,6,IF(AB6=4,5,IF(AB6=5,4,IF(AB6=6,3,IF(AB6=7,2,IF(AB6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC7" s="28"/>
@@ -4940,95 +4937,95 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
+        <f t="shared" ref="F9:AB9" si="3">IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="G9" s="28">
-        <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="28">
-        <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="28">
-        <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9" s="28">
-        <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="28">
-        <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="28">
-        <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="28">
-        <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P9" s="28">
-        <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="28">
-        <f>IF(Q8=1,10,IF(Q8=2,8,IF(Q8=3,6,IF(Q8=4,5,IF(Q8=5,4,IF(Q8=6,3,IF(Q8=7,2,IF(Q8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="28">
-        <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9" s="28">
-        <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="28">
-        <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="28">
-        <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9" s="35">
-        <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="35">
-        <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="35">
-        <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="28">
-        <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="35">
-        <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="35">
-        <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB9" s="28">
-        <f>IF(AB8=1,10,IF(AB8=2,8,IF(AB8=3,6,IF(AB8=4,5,IF(AB8=5,4,IF(AB8=6,3,IF(AB8=7,2,IF(AB8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC9" s="28"/>
@@ -5086,95 +5083,95 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28">
-        <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
+        <f t="shared" ref="F11:AB11" si="4">IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="G11" s="28">
-        <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="28">
-        <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="28">
-        <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L11" s="28">
-        <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11" s="28">
-        <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="28">
-        <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" s="28">
-        <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="28">
-        <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="28">
-        <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="28">
-        <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="28">
-        <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U11" s="28">
-        <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="35">
-        <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="35">
-        <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X11" s="35">
-        <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y11" s="28">
-        <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z11" s="35">
-        <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="35">
-        <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB11" s="28">
-        <f>IF(AB10=1,10,IF(AB10=2,8,IF(AB10=3,6,IF(AB10=4,5,IF(AB10=5,4,IF(AB10=6,3,IF(AB10=7,2,IF(AB10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC11" s="28"/>
@@ -5190,7 +5187,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
@@ -5232,95 +5229,95 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28">
-        <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
+        <f t="shared" ref="F13:AB13" si="5">IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="G13" s="28">
-        <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H13" s="28">
-        <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13" s="28">
-        <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="28">
-        <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L13" s="28">
-        <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13" s="28">
-        <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N13" s="28">
-        <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="28">
-        <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P13" s="28">
-        <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="28">
-        <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="28">
-        <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="28">
-        <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="28">
-        <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="28">
-        <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="35">
-        <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W13" s="35">
-        <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="35">
-        <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="28">
-        <f>IF(Y12=1,10,IF(Y12=2,8,IF(Y12=3,6,IF(Y12=4,5,IF(Y12=5,4,IF(Y12=6,3,IF(Y12=7,2,IF(Y12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="35">
-        <f>IF(Z12=1,10,IF(Z12=2,8,IF(Z12=3,6,IF(Z12=4,5,IF(Z12=5,4,IF(Z12=6,3,IF(Z12=7,2,IF(Z12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="35">
-        <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB13" s="28">
-        <f>IF(AB12=1,10,IF(AB12=2,8,IF(AB12=3,6,IF(AB12=4,5,IF(AB12=5,4,IF(AB12=6,3,IF(AB12=7,2,IF(AB12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC13" s="28"/>
@@ -5378,95 +5375,95 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28">
-        <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
+        <f t="shared" ref="F15:AB15" si="6">IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="G15" s="28">
-        <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H15" s="28">
-        <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="28">
-        <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J15" s="28">
-        <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K15" s="28">
-        <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L15" s="28">
-        <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M15" s="28">
-        <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N15" s="28">
-        <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15" s="28">
-        <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="28">
-        <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15" s="28">
-        <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="28">
-        <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="28">
-        <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="28">
-        <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="28">
-        <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="35">
-        <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15" s="35">
-        <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X15" s="35">
-        <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y15" s="28">
-        <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z15" s="35">
-        <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA15" s="35">
-        <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB15" s="28">
-        <f>IF(AB14=1,10,IF(AB14=2,8,IF(AB14=3,6,IF(AB14=4,5,IF(AB14=5,4,IF(AB14=6,3,IF(AB14=7,2,IF(AB14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC15" s="28"/>
@@ -5482,7 +5479,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>26</v>
@@ -5524,95 +5521,95 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28">
-        <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
+        <f t="shared" ref="F17:AB17" si="7">IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="G17" s="28">
-        <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="28">
-        <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J17" s="28">
-        <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K17" s="28">
-        <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L17" s="28">
-        <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M17" s="28">
-        <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N17" s="28">
-        <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O17" s="28">
-        <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="28">
-        <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="28">
-        <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R17" s="28">
-        <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17" s="28">
-        <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="28">
-        <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="28">
-        <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17" s="35">
-        <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="35">
-        <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="35">
-        <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17" s="28">
-        <f>IF(Y16=1,10,IF(Y16=2,8,IF(Y16=3,6,IF(Y16=4,5,IF(Y16=5,4,IF(Y16=6,3,IF(Y16=7,2,IF(Y16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z17" s="35">
-        <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA17" s="35">
-        <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB17" s="28">
-        <f>IF(AB16=1,10,IF(AB16=2,8,IF(AB16=3,6,IF(AB16=4,5,IF(AB16=5,4,IF(AB16=6,3,IF(AB16=7,2,IF(AB16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC17" s="28"/>
@@ -5670,95 +5667,95 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28">
-        <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
+        <f t="shared" ref="F19:AB19" si="8">IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="28">
-        <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="28">
-        <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J19" s="28">
-        <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="28">
-        <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19" s="28">
-        <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M19" s="28">
-        <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N19" s="28">
-        <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="28">
-        <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19" s="28">
-        <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="28">
-        <f>IF(Q18=1,10,IF(Q18=2,8,IF(Q18=3,6,IF(Q18=4,5,IF(Q18=5,4,IF(Q18=6,3,IF(Q18=7,2,IF(Q18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="28">
-        <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S19" s="28">
-        <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T19" s="28">
-        <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U19" s="28">
-        <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V19" s="35">
-        <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W19" s="35">
-        <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19" s="35">
-        <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19" s="28">
-        <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z19" s="35">
-        <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA19" s="35">
-        <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB19" s="28">
-        <f>IF(AB18=1,10,IF(AB18=2,8,IF(AB18=3,6,IF(AB18=4,5,IF(AB18=5,4,IF(AB18=6,3,IF(AB18=7,2,IF(AB18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC19" s="28"/>
@@ -5816,95 +5813,95 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28">
-        <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
+        <f t="shared" ref="F21:AB21" si="9">IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="28">
-        <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I21" s="28">
-        <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J21" s="28">
-        <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K21" s="28">
-        <f>IF(K20=1,10,IF(K20=2,8,IF(K20=3,6,IF(K20=4,5,IF(K20=5,4,IF(K20=6,3,IF(K20=7,2,IF(K20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L21" s="28">
-        <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M21" s="28">
-        <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N21" s="28">
-        <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O21" s="28">
-        <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="28">
-        <f>IF(P20=1,10,IF(P20=2,8,IF(P20=3,6,IF(P20=4,5,IF(P20=5,4,IF(P20=6,3,IF(P20=7,2,IF(P20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="28">
-        <f>IF(Q20=1,10,IF(Q20=2,8,IF(Q20=3,6,IF(Q20=4,5,IF(Q20=5,4,IF(Q20=6,3,IF(Q20=7,2,IF(Q20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R21" s="28">
-        <f>IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S21" s="28">
-        <f>IF(S20=1,10,IF(S20=2,8,IF(S20=3,6,IF(S20=4,5,IF(S20=5,4,IF(S20=6,3,IF(S20=7,2,IF(S20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T21" s="28">
-        <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U21" s="28">
-        <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V21" s="35">
-        <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="35">
-        <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X21" s="35">
-        <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21" s="28">
-        <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z21" s="35">
-        <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA21" s="35">
-        <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB21" s="28">
-        <f>IF(AB20=1,10,IF(AB20=2,8,IF(AB20=3,6,IF(AB20=4,5,IF(AB20=5,4,IF(AB20=6,3,IF(AB20=7,2,IF(AB20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC21" s="28"/>
@@ -5962,95 +5959,95 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28">
-        <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
+        <f t="shared" ref="F23:AB23" si="10">IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="28">
-        <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H23" s="28">
-        <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I23" s="28">
-        <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="28">
-        <f>IF(K22=1,10,IF(K22=2,8,IF(K22=3,6,IF(K22=4,5,IF(K22=5,4,IF(K22=6,3,IF(K22=7,2,IF(K22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="28">
-        <f>IF(L22=1,10,IF(L22=2,8,IF(L22=3,6,IF(L22=4,5,IF(L22=5,4,IF(L22=6,3,IF(L22=7,2,IF(L22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="28">
-        <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N23" s="28">
-        <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O23" s="28">
-        <f>IF(O22=1,10,IF(O22=2,8,IF(O22=3,6,IF(O22=4,5,IF(O22=5,4,IF(O22=6,3,IF(O22=7,2,IF(O22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P23" s="28">
-        <f>IF(P22=1,10,IF(P22=2,8,IF(P22=3,6,IF(P22=4,5,IF(P22=5,4,IF(P22=6,3,IF(P22=7,2,IF(P22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <f>IF(Q22=1,10,IF(Q22=2,8,IF(Q22=3,6,IF(Q22=4,5,IF(Q22=5,4,IF(Q22=6,3,IF(Q22=7,2,IF(Q22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="28">
-        <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="28">
-        <f>IF(S22=1,10,IF(S22=2,8,IF(S22=3,6,IF(S22=4,5,IF(S22=5,4,IF(S22=6,3,IF(S22=7,2,IF(S22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="28">
-        <f>IF(T22=1,10,IF(T22=2,8,IF(T22=3,6,IF(T22=4,5,IF(T22=5,4,IF(T22=6,3,IF(T22=7,2,IF(T22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="28">
-        <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V23" s="35">
-        <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W23" s="35">
-        <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X23" s="35">
-        <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y23" s="28">
-        <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z23" s="35">
-        <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA23" s="35">
-        <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB23" s="28">
-        <f>IF(AB22=1,10,IF(AB22=2,8,IF(AB22=3,6,IF(AB22=4,5,IF(AB22=5,4,IF(AB22=6,3,IF(AB22=7,2,IF(AB22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC23" s="28"/>
@@ -6072,7 +6069,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -6108,95 +6105,95 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28">
-        <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
+        <f t="shared" ref="F25:AB25" si="11">IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I25" s="28">
-        <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f>IF(K24=1,10,IF(K24=2,8,IF(K24=3,6,IF(K24=4,5,IF(K24=5,4,IF(K24=6,3,IF(K24=7,2,IF(K24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L25" s="28">
-        <f>IF(L24=1,10,IF(L24=2,8,IF(L24=3,6,IF(L24=4,5,IF(L24=5,4,IF(L24=6,3,IF(L24=7,2,IF(L24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M25" s="28">
-        <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="28">
-        <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O25" s="28">
-        <f>IF(O24=1,10,IF(O24=2,8,IF(O24=3,6,IF(O24=4,5,IF(O24=5,4,IF(O24=6,3,IF(O24=7,2,IF(O24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q25" s="28">
-        <f>IF(Q24=1,10,IF(Q24=2,8,IF(Q24=3,6,IF(Q24=4,5,IF(Q24=5,4,IF(Q24=6,3,IF(Q24=7,2,IF(Q24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25" s="28">
-        <f>IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S25" s="28">
-        <f>IF(S24=1,10,IF(S24=2,8,IF(S24=3,6,IF(S24=4,5,IF(S24=5,4,IF(S24=6,3,IF(S24=7,2,IF(S24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T25" s="28">
-        <f>IF(T24=1,10,IF(T24=2,8,IF(T24=3,6,IF(T24=4,5,IF(T24=5,4,IF(T24=6,3,IF(T24=7,2,IF(T24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U25" s="28">
-        <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V25" s="35">
-        <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W25" s="35">
-        <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X25" s="35">
-        <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y25" s="28">
-        <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z25" s="35">
-        <f>IF(Z24=1,10,IF(Z24=2,8,IF(Z24=3,6,IF(Z24=4,5,IF(Z24=5,4,IF(Z24=6,3,IF(Z24=7,2,IF(Z24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA25" s="35">
-        <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB25" s="28">
-        <f>IF(AB24=1,10,IF(AB24=2,8,IF(AB24=3,6,IF(AB24=4,5,IF(AB24=5,4,IF(AB24=6,3,IF(AB24=7,2,IF(AB24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC25" s="28"/>
@@ -6254,95 +6251,95 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28">
-        <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
+        <f t="shared" ref="F27:AB27" si="12">IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J27" s="28">
-        <f>IF(J26=1,10,IF(J26=2,8,IF(J26=3,6,IF(J26=4,5,IF(J26=5,4,IF(J26=6,3,IF(J26=7,2,IF(J26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K27" s="28">
-        <f>IF(K26=1,10,IF(K26=2,8,IF(K26=3,6,IF(K26=4,5,IF(K26=5,4,IF(K26=6,3,IF(K26=7,2,IF(K26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27" s="28">
-        <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27" s="28">
-        <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N27" s="28">
-        <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="28">
-        <f>IF(O26=1,10,IF(O26=2,8,IF(O26=3,6,IF(O26=4,5,IF(O26=5,4,IF(O26=6,3,IF(O26=7,2,IF(O26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P27" s="28">
-        <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27" s="28">
-        <f>IF(Q26=1,10,IF(Q26=2,8,IF(Q26=3,6,IF(Q26=4,5,IF(Q26=5,4,IF(Q26=6,3,IF(Q26=7,2,IF(Q26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f>IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S27" s="28">
-        <f>IF(S26=1,10,IF(S26=2,8,IF(S26=3,6,IF(S26=4,5,IF(S26=5,4,IF(S26=6,3,IF(S26=7,2,IF(S26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27" s="28">
-        <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U27" s="28">
-        <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V27" s="35">
-        <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W27" s="35">
-        <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X27" s="35">
-        <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y27" s="28">
-        <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z27" s="35">
-        <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA27" s="35">
-        <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB27" s="28">
-        <f>IF(AB26=1,10,IF(AB26=2,8,IF(AB26=3,6,IF(AB26=4,5,IF(AB26=5,4,IF(AB26=6,3,IF(AB26=7,2,IF(AB26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC27" s="28"/>
@@ -6361,7 +6358,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="9">
         <v>11</v>
@@ -6400,95 +6397,95 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28">
-        <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
+        <f t="shared" ref="F29:AB29" si="13">IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="28">
-        <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H29" s="28">
-        <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I29" s="28">
-        <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K29" s="28">
-        <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L29" s="28">
-        <f>IF(L28=1,10,IF(L28=2,8,IF(L28=3,6,IF(L28=4,5,IF(L28=5,4,IF(L28=6,3,IF(L28=7,2,IF(L28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M29" s="28">
-        <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29" s="28">
-        <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O29" s="28">
-        <f>IF(O28=1,10,IF(O28=2,8,IF(O28=3,6,IF(O28=4,5,IF(O28=5,4,IF(O28=6,3,IF(O28=7,2,IF(O28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P29" s="28">
-        <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q29" s="28">
-        <f>IF(Q28=1,10,IF(Q28=2,8,IF(Q28=3,6,IF(Q28=4,5,IF(Q28=5,4,IF(Q28=6,3,IF(Q28=7,2,IF(Q28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R29" s="28">
-        <f>IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S29" s="28">
-        <f>IF(S28=1,10,IF(S28=2,8,IF(S28=3,6,IF(S28=4,5,IF(S28=5,4,IF(S28=6,3,IF(S28=7,2,IF(S28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T29" s="28">
-        <f>IF(T28=1,10,IF(T28=2,8,IF(T28=3,6,IF(T28=4,5,IF(T28=5,4,IF(T28=6,3,IF(T28=7,2,IF(T28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U29" s="28">
-        <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V29" s="35">
-        <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W29" s="35">
-        <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X29" s="35">
-        <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y29" s="28">
-        <f>IF(Y28=1,10,IF(Y28=2,8,IF(Y28=3,6,IF(Y28=4,5,IF(Y28=5,4,IF(Y28=6,3,IF(Y28=7,2,IF(Y28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29" s="35">
-        <f>IF(Z28=1,10,IF(Z28=2,8,IF(Z28=3,6,IF(Z28=4,5,IF(Z28=5,4,IF(Z28=6,3,IF(Z28=7,2,IF(Z28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA29" s="35">
-        <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB29" s="28">
-        <f>IF(AB28=1,10,IF(AB28=2,8,IF(AB28=3,6,IF(AB28=4,5,IF(AB28=5,4,IF(AB28=6,3,IF(AB28=7,2,IF(AB28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC29" s="28"/>
@@ -6546,95 +6543,95 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28">
-        <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
+        <f t="shared" ref="F31:AB31" si="14">IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I31" s="28">
-        <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K31" s="28">
-        <f>IF(K30=1,10,IF(K30=2,8,IF(K30=3,6,IF(K30=4,5,IF(K30=5,4,IF(K30=6,3,IF(K30=7,2,IF(K30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L31" s="28">
-        <f>IF(L30=1,10,IF(L30=2,8,IF(L30=3,6,IF(L30=4,5,IF(L30=5,4,IF(L30=6,3,IF(L30=7,2,IF(L30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M31" s="28">
-        <f>IF(M30=1,10,IF(M30=2,8,IF(M30=3,6,IF(M30=4,5,IF(M30=5,4,IF(M30=6,3,IF(M30=7,2,IF(M30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="28">
-        <f>IF(N30=1,10,IF(N30=2,8,IF(N30=3,6,IF(N30=4,5,IF(N30=5,4,IF(N30=6,3,IF(N30=7,2,IF(N30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O31" s="28">
-        <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P31" s="28">
-        <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31" s="28">
-        <f>IF(Q30=1,10,IF(Q30=2,8,IF(Q30=3,6,IF(Q30=4,5,IF(Q30=5,4,IF(Q30=6,3,IF(Q30=7,2,IF(Q30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R31" s="28">
-        <f>IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S31" s="28">
-        <f>IF(S30=1,10,IF(S30=2,8,IF(S30=3,6,IF(S30=4,5,IF(S30=5,4,IF(S30=6,3,IF(S30=7,2,IF(S30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T31" s="28">
-        <f>IF(T30=1,10,IF(T30=2,8,IF(T30=3,6,IF(T30=4,5,IF(T30=5,4,IF(T30=6,3,IF(T30=7,2,IF(T30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U31" s="28">
-        <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V31" s="35">
-        <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="35">
-        <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X31" s="35">
-        <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y31" s="28">
-        <f>IF(Y30=1,10,IF(Y30=2,8,IF(Y30=3,6,IF(Y30=4,5,IF(Y30=5,4,IF(Y30=6,3,IF(Y30=7,2,IF(Y30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z31" s="35">
-        <f>IF(Z30=1,10,IF(Z30=2,8,IF(Z30=3,6,IF(Z30=4,5,IF(Z30=5,4,IF(Z30=6,3,IF(Z30=7,2,IF(Z30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA31" s="35">
-        <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB31" s="28">
-        <f>IF(AB30=1,10,IF(AB30=2,8,IF(AB30=3,6,IF(AB30=4,5,IF(AB30=5,4,IF(AB30=6,3,IF(AB30=7,2,IF(AB30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC31" s="28"/>
@@ -6650,7 +6647,7 @@
         <v>88</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>26</v>
@@ -6692,95 +6689,95 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28">
-        <f>IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
+        <f t="shared" ref="F33:AB33" si="15">IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="28">
-        <f>IF(G32=1,10,IF(G32=2,8,IF(G32=3,6,IF(G32=4,5,IF(G32=5,4,IF(G32=6,3,IF(G32=7,2,IF(G32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <f>IF(H32=1,10,IF(H32=2,8,IF(H32=3,6,IF(H32=4,5,IF(H32=5,4,IF(H32=6,3,IF(H32=7,2,IF(H32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I33" s="28">
-        <f>IF(I32=1,10,IF(I32=2,8,IF(I32=3,6,IF(I32=4,5,IF(I32=5,4,IF(I32=6,3,IF(I32=7,2,IF(I32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J33" s="28">
-        <f>IF(J32=1,10,IF(J32=2,8,IF(J32=3,6,IF(J32=4,5,IF(J32=5,4,IF(J32=6,3,IF(J32=7,2,IF(J32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K33" s="28">
-        <f>IF(K32=1,10,IF(K32=2,8,IF(K32=3,6,IF(K32=4,5,IF(K32=5,4,IF(K32=6,3,IF(K32=7,2,IF(K32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L33" s="28">
-        <f>IF(L32=1,10,IF(L32=2,8,IF(L32=3,6,IF(L32=4,5,IF(L32=5,4,IF(L32=6,3,IF(L32=7,2,IF(L32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M33" s="28">
-        <f>IF(M32=1,10,IF(M32=2,8,IF(M32=3,6,IF(M32=4,5,IF(M32=5,4,IF(M32=6,3,IF(M32=7,2,IF(M32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33" s="28">
-        <f>IF(N32=1,10,IF(N32=2,8,IF(N32=3,6,IF(N32=4,5,IF(N32=5,4,IF(N32=6,3,IF(N32=7,2,IF(N32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O33" s="28">
-        <f>IF(O32=1,10,IF(O32=2,8,IF(O32=3,6,IF(O32=4,5,IF(O32=5,4,IF(O32=6,3,IF(O32=7,2,IF(O32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P33" s="28">
-        <f>IF(P32=1,10,IF(P32=2,8,IF(P32=3,6,IF(P32=4,5,IF(P32=5,4,IF(P32=6,3,IF(P32=7,2,IF(P32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q33" s="28">
-        <f>IF(Q32=1,10,IF(Q32=2,8,IF(Q32=3,6,IF(Q32=4,5,IF(Q32=5,4,IF(Q32=6,3,IF(Q32=7,2,IF(Q32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="28">
-        <f>IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S33" s="28">
-        <f>IF(S32=1,10,IF(S32=2,8,IF(S32=3,6,IF(S32=4,5,IF(S32=5,4,IF(S32=6,3,IF(S32=7,2,IF(S32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T33" s="28">
-        <f>IF(T32=1,10,IF(T32=2,8,IF(T32=3,6,IF(T32=4,5,IF(T32=5,4,IF(T32=6,3,IF(T32=7,2,IF(T32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U33" s="28">
-        <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V33" s="35">
-        <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W33" s="35">
-        <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X33" s="35">
-        <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y33" s="28">
-        <f>IF(Y32=1,10,IF(Y32=2,8,IF(Y32=3,6,IF(Y32=4,5,IF(Y32=5,4,IF(Y32=6,3,IF(Y32=7,2,IF(Y32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z33" s="35">
-        <f>IF(Z32=1,10,IF(Z32=2,8,IF(Z32=3,6,IF(Z32=4,5,IF(Z32=5,4,IF(Z32=6,3,IF(Z32=7,2,IF(Z32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA33" s="35">
-        <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB33" s="28">
-        <f>IF(AB32=1,10,IF(AB32=2,8,IF(AB32=3,6,IF(AB32=4,5,IF(AB32=5,4,IF(AB32=6,3,IF(AB32=7,2,IF(AB32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC33" s="28"/>
@@ -6838,95 +6835,95 @@
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28">
-        <f>IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
+        <f t="shared" ref="F35:AB35" si="16">IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="28">
-        <f>IF(G34=1,10,IF(G34=2,8,IF(G34=3,6,IF(G34=4,5,IF(G34=5,4,IF(G34=6,3,IF(G34=7,2,IF(G34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <f>IF(H34=1,10,IF(H34=2,8,IF(H34=3,6,IF(H34=4,5,IF(H34=5,4,IF(H34=6,3,IF(H34=7,2,IF(H34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I35" s="28">
-        <f>IF(I34=1,10,IF(I34=2,8,IF(I34=3,6,IF(I34=4,5,IF(I34=5,4,IF(I34=6,3,IF(I34=7,2,IF(I34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J35" s="28">
-        <f>IF(J34=1,10,IF(J34=2,8,IF(J34=3,6,IF(J34=4,5,IF(J34=5,4,IF(J34=6,3,IF(J34=7,2,IF(J34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K35" s="28">
-        <f>IF(K34=1,10,IF(K34=2,8,IF(K34=3,6,IF(K34=4,5,IF(K34=5,4,IF(K34=6,3,IF(K34=7,2,IF(K34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L35" s="28">
-        <f>IF(L34=1,10,IF(L34=2,8,IF(L34=3,6,IF(L34=4,5,IF(L34=5,4,IF(L34=6,3,IF(L34=7,2,IF(L34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M35" s="28">
-        <f>IF(M34=1,10,IF(M34=2,8,IF(M34=3,6,IF(M34=4,5,IF(M34=5,4,IF(M34=6,3,IF(M34=7,2,IF(M34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N35" s="28">
-        <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="28">
-        <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P35" s="28">
-        <f>IF(P34=1,10,IF(P34=2,8,IF(P34=3,6,IF(P34=4,5,IF(P34=5,4,IF(P34=6,3,IF(P34=7,2,IF(P34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q35" s="28">
-        <f>IF(Q34=1,10,IF(Q34=2,8,IF(Q34=3,6,IF(Q34=4,5,IF(Q34=5,4,IF(Q34=6,3,IF(Q34=7,2,IF(Q34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R35" s="28">
-        <f>IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" s="28">
-        <f>IF(S34=1,10,IF(S34=2,8,IF(S34=3,6,IF(S34=4,5,IF(S34=5,4,IF(S34=6,3,IF(S34=7,2,IF(S34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U35" s="28">
-        <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V35" s="35">
-        <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W35" s="35">
-        <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X35" s="35">
-        <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y35" s="28">
-        <f>IF(Y34=1,10,IF(Y34=2,8,IF(Y34=3,6,IF(Y34=4,5,IF(Y34=5,4,IF(Y34=6,3,IF(Y34=7,2,IF(Y34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z35" s="35">
-        <f>IF(Z34=1,10,IF(Z34=2,8,IF(Z34=3,6,IF(Z34=4,5,IF(Z34=5,4,IF(Z34=6,3,IF(Z34=7,2,IF(Z34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA35" s="35">
-        <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB35" s="28">
-        <f>IF(AB34=1,10,IF(AB34=2,8,IF(AB34=3,6,IF(AB34=4,5,IF(AB34=5,4,IF(AB34=6,3,IF(AB34=7,2,IF(AB34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC35" s="28"/>
@@ -6948,7 +6945,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -6984,95 +6981,95 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28">
-        <f>IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
+        <f t="shared" ref="F37:AB37" si="17">IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="28">
-        <f>IF(G36=1,10,IF(G36=2,8,IF(G36=3,6,IF(G36=4,5,IF(G36=5,4,IF(G36=6,3,IF(G36=7,2,IF(G36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <f>IF(H36=1,10,IF(H36=2,8,IF(H36=3,6,IF(H36=4,5,IF(H36=5,4,IF(H36=6,3,IF(H36=7,2,IF(H36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I37" s="28">
-        <f>IF(I36=1,10,IF(I36=2,8,IF(I36=3,6,IF(I36=4,5,IF(I36=5,4,IF(I36=6,3,IF(I36=7,2,IF(I36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37" s="28">
-        <f>IF(J36=1,10,IF(J36=2,8,IF(J36=3,6,IF(J36=4,5,IF(J36=5,4,IF(J36=6,3,IF(J36=7,2,IF(J36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K37" s="28">
-        <f>IF(K36=1,10,IF(K36=2,8,IF(K36=3,6,IF(K36=4,5,IF(K36=5,4,IF(K36=6,3,IF(K36=7,2,IF(K36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L37" s="28">
-        <f>IF(L36=1,10,IF(L36=2,8,IF(L36=3,6,IF(L36=4,5,IF(L36=5,4,IF(L36=6,3,IF(L36=7,2,IF(L36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M37" s="28">
-        <f>IF(M36=1,10,IF(M36=2,8,IF(M36=3,6,IF(M36=4,5,IF(M36=5,4,IF(M36=6,3,IF(M36=7,2,IF(M36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N37" s="28">
-        <f>IF(N36=1,10,IF(N36=2,8,IF(N36=3,6,IF(N36=4,5,IF(N36=5,4,IF(N36=6,3,IF(N36=7,2,IF(N36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O37" s="28">
-        <f>IF(O36=1,10,IF(O36=2,8,IF(O36=3,6,IF(O36=4,5,IF(O36=5,4,IF(O36=6,3,IF(O36=7,2,IF(O36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P37" s="28">
-        <f>IF(P36=1,10,IF(P36=2,8,IF(P36=3,6,IF(P36=4,5,IF(P36=5,4,IF(P36=6,3,IF(P36=7,2,IF(P36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q37" s="28">
-        <f>IF(Q36=1,10,IF(Q36=2,8,IF(Q36=3,6,IF(Q36=4,5,IF(Q36=5,4,IF(Q36=6,3,IF(Q36=7,2,IF(Q36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R37" s="28">
-        <f>IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S37" s="28">
-        <f>IF(S36=1,10,IF(S36=2,8,IF(S36=3,6,IF(S36=4,5,IF(S36=5,4,IF(S36=6,3,IF(S36=7,2,IF(S36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T37" s="28">
-        <f>IF(T36=1,10,IF(T36=2,8,IF(T36=3,6,IF(T36=4,5,IF(T36=5,4,IF(T36=6,3,IF(T36=7,2,IF(T36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U37" s="28">
-        <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V37" s="35">
-        <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W37" s="35">
-        <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X37" s="35">
-        <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y37" s="28">
-        <f>IF(Y36=1,10,IF(Y36=2,8,IF(Y36=3,6,IF(Y36=4,5,IF(Y36=5,4,IF(Y36=6,3,IF(Y36=7,2,IF(Y36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z37" s="35">
-        <f>IF(Z36=1,10,IF(Z36=2,8,IF(Z36=3,6,IF(Z36=4,5,IF(Z36=5,4,IF(Z36=6,3,IF(Z36=7,2,IF(Z36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA37" s="35">
-        <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB37" s="28">
-        <f>IF(AB36=1,10,IF(AB36=2,8,IF(AB36=3,6,IF(AB36=4,5,IF(AB36=5,4,IF(AB36=6,3,IF(AB36=7,2,IF(AB36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC37" s="28"/>
@@ -7091,7 +7088,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="9">
         <v>14</v>
@@ -7130,95 +7127,95 @@
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28">
-        <f>IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
+        <f t="shared" ref="F39:AB39" si="18">IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="28">
-        <f>IF(G38=1,10,IF(G38=2,8,IF(G38=3,6,IF(G38=4,5,IF(G38=5,4,IF(G38=6,3,IF(G38=7,2,IF(G38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <f>IF(H38=1,10,IF(H38=2,8,IF(H38=3,6,IF(H38=4,5,IF(H38=5,4,IF(H38=6,3,IF(H38=7,2,IF(H38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I39" s="28">
-        <f>IF(I38=1,10,IF(I38=2,8,IF(I38=3,6,IF(I38=4,5,IF(I38=5,4,IF(I38=6,3,IF(I38=7,2,IF(I38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J39" s="28">
-        <f>IF(J38=1,10,IF(J38=2,8,IF(J38=3,6,IF(J38=4,5,IF(J38=5,4,IF(J38=6,3,IF(J38=7,2,IF(J38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39" s="28">
-        <f>IF(K38=1,10,IF(K38=2,8,IF(K38=3,6,IF(K38=4,5,IF(K38=5,4,IF(K38=6,3,IF(K38=7,2,IF(K38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L39" s="28">
-        <f>IF(L38=1,10,IF(L38=2,8,IF(L38=3,6,IF(L38=4,5,IF(L38=5,4,IF(L38=6,3,IF(L38=7,2,IF(L38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M39" s="28">
-        <f>IF(M38=1,10,IF(M38=2,8,IF(M38=3,6,IF(M38=4,5,IF(M38=5,4,IF(M38=6,3,IF(M38=7,2,IF(M38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N39" s="28">
-        <f>IF(N38=1,10,IF(N38=2,8,IF(N38=3,6,IF(N38=4,5,IF(N38=5,4,IF(N38=6,3,IF(N38=7,2,IF(N38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O39" s="28">
-        <f>IF(O38=1,10,IF(O38=2,8,IF(O38=3,6,IF(O38=4,5,IF(O38=5,4,IF(O38=6,3,IF(O38=7,2,IF(O38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P39" s="28">
-        <f>IF(P38=1,10,IF(P38=2,8,IF(P38=3,6,IF(P38=4,5,IF(P38=5,4,IF(P38=6,3,IF(P38=7,2,IF(P38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q39" s="28">
-        <f>IF(Q38=1,10,IF(Q38=2,8,IF(Q38=3,6,IF(Q38=4,5,IF(Q38=5,4,IF(Q38=6,3,IF(Q38=7,2,IF(Q38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R39" s="28">
-        <f>IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S39" s="28">
-        <f>IF(S38=1,10,IF(S38=2,8,IF(S38=3,6,IF(S38=4,5,IF(S38=5,4,IF(S38=6,3,IF(S38=7,2,IF(S38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T39" s="28">
-        <f>IF(T38=1,10,IF(T38=2,8,IF(T38=3,6,IF(T38=4,5,IF(T38=5,4,IF(T38=6,3,IF(T38=7,2,IF(T38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U39" s="28">
-        <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V39" s="35">
-        <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W39" s="35">
-        <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X39" s="35">
-        <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y39" s="28">
-        <f>IF(Y38=1,10,IF(Y38=2,8,IF(Y38=3,6,IF(Y38=4,5,IF(Y38=5,4,IF(Y38=6,3,IF(Y38=7,2,IF(Y38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z39" s="35">
-        <f>IF(Z38=1,10,IF(Z38=2,8,IF(Z38=3,6,IF(Z38=4,5,IF(Z38=5,4,IF(Z38=6,3,IF(Z38=7,2,IF(Z38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA39" s="35">
-        <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="28">
-        <f>IF(AB38=1,10,IF(AB38=2,8,IF(AB38=3,6,IF(AB38=4,5,IF(AB38=5,4,IF(AB38=6,3,IF(AB38=7,2,IF(AB38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC39" s="28"/>
@@ -7240,7 +7237,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="6"/>
@@ -7276,95 +7273,95 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28">
-        <f t="shared" ref="F41:AB41" si="0">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
+        <f t="shared" ref="F41:AB41" si="19">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC41" s="28"/>
@@ -7393,7 +7390,7 @@
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -7523,7 +7520,7 @@
         <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -7562,95 +7559,95 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <f>IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
+        <f t="shared" ref="F3:AB3" si="0">IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="G3" s="28">
-        <f>IF(G2=1,10,IF(G2=2,6,IF(G2=3,4,IF(G2=4,3,IF(G2=5,2,IF(G2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="28">
-        <f>IF(H2=1,10,IF(H2=2,6,IF(H2=3,4,IF(H2=4,3,IF(H2=5,2,IF(H2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="28">
-        <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="28">
-        <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="28">
-        <f>IF(K2=1,10,IF(K2=2,6,IF(K2=3,4,IF(K2=4,3,IF(K2=5,2,IF(K2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="28">
-        <f>IF(L2=1,10,IF(L2=2,6,IF(L2=3,4,IF(L2=4,3,IF(L2=5,2,IF(L2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="28">
-        <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="28">
-        <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="28">
-        <f>IF(O2=1,10,IF(O2=2,6,IF(O2=3,4,IF(O2=4,3,IF(O2=5,2,IF(O2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="28">
-        <f>IF(P2=1,10,IF(P2=2,6,IF(P2=3,4,IF(P2=4,3,IF(P2=5,2,IF(P2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="28">
-        <f>IF(Q2=1,10,IF(Q2=2,6,IF(Q2=3,4,IF(Q2=4,3,IF(Q2=5,2,IF(Q2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="28">
-        <f>IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="28">
-        <f>IF(S2=1,10,IF(S2=2,6,IF(S2=3,4,IF(S2=4,3,IF(S2=5,2,IF(S2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="28">
-        <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="28">
-        <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="35">
-        <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="28">
-        <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="35">
-        <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="28">
-        <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="35">
-        <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="35">
-        <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="28">
-        <f>IF(AB2=1,10,IF(AB2=2,6,IF(AB2=3,4,IF(AB2=4,3,IF(AB2=5,2,IF(AB2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="28"/>
@@ -7669,7 +7666,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -7708,95 +7705,95 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
+        <f t="shared" ref="F5:AB5" si="1">IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="G5" s="28">
-        <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="28">
-        <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="28">
-        <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="28">
-        <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="28">
-        <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="28">
-        <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="28">
-        <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="28">
-        <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="28">
-        <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <f>IF(P4=1,10,IF(P4=2,6,IF(P4=3,4,IF(P4=4,3,IF(P4=5,2,IF(P4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="28">
-        <f>IF(Q4=1,10,IF(Q4=2,6,IF(Q4=3,4,IF(Q4=4,3,IF(Q4=5,2,IF(Q4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="28">
-        <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="28">
-        <f>IF(S4=1,10,IF(S4=2,6,IF(S4=3,4,IF(S4=4,3,IF(S4=5,2,IF(S4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="28">
-        <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="28">
-        <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="35">
-        <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" s="28">
-        <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" s="35">
-        <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5" s="28">
-        <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5" s="35">
-        <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="35">
-        <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB5" s="28">
-        <f>IF(AB4=1,10,IF(AB4=2,6,IF(AB4=3,4,IF(AB4=4,3,IF(AB4=5,2,IF(AB4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC5" s="28"/>
@@ -7812,7 +7809,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
@@ -7854,95 +7851,95 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
+        <f t="shared" ref="F7:AB7" si="2">IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="G7" s="28">
-        <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="28">
-        <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="28">
-        <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="28">
-        <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="28">
-        <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="28">
-        <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="28">
-        <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f>IF(Q6=1,10,IF(Q6=2,6,IF(Q6=3,4,IF(Q6=4,3,IF(Q6=5,2,IF(Q6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="28">
-        <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="28">
-        <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="35">
-        <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="28">
-        <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="35">
-        <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="28">
-        <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="35">
-        <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="35">
-        <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="28">
-        <f>IF(AB6=1,10,IF(AB6=2,6,IF(AB6=3,4,IF(AB6=4,3,IF(AB6=5,2,IF(AB6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC7" s="28"/>
@@ -8000,95 +7997,95 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
+        <f t="shared" ref="F9:AB9" si="3">IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="G9" s="28">
-        <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="28">
-        <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="28">
-        <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9" s="28">
-        <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="28">
-        <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="28">
-        <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="28">
-        <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P9" s="28">
-        <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="28">
-        <f>IF(Q8=1,10,IF(Q8=2,6,IF(Q8=3,4,IF(Q8=4,3,IF(Q8=5,2,IF(Q8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="28">
-        <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9" s="28">
-        <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="28">
-        <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="28">
-        <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9" s="35">
-        <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="28">
-        <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="35">
-        <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="28">
-        <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="35">
-        <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="35">
-        <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB9" s="28">
-        <f>IF(AB8=1,10,IF(AB8=2,6,IF(AB8=3,4,IF(AB8=4,3,IF(AB8=5,2,IF(AB8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC9" s="28"/>
@@ -8146,95 +8143,95 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28">
-        <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
+        <f t="shared" ref="F11:AB11" si="4">IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="G11" s="28">
-        <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="28">
-        <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="28">
-        <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L11" s="28">
-        <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11" s="28">
-        <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="28">
-        <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" s="28">
-        <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="28">
-        <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <f>IF(Q10=1,10,IF(Q10=2,6,IF(Q10=3,4,IF(Q10=4,3,IF(Q10=5,2,IF(Q10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="28">
-        <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="28">
-        <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="28">
-        <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U11" s="28">
-        <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="35">
-        <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="28">
-        <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X11" s="35">
-        <f>IF(X10=1,10,IF(X10=2,6,IF(X10=3,4,IF(X10=4,3,IF(X10=5,2,IF(X10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y11" s="28">
-        <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z11" s="35">
-        <f>IF(Z10=1,10,IF(Z10=2,6,IF(Z10=3,4,IF(Z10=4,3,IF(Z10=5,2,IF(Z10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="35">
-        <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB11" s="28">
-        <f>IF(AB10=1,10,IF(AB10=2,6,IF(AB10=3,4,IF(AB10=4,3,IF(AB10=5,2,IF(AB10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC11" s="28"/>
@@ -8250,7 +8247,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
@@ -8292,95 +8289,95 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28">
-        <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
+        <f t="shared" ref="F13:AB13" si="5">IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="G13" s="28">
-        <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H13" s="28">
-        <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13" s="28">
-        <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="28">
-        <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L13" s="28">
-        <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13" s="28">
-        <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N13" s="28">
-        <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="28">
-        <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P13" s="28">
-        <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="28">
-        <f>IF(Q12=1,10,IF(Q12=2,6,IF(Q12=3,4,IF(Q12=4,3,IF(Q12=5,2,IF(Q12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="28">
-        <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="28">
-        <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="28">
-        <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="28">
-        <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="35">
-        <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W13" s="28">
-        <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="35">
-        <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="28">
-        <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="35">
-        <f>IF(Z12=1,10,IF(Z12=2,6,IF(Z12=3,4,IF(Z12=4,3,IF(Z12=5,2,IF(Z12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="35">
-        <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB13" s="28">
-        <f>IF(AB12=1,10,IF(AB12=2,6,IF(AB12=3,4,IF(AB12=4,3,IF(AB12=5,2,IF(AB12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC13" s="28"/>
@@ -8438,95 +8435,95 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28">
-        <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
+        <f t="shared" ref="F15:AB15" si="6">IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="28">
-        <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H15" s="28">
-        <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="28">
-        <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J15" s="28">
-        <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K15" s="28">
-        <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L15" s="28">
-        <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M15" s="28">
-        <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N15" s="28">
-        <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15" s="28">
-        <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="28">
-        <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15" s="28">
-        <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="28">
-        <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="28">
-        <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="28">
-        <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="28">
-        <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="35">
-        <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15" s="28">
-        <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X15" s="35">
-        <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y15" s="28">
-        <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z15" s="35">
-        <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA15" s="35">
-        <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB15" s="28">
-        <f>IF(AB14=1,10,IF(AB14=2,6,IF(AB14=3,4,IF(AB14=4,3,IF(AB14=5,2,IF(AB14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC15" s="28"/>
@@ -8584,95 +8581,95 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28">
-        <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
+        <f t="shared" ref="F17:AB17" si="7">IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G17" s="28">
-        <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="28">
-        <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J17" s="28">
-        <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K17" s="28">
-        <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L17" s="28">
-        <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M17" s="28">
-        <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N17" s="28">
-        <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O17" s="28">
-        <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="28">
-        <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="28">
-        <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R17" s="28">
-        <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17" s="28">
-        <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="28">
-        <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="28">
-        <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17" s="35">
-        <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="28">
-        <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="35">
-        <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17" s="28">
-        <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z17" s="35">
-        <f>IF(Z16=1,10,IF(Z16=2,6,IF(Z16=3,4,IF(Z16=4,3,IF(Z16=5,2,IF(Z16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA17" s="35">
-        <f>IF(AA16=1,10,IF(AA16=2,6,IF(AA16=3,4,IF(AA16=4,3,IF(AA16=5,2,IF(AA16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB17" s="28">
-        <f>IF(AB16=1,10,IF(AB16=2,6,IF(AB16=3,4,IF(AB16=4,3,IF(AB16=5,2,IF(AB16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC17" s="28"/>
@@ -8730,95 +8727,95 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28">
-        <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
+        <f t="shared" ref="F19:AB19" si="8">IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="28">
-        <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="28">
-        <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J19" s="28">
-        <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="28">
-        <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19" s="28">
-        <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M19" s="28">
-        <f>IF(M18=1,10,IF(M18=2,6,IF(M18=3,4,IF(M18=4,3,IF(M18=5,2,IF(M18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N19" s="28">
-        <f>IF(N18=1,10,IF(N18=2,6,IF(N18=3,4,IF(N18=4,3,IF(N18=5,2,IF(N18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="28">
-        <f>IF(O18=1,10,IF(O18=2,6,IF(O18=3,4,IF(O18=4,3,IF(O18=5,2,IF(O18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19" s="28">
-        <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="28">
-        <f>IF(Q18=1,10,IF(Q18=2,6,IF(Q18=3,4,IF(Q18=4,3,IF(Q18=5,2,IF(Q18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="28">
-        <f>IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S19" s="28">
-        <f>IF(S18=1,10,IF(S18=2,6,IF(S18=3,4,IF(S18=4,3,IF(S18=5,2,IF(S18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T19" s="28">
-        <f>IF(T18=1,10,IF(T18=2,6,IF(T18=3,4,IF(T18=4,3,IF(T18=5,2,IF(T18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U19" s="28">
-        <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V19" s="35">
-        <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W19" s="28">
-        <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19" s="35">
-        <f>IF(X18=1,10,IF(X18=2,6,IF(X18=3,4,IF(X18=4,3,IF(X18=5,2,IF(X18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19" s="28">
-        <f>IF(Y18=1,10,IF(Y18=2,6,IF(Y18=3,4,IF(Y18=4,3,IF(Y18=5,2,IF(Y18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z19" s="35">
-        <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA19" s="35">
-        <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB19" s="28">
-        <f>IF(AB18=1,10,IF(AB18=2,6,IF(AB18=3,4,IF(AB18=4,3,IF(AB18=5,2,IF(AB18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC19" s="28"/>
@@ -8840,7 +8837,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -8876,95 +8873,95 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28">
-        <f>IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
+        <f t="shared" ref="F21:AB21" si="9">IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="28">
-        <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I21" s="28">
-        <f>IF(I20=1,10,IF(I20=2,6,IF(I20=3,4,IF(I20=4,3,IF(I20=5,2,IF(I20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J21" s="28">
-        <f>IF(J20=1,10,IF(J20=2,6,IF(J20=3,4,IF(J20=4,3,IF(J20=5,2,IF(J20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K21" s="28">
-        <f>IF(K20=1,10,IF(K20=2,6,IF(K20=3,4,IF(K20=4,3,IF(K20=5,2,IF(K20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L21" s="28">
-        <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M21" s="28">
-        <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N21" s="28">
-        <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O21" s="28">
-        <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="28">
-        <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="28">
-        <f>IF(Q20=1,10,IF(Q20=2,6,IF(Q20=3,4,IF(Q20=4,3,IF(Q20=5,2,IF(Q20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R21" s="28">
-        <f>IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S21" s="28">
-        <f>IF(S20=1,10,IF(S20=2,6,IF(S20=3,4,IF(S20=4,3,IF(S20=5,2,IF(S20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T21" s="28">
-        <f>IF(T20=1,10,IF(T20=2,6,IF(T20=3,4,IF(T20=4,3,IF(T20=5,2,IF(T20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U21" s="28">
-        <f>IF(U20=1,10,IF(U20=2,6,IF(U20=3,4,IF(U20=4,3,IF(U20=5,2,IF(U20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V21" s="35">
-        <f>IF(V20=1,10,IF(V20=2,6,IF(V20=3,4,IF(V20=4,3,IF(V20=5,2,IF(V20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="28">
-        <f>IF(W20=1,10,IF(W20=2,6,IF(W20=3,4,IF(W20=4,3,IF(W20=5,2,IF(W20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X21" s="35">
-        <f>IF(X20=1,10,IF(X20=2,6,IF(X20=3,4,IF(X20=4,3,IF(X20=5,2,IF(X20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21" s="28">
-        <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z21" s="35">
-        <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA21" s="35">
-        <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB21" s="28">
-        <f>IF(AB20=1,10,IF(AB20=2,6,IF(AB20=3,4,IF(AB20=4,3,IF(AB20=5,2,IF(AB20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC21" s="28"/>
@@ -9022,95 +9019,95 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28">
-        <f>IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
+        <f t="shared" ref="F23:AB23" si="10">IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="28">
-        <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H23" s="28">
-        <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I23" s="28">
-        <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <f>IF(J22=1,10,IF(J22=2,6,IF(J22=3,4,IF(J22=4,3,IF(J22=5,2,IF(J22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="28">
-        <f>IF(K22=1,10,IF(K22=2,6,IF(K22=3,4,IF(K22=4,3,IF(K22=5,2,IF(K22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="28">
-        <f>IF(L22=1,10,IF(L22=2,6,IF(L22=3,4,IF(L22=4,3,IF(L22=5,2,IF(L22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="28">
-        <f>IF(M22=1,10,IF(M22=2,6,IF(M22=3,4,IF(M22=4,3,IF(M22=5,2,IF(M22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N23" s="28">
-        <f>IF(N22=1,10,IF(N22=2,6,IF(N22=3,4,IF(N22=4,3,IF(N22=5,2,IF(N22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O23" s="28">
-        <f>IF(O22=1,10,IF(O22=2,6,IF(O22=3,4,IF(O22=4,3,IF(O22=5,2,IF(O22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P23" s="28">
-        <f>IF(P22=1,10,IF(P22=2,6,IF(P22=3,4,IF(P22=4,3,IF(P22=5,2,IF(P22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <f>IF(Q22=1,10,IF(Q22=2,6,IF(Q22=3,4,IF(Q22=4,3,IF(Q22=5,2,IF(Q22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="28">
-        <f>IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="28">
-        <f>IF(S22=1,10,IF(S22=2,6,IF(S22=3,4,IF(S22=4,3,IF(S22=5,2,IF(S22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="28">
-        <f>IF(T22=1,10,IF(T22=2,6,IF(T22=3,4,IF(T22=4,3,IF(T22=5,2,IF(T22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="28">
-        <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V23" s="35">
-        <f>IF(V22=1,10,IF(V22=2,6,IF(V22=3,4,IF(V22=4,3,IF(V22=5,2,IF(V22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W23" s="28">
-        <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X23" s="35">
-        <f>IF(X22=1,10,IF(X22=2,6,IF(X22=3,4,IF(X22=4,3,IF(X22=5,2,IF(X22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y23" s="28">
-        <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z23" s="35">
-        <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA23" s="35">
-        <f>IF(AA22=1,10,IF(AA22=2,6,IF(AA22=3,4,IF(AA22=4,3,IF(AA22=5,2,IF(AA22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB23" s="28">
-        <f>IF(AB22=1,10,IF(AB22=2,6,IF(AB22=3,4,IF(AB22=4,3,IF(AB22=5,2,IF(AB22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC23" s="28"/>
@@ -9129,7 +9126,7 @@
         <v>78</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="9">
         <v>11</v>
@@ -9168,95 +9165,95 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28">
-        <f>IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
+        <f t="shared" ref="F25:AB25" si="11">IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f>IF(G24=1,10,IF(G24=2,6,IF(G24=3,4,IF(G24=4,3,IF(G24=5,2,IF(G24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f>IF(H24=1,10,IF(H24=2,6,IF(H24=3,4,IF(H24=4,3,IF(H24=5,2,IF(H24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I25" s="28">
-        <f>IF(I24=1,10,IF(I24=2,6,IF(I24=3,4,IF(I24=4,3,IF(I24=5,2,IF(I24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f>IF(J24=1,10,IF(J24=2,6,IF(J24=3,4,IF(J24=4,3,IF(J24=5,2,IF(J24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f>IF(K24=1,10,IF(K24=2,6,IF(K24=3,4,IF(K24=4,3,IF(K24=5,2,IF(K24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L25" s="28">
-        <f>IF(L24=1,10,IF(L24=2,6,IF(L24=3,4,IF(L24=4,3,IF(L24=5,2,IF(L24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M25" s="28">
-        <f>IF(M24=1,10,IF(M24=2,6,IF(M24=3,4,IF(M24=4,3,IF(M24=5,2,IF(M24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="28">
-        <f>IF(N24=1,10,IF(N24=2,6,IF(N24=3,4,IF(N24=4,3,IF(N24=5,2,IF(N24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O25" s="28">
-        <f>IF(O24=1,10,IF(O24=2,6,IF(O24=3,4,IF(O24=4,3,IF(O24=5,2,IF(O24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f>IF(P24=1,10,IF(P24=2,6,IF(P24=3,4,IF(P24=4,3,IF(P24=5,2,IF(P24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q25" s="28">
-        <f>IF(Q24=1,10,IF(Q24=2,6,IF(Q24=3,4,IF(Q24=4,3,IF(Q24=5,2,IF(Q24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25" s="28">
-        <f>IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S25" s="28">
-        <f>IF(S24=1,10,IF(S24=2,6,IF(S24=3,4,IF(S24=4,3,IF(S24=5,2,IF(S24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T25" s="28">
-        <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U25" s="28">
-        <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V25" s="35">
-        <f>IF(V24=1,10,IF(V24=2,6,IF(V24=3,4,IF(V24=4,3,IF(V24=5,2,IF(V24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W25" s="28">
-        <f>IF(W24=1,10,IF(W24=2,6,IF(W24=3,4,IF(W24=4,3,IF(W24=5,2,IF(W24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X25" s="35">
-        <f>IF(X24=1,10,IF(X24=2,6,IF(X24=3,4,IF(X24=4,3,IF(X24=5,2,IF(X24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y25" s="28">
-        <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z25" s="35">
-        <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA25" s="35">
-        <f>IF(AA24=1,10,IF(AA24=2,6,IF(AA24=3,4,IF(AA24=4,3,IF(AA24=5,2,IF(AA24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB25" s="28">
-        <f>IF(AB24=1,10,IF(AB24=2,6,IF(AB24=3,4,IF(AB24=4,3,IF(AB24=5,2,IF(AB24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC25" s="28"/>
@@ -9314,95 +9311,95 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28">
-        <f>IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
+        <f t="shared" ref="F27:AB27" si="12">IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f>IF(G26=1,10,IF(G26=2,6,IF(G26=3,4,IF(G26=4,3,IF(G26=5,2,IF(G26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f>IF(H26=1,10,IF(H26=2,6,IF(H26=3,4,IF(H26=4,3,IF(H26=5,2,IF(H26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f>IF(I26=1,10,IF(I26=2,6,IF(I26=3,4,IF(I26=4,3,IF(I26=5,2,IF(I26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J27" s="28">
-        <f>IF(J26=1,10,IF(J26=2,6,IF(J26=3,4,IF(J26=4,3,IF(J26=5,2,IF(J26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K27" s="28">
-        <f>IF(K26=1,10,IF(K26=2,6,IF(K26=3,4,IF(K26=4,3,IF(K26=5,2,IF(K26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27" s="28">
-        <f>IF(L26=1,10,IF(L26=2,6,IF(L26=3,4,IF(L26=4,3,IF(L26=5,2,IF(L26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27" s="28">
-        <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N27" s="28">
-        <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="28">
-        <f>IF(O26=1,10,IF(O26=2,6,IF(O26=3,4,IF(O26=4,3,IF(O26=5,2,IF(O26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P27" s="28">
-        <f>IF(P26=1,10,IF(P26=2,6,IF(P26=3,4,IF(P26=4,3,IF(P26=5,2,IF(P26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27" s="28">
-        <f>IF(Q26=1,10,IF(Q26=2,6,IF(Q26=3,4,IF(Q26=4,3,IF(Q26=5,2,IF(Q26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f>IF(R26=1,10,IF(R26=2,6,IF(R26=3,4,IF(R26=4,3,IF(R26=5,2,IF(R26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S27" s="28">
-        <f>IF(S26=1,10,IF(S26=2,6,IF(S26=3,4,IF(S26=4,3,IF(S26=5,2,IF(S26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27" s="28">
-        <f>IF(T26=1,10,IF(T26=2,6,IF(T26=3,4,IF(T26=4,3,IF(T26=5,2,IF(T26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U27" s="28">
-        <f>IF(U26=1,10,IF(U26=2,6,IF(U26=3,4,IF(U26=4,3,IF(U26=5,2,IF(U26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V27" s="35">
-        <f>IF(V26=1,10,IF(V26=2,6,IF(V26=3,4,IF(V26=4,3,IF(V26=5,2,IF(V26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W27" s="28">
-        <f>IF(W26=1,10,IF(W26=2,6,IF(W26=3,4,IF(W26=4,3,IF(W26=5,2,IF(W26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X27" s="35">
-        <f>IF(X26=1,10,IF(X26=2,6,IF(X26=3,4,IF(X26=4,3,IF(X26=5,2,IF(X26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y27" s="28">
-        <f>IF(Y26=1,10,IF(Y26=2,6,IF(Y26=3,4,IF(Y26=4,3,IF(Y26=5,2,IF(Y26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z27" s="35">
-        <f>IF(Z26=1,10,IF(Z26=2,6,IF(Z26=3,4,IF(Z26=4,3,IF(Z26=5,2,IF(Z26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA27" s="35">
-        <f>IF(AA26=1,10,IF(AA26=2,6,IF(AA26=3,4,IF(AA26=4,3,IF(AA26=5,2,IF(AA26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB27" s="28">
-        <f>IF(AB26=1,10,IF(AB26=2,6,IF(AB26=3,4,IF(AB26=4,3,IF(AB26=5,2,IF(AB26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC27" s="28"/>
@@ -9418,7 +9415,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>26</v>
@@ -9460,95 +9457,95 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28">
-        <f>IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
+        <f t="shared" ref="F29:AB29" si="13">IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="28">
-        <f>IF(G28=1,10,IF(G28=2,6,IF(G28=3,4,IF(G28=4,3,IF(G28=5,2,IF(G28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H29" s="28">
-        <f>IF(H28=1,10,IF(H28=2,6,IF(H28=3,4,IF(H28=4,3,IF(H28=5,2,IF(H28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I29" s="28">
-        <f>IF(I28=1,10,IF(I28=2,6,IF(I28=3,4,IF(I28=4,3,IF(I28=5,2,IF(I28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f>IF(J28=1,10,IF(J28=2,6,IF(J28=3,4,IF(J28=4,3,IF(J28=5,2,IF(J28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K29" s="28">
-        <f>IF(K28=1,10,IF(K28=2,6,IF(K28=3,4,IF(K28=4,3,IF(K28=5,2,IF(K28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L29" s="28">
-        <f>IF(L28=1,10,IF(L28=2,6,IF(L28=3,4,IF(L28=4,3,IF(L28=5,2,IF(L28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M29" s="28">
-        <f>IF(M28=1,10,IF(M28=2,6,IF(M28=3,4,IF(M28=4,3,IF(M28=5,2,IF(M28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29" s="28">
-        <f>IF(N28=1,10,IF(N28=2,6,IF(N28=3,4,IF(N28=4,3,IF(N28=5,2,IF(N28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O29" s="28">
-        <f>IF(O28=1,10,IF(O28=2,6,IF(O28=3,4,IF(O28=4,3,IF(O28=5,2,IF(O28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P29" s="28">
-        <f>IF(P28=1,10,IF(P28=2,6,IF(P28=3,4,IF(P28=4,3,IF(P28=5,2,IF(P28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q29" s="28">
-        <f>IF(Q28=1,10,IF(Q28=2,6,IF(Q28=3,4,IF(Q28=4,3,IF(Q28=5,2,IF(Q28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R29" s="28">
-        <f>IF(R28=1,10,IF(R28=2,6,IF(R28=3,4,IF(R28=4,3,IF(R28=5,2,IF(R28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S29" s="28">
-        <f>IF(S28=1,10,IF(S28=2,6,IF(S28=3,4,IF(S28=4,3,IF(S28=5,2,IF(S28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T29" s="28">
-        <f>IF(T28=1,10,IF(T28=2,6,IF(T28=3,4,IF(T28=4,3,IF(T28=5,2,IF(T28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U29" s="28">
-        <f>IF(U28=1,10,IF(U28=2,6,IF(U28=3,4,IF(U28=4,3,IF(U28=5,2,IF(U28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V29" s="35">
-        <f>IF(V28=1,10,IF(V28=2,6,IF(V28=3,4,IF(V28=4,3,IF(V28=5,2,IF(V28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W29" s="28">
-        <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X29" s="35">
-        <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y29" s="28">
-        <f>IF(Y28=1,10,IF(Y28=2,6,IF(Y28=3,4,IF(Y28=4,3,IF(Y28=5,2,IF(Y28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29" s="35">
-        <f>IF(Z28=1,10,IF(Z28=2,6,IF(Z28=3,4,IF(Z28=4,3,IF(Z28=5,2,IF(Z28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA29" s="35">
-        <f>IF(AA28=1,10,IF(AA28=2,6,IF(AA28=3,4,IF(AA28=4,3,IF(AA28=5,2,IF(AA28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB29" s="28">
-        <f>IF(AB28=1,10,IF(AB28=2,6,IF(AB28=3,4,IF(AB28=4,3,IF(AB28=5,2,IF(AB28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC29" s="28"/>
@@ -9606,95 +9603,95 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28">
-        <f>IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
+        <f t="shared" ref="F31:AB31" si="14">IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f>IF(G30=1,10,IF(G30=2,6,IF(G30=3,4,IF(G30=4,3,IF(G30=5,2,IF(G30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <f>IF(H30=1,10,IF(H30=2,6,IF(H30=3,4,IF(H30=4,3,IF(H30=5,2,IF(H30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I31" s="28">
-        <f>IF(I30=1,10,IF(I30=2,6,IF(I30=3,4,IF(I30=4,3,IF(I30=5,2,IF(I30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <f>IF(J30=1,10,IF(J30=2,6,IF(J30=3,4,IF(J30=4,3,IF(J30=5,2,IF(J30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K31" s="28">
-        <f>IF(K30=1,10,IF(K30=2,6,IF(K30=3,4,IF(K30=4,3,IF(K30=5,2,IF(K30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L31" s="28">
-        <f>IF(L30=1,10,IF(L30=2,6,IF(L30=3,4,IF(L30=4,3,IF(L30=5,2,IF(L30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M31" s="28">
-        <f>IF(M30=1,10,IF(M30=2,6,IF(M30=3,4,IF(M30=4,3,IF(M30=5,2,IF(M30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="28">
-        <f>IF(N30=1,10,IF(N30=2,6,IF(N30=3,4,IF(N30=4,3,IF(N30=5,2,IF(N30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O31" s="28">
-        <f>IF(O30=1,10,IF(O30=2,6,IF(O30=3,4,IF(O30=4,3,IF(O30=5,2,IF(O30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P31" s="28">
-        <f>IF(P30=1,10,IF(P30=2,6,IF(P30=3,4,IF(P30=4,3,IF(P30=5,2,IF(P30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31" s="28">
-        <f>IF(Q30=1,10,IF(Q30=2,6,IF(Q30=3,4,IF(Q30=4,3,IF(Q30=5,2,IF(Q30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R31" s="28">
-        <f>IF(R30=1,10,IF(R30=2,6,IF(R30=3,4,IF(R30=4,3,IF(R30=5,2,IF(R30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S31" s="28">
-        <f>IF(S30=1,10,IF(S30=2,6,IF(S30=3,4,IF(S30=4,3,IF(S30=5,2,IF(S30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T31" s="28">
-        <f>IF(T30=1,10,IF(T30=2,6,IF(T30=3,4,IF(T30=4,3,IF(T30=5,2,IF(T30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U31" s="28">
-        <f>IF(U30=1,10,IF(U30=2,6,IF(U30=3,4,IF(U30=4,3,IF(U30=5,2,IF(U30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V31" s="35">
-        <f>IF(V30=1,10,IF(V30=2,6,IF(V30=3,4,IF(V30=4,3,IF(V30=5,2,IF(V30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="28">
-        <f>IF(W30=1,10,IF(W30=2,6,IF(W30=3,4,IF(W30=4,3,IF(W30=5,2,IF(W30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X31" s="35">
-        <f>IF(X30=1,10,IF(X30=2,6,IF(X30=3,4,IF(X30=4,3,IF(X30=5,2,IF(X30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y31" s="28">
-        <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z31" s="35">
-        <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA31" s="35">
-        <f>IF(AA30=1,10,IF(AA30=2,6,IF(AA30=3,4,IF(AA30=4,3,IF(AA30=5,2,IF(AA30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB31" s="28">
-        <f>IF(AB30=1,10,IF(AB30=2,6,IF(AB30=3,4,IF(AB30=4,3,IF(AB30=5,2,IF(AB30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC31" s="28"/>
@@ -9716,7 +9713,7 @@
         <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -9752,95 +9749,95 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28">
-        <f>IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
+        <f t="shared" ref="F33:AB33" si="15">IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="28">
-        <f>IF(G32=1,10,IF(G32=2,6,IF(G32=3,4,IF(G32=4,3,IF(G32=5,2,IF(G32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <f>IF(H32=1,10,IF(H32=2,6,IF(H32=3,4,IF(H32=4,3,IF(H32=5,2,IF(H32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I33" s="28">
-        <f>IF(I32=1,10,IF(I32=2,6,IF(I32=3,4,IF(I32=4,3,IF(I32=5,2,IF(I32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J33" s="28">
-        <f>IF(J32=1,10,IF(J32=2,6,IF(J32=3,4,IF(J32=4,3,IF(J32=5,2,IF(J32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K33" s="28">
-        <f>IF(K32=1,10,IF(K32=2,6,IF(K32=3,4,IF(K32=4,3,IF(K32=5,2,IF(K32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L33" s="28">
-        <f>IF(L32=1,10,IF(L32=2,6,IF(L32=3,4,IF(L32=4,3,IF(L32=5,2,IF(L32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M33" s="28">
-        <f>IF(M32=1,10,IF(M32=2,6,IF(M32=3,4,IF(M32=4,3,IF(M32=5,2,IF(M32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33" s="28">
-        <f>IF(N32=1,10,IF(N32=2,6,IF(N32=3,4,IF(N32=4,3,IF(N32=5,2,IF(N32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O33" s="28">
-        <f>IF(O32=1,10,IF(O32=2,6,IF(O32=3,4,IF(O32=4,3,IF(O32=5,2,IF(O32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P33" s="28">
-        <f>IF(P32=1,10,IF(P32=2,6,IF(P32=3,4,IF(P32=4,3,IF(P32=5,2,IF(P32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q33" s="28">
-        <f>IF(Q32=1,10,IF(Q32=2,6,IF(Q32=3,4,IF(Q32=4,3,IF(Q32=5,2,IF(Q32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="28">
-        <f>IF(R32=1,10,IF(R32=2,6,IF(R32=3,4,IF(R32=4,3,IF(R32=5,2,IF(R32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S33" s="28">
-        <f>IF(S32=1,10,IF(S32=2,6,IF(S32=3,4,IF(S32=4,3,IF(S32=5,2,IF(S32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T33" s="28">
-        <f>IF(T32=1,10,IF(T32=2,6,IF(T32=3,4,IF(T32=4,3,IF(T32=5,2,IF(T32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U33" s="28">
-        <f>IF(U32=1,10,IF(U32=2,6,IF(U32=3,4,IF(U32=4,3,IF(U32=5,2,IF(U32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V33" s="35">
-        <f>IF(V32=1,10,IF(V32=2,6,IF(V32=3,4,IF(V32=4,3,IF(V32=5,2,IF(V32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W33" s="28">
-        <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X33" s="35">
-        <f>IF(X32=1,10,IF(X32=2,6,IF(X32=3,4,IF(X32=4,3,IF(X32=5,2,IF(X32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y33" s="28">
-        <f>IF(Y32=1,10,IF(Y32=2,6,IF(Y32=3,4,IF(Y32=4,3,IF(Y32=5,2,IF(Y32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z33" s="35">
-        <f>IF(Z32=1,10,IF(Z32=2,6,IF(Z32=3,4,IF(Z32=4,3,IF(Z32=5,2,IF(Z32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA33" s="35">
-        <f>IF(AA32=1,10,IF(AA32=2,6,IF(AA32=3,4,IF(AA32=4,3,IF(AA32=5,2,IF(AA32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB33" s="28">
-        <f>IF(AB32=1,10,IF(AB32=2,6,IF(AB32=3,4,IF(AB32=4,3,IF(AB32=5,2,IF(AB32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC33" s="28"/>
@@ -9859,7 +9856,7 @@
         <v>78</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" s="9">
         <v>14</v>
@@ -9898,95 +9895,95 @@
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28">
-        <f>IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
+        <f t="shared" ref="F35:AB35" si="16">IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="28">
-        <f>IF(G34=1,10,IF(G34=2,6,IF(G34=3,4,IF(G34=4,3,IF(G34=5,2,IF(G34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <f>IF(H34=1,10,IF(H34=2,6,IF(H34=3,4,IF(H34=4,3,IF(H34=5,2,IF(H34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I35" s="28">
-        <f>IF(I34=1,10,IF(I34=2,6,IF(I34=3,4,IF(I34=4,3,IF(I34=5,2,IF(I34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J35" s="28">
-        <f>IF(J34=1,10,IF(J34=2,6,IF(J34=3,4,IF(J34=4,3,IF(J34=5,2,IF(J34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K35" s="28">
-        <f>IF(K34=1,10,IF(K34=2,6,IF(K34=3,4,IF(K34=4,3,IF(K34=5,2,IF(K34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L35" s="28">
-        <f>IF(L34=1,10,IF(L34=2,6,IF(L34=3,4,IF(L34=4,3,IF(L34=5,2,IF(L34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M35" s="28">
-        <f>IF(M34=1,10,IF(M34=2,6,IF(M34=3,4,IF(M34=4,3,IF(M34=5,2,IF(M34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N35" s="28">
-        <f>IF(N34=1,10,IF(N34=2,6,IF(N34=3,4,IF(N34=4,3,IF(N34=5,2,IF(N34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="28">
-        <f>IF(O34=1,10,IF(O34=2,6,IF(O34=3,4,IF(O34=4,3,IF(O34=5,2,IF(O34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P35" s="28">
-        <f>IF(P34=1,10,IF(P34=2,6,IF(P34=3,4,IF(P34=4,3,IF(P34=5,2,IF(P34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q35" s="28">
-        <f>IF(Q34=1,10,IF(Q34=2,6,IF(Q34=3,4,IF(Q34=4,3,IF(Q34=5,2,IF(Q34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R35" s="28">
-        <f>IF(R34=1,10,IF(R34=2,6,IF(R34=3,4,IF(R34=4,3,IF(R34=5,2,IF(R34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" s="28">
-        <f>IF(S34=1,10,IF(S34=2,6,IF(S34=3,4,IF(S34=4,3,IF(S34=5,2,IF(S34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f>IF(T34=1,10,IF(T34=2,6,IF(T34=3,4,IF(T34=4,3,IF(T34=5,2,IF(T34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U35" s="28">
-        <f>IF(U34=1,10,IF(U34=2,6,IF(U34=3,4,IF(U34=4,3,IF(U34=5,2,IF(U34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V35" s="35">
-        <f>IF(V34=1,10,IF(V34=2,6,IF(V34=3,4,IF(V34=4,3,IF(V34=5,2,IF(V34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W35" s="28">
-        <f>IF(W34=1,10,IF(W34=2,6,IF(W34=3,4,IF(W34=4,3,IF(W34=5,2,IF(W34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X35" s="35">
-        <f>IF(X34=1,10,IF(X34=2,6,IF(X34=3,4,IF(X34=4,3,IF(X34=5,2,IF(X34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y35" s="28">
-        <f>IF(Y34=1,10,IF(Y34=2,6,IF(Y34=3,4,IF(Y34=4,3,IF(Y34=5,2,IF(Y34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z35" s="35">
-        <f>IF(Z34=1,10,IF(Z34=2,6,IF(Z34=3,4,IF(Z34=4,3,IF(Z34=5,2,IF(Z34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA35" s="35">
-        <f>IF(AA34=1,10,IF(AA34=2,6,IF(AA34=3,4,IF(AA34=4,3,IF(AA34=5,2,IF(AA34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB35" s="28">
-        <f>IF(AB34=1,10,IF(AB34=2,6,IF(AB34=3,4,IF(AB34=4,3,IF(AB34=5,2,IF(AB34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC35" s="28"/>
@@ -10044,95 +10041,95 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28">
-        <f>IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
+        <f t="shared" ref="F37:AB37" si="17">IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="28">
-        <f>IF(G36=1,10,IF(G36=2,6,IF(G36=3,4,IF(G36=4,3,IF(G36=5,2,IF(G36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <f>IF(H36=1,10,IF(H36=2,6,IF(H36=3,4,IF(H36=4,3,IF(H36=5,2,IF(H36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I37" s="28">
-        <f>IF(I36=1,10,IF(I36=2,6,IF(I36=3,4,IF(I36=4,3,IF(I36=5,2,IF(I36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37" s="28">
-        <f>IF(J36=1,10,IF(J36=2,6,IF(J36=3,4,IF(J36=4,3,IF(J36=5,2,IF(J36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K37" s="28">
-        <f>IF(K36=1,10,IF(K36=2,6,IF(K36=3,4,IF(K36=4,3,IF(K36=5,2,IF(K36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L37" s="28">
-        <f>IF(L36=1,10,IF(L36=2,6,IF(L36=3,4,IF(L36=4,3,IF(L36=5,2,IF(L36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M37" s="28">
-        <f>IF(M36=1,10,IF(M36=2,6,IF(M36=3,4,IF(M36=4,3,IF(M36=5,2,IF(M36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N37" s="28">
-        <f>IF(N36=1,10,IF(N36=2,6,IF(N36=3,4,IF(N36=4,3,IF(N36=5,2,IF(N36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O37" s="28">
-        <f>IF(O36=1,10,IF(O36=2,6,IF(O36=3,4,IF(O36=4,3,IF(O36=5,2,IF(O36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P37" s="28">
-        <f>IF(P36=1,10,IF(P36=2,6,IF(P36=3,4,IF(P36=4,3,IF(P36=5,2,IF(P36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q37" s="28">
-        <f>IF(Q36=1,10,IF(Q36=2,6,IF(Q36=3,4,IF(Q36=4,3,IF(Q36=5,2,IF(Q36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R37" s="28">
-        <f>IF(R36=1,10,IF(R36=2,6,IF(R36=3,4,IF(R36=4,3,IF(R36=5,2,IF(R36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S37" s="28">
-        <f>IF(S36=1,10,IF(S36=2,6,IF(S36=3,4,IF(S36=4,3,IF(S36=5,2,IF(S36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T37" s="28">
-        <f>IF(T36=1,10,IF(T36=2,6,IF(T36=3,4,IF(T36=4,3,IF(T36=5,2,IF(T36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U37" s="28">
-        <f>IF(U36=1,10,IF(U36=2,6,IF(U36=3,4,IF(U36=4,3,IF(U36=5,2,IF(U36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V37" s="35">
-        <f>IF(V36=1,10,IF(V36=2,6,IF(V36=3,4,IF(V36=4,3,IF(V36=5,2,IF(V36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W37" s="28">
-        <f>IF(W36=1,10,IF(W36=2,6,IF(W36=3,4,IF(W36=4,3,IF(W36=5,2,IF(W36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X37" s="35">
-        <f>IF(X36=1,10,IF(X36=2,6,IF(X36=3,4,IF(X36=4,3,IF(X36=5,2,IF(X36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y37" s="28">
-        <f>IF(Y36=1,10,IF(Y36=2,6,IF(Y36=3,4,IF(Y36=4,3,IF(Y36=5,2,IF(Y36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z37" s="35">
-        <f>IF(Z36=1,10,IF(Z36=2,6,IF(Z36=3,4,IF(Z36=4,3,IF(Z36=5,2,IF(Z36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA37" s="35">
-        <f>IF(AA36=1,10,IF(AA36=2,6,IF(AA36=3,4,IF(AA36=4,3,IF(AA36=5,2,IF(AA36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB37" s="28">
-        <f>IF(AB36=1,10,IF(AB36=2,6,IF(AB36=3,4,IF(AB36=4,3,IF(AB36=5,2,IF(AB36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC37" s="28"/>
@@ -10148,7 +10145,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>26</v>
@@ -10190,95 +10187,95 @@
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28">
-        <f>IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
+        <f t="shared" ref="F39:AB39" si="18">IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="28">
-        <f>IF(G38=1,10,IF(G38=2,6,IF(G38=3,4,IF(G38=4,3,IF(G38=5,2,IF(G38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <f>IF(H38=1,10,IF(H38=2,6,IF(H38=3,4,IF(H38=4,3,IF(H38=5,2,IF(H38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I39" s="28">
-        <f>IF(I38=1,10,IF(I38=2,6,IF(I38=3,4,IF(I38=4,3,IF(I38=5,2,IF(I38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J39" s="28">
-        <f>IF(J38=1,10,IF(J38=2,6,IF(J38=3,4,IF(J38=4,3,IF(J38=5,2,IF(J38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39" s="28">
-        <f>IF(K38=1,10,IF(K38=2,6,IF(K38=3,4,IF(K38=4,3,IF(K38=5,2,IF(K38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L39" s="28">
-        <f>IF(L38=1,10,IF(L38=2,6,IF(L38=3,4,IF(L38=4,3,IF(L38=5,2,IF(L38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M39" s="28">
-        <f>IF(M38=1,10,IF(M38=2,6,IF(M38=3,4,IF(M38=4,3,IF(M38=5,2,IF(M38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N39" s="28">
-        <f>IF(N38=1,10,IF(N38=2,6,IF(N38=3,4,IF(N38=4,3,IF(N38=5,2,IF(N38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O39" s="28">
-        <f>IF(O38=1,10,IF(O38=2,6,IF(O38=3,4,IF(O38=4,3,IF(O38=5,2,IF(O38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P39" s="28">
-        <f>IF(P38=1,10,IF(P38=2,6,IF(P38=3,4,IF(P38=4,3,IF(P38=5,2,IF(P38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q39" s="28">
-        <f>IF(Q38=1,10,IF(Q38=2,6,IF(Q38=3,4,IF(Q38=4,3,IF(Q38=5,2,IF(Q38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R39" s="28">
-        <f>IF(R38=1,10,IF(R38=2,6,IF(R38=3,4,IF(R38=4,3,IF(R38=5,2,IF(R38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S39" s="28">
-        <f>IF(S38=1,10,IF(S38=2,6,IF(S38=3,4,IF(S38=4,3,IF(S38=5,2,IF(S38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T39" s="28">
-        <f>IF(T38=1,10,IF(T38=2,6,IF(T38=3,4,IF(T38=4,3,IF(T38=5,2,IF(T38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U39" s="28">
-        <f>IF(U38=1,10,IF(U38=2,6,IF(U38=3,4,IF(U38=4,3,IF(U38=5,2,IF(U38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V39" s="35">
-        <f>IF(V38=1,10,IF(V38=2,6,IF(V38=3,4,IF(V38=4,3,IF(V38=5,2,IF(V38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W39" s="28">
-        <f>IF(W38=1,10,IF(W38=2,6,IF(W38=3,4,IF(W38=4,3,IF(W38=5,2,IF(W38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X39" s="35">
-        <f>IF(X38=1,10,IF(X38=2,6,IF(X38=3,4,IF(X38=4,3,IF(X38=5,2,IF(X38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y39" s="28">
-        <f>IF(Y38=1,10,IF(Y38=2,6,IF(Y38=3,4,IF(Y38=4,3,IF(Y38=5,2,IF(Y38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z39" s="35">
-        <f>IF(Z38=1,10,IF(Z38=2,6,IF(Z38=3,4,IF(Z38=4,3,IF(Z38=5,2,IF(Z38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA39" s="35">
-        <f>IF(AA38=1,10,IF(AA38=2,6,IF(AA38=3,4,IF(AA38=4,3,IF(AA38=5,2,IF(AA38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="28">
-        <f>IF(AB38=1,10,IF(AB38=2,6,IF(AB38=3,4,IF(AB38=4,3,IF(AB38=5,2,IF(AB38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC39" s="28"/>
@@ -10300,7 +10297,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -10336,95 +10333,95 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28">
-        <f t="shared" ref="F41:AB41" si="0">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
+        <f t="shared" ref="F41:AB41" si="19">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA41" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC41" s="28"/>
@@ -10479,7 +10476,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>70</v>
@@ -10495,7 +10492,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
@@ -10552,7 +10549,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>26</v>
@@ -10650,7 +10647,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>68</v>
@@ -10710,7 +10707,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>70</v>
@@ -10722,7 +10719,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
@@ -10767,7 +10764,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>26</v>
@@ -10830,7 +10827,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>68</v>
@@ -10900,7 +10897,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>70</v>
@@ -10912,7 +10909,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
@@ -10987,7 +10984,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>26</v>
@@ -11020,7 +11017,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>68</v>
@@ -11099,7 +11096,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -11202,7 +11199,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -11289,7 +11286,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="113">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +483,10 @@
   </si>
   <si>
     <t>Honda RBPT</t>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Did not Finish</t>
@@ -1045,7 +1049,7 @@
     <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" style="1" bestFit="1" customWidth="1"/>
@@ -1189,7 +1193,9 @@
       <c r="G2" s="9">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1217,11 +1223,11 @@
       <c r="AD2" s="9"/>
       <c r="AE2" s="9">
         <f>SUM(F3:AB3)+SUM(AC2,AD2)</f>
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1240,7 +1246,7 @@
       </c>
       <c r="H3" s="28">
         <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I3" s="28">
         <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
@@ -1349,7 +1355,9 @@
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -1370,15 +1378,18 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
+      <c r="AC4" s="9">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9">
         <f>SUM(F5:AB5)+SUM(AC4,AD4)</f>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AF4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1397,7 +1408,7 @@
       </c>
       <c r="H5" s="28">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
@@ -1506,7 +1517,9 @@
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1531,11 +1544,11 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="8">
         <f>SUM(F7:AB7)+SUM(AC6,AD6)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AF6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1554,7 +1567,7 @@
       </c>
       <c r="H7" s="28">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
@@ -1642,57 +1655,59 @@
       <c r="AF7" s="28"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15">
         <f>SUM(F9:AB9)+SUM(AC8,AD8)</f>
-        <v>20</v>
-      </c>
-      <c r="AF8" s="7">
+        <v>38</v>
+      </c>
+      <c r="AF8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1703,15 +1718,15 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28">
         <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="28">
         <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" s="28">
         <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I9" s="28">
         <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
@@ -1799,55 +1814,57 @@
       <c r="AF9" s="28"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="15">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15">
-        <v>5</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7">
         <f>SUM(F11:AB11)+SUM(AC10,AD10)</f>
         <v>20</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AF10" s="7">
         <f>SUM(F11:AB11)</f>
         <v>20</v>
       </c>
@@ -1860,11 +1877,11 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
@@ -1956,57 +1973,59 @@
       <c r="AF11" s="28"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15">
-        <v>7</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8">
         <f>SUM(F13:AB13)+SUM(AC12,AD12)</f>
-        <v>18</v>
-      </c>
-      <c r="AF12" s="15">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="8">
         <f>SUM(F13:AB13)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2017,15 +2036,15 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
@@ -2113,57 +2132,59 @@
       <c r="AF13" s="28"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15">
+        <v>4</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15">
+        <f>SUM(F15:AB15)+SUM(AC14,AD14)</f>
         <v>18</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="8">
-        <v>6</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8">
-        <f>SUM(F15:AB15)+SUM(AC14,AD14)</f>
-        <v>8</v>
-      </c>
-      <c r="AF14" s="8">
+      <c r="AF14" s="15">
         <f>SUM(F15:AB15)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2174,11 +2195,11 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
@@ -2270,57 +2291,59 @@
       <c r="AF15" s="28"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6">
         <f>SUM(F17:AB17)+SUM(AC16,AD16)</f>
-        <v>6</v>
-      </c>
-      <c r="AF16" s="7">
+        <v>8</v>
+      </c>
+      <c r="AF16" s="6">
         <f>SUM(F17:AB17)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2335,11 +2358,11 @@
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17" s="28">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
@@ -2427,57 +2450,59 @@
       <c r="AF17" s="28"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11">
-        <v>77</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="11">
-        <v>8</v>
-      </c>
-      <c r="G18" s="11">
-        <v>18</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7">
         <f>SUM(F19:AB19)+SUM(AC18,AD18)</f>
-        <v>4</v>
-      </c>
-      <c r="AF18" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="7">
         <f>SUM(F19:AB19)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2488,11 +2513,11 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" s="28">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="28">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
@@ -2584,57 +2609,59 @@
       <c r="AF19" s="28"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="2">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2">
-        <v>9</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
+      <c r="A20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="3">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3">
         <f>SUM(F21:AB21)+SUM(AC20,AD20)</f>
-        <v>4</v>
-      </c>
-      <c r="AF20" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="3">
         <f>SUM(F21:AB21)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2645,15 +2672,15 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="28">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="28">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21" s="28">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
@@ -2741,55 +2768,57 @@
       <c r="AF21" s="28"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11">
+        <v>77</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="11">
         <v>8</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
+      <c r="G22" s="11">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11">
+        <v>11</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11">
         <f>SUM(F23:AB23)+SUM(AC22,AD22)</f>
         <v>4</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22" s="11">
         <f>SUM(F23:AB23)</f>
         <v>4</v>
       </c>
@@ -2802,11 +2831,11 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="28">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
@@ -2898,57 +2927,59 @@
       <c r="AF23" s="28"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5">
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2">
         <f>SUM(F25:AB25)+SUM(AC24,AD24)</f>
-        <v>1</v>
-      </c>
-      <c r="AF24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="2">
         <f>SUM(F25:AB25)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -2959,11 +2990,11 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28">
         <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
@@ -3055,57 +3086,59 @@
       <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="3">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="3">
-        <v>13</v>
-      </c>
-      <c r="G26" s="3">
-        <v>10</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2">
         <f>SUM(F27:AB27)+SUM(AC26,AD26)</f>
-        <v>1</v>
-      </c>
-      <c r="AF26" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="2">
         <f>SUM(F27:AB27)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -3120,7 +3153,7 @@
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
@@ -3212,57 +3245,59 @@
       <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="A28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="6">
+        <v>81</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="5">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5">
-        <v>16</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5">
+      <c r="F28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="6">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6">
+        <v>8</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6">
         <f>SUM(F29:AB29)+SUM(AC28,AD28)</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF28" s="6">
         <f>SUM(F29:AB29)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -3281,7 +3316,7 @@
       </c>
       <c r="H29" s="28">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="28">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
@@ -3369,57 +3404,59 @@
       <c r="AF29" s="28"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="6">
-        <v>4</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="6">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6">
-        <v>17</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6">
+      <c r="A30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="11">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="11">
+        <v>16</v>
+      </c>
+      <c r="G30" s="11">
+        <v>13</v>
+      </c>
+      <c r="H30" s="11">
+        <v>9</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11">
         <f>SUM(F31:AB31)+SUM(AC30,AD30)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="11">
         <f>SUM(F31:AB31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3438,7 +3475,7 @@
       </c>
       <c r="H31" s="28">
         <f>IF(H30=1,25,IF(H30=2,18,IF(H30=3,15,IF(H30=4,12,IF(H30=5,10,IF(H30=6,8,IF(H30=7,6,IF(H30=8,4,IF(H30=9,2,IF(H30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="28">
         <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
@@ -3526,57 +3563,59 @@
       <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="9">
-        <v>22</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="9">
-        <v>11</v>
-      </c>
-      <c r="G32" s="9">
-        <v>11</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5">
+        <v>23</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5">
         <f>SUM(F33:AB33)+SUM(AC32,AD32)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="5">
         <f>SUM(F33:AB33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -3587,7 +3626,7 @@
       <c r="E33" s="28"/>
       <c r="F33" s="28">
         <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="28">
         <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
@@ -3683,57 +3722,59 @@
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="11">
-        <v>24</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="A34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="3">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="11">
-        <v>16</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="F34" s="3">
         <v>13</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11">
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3">
         <f>SUM(F35:AB35)+SUM(AC34,AD34)</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="3">
         <f>SUM(F35:AB35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -3748,7 +3789,7 @@
       </c>
       <c r="G35" s="28">
         <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="28">
         <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
@@ -3840,57 +3881,59 @@
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="3">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="3">
-        <v>15</v>
-      </c>
-      <c r="G36" s="3">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3">
+      <c r="A36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="9">
+        <v>22</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="9">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9">
+        <v>11</v>
+      </c>
+      <c r="H36" s="9">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9">
         <f>SUM(F37:AB37)+SUM(AC36,AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="9">
         <f>SUM(F37:AB37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -3909,7 +3952,7 @@
       </c>
       <c r="H37" s="28">
         <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="28">
         <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
@@ -3997,55 +4040,57 @@
       <c r="AF37" s="28"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="A38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="9">
-        <v>14</v>
-      </c>
-      <c r="G38" s="9">
-        <v>14</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9">
+      <c r="F38" s="5">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5">
+        <v>16</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5">
         <f>SUM(F39:AB39)+SUM(AC38,AD38)</f>
         <v>0</v>
       </c>
-      <c r="AF38" s="9">
+      <c r="AF38" s="5">
         <f>SUM(F39:AB39)</f>
         <v>0</v>
       </c>
@@ -4154,55 +4199,57 @@
       <c r="AF39" s="28"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="6">
-        <v>81</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="A40" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="9">
         <v>21</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="6">
-        <v>15</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6">
+      <c r="C40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="9">
+        <v>14</v>
+      </c>
+      <c r="G40" s="9">
+        <v>14</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9">
         <f>SUM(F41:AB41)+SUM(AC40,AD40)</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="6">
+      <c r="AF40" s="9">
         <f>SUM(F41:AB41)</f>
         <v>0</v>
       </c>
@@ -4370,7 +4417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4381,7 +4430,7 @@
     <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.25" style="1" customWidth="1"/>
@@ -4515,7 +4564,9 @@
       <c r="G2" s="9">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="23"/>
@@ -4538,7 +4589,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4557,7 +4608,7 @@
       </c>
       <c r="H3" s="28">
         <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="28">
         <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
@@ -4663,7 +4714,9 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -4686,7 +4739,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -4705,7 +4758,7 @@
       </c>
       <c r="H5" s="28">
         <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
@@ -4811,7 +4864,9 @@
       <c r="G6" s="24">
         <v>3</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="24">
+        <v>3</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="24"/>
       <c r="K6" s="8"/>
@@ -4834,7 +4889,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -4853,7 +4908,7 @@
       </c>
       <c r="H7" s="28">
         <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
@@ -4938,51 +4993,53 @@
       <c r="AC7" s="28"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>6</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -4993,15 +5050,15 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28">
         <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="28">
         <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="28">
         <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="28">
         <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
@@ -5086,49 +5143,51 @@
       <c r="AC9" s="28"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="15">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15">
-        <v>5</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="29">
+        <v>12</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7">
         <f>SUM(F11:AB11)</f>
         <v>8</v>
       </c>
@@ -5141,11 +5200,11 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
@@ -5234,51 +5293,53 @@
       <c r="AC11" s="28"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="15">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8">
         <f>SUM(F13:AB13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -5289,15 +5350,15 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
@@ -5382,51 +5443,53 @@
       <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="8">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="A14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="8">
-        <v>6</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8">
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18">
         <f>SUM(F15:AB15)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -5437,11 +5500,11 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
@@ -5530,51 +5593,53 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6">
         <f>SUM(F17:AB17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -5589,11 +5654,11 @@
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="28">
         <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
@@ -5678,51 +5743,53 @@
       <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11">
-        <v>77</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="11">
-        <v>8</v>
-      </c>
-      <c r="G18" s="29">
-        <v>18</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7">
         <f>SUM(F19:AB19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -5733,11 +5800,11 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28">
         <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="28">
         <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="28">
         <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
@@ -5826,51 +5893,53 @@
       <c r="AC19" s="28"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="2">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2">
+      <c r="A20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="3">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3">
         <f>SUM(F21:AB21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -5885,11 +5954,11 @@
       </c>
       <c r="G21" s="28">
         <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="28">
         <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="28">
         <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
@@ -5974,51 +6043,53 @@
       <c r="AC21" s="28"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="5">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5">
-        <v>16</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11">
+        <v>77</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="11">
+        <v>8</v>
+      </c>
+      <c r="G22" s="11">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11">
+        <v>11</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11">
         <f>SUM(F23:AB23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -6029,7 +6100,7 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28">
         <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="28">
         <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
@@ -6122,51 +6193,53 @@
       <c r="AC23" s="28"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="6">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6">
-        <v>17</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2">
         <f>SUM(F25:AB25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -6181,7 +6254,7 @@
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
@@ -6270,51 +6343,53 @@
       <c r="AC25" s="28"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="2">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="19">
-        <v>9</v>
-      </c>
-      <c r="G26" s="2">
-        <v>9</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2">
+      <c r="A26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="6">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="31">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6">
+        <v>8</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6">
         <f>SUM(F27:AB27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -6333,7 +6408,7 @@
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="28">
         <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
@@ -6418,49 +6493,51 @@
       <c r="AC27" s="28"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="3">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="4">
-        <v>13</v>
-      </c>
-      <c r="G28" s="3">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4">
+      <c r="A28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="5">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20">
         <f>SUM(F29:AB29)</f>
         <v>0</v>
       </c>
@@ -6566,49 +6643,51 @@
       <c r="AC29" s="28"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="9">
-        <v>22</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="9">
-        <v>11</v>
-      </c>
-      <c r="G30" s="9">
-        <v>11</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="19">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2">
         <f>SUM(F31:AB31)</f>
         <v>0</v>
       </c>
@@ -6714,49 +6793,51 @@
       <c r="AC31" s="28"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="5">
-        <v>23</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="A32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="4">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3">
         <v>10</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20">
+      <c r="H32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4">
         <f>SUM(F33:AB33)</f>
         <v>0</v>
       </c>
@@ -6862,49 +6943,51 @@
       <c r="AC33" s="28"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="11">
-        <v>24</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11">
-        <v>16</v>
-      </c>
-      <c r="G34" s="11">
-        <v>13</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22">
+      <c r="A34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="9">
+        <v>22</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="9">
+        <v>11</v>
+      </c>
+      <c r="G34" s="9">
+        <v>11</v>
+      </c>
+      <c r="H34" s="9">
+        <v>10</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9">
         <f>SUM(F35:AB35)</f>
         <v>0</v>
       </c>
@@ -7010,49 +7093,51 @@
       <c r="AC35" s="28"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="3">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="3">
-        <v>15</v>
-      </c>
-      <c r="G36" s="3">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3">
+      <c r="A36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="5">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="5">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20">
         <f>SUM(F37:AB37)</f>
         <v>0</v>
       </c>
@@ -7158,49 +7243,51 @@
       <c r="AC37" s="28"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="9">
-        <v>21</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="9">
-        <v>14</v>
-      </c>
-      <c r="G38" s="9">
-        <v>14</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9">
+      <c r="A38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="11">
+        <v>24</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="11">
+        <v>16</v>
+      </c>
+      <c r="G38" s="11">
+        <v>13</v>
+      </c>
+      <c r="H38" s="11">
+        <v>9</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22">
         <f>SUM(F39:AB39)</f>
         <v>0</v>
       </c>
@@ -7306,49 +7393,51 @@
       <c r="AC39" s="28"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="6">
-        <v>81</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="A40" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="9">
         <v>21</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="31">
-        <v>15</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6">
+      <c r="C40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="9">
+        <v>14</v>
+      </c>
+      <c r="G40" s="9">
+        <v>14</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9">
         <f>SUM(F41:AB41)</f>
         <v>0</v>
       </c>
@@ -7480,7 +7569,7 @@
     <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" style="1" bestFit="1" customWidth="1"/>
@@ -7615,7 +7704,9 @@
       <c r="G2" s="9">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="23"/>
@@ -7638,7 +7729,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -7657,7 +7748,7 @@
       </c>
       <c r="H3" s="28">
         <f>IF(H2=1,10,IF(H2=2,6,IF(H2=3,4,IF(H2=4,3,IF(H2=5,2,IF(H2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="28">
         <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
@@ -7763,7 +7854,9 @@
       <c r="G4" s="23">
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -7786,7 +7879,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -7805,7 +7898,7 @@
       </c>
       <c r="H5" s="28">
         <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
@@ -7911,7 +8004,9 @@
       <c r="G6" s="24">
         <v>3</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -7934,7 +8029,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -7953,7 +8048,7 @@
       </c>
       <c r="H7" s="28">
         <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
@@ -8038,51 +8133,53 @@
       <c r="AC7" s="28"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -8093,15 +8190,15 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="28">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="28">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="28">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
@@ -8186,49 +8283,51 @@
       <c r="AC9" s="28"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="15">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15">
-        <v>5</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7">
         <f>SUM(F11:AB11)</f>
         <v>4</v>
       </c>
@@ -8241,11 +8340,11 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
@@ -8334,51 +8433,53 @@
       <c r="AC11" s="28"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="15">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8">
         <f>SUM(F13:AB13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -8389,15 +8490,15 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
@@ -8482,51 +8583,53 @@
       <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="8">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="A14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="8">
-        <v>6</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8">
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18">
         <f>SUM(F15:AB15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -8537,11 +8640,11 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -8630,51 +8733,53 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="5">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5">
-        <v>16</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20">
+      <c r="F16" s="6">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6">
         <f>SUM(F17:AB17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -8693,7 +8798,7 @@
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="28">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
@@ -8778,49 +8883,51 @@
       <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="6">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="A18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="6">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6">
-        <v>17</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6">
+      <c r="F18" s="5">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f>SUM(F19:AB19)</f>
         <v>0</v>
       </c>
@@ -8947,7 +9054,9 @@
       <c r="G20" s="2">
         <v>9</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -9095,7 +9204,9 @@
       <c r="G22" s="7">
         <v>7</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="21"/>
       <c r="K22" s="7"/>
@@ -9243,7 +9354,9 @@
       <c r="G24" s="4">
         <v>12</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -9391,7 +9504,9 @@
       <c r="G26" s="9">
         <v>11</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9">
+        <v>10</v>
+      </c>
       <c r="I26" s="23"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -9539,7 +9654,9 @@
       <c r="G28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="43" t="s">
+        <v>108</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -9687,7 +9804,9 @@
       <c r="G30" s="11">
         <v>13</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="11">
+        <v>9</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -9835,7 +9954,9 @@
       <c r="G32" s="3">
         <v>12</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <v>7</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -9983,7 +10104,9 @@
       <c r="G34" s="2">
         <v>8</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="19"/>
@@ -10131,7 +10254,9 @@
       <c r="G36" s="9">
         <v>14</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -10279,7 +10404,9 @@
       <c r="G38" s="11">
         <v>18</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="11">
+        <v>11</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="22"/>
       <c r="K38" s="11"/>
@@ -10427,7 +10554,9 @@
       <c r="G40" s="6">
         <v>15</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6">
+        <v>8</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -10610,11 +10739,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E2" s="10">
         <f>'2023 Driver Ranking'!AF2+'2023 Driver Ranking'!AF4</f>
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10628,12 +10757,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="8">
-        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE14</f>
-        <v>38</v>
+        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE12</f>
+        <v>65</v>
       </c>
       <c r="E3" s="8">
-        <f>'2023 Driver Ranking'!AF6+'2023 Driver Ranking'!AF14</f>
-        <v>38</v>
+        <f>'2023 Driver Ranking'!AF6+'2023 Driver Ranking'!AF12</f>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10647,12 +10776,12 @@
         <v>67</v>
       </c>
       <c r="D4" s="15">
-        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE12</f>
-        <v>38</v>
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE14</f>
+        <v>56</v>
       </c>
       <c r="E4" s="15">
-        <f>'2023 Driver Ranking'!AF10+'2023 Driver Ranking'!AF12</f>
-        <v>38</v>
+        <f>'2023 Driver Ranking'!AF8+'2023 Driver Ranking'!AF14</f>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10666,107 +10795,107 @@
         <v>69</v>
       </c>
       <c r="D5" s="7">
-        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE16</f>
+        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE18</f>
         <v>26</v>
       </c>
       <c r="E5" s="7">
-        <f>'2023 Driver Ranking'!AF8+'2023 Driver Ranking'!AF16</f>
+        <f>'2023 Driver Ranking'!AF10+'2023 Driver Ranking'!AF18</f>
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE28</f>
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <f>'2023 Driver Ranking'!AF16+'2023 Driver Ranking'!AF28</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="2">
-        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE22</f>
+      <c r="D7" s="2">
+        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE26</f>
         <v>8</v>
       </c>
-      <c r="E6" s="2">
-        <f>'2023 Driver Ranking'!AF20+'2023 Driver Ranking'!AF22</f>
+      <c r="E7" s="2">
+        <f>'2023 Driver Ranking'!AF24+'2023 Driver Ranking'!AF26</f>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE34</f>
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'2023 Driver Ranking'!AF20+'2023 Driver Ranking'!AF34</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="11">
-        <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE34</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="11">
-        <f>'2023 Driver Ranking'!AF18+'2023 Driver Ranking'!AF34</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="D9" s="11">
+        <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE30</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="11">
+        <f>'2023 Driver Ranking'!AF22+'2023 Driver Ranking'!AF30</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="5">
-        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE28</f>
+      <c r="D10" s="5">
+        <f>'2023 Driver Ranking'!AE32+'2023 Driver Ranking'!AE38</f>
         <v>1</v>
       </c>
-      <c r="E8" s="5">
-        <f>'2023 Driver Ranking'!AF24+'2023 Driver Ranking'!AF28</f>
+      <c r="E10" s="5">
+        <f>'2023 Driver Ranking'!AF32+'2023 Driver Ranking'!AF38</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3">
-        <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE36</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <f>'2023 Driver Ranking'!AF26+'2023 Driver Ranking'!AF36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="6">
-        <f>'2023 Driver Ranking'!AE30+'2023 Driver Ranking'!AE40</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <f>'2023 Driver Ranking'!AF30+'2023 Driver Ranking'!AF40</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -10780,12 +10909,12 @@
         <v>68</v>
       </c>
       <c r="D11" s="10">
-        <f>'2023 Driver Ranking'!AE32+'2023 Driver Ranking'!AE38</f>
-        <v>0</v>
+        <f>'2023 Driver Ranking'!AE36+'2023 Driver Ranking'!AE40</f>
+        <v>1</v>
       </c>
       <c r="E11" s="10">
-        <f>'2023 Driver Ranking'!AF32+'2023 Driver Ranking'!AF38</f>
-        <v>0</v>
+        <f>'2023 Driver Ranking'!AF36+'2023 Driver Ranking'!AF40</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10841,7 +10970,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC4</f>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10855,8 +10984,8 @@
         <v>75</v>
       </c>
       <c r="D3" s="8">
-        <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC14</f>
-        <v>15</v>
+        <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC12</f>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10870,8 +10999,8 @@
         <v>67</v>
       </c>
       <c r="D4" s="15">
-        <f>'2003-2009 Driver Ranking'!AC10+'2003-2009 Driver Ranking'!AC12</f>
-        <v>15</v>
+        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC14</f>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10885,68 +11014,68 @@
         <v>69</v>
       </c>
       <c r="D5" s="7">
-        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC16</f>
+        <f>'2003-2009 Driver Ranking'!AC10+'2003-2009 Driver Ranking'!AC18</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC32</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="11">
-        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC34</f>
+      <c r="D8" s="11">
+        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="2">
-        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC26</f>
+      <c r="D9" s="2">
+        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC30</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="6">
-        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3">
-        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC36</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -10960,7 +11089,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="10">
-        <f>'2003-2009 Driver Ranking'!AC30+'2003-2009 Driver Ranking'!AC38</f>
+        <f>'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC40</f>
         <v>0</v>
       </c>
     </row>
@@ -10975,7 +11104,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="5">
-        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC32</f>
+        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC36</f>
         <v>0</v>
       </c>
     </row>
@@ -11031,7 +11160,7 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11045,8 +11174,8 @@
         <v>75</v>
       </c>
       <c r="D3" s="8">
-        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC14</f>
-        <v>9</v>
+        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC12</f>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11060,8 +11189,8 @@
         <v>67</v>
       </c>
       <c r="D4" s="15">
-        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC12</f>
-        <v>7</v>
+        <f>'1991-2002 Driver Ranking'!AC8+'1991-2002 Driver Ranking'!AC14</f>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11075,7 +11204,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="7">
-        <f>'1991-2002 Driver Ranking'!AC8+'1991-2002 Driver Ranking'!AC22</f>
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC22</f>
         <v>4</v>
       </c>
     </row>
@@ -11090,8 +11219,8 @@
         <v>75</v>
       </c>
       <c r="D6" s="6">
-        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC40</f>
-        <v>0</v>
+        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC40</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11165,7 +11294,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="5">
-        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC28</f>
+        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC28</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="114">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprint Qualifying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ranking System after 2010 
 Update Fastest Lap on 2019
 Update Sprint Qualifying on 2021</t>
@@ -486,6 +482,14 @@
   </si>
   <si>
     <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1049,8 +1053,7 @@
     <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -1067,7 +1070,7 @@
     <col min="25" max="26" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="44.375" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
@@ -1096,13 +1099,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>4</v>
@@ -1114,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>10</v>
@@ -1129,22 +1132,22 @@
         <v>12</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -1153,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>16</v>
@@ -1162,13 +1165,13 @@
         <v>48</v>
       </c>
       <c r="AD1" s="31" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1182,10 +1185,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -1196,7 +1199,9 @@
       <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1220,14 +1225,17 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD2" s="9"/>
+      <c r="AD2" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AB3)+SUM(AC2,AD2)</f>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="AF2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1250,7 +1258,7 @@
       </c>
       <c r="I3" s="28">
         <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J3" s="28">
         <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
@@ -1344,10 +1352,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -1358,7 +1366,9 @@
       <c r="H4" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1382,14 +1392,17 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD4" s="9"/>
+      <c r="AD4" s="9">
+        <f>8</f>
+        <v>8</v>
+      </c>
       <c r="AE4" s="9">
         <f>SUM(F5:AB5)+SUM(AC4,AD4)</f>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AF4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1412,7 +1425,7 @@
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
@@ -1506,7 +1519,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
@@ -1520,7 +1533,9 @@
       <c r="H6" s="8">
         <v>3</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>4</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1541,14 +1556,17 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="AE6" s="8">
         <f>SUM(F7:AB7)+SUM(AC6,AD6)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1571,7 +1589,7 @@
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
@@ -1679,7 +1697,9 @@
       <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15">
+        <v>6</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1700,14 +1720,17 @@
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
+      <c r="AD8" s="15">
+        <f>2</f>
+        <v>2</v>
+      </c>
       <c r="AE8" s="15">
         <f>SUM(F9:AB9)+SUM(AC8,AD8)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AF8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1730,7 +1753,7 @@
       </c>
       <c r="I9" s="28">
         <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="28">
         <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
@@ -1838,7 +1861,9 @@
       <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1859,14 +1884,17 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
+      <c r="AD10" s="7">
+        <f>4</f>
+        <v>4</v>
+      </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AB11)+SUM(AC10,AD10)</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AF10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1889,7 +1917,7 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
@@ -1973,59 +2001,67 @@
       <c r="AF11" s="28"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="8">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="A12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="15">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8">
-        <v>6</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15">
         <v>4</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8">
+      <c r="H12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="15">
+        <v>8</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="15">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="AE12" s="15">
         <f>SUM(F13:AB13)+SUM(AC12,AD12)</f>
-        <v>20</v>
-      </c>
-      <c r="AF12" s="8">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="15">
         <f>SUM(F13:AB13)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2036,19 +2072,19 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
@@ -2132,59 +2168,64 @@
       <c r="AF13" s="28"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="15">
-        <v>63</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="7">
+        <v>7</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="AE14" s="7">
+        <f>SUM(F15:AB15)+SUM(AC14,AD14)</f>
+        <v>28</v>
+      </c>
+      <c r="AF14" s="7">
+        <f>SUM(F15:AB15)</f>
         <v>21</v>
-      </c>
-      <c r="F14" s="15">
-        <v>7</v>
-      </c>
-      <c r="G14" s="15">
-        <v>4</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15">
-        <f>SUM(F15:AB15)+SUM(AC14,AD14)</f>
-        <v>18</v>
-      </c>
-      <c r="AF14" s="15">
-        <f>SUM(F15:AB15)</f>
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2195,11 +2236,11 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
@@ -2207,7 +2248,7 @@
       </c>
       <c r="I15" s="28">
         <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
@@ -2291,59 +2332,64 @@
       <c r="AF15" s="28"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="8">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="6">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6">
+      <c r="I16" s="8">
+        <v>7</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="8">
         <f>SUM(F17:AB17)+SUM(AC16,AD16)</f>
-        <v>8</v>
-      </c>
-      <c r="AF16" s="6">
+        <v>27</v>
+      </c>
+      <c r="AF16" s="8">
         <f>SUM(F17:AB17)</f>
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2354,7 +2400,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="28">
         <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
@@ -2362,11 +2408,11 @@
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I17" s="28">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="28">
         <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
@@ -2450,59 +2496,61 @@
       <c r="AF17" s="28"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="7">
-        <v>7</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6">
         <f>SUM(F19:AB19)+SUM(AC18,AD18)</f>
-        <v>6</v>
-      </c>
-      <c r="AF18" s="7">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="6">
         <f>SUM(F19:AB19)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2517,15 +2565,15 @@
       </c>
       <c r="G19" s="28">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" s="28">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="28">
         <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="28">
         <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
@@ -2610,7 +2658,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3">
         <v>27</v>
@@ -2633,7 +2681,9 @@
       <c r="H20" s="3">
         <v>7</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>17</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2778,7 +2828,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>26</v>
@@ -2792,7 +2842,9 @@
       <c r="H22" s="11">
         <v>11</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11">
+        <v>18</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -2949,9 +3001,11 @@
         <v>9</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I24" s="2">
+        <v>14</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3102,15 +3156,17 @@
         <v>35</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" s="2">
         <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I26" s="2">
+        <v>15</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3246,7 +3302,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="6">
         <v>81</v>
@@ -3261,7 +3317,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="6">
         <v>15</v>
@@ -3269,7 +3325,9 @@
       <c r="H28" s="6">
         <v>8</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6">
+        <v>11</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -3405,16 +3463,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="11">
         <v>24</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>41</v>
@@ -3428,7 +3486,9 @@
       <c r="H30" s="11">
         <v>9</v>
       </c>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -3563,59 +3623,61 @@
       <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="5">
-        <v>23</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="A32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="9">
+        <v>22</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="9">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9">
+        <v>11</v>
+      </c>
+      <c r="H32" s="9">
         <v>10</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5">
+      <c r="I32" s="9">
+        <v>10</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9">
         <f>SUM(F33:AB33)+SUM(AC32,AD32)</f>
-        <v>1</v>
-      </c>
-      <c r="AF32" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="9">
         <f>SUM(F33:AB33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -3626,7 +3688,7 @@
       <c r="E33" s="28"/>
       <c r="F33" s="28">
         <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="28">
         <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
@@ -3634,11 +3696,11 @@
       </c>
       <c r="H33" s="28">
         <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="28">
         <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="28">
         <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
@@ -3722,57 +3784,59 @@
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="3">
-        <v>20</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="3">
-        <v>13</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="A34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="5">
+        <v>23</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="5">
         <v>10</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3">
+      <c r="G34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="5">
+        <v>12</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5">
         <f>SUM(F35:AB35)+SUM(AC34,AD34)</f>
         <v>1</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AF34" s="5">
         <f>SUM(F35:AB35)</f>
         <v>1</v>
       </c>
@@ -3785,11 +3849,11 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28">
         <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="28">
         <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="28">
         <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
@@ -3881,57 +3945,59 @@
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="9">
-        <v>22</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="9">
-        <v>11</v>
-      </c>
-      <c r="G36" s="9">
-        <v>11</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="3">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="3">
+        <v>13</v>
+      </c>
+      <c r="G36" s="3">
         <v>10</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9">
+      <c r="H36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="3">
+        <v>13</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3">
         <f>SUM(F37:AB37)+SUM(AC36,AD36)</f>
         <v>1</v>
       </c>
-      <c r="AF36" s="9">
+      <c r="AF36" s="3">
         <f>SUM(F37:AB37)</f>
         <v>1</v>
       </c>
@@ -3948,11 +4014,11 @@
       </c>
       <c r="G37" s="28">
         <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="28">
         <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="28">
         <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
@@ -4041,13 +4107,13 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>54</v>
@@ -4062,9 +4128,11 @@
         <v>16</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="I38" s="5">
+        <v>16</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -4200,7 +4268,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="9">
         <v>21</v>
@@ -4209,10 +4277,10 @@
         <v>30</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="9">
         <v>14</v>
@@ -4221,9 +4289,11 @@
         <v>14</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -4385,7 +4455,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>57</v>
@@ -4401,10 +4471,10 @@
     </row>
     <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4417,9 +4487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4430,8 +4498,7 @@
     <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -4464,7 +4531,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>2</v>
@@ -4476,13 +4543,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>4</v>
@@ -4494,7 +4561,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>10</v>
@@ -4509,22 +4576,22 @@
         <v>12</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -4533,7 +4600,7 @@
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>16</v>
@@ -4553,10 +4620,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -4567,7 +4634,9 @@
       <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="23"/>
       <c r="L2" s="9"/>
@@ -4589,7 +4658,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4612,7 +4681,7 @@
       </c>
       <c r="I3" s="28">
         <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="28">
         <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
@@ -4703,10 +4772,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -4717,7 +4786,9 @@
       <c r="H4" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4739,7 +4810,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -4762,7 +4833,7 @@
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
@@ -4853,7 +4924,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
@@ -4867,7 +4938,9 @@
       <c r="H6" s="24">
         <v>3</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>4</v>
+      </c>
       <c r="J6" s="24"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -4889,7 +4962,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -4912,7 +4985,7 @@
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
@@ -5017,7 +5090,9 @@
       <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15">
+        <v>6</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -5039,7 +5114,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5062,7 +5137,7 @@
       </c>
       <c r="I9" s="28">
         <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="28">
         <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
@@ -5167,7 +5242,9 @@
       <c r="H10" s="29">
         <v>12</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="30">
+        <v>5</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -5189,7 +5266,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -5212,7 +5289,7 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
@@ -5303,7 +5380,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
@@ -5312,12 +5389,14 @@
         <v>6</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="8">
         <v>4</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8">
+        <v>7</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="24"/>
       <c r="L12" s="8"/>
@@ -5339,7 +5418,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8">
         <f>SUM(F13:AB13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -5362,7 +5441,7 @@
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
@@ -5465,9 +5544,11 @@
         <v>4</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="I14" s="18">
+        <v>8</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="18"/>
       <c r="L14" s="15"/>
@@ -5489,7 +5570,7 @@
       <c r="AB14" s="18"/>
       <c r="AC14" s="18">
         <f>SUM(F15:AB15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -5512,7 +5593,7 @@
       </c>
       <c r="I15" s="28">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
@@ -5593,53 +5674,55 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="6">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="6">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -5654,15 +5737,15 @@
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="28">
         <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="28">
         <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
@@ -5743,53 +5826,55 @@
       <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7">
-        <v>7</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6">
         <f>SUM(F19:AB19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -5804,11 +5889,11 @@
       </c>
       <c r="G19" s="28">
         <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="28">
         <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="28">
         <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
@@ -5894,7 +5979,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3">
         <v>27</v>
@@ -5917,7 +6002,9 @@
       <c r="H20" s="3">
         <v>7</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>17</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -6053,7 +6140,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>26</v>
@@ -6067,7 +6154,9 @@
       <c r="H22" s="11">
         <v>11</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11">
+        <v>18</v>
+      </c>
       <c r="J22" s="22"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -6209,15 +6298,17 @@
         <v>35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="2">
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="I24" s="2">
+        <v>15</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="19"/>
       <c r="L24" s="2"/>
@@ -6344,7 +6435,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="6">
         <v>81</v>
@@ -6359,7 +6450,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="31">
         <v>15</v>
@@ -6367,7 +6458,9 @@
       <c r="H26" s="6">
         <v>8</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6">
+        <v>11</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -6494,13 +6587,13 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5">
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>54</v>
@@ -6515,9 +6608,11 @@
         <v>16</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="I28" s="5">
+        <v>16</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -6665,9 +6760,11 @@
         <v>9</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I30" s="2">
+        <v>14</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -6794,13 +6891,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3">
         <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>40</v>
@@ -6815,9 +6912,11 @@
         <v>10</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="I32" s="3">
+        <v>13</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -6953,10 +7052,10 @@
         <v>50</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="9">
         <v>11</v>
@@ -6967,7 +7066,9 @@
       <c r="H34" s="9">
         <v>10</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="23">
+        <v>10</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7094,13 +7195,13 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="5">
         <v>23</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>54</v>
@@ -7112,12 +7213,14 @@
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="I36" s="5">
+        <v>12</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -7244,16 +7347,16 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="11">
         <v>24</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>26</v>
@@ -7267,7 +7370,9 @@
       <c r="H38" s="11">
         <v>9</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -7394,7 +7499,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="9">
         <v>21</v>
@@ -7403,10 +7508,10 @@
         <v>30</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="9">
         <v>14</v>
@@ -7415,9 +7520,11 @@
         <v>14</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7569,8 +7676,7 @@
     <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -7616,13 +7722,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>4</v>
@@ -7634,7 +7740,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>10</v>
@@ -7649,22 +7755,22 @@
         <v>12</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -7673,7 +7779,7 @@
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>16</v>
@@ -7693,10 +7799,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -7707,7 +7813,9 @@
       <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="23"/>
       <c r="L2" s="9"/>
@@ -7729,7 +7837,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -7752,7 +7860,7 @@
       </c>
       <c r="I3" s="28">
         <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="28">
         <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
@@ -7843,10 +7951,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -7857,7 +7965,9 @@
       <c r="H4" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -7879,7 +7989,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -7902,7 +8012,7 @@
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
@@ -7993,7 +8103,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
@@ -8007,7 +8117,9 @@
       <c r="H6" s="8">
         <v>3</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>4</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -8029,7 +8141,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -8052,7 +8164,7 @@
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
@@ -8157,7 +8269,9 @@
       <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15">
+        <v>6</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -8179,7 +8293,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -8202,7 +8316,7 @@
       </c>
       <c r="I9" s="28">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="28">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
@@ -8307,7 +8421,9 @@
       <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -8329,7 +8445,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -8352,7 +8468,7 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
@@ -8443,7 +8559,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
@@ -8452,12 +8568,14 @@
         <v>6</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="8">
         <v>4</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8">
+        <v>7</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="24"/>
       <c r="L12" s="8"/>
@@ -8583,53 +8701,55 @@
       <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="15">
-        <v>63</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="18">
+      <c r="H14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7">
+        <f>SUM(F15:AB15)</f>
         <v>4</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18">
-        <f>SUM(F15:AB15)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -8644,7 +8764,7 @@
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -8652,7 +8772,7 @@
       </c>
       <c r="I15" s="28">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
@@ -8733,53 +8853,55 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="15">
+        <v>63</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="15">
+        <v>7</v>
+      </c>
+      <c r="G16" s="18">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="6">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6">
+      <c r="H16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="15">
+        <v>8</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18">
         <f>SUM(F17:AB17)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -8794,11 +8916,11 @@
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="28">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
@@ -8883,53 +9005,55 @@
       <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="5">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5">
-        <v>16</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20">
+      <c r="F18" s="6">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6">
         <f>SUM(F19:AB19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -8948,7 +9072,7 @@
       </c>
       <c r="H19" s="28">
         <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="28">
         <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
@@ -9033,51 +9157,53 @@
       <c r="AC19" s="28"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="19">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2">
-        <v>9</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="5">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5">
+        <v>16</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="5">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20">
         <f>SUM(F21:AB21)</f>
         <v>0</v>
       </c>
@@ -9183,51 +9309,53 @@
       <c r="AC21" s="28"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="7">
-        <v>7</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="19">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="2">
+        <v>14</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2">
         <f>SUM(F23:AB23)</f>
         <v>0</v>
       </c>
@@ -9334,13 +9462,13 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>40</v>
@@ -9355,9 +9483,11 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="I24" s="3">
+        <v>13</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -9493,10 +9623,10 @@
         <v>50</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="9">
         <v>11</v>
@@ -9507,7 +9637,9 @@
       <c r="H26" s="9">
         <v>10</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="23">
+        <v>10</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -9634,13 +9766,13 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="5">
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>54</v>
@@ -9652,12 +9784,14 @@
         <v>10</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -9784,16 +9918,16 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="11">
         <v>24</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>26</v>
@@ -9807,7 +9941,9 @@
       <c r="H30" s="11">
         <v>9</v>
       </c>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -9934,7 +10070,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="3">
         <v>27</v>
@@ -9957,7 +10093,9 @@
       <c r="H32" s="3">
         <v>7</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <v>17</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -10099,15 +10237,17 @@
         <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="2">
         <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I34" s="2">
+        <v>15</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="19"/>
       <c r="L34" s="2"/>
@@ -10234,7 +10374,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="9">
         <v>21</v>
@@ -10243,10 +10383,10 @@
         <v>30</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="9">
         <v>14</v>
@@ -10255,9 +10395,11 @@
         <v>14</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -10393,7 +10535,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>26</v>
@@ -10407,7 +10549,9 @@
       <c r="H38" s="11">
         <v>11</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="11">
+        <v>18</v>
+      </c>
       <c r="J38" s="22"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -10534,7 +10678,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" s="6">
         <v>81</v>
@@ -10549,7 +10693,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G40" s="6">
         <v>15</v>
@@ -10557,7 +10701,9 @@
       <c r="H40" s="6">
         <v>8</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6">
+        <v>11</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -10712,95 +10858,95 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E2" s="10">
         <f>'2023 Driver Ranking'!AF2+'2023 Driver Ranking'!AF4</f>
-        <v>121</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="8">
-        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE12</f>
-        <v>65</v>
+        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE16</f>
+        <v>87</v>
       </c>
       <c r="E3" s="8">
-        <f>'2023 Driver Ranking'!AF6+'2023 Driver Ranking'!AF12</f>
-        <v>65</v>
+        <f>'2023 Driver Ranking'!AF6+'2023 Driver Ranking'!AF16</f>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15">
-        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE14</f>
-        <v>56</v>
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE12</f>
+        <v>76</v>
       </c>
       <c r="E4" s="15">
-        <f>'2023 Driver Ranking'!AF8+'2023 Driver Ranking'!AF14</f>
-        <v>56</v>
+        <f>'2023 Driver Ranking'!AF8+'2023 Driver Ranking'!AF12</f>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7">
-        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE18</f>
-        <v>26</v>
+        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE14</f>
+        <v>62</v>
       </c>
       <c r="E5" s="7">
-        <f>'2023 Driver Ranking'!AF10+'2023 Driver Ranking'!AF18</f>
-        <v>26</v>
+        <f>'2023 Driver Ranking'!AF10+'2023 Driver Ranking'!AF14</f>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10811,15 +10957,15 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6">
-        <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE28</f>
-        <v>12</v>
+        <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE28</f>
+        <v>14</v>
       </c>
       <c r="E6" s="6">
-        <f>'2023 Driver Ranking'!AF16+'2023 Driver Ranking'!AF28</f>
-        <v>12</v>
+        <f>'2023 Driver Ranking'!AF18+'2023 Driver Ranking'!AF28</f>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10830,7 +10976,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2">
         <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE26</f>
@@ -10849,26 +10995,26 @@
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3">
-        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE34</f>
+        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE36</f>
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <f>'2023 Driver Ranking'!AF20+'2023 Driver Ranking'!AF34</f>
+        <f>'2023 Driver Ranking'!AF20+'2023 Driver Ranking'!AF36</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11">
         <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE30</f>
@@ -10880,40 +11026,40 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="10">
+        <f>'2023 Driver Ranking'!AE32+'2023 Driver Ranking'!AE40</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <f>'2023 Driver Ranking'!AF32+'2023 Driver Ranking'!AF40</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="5">
-        <f>'2023 Driver Ranking'!AE32+'2023 Driver Ranking'!AE38</f>
+      <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="5">
+        <f>'2023 Driver Ranking'!AE34+'2023 Driver Ranking'!AE38</f>
         <v>1</v>
       </c>
-      <c r="E10" s="5">
-        <f>'2023 Driver Ranking'!AF32+'2023 Driver Ranking'!AF38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="10">
-        <f>'2023 Driver Ranking'!AE36+'2023 Driver Ranking'!AE40</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <f>'2023 Driver Ranking'!AF36+'2023 Driver Ranking'!AF40</f>
+      <c r="E11" s="5">
+        <f>'2023 Driver Ranking'!AF34+'2023 Driver Ranking'!AF38</f>
         <v>1</v>
       </c>
     </row>
@@ -10946,76 +11092,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC4</f>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="8">
         <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC12</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15">
         <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC14</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7">
-        <f>'2003-2009 Driver Ranking'!AC10+'2003-2009 Driver Ranking'!AC18</f>
-        <v>10</v>
+        <f>'2003-2009 Driver Ranking'!AC10+'2003-2009 Driver Ranking'!AC16</f>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11026,10 +11172,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6">
-        <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC26</f>
+        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC26</f>
         <v>4</v>
       </c>
     </row>
@@ -11041,7 +11187,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3">
         <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC32</f>
@@ -11050,13 +11196,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11">
         <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC38</f>
@@ -11071,7 +11217,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2">
         <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC30</f>
@@ -11080,13 +11226,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10">
         <f>'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC40</f>
@@ -11101,7 +11247,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5">
         <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC36</f>
@@ -11136,76 +11282,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="8">
         <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC12</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15">
-        <f>'1991-2002 Driver Ranking'!AC8+'1991-2002 Driver Ranking'!AC14</f>
-        <v>13</v>
+        <f>'1991-2002 Driver Ranking'!AC8+'1991-2002 Driver Ranking'!AC16</f>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7">
-        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC22</f>
-        <v>4</v>
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11216,10 +11362,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6">
-        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC40</f>
+        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC40</f>
         <v>1</v>
       </c>
     </row>
@@ -11231,22 +11377,22 @@
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2">
-        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC34</f>
+        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC34</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11">
         <f>'1991-2002 Driver Ranking'!AC30+'1991-2002 Driver Ranking'!AC38</f>
@@ -11261,7 +11407,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3">
         <f>'1991-2002 Driver Ranking'!AC24+'1991-2002 Driver Ranking'!AC32</f>
@@ -11270,13 +11416,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10">
         <f>'1991-2002 Driver Ranking'!AC26+'1991-2002 Driver Ranking'!AC36</f>
@@ -11291,10 +11437,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5">
-        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC28</f>
+        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC28</f>
         <v>0</v>
       </c>
     </row>
@@ -11332,27 +11478,27 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -11385,7 +11531,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="15">
         <v>4</v>
@@ -11441,21 +11587,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -11480,7 +11626,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -11528,21 +11674,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -11567,7 +11713,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -1202,7 +1202,9 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
@@ -1222,8 +1224,8 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="AD2" s="9">
         <f>6</f>
@@ -1231,11 +1233,11 @@
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AB3)+SUM(AC2,AD2)</f>
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="AF2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1262,7 +1264,7 @@
       </c>
       <c r="J3" s="28">
         <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K3" s="28">
         <f>IF(K2=1,25,IF(K2=2,18,IF(K2=3,15,IF(K2=4,12,IF(K2=5,10,IF(K2=6,8,IF(K2=7,6,IF(K2=8,4,IF(K2=9,2,IF(K2=10,1,0))))))))))</f>
@@ -1369,7 +1371,9 @@
       <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -1398,11 +1402,11 @@
       </c>
       <c r="AE4" s="9">
         <f>SUM(F5:AB5)+SUM(AC4,AD4)</f>
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="AF4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1429,7 +1433,7 @@
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K5" s="28">
         <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
@@ -1536,7 +1540,9 @@
       <c r="I6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1562,11 +1568,11 @@
       </c>
       <c r="AE6" s="8">
         <f>SUM(F7:AB7)+SUM(AC6,AD6)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1593,7 +1599,7 @@
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K7" s="28">
         <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
@@ -1700,7 +1706,9 @@
       <c r="I8" s="15">
         <v>6</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15">
+        <v>6</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -1726,11 +1734,11 @@
       </c>
       <c r="AE8" s="15">
         <f>SUM(F9:AB9)+SUM(AC8,AD8)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AF8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1757,7 +1765,7 @@
       </c>
       <c r="J9" s="28">
         <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="28">
         <f>IF(K8=1,25,IF(K8=2,18,IF(K8=3,15,IF(K8=4,12,IF(K8=5,10,IF(K8=6,8,IF(K8=7,6,IF(K8=8,4,IF(K8=9,2,IF(K8=10,1,0))))))))))</f>
@@ -1864,7 +1872,9 @@
       <c r="I10" s="7">
         <v>5</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1890,11 +1900,11 @@
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AB11)+SUM(AC10,AD10)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AF10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1921,7 +1931,7 @@
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
@@ -2028,7 +2038,9 @@
       <c r="I12" s="15">
         <v>8</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -2057,11 +2069,11 @@
       </c>
       <c r="AE12" s="15">
         <f>SUM(F13:AB13)+SUM(AC12,AD12)</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AF12" s="15">
         <f>SUM(F13:AB13)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2088,7 +2100,7 @@
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
@@ -2195,7 +2207,9 @@
       <c r="I14" s="7">
         <v>3</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>7</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2221,11 +2235,11 @@
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AB15)+SUM(AC14,AD14)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AF14" s="7">
         <f>SUM(F15:AB15)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2252,7 +2266,7 @@
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="28">
         <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
@@ -2359,7 +2373,9 @@
       <c r="I16" s="8">
         <v>7</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>12</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -2523,7 +2539,9 @@
       <c r="I18" s="6">
         <v>9</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>17</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -2657,61 +2675,63 @@
       <c r="AF19" s="28"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="3">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="3">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="2">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
         <f>SUM(F21:AB21)+SUM(AC20,AD20)</f>
-        <v>6</v>
-      </c>
-      <c r="AF20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AF20" s="2">
         <f>SUM(F21:AB21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2722,15 +2742,15 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="28">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="28">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I21" s="28">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
@@ -2738,7 +2758,7 @@
       </c>
       <c r="J21" s="28">
         <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" s="28">
         <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
@@ -2818,61 +2838,63 @@
       <c r="AF21" s="28"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="11">
-        <v>77</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="11">
-        <v>8</v>
-      </c>
-      <c r="G22" s="11">
-        <v>18</v>
-      </c>
-      <c r="H22" s="11">
-        <v>11</v>
-      </c>
-      <c r="I22" s="11">
-        <v>18</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11">
+      <c r="A22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="3">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3">
         <f>SUM(F23:AB23)+SUM(AC22,AD22)</f>
-        <v>4</v>
-      </c>
-      <c r="AF22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="3">
         <f>SUM(F23:AB23)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -2883,7 +2905,7 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="28">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
@@ -2891,7 +2913,7 @@
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="28">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
@@ -2980,10 +3002,10 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -2994,19 +3016,21 @@
       <c r="E24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="2">
-        <v>9</v>
+      <c r="F24" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G24" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I24" s="2">
-        <v>14</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3029,11 +3053,11 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2">
         <f>SUM(F25:AB25)+SUM(AC24,AD24)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF24" s="2">
         <f>SUM(F25:AB25)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -3044,11 +3068,11 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28">
         <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
@@ -3060,7 +3084,7 @@
       </c>
       <c r="J25" s="28">
         <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="28">
         <f>IF(K24=1,25,IF(K24=2,18,IF(K24=3,15,IF(K24=4,12,IF(K24=5,10,IF(K24=6,8,IF(K24=7,6,IF(K24=8,4,IF(K24=9,2,IF(K24=10,1,0))))))))))</f>
@@ -3140,59 +3164,61 @@
       <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="A26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11">
+        <v>77</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="11">
         <v>8</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="2">
-        <v>15</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2">
+      <c r="G26" s="11">
+        <v>18</v>
+      </c>
+      <c r="H26" s="11">
+        <v>11</v>
+      </c>
+      <c r="I26" s="11">
+        <v>18</v>
+      </c>
+      <c r="J26" s="11">
+        <v>13</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11">
         <f>SUM(F27:AB27)+SUM(AC26,AD26)</f>
         <v>4</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="11">
         <f>SUM(F27:AB27)</f>
         <v>4</v>
       </c>
@@ -3205,11 +3231,11 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28">
         <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
@@ -3328,7 +3354,9 @@
       <c r="I28" s="6">
         <v>11</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="6">
+        <v>19</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3489,7 +3517,9 @@
       <c r="I30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="11"/>
+      <c r="J30" s="11">
+        <v>16</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -3650,7 +3680,9 @@
       <c r="I32" s="9">
         <v>10</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="9">
+        <v>11</v>
+      </c>
       <c r="K32" s="10"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -3784,61 +3816,63 @@
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="5">
-        <v>23</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="A34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="3">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="3">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3">
         <v>10</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="5">
-        <v>12</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5">
+      <c r="I34" s="3">
+        <v>13</v>
+      </c>
+      <c r="J34" s="3">
+        <v>10</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3">
         <f>SUM(F35:AB35)+SUM(AC34,AD34)</f>
-        <v>1</v>
-      </c>
-      <c r="AF34" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="3">
         <f>SUM(F35:AB35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -3849,11 +3883,11 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28">
         <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="28">
         <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="28">
         <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
@@ -3865,7 +3899,7 @@
       </c>
       <c r="J35" s="28">
         <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="28">
         <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
@@ -3945,59 +3979,61 @@
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="3">
-        <v>20</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="3">
-        <v>13</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="A36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="5">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="5">
         <v>10</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="3">
-        <v>13</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3">
+      <c r="I36" s="5">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
+        <v>14</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5">
         <f>SUM(F37:AB37)+SUM(AC36,AD36)</f>
         <v>1</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AF36" s="5">
         <f>SUM(F37:AB37)</f>
         <v>1</v>
       </c>
@@ -4010,11 +4046,11 @@
       <c r="E37" s="28"/>
       <c r="F37" s="28">
         <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="28">
         <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="28">
         <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
@@ -4133,7 +4169,9 @@
       <c r="I38" s="5">
         <v>16</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5">
+        <v>20</v>
+      </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -4294,7 +4332,9 @@
       <c r="I40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="9">
+        <v>18</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -4637,7 +4677,9 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
       <c r="K2" s="23"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -4658,7 +4700,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4685,7 +4727,7 @@
       </c>
       <c r="J3" s="28">
         <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" s="28">
         <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
@@ -4789,7 +4831,9 @@
       <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -4810,7 +4854,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -4837,7 +4881,7 @@
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="28">
         <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
@@ -4941,7 +4985,9 @@
       <c r="I6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="24">
+        <v>3</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -4962,7 +5008,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -4989,7 +5035,7 @@
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="28">
         <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
@@ -5093,7 +5139,9 @@
       <c r="I8" s="15">
         <v>6</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15">
+        <v>6</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -5114,7 +5162,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5141,7 +5189,7 @@
       </c>
       <c r="J9" s="28">
         <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="28">
         <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
@@ -5245,7 +5293,9 @@
       <c r="I10" s="30">
         <v>5</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="30"/>
@@ -5266,7 +5316,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -5293,7 +5343,7 @@
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
@@ -5370,55 +5420,57 @@
       <c r="AC11" s="28"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="8">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="A12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="15">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8">
-        <v>6</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18">
         <v>4</v>
       </c>
-      <c r="I12" s="8">
-        <v>7</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8">
+      <c r="H12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="18">
+        <v>8</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18">
         <f>SUM(F13:AB13)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -5429,23 +5481,23 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
@@ -5522,55 +5574,57 @@
       <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="15">
-        <v>63</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="F14" s="8">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8">
         <v>7</v>
       </c>
-      <c r="G14" s="18">
-        <v>4</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="18">
-        <v>8</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18">
+      <c r="J14" s="8">
+        <v>12</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8">
         <f>SUM(F15:AB15)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -5581,19 +5635,19 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="28">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
@@ -5701,7 +5755,9 @@
       <c r="I16" s="7">
         <v>3</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="21">
+        <v>7</v>
+      </c>
       <c r="K16" s="30"/>
       <c r="L16" s="7"/>
       <c r="M16" s="30"/>
@@ -5722,7 +5778,7 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -5749,7 +5805,7 @@
       </c>
       <c r="J17" s="28">
         <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="28">
         <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
@@ -5853,7 +5909,9 @@
       <c r="I18" s="6">
         <v>9</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="31">
+        <v>17</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -6005,7 +6063,9 @@
       <c r="I20" s="3">
         <v>17</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3">
+        <v>15</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -6157,7 +6217,9 @@
       <c r="I22" s="11">
         <v>18</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="22">
+        <v>13</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -6309,7 +6371,9 @@
       <c r="I24" s="2">
         <v>15</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>9</v>
+      </c>
       <c r="K24" s="19"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -6461,7 +6525,9 @@
       <c r="I26" s="6">
         <v>11</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6">
+        <v>19</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -6586,55 +6652,57 @@
       <c r="AC27" s="28"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="5">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5">
-        <v>16</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="19">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I28" s="5">
-        <v>16</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20">
+      <c r="I28" s="2">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2">
         <f>SUM(F29:AB29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -6661,7 +6729,7 @@
       </c>
       <c r="J29" s="28">
         <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="28">
         <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
@@ -6738,53 +6806,55 @@
       <c r="AC29" s="28"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="19">
-        <v>9</v>
-      </c>
-      <c r="G30" s="2">
-        <v>9</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="A30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="5">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5">
+        <v>16</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="2">
-        <v>14</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2">
+      <c r="I30" s="5">
+        <v>16</v>
+      </c>
+      <c r="J30" s="5">
+        <v>20</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20">
         <f>SUM(F31:AB31)</f>
         <v>0</v>
       </c>
@@ -6917,7 +6987,9 @@
       <c r="I32" s="3">
         <v>13</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -7069,7 +7141,9 @@
       <c r="I34" s="23">
         <v>10</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="9">
+        <v>11</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -7221,7 +7295,9 @@
       <c r="I36" s="5">
         <v>12</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5">
+        <v>14</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -7373,7 +7449,9 @@
       <c r="I38" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="11">
+        <v>16</v>
+      </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -7525,7 +7603,9 @@
       <c r="I40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="9">
+        <v>18</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="23"/>
@@ -7816,7 +7896,9 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
       <c r="K2" s="23"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -7837,7 +7919,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <f>SUM(F3:AB3)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -7864,7 +7946,7 @@
       </c>
       <c r="J3" s="28">
         <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" s="28">
         <f>IF(K2=1,10,IF(K2=2,6,IF(K2=3,4,IF(K2=4,3,IF(K2=5,2,IF(K2=6,1,0))))))</f>
@@ -7968,7 +8050,9 @@
       <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -7989,7 +8073,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9">
         <f>SUM(F5:AB5)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -8016,7 +8100,7 @@
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="28">
         <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
@@ -8120,7 +8204,9 @@
       <c r="I6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -8141,7 +8227,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8">
         <f>SUM(F7:AB7)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -8168,7 +8254,7 @@
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="28">
         <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
@@ -8272,7 +8358,9 @@
       <c r="I8" s="15">
         <v>6</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15">
+        <v>6</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -8293,7 +8381,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="15">
         <f>SUM(F9:AB9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -8320,7 +8408,7 @@
       </c>
       <c r="J9" s="28">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="28">
         <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
@@ -8424,7 +8512,9 @@
       <c r="I10" s="7">
         <v>5</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -8445,7 +8535,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -8472,7 +8562,7 @@
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
@@ -8549,55 +8639,57 @@
       <c r="AC11" s="28"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="8">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="A12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="15">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8">
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="15">
+        <v>8</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18">
+        <f>SUM(F13:AB13)</f>
         <v>6</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4</v>
-      </c>
-      <c r="I12" s="8">
-        <v>7</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8">
-        <f>SUM(F13:AB13)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -8608,15 +8700,15 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
@@ -8624,7 +8716,7 @@
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
@@ -8701,53 +8793,55 @@
       <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8">
         <v>7</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7">
+      <c r="J14" s="8">
+        <v>12</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8">
         <f>SUM(F15:AB15)</f>
         <v>4</v>
       </c>
@@ -8760,7 +8854,7 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
@@ -8768,11 +8862,11 @@
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="28">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
@@ -8853,55 +8947,57 @@
       <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="15">
-        <v>63</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="18">
+      <c r="H16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="21">
+        <v>7</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7">
+        <f>SUM(F17:AB17)</f>
         <v>4</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="15">
-        <v>8</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18">
-        <f>SUM(F17:AB17)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -8916,7 +9012,7 @@
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
@@ -8924,7 +9020,7 @@
       </c>
       <c r="I17" s="28">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="28">
         <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
@@ -9032,7 +9128,9 @@
       <c r="I18" s="6">
         <v>9</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>17</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -9184,7 +9282,9 @@
       <c r="I20" s="5">
         <v>16</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>20</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -9336,7 +9436,9 @@
       <c r="I22" s="2">
         <v>14</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -9488,7 +9590,9 @@
       <c r="I24" s="3">
         <v>13</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>10</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -9640,7 +9744,9 @@
       <c r="I26" s="23">
         <v>10</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9">
+        <v>11</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -9792,7 +9898,9 @@
       <c r="I28" s="5">
         <v>12</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5">
+        <v>14</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -9944,7 +10052,9 @@
       <c r="I30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="11"/>
+      <c r="J30" s="11">
+        <v>16</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -10096,7 +10206,9 @@
       <c r="I32" s="3">
         <v>17</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>15</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -10248,7 +10360,9 @@
       <c r="I34" s="2">
         <v>15</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <v>9</v>
+      </c>
       <c r="K34" s="19"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -10400,7 +10514,9 @@
       <c r="I36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="9">
+        <v>18</v>
+      </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="23"/>
@@ -10552,7 +10668,9 @@
       <c r="I38" s="11">
         <v>18</v>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="22">
+        <v>13</v>
+      </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -10704,7 +10822,9 @@
       <c r="I40" s="6">
         <v>11</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="6">
+        <v>19</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -10885,11 +11005,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="E2" s="10">
         <f>'2023 Driver Ranking'!AF2+'2023 Driver Ranking'!AF4</f>
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10904,11 +11024,11 @@
       </c>
       <c r="D3" s="8">
         <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE16</f>
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E3" s="8">
         <f>'2023 Driver Ranking'!AF6+'2023 Driver Ranking'!AF16</f>
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10923,11 +11043,11 @@
       </c>
       <c r="D4" s="15">
         <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE12</f>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E4" s="15">
         <f>'2023 Driver Ranking'!AF8+'2023 Driver Ranking'!AF12</f>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10942,11 +11062,11 @@
       </c>
       <c r="D5" s="7">
         <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE14</f>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E5" s="7">
         <f>'2023 Driver Ranking'!AF10+'2023 Driver Ranking'!AF14</f>
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10979,12 +11099,12 @@
         <v>70</v>
       </c>
       <c r="D7" s="2">
-        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE26</f>
-        <v>8</v>
+        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE24</f>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
-        <f>'2023 Driver Ranking'!AF24+'2023 Driver Ranking'!AF26</f>
-        <v>8</v>
+        <f>'2023 Driver Ranking'!AF20+'2023 Driver Ranking'!AF24</f>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -10998,12 +11118,12 @@
         <v>71</v>
       </c>
       <c r="D8" s="3">
-        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE36</f>
-        <v>7</v>
+        <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE34</f>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <f>'2023 Driver Ranking'!AF20+'2023 Driver Ranking'!AF36</f>
-        <v>7</v>
+        <f>'2023 Driver Ranking'!AF22+'2023 Driver Ranking'!AF34</f>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11017,11 +11137,11 @@
         <v>72</v>
       </c>
       <c r="D9" s="11">
-        <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE30</f>
+        <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE30</f>
         <v>6</v>
       </c>
       <c r="E9" s="11">
-        <f>'2023 Driver Ranking'!AF22+'2023 Driver Ranking'!AF30</f>
+        <f>'2023 Driver Ranking'!AF26+'2023 Driver Ranking'!AF30</f>
         <v>6</v>
       </c>
     </row>
@@ -11055,11 +11175,11 @@
         <v>74</v>
       </c>
       <c r="D11" s="5">
-        <f>'2023 Driver Ranking'!AE34+'2023 Driver Ranking'!AE38</f>
+        <f>'2023 Driver Ranking'!AE36+'2023 Driver Ranking'!AE38</f>
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <f>'2023 Driver Ranking'!AF34+'2023 Driver Ranking'!AF38</f>
+        <f>'2023 Driver Ranking'!AF36+'2023 Driver Ranking'!AF38</f>
         <v>1</v>
       </c>
     </row>
@@ -11116,7 +11236,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC4</f>
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11130,8 +11250,8 @@
         <v>74</v>
       </c>
       <c r="D3" s="8">
-        <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC12</f>
-        <v>33</v>
+        <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC14</f>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11145,8 +11265,8 @@
         <v>66</v>
       </c>
       <c r="D4" s="15">
-        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC14</f>
-        <v>27</v>
+        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC12</f>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11161,7 +11281,7 @@
       </c>
       <c r="D5" s="7">
         <f>'2003-2009 Driver Ranking'!AC10+'2003-2009 Driver Ranking'!AC16</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11195,32 +11315,32 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2">
+        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2">
-        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC30</f>
         <v>1</v>
       </c>
     </row>
@@ -11250,7 +11370,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="5">
-        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC36</f>
+        <f>'2003-2009 Driver Ranking'!AC30+'2003-2009 Driver Ranking'!AC36</f>
         <v>0</v>
       </c>
     </row>
@@ -11306,7 +11426,7 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11320,8 +11440,8 @@
         <v>74</v>
       </c>
       <c r="D3" s="8">
-        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC12</f>
-        <v>19</v>
+        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC14</f>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11335,8 +11455,8 @@
         <v>66</v>
       </c>
       <c r="D4" s="15">
-        <f>'1991-2002 Driver Ranking'!AC8+'1991-2002 Driver Ranking'!AC16</f>
-        <v>14</v>
+        <f>'1991-2002 Driver Ranking'!AC8+'1991-2002 Driver Ranking'!AC12</f>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11350,8 +11470,8 @@
         <v>68</v>
       </c>
       <c r="D5" s="7">
-        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC14</f>
-        <v>10</v>
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC16</f>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -500,7 +500,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +545,36 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -658,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -708,7 +738,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -725,6 +754,52 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,9 +1134,9 @@
     <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="44" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="44" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
@@ -1129,7 +1204,7 @@
       <c r="S1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="32" t="s">
         <v>93</v>
       </c>
       <c r="U1" s="27" t="s">
@@ -1138,7 +1213,7 @@
       <c r="V1" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="32" t="s">
         <v>79</v>
       </c>
       <c r="X1" s="27" t="s">
@@ -1153,10 +1228,10 @@
       <c r="AA1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="30" t="s">
         <v>111</v>
       </c>
       <c r="AD1" s="2" t="s">
@@ -1200,7 +1275,9 @@
       <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
@@ -1208,17 +1285,17 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="34"/>
+      <c r="W2" s="33"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="AC2" s="9">
         <f>6</f>
@@ -1226,11 +1303,11 @@
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1265,7 +1342,7 @@
       </c>
       <c r="L3" s="28">
         <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M3" s="28">
         <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
@@ -1295,7 +1372,7 @@
         <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="34">
         <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1307,7 +1384,7 @@
         <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="34">
         <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1333,70 +1410,72 @@
       <c r="AE3" s="28"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="50">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="50">
         <v>2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="50">
         <v>5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="50">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="50">
         <v>2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="50">
         <v>16</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9">
+      <c r="L4" s="50">
+        <v>4</v>
+      </c>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="50">
         <f>8</f>
         <v>8</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AD4" s="50">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>105</v>
-      </c>
-      <c r="AE4" s="9">
+        <v>117</v>
+      </c>
+      <c r="AE4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1431,7 +1510,7 @@
       </c>
       <c r="L5" s="28">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
@@ -1461,7 +1540,7 @@
         <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="34">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1473,7 +1552,7 @@
         <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="34">
         <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1499,67 +1578,69 @@
       <c r="AE5" s="28"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="46">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="45">
         <v>3</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="45">
         <v>3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="45">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="45">
         <v>4</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="45">
         <v>3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="45">
         <v>2</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8">
+      <c r="L6" s="45">
+        <v>7</v>
+      </c>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="45">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>93</v>
-      </c>
-      <c r="AE6" s="8">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1594,7 +1675,7 @@
       </c>
       <c r="L7" s="28">
         <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
@@ -1624,7 +1705,7 @@
         <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1636,7 +1717,7 @@
         <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="34">
         <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1662,70 +1743,72 @@
       <c r="AE7" s="28"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="69">
         <v>44</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="69">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="69">
         <v>5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="69">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="69">
         <v>6</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="69">
         <v>6</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="69">
         <v>4</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15">
+      <c r="L8" s="69">
+        <v>2</v>
+      </c>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="69">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8" s="69">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>69</v>
-      </c>
-      <c r="AE8" s="15">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1760,7 +1843,7 @@
       </c>
       <c r="L9" s="28">
         <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M9" s="28">
         <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
@@ -1790,7 +1873,7 @@
         <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="34">
         <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1802,7 +1885,7 @@
         <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1861,7 +1944,9 @@
       <c r="K10" s="15">
         <v>5</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15">
+        <v>3</v>
+      </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
@@ -1869,10 +1954,10 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="37"/>
+      <c r="T10" s="36"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="37"/>
+      <c r="W10" s="36"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
@@ -1887,11 +1972,11 @@
       </c>
       <c r="AD10" s="15">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AE10" s="15">
         <f>SUM(F11:AA11)</f>
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1926,7 +2011,7 @@
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
@@ -1956,7 +2041,7 @@
         <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="34">
         <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1968,7 +2053,7 @@
         <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1994,67 +2079,69 @@
       <c r="AE11" s="28"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="59">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="59">
         <v>4</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="59">
         <v>6</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="59">
         <v>12</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="59">
         <v>5</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="59">
         <v>5</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="59">
         <v>8</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7">
+      <c r="L12" s="59">
+        <v>5</v>
+      </c>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="59">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>48</v>
-      </c>
-      <c r="AE12" s="7">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="59">
         <f>SUM(F13:AA13)</f>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2089,7 +2176,7 @@
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
@@ -2119,7 +2206,7 @@
         <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="34">
         <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2131,7 +2218,7 @@
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13" s="34">
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2190,7 +2277,9 @@
       <c r="K14" s="7">
         <v>6</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7">
+        <v>11</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2198,10 +2287,10 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="36"/>
+      <c r="T14" s="35"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="36"/>
+      <c r="W14" s="35"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -2282,7 +2371,7 @@
         <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="34">
         <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2294,7 +2383,7 @@
         <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="34">
         <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2353,7 +2442,9 @@
       <c r="K16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8">
+        <v>6</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -2361,10 +2452,10 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="42"/>
+      <c r="T16" s="41"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="42"/>
+      <c r="W16" s="41"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -2376,11 +2467,11 @@
       </c>
       <c r="AD16" s="8">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AE16" s="8">
         <f>SUM(F17:AA17)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2415,7 +2506,7 @@
       </c>
       <c r="L17" s="28">
         <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M17" s="28">
         <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
@@ -2445,7 +2536,7 @@
         <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="34">
         <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2457,7 +2548,7 @@
         <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="34">
         <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2516,7 +2607,9 @@
       <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>8</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2524,10 +2617,10 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="39"/>
+      <c r="T18" s="38"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="39"/>
+      <c r="W18" s="38"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -2536,11 +2629,11 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2">
         <f>SUM(F19:AA19)+SUM(AB18,AC18)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE18" s="2">
         <f>SUM(F19:AA19)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2575,7 +2668,7 @@
       </c>
       <c r="L19" s="28">
         <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="28">
         <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
@@ -2605,7 +2698,7 @@
         <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="34">
         <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2617,7 +2710,7 @@
         <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="34">
         <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2643,64 +2736,66 @@
       <c r="AE19" s="28"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="53">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="53">
         <v>9</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="53">
         <v>9</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="53">
         <v>14</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="53">
         <v>8</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="53">
         <v>7</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2">
+      <c r="L20" s="53">
+        <v>10</v>
+      </c>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53">
         <f>SUM(F21:AA21)+SUM(AB20,AC20)</f>
-        <v>14</v>
-      </c>
-      <c r="AE20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE20" s="53">
         <f>SUM(F21:AA21)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2735,7 +2830,7 @@
       </c>
       <c r="L21" s="28">
         <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="28">
         <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
@@ -2765,7 +2860,7 @@
         <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="34">
         <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2777,7 +2872,7 @@
         <f>IF(V20=1,25,IF(V20=2,18,IF(V20=3,15,IF(V20=4,12,IF(V20=5,10,IF(V20=6,8,IF(V20=7,6,IF(V20=8,4,IF(V20=9,2,IF(V20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21" s="34">
         <f>IF(W20=1,25,IF(W20=2,18,IF(W20=3,15,IF(W20=4,12,IF(W20=5,10,IF(W20=6,8,IF(W20=7,6,IF(W20=8,4,IF(W20=9,2,IF(W20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2803,62 +2898,64 @@
       <c r="AE21" s="28"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="65">
         <v>4</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="65">
         <v>17</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="65">
         <v>17</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="65">
         <v>6</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="65">
         <v>9</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="65">
         <v>17</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="65">
         <v>9</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6">
+      <c r="L22" s="65">
+        <v>17</v>
+      </c>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65">
         <f>SUM(F23:AA23)+SUM(AB22,AC22)</f>
         <v>12</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AE22" s="65">
         <f>SUM(F23:AA23)</f>
         <v>12</v>
       </c>
@@ -2925,7 +3022,7 @@
         <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T23" s="35">
+      <c r="T23" s="34">
         <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2937,7 +3034,7 @@
         <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23" s="34">
         <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2963,62 +3060,64 @@
       <c r="AE23" s="28"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="62">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="62">
         <v>15</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="62">
         <v>12</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="62">
         <v>7</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="62">
         <v>17</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="62">
         <v>15</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="62">
         <v>17</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3">
+      <c r="L24" s="62">
+        <v>15</v>
+      </c>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62">
         <f>SUM(F25:AA25)+SUM(AB24,AC24)</f>
         <v>6</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE24" s="62">
         <f>SUM(F25:AA25)</f>
         <v>6</v>
       </c>
@@ -3085,7 +3184,7 @@
         <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T25" s="35">
+      <c r="T25" s="34">
         <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3097,7 +3196,7 @@
         <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W25" s="35">
+      <c r="W25" s="34">
         <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3156,7 +3255,9 @@
       <c r="K26" s="6">
         <v>10</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6">
+        <v>13</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -3164,10 +3265,10 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="38"/>
+      <c r="T26" s="37"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="38"/>
+      <c r="W26" s="37"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -3245,7 +3346,7 @@
         <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T27" s="35">
+      <c r="T27" s="34">
         <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3257,7 +3358,7 @@
         <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W27" s="35">
+      <c r="W27" s="34">
         <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3316,7 +3417,9 @@
       <c r="K28" s="11">
         <v>11</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="11">
+        <v>19</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
@@ -3324,10 +3427,10 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="40"/>
+      <c r="T28" s="39"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="40"/>
+      <c r="W28" s="39"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
@@ -3405,7 +3508,7 @@
         <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="34">
         <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3417,7 +3520,7 @@
         <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W29" s="35">
+      <c r="W29" s="34">
         <f>IF(W28=1,25,IF(W28=2,18,IF(W28=3,15,IF(W28=4,12,IF(W28=5,10,IF(W28=6,8,IF(W28=7,6,IF(W28=8,4,IF(W28=9,2,IF(W28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3443,64 +3546,66 @@
       <c r="AE29" s="28"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="48">
         <v>24</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="48">
         <v>16</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="48">
         <v>13</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="48">
         <v>9</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="48">
         <v>16</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="48">
         <v>13</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11">
+      <c r="L30" s="48">
+        <v>9</v>
+      </c>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48">
         <f>SUM(F31:AA31)+SUM(AB30,AC30)</f>
-        <v>2</v>
-      </c>
-      <c r="AE30" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="48">
         <f>SUM(F31:AA31)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -3535,7 +3640,7 @@
       </c>
       <c r="L31" s="28">
         <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="28">
         <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
@@ -3565,7 +3670,7 @@
         <f>IF(S30=1,25,IF(S30=2,18,IF(S30=3,15,IF(S30=4,12,IF(S30=5,10,IF(S30=6,8,IF(S30=7,6,IF(S30=8,4,IF(S30=9,2,IF(S30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T31" s="35">
+      <c r="T31" s="34">
         <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3577,7 +3682,7 @@
         <f>IF(V30=1,25,IF(V30=2,18,IF(V30=3,15,IF(V30=4,12,IF(V30=5,10,IF(V30=6,8,IF(V30=7,6,IF(V30=8,4,IF(V30=9,2,IF(V30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W31" s="35">
+      <c r="W31" s="34">
         <f>IF(W30=1,25,IF(W30=2,18,IF(W30=3,15,IF(W30=4,12,IF(W30=5,10,IF(W30=6,8,IF(W30=7,6,IF(W30=8,4,IF(W30=9,2,IF(W30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3603,62 +3708,64 @@
       <c r="AE31" s="28"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="50">
         <v>22</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="50">
         <v>11</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="50">
         <v>11</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="50">
         <v>10</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="50">
         <v>10</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="50">
         <v>11</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="50">
         <v>15</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9">
+      <c r="L32" s="50">
+        <v>12</v>
+      </c>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50">
         <f>SUM(F33:AA33)+SUM(AB32,AC32)</f>
         <v>2</v>
       </c>
-      <c r="AE32" s="9">
+      <c r="AE32" s="50">
         <f>SUM(F33:AA33)</f>
         <v>2</v>
       </c>
@@ -3725,7 +3832,7 @@
         <f>IF(S32=1,25,IF(S32=2,18,IF(S32=3,15,IF(S32=4,12,IF(S32=5,10,IF(S32=6,8,IF(S32=7,6,IF(S32=8,4,IF(S32=9,2,IF(S32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T33" s="35">
+      <c r="T33" s="34">
         <f>IF(T32=1,25,IF(T32=2,18,IF(T32=3,15,IF(T32=4,12,IF(T32=5,10,IF(T32=6,8,IF(T32=7,6,IF(T32=8,4,IF(T32=9,2,IF(T32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3737,7 +3844,7 @@
         <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W33" s="35">
+      <c r="W33" s="34">
         <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3796,7 +3903,9 @@
       <c r="K34" s="3">
         <v>19</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3">
+        <v>18</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3804,10 +3913,10 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="41"/>
+      <c r="T34" s="40"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="41"/>
+      <c r="W34" s="40"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
@@ -3885,7 +3994,7 @@
         <f>IF(S34=1,25,IF(S34=2,18,IF(S34=3,15,IF(S34=4,12,IF(S34=5,10,IF(S34=6,8,IF(S34=7,6,IF(S34=8,4,IF(S34=9,2,IF(S34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T35" s="35">
+      <c r="T35" s="34">
         <f>IF(T34=1,25,IF(T34=2,18,IF(T34=3,15,IF(T34=4,12,IF(T34=5,10,IF(T34=6,8,IF(T34=7,6,IF(T34=8,4,IF(T34=9,2,IF(T34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3897,7 +4006,7 @@
         <f>IF(V34=1,25,IF(V34=2,18,IF(V34=3,15,IF(V34=4,12,IF(V34=5,10,IF(V34=6,8,IF(V34=7,6,IF(V34=8,4,IF(V34=9,2,IF(V34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W35" s="35">
+      <c r="W35" s="34">
         <f>IF(W34=1,25,IF(W34=2,18,IF(W34=3,15,IF(W34=4,12,IF(W34=5,10,IF(W34=6,8,IF(W34=7,6,IF(W34=8,4,IF(W34=9,2,IF(W34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3956,7 +4065,9 @@
       <c r="K36" s="5">
         <v>14</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5">
+        <v>16</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3964,10 +4075,10 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="43"/>
+      <c r="T36" s="42"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="43"/>
+      <c r="W36" s="42"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
@@ -4045,7 +4156,7 @@
         <f>IF(S36=1,25,IF(S36=2,18,IF(S36=3,15,IF(S36=4,12,IF(S36=5,10,IF(S36=6,8,IF(S36=7,6,IF(S36=8,4,IF(S36=9,2,IF(S36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T37" s="35">
+      <c r="T37" s="34">
         <f>IF(T36=1,25,IF(T36=2,18,IF(T36=3,15,IF(T36=4,12,IF(T36=5,10,IF(T36=6,8,IF(T36=7,6,IF(T36=8,4,IF(T36=9,2,IF(T36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4057,7 +4168,7 @@
         <f>IF(V36=1,25,IF(V36=2,18,IF(V36=3,15,IF(V36=4,12,IF(V36=5,10,IF(V36=6,8,IF(V36=7,6,IF(V36=8,4,IF(V36=9,2,IF(V36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W37" s="35">
+      <c r="W37" s="34">
         <f>IF(W36=1,25,IF(W36=2,18,IF(W36=3,15,IF(W36=4,12,IF(W36=5,10,IF(W36=6,8,IF(W36=7,6,IF(W36=8,4,IF(W36=9,2,IF(W36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4083,62 +4194,64 @@
       <c r="AE37" s="28"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="72">
         <v>2</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="72">
         <v>12</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="72">
         <v>16</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="72">
         <v>16</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="72">
         <v>20</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="72">
         <v>18</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5">
+      <c r="L38" s="72">
+        <v>20</v>
+      </c>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72">
         <f>SUM(F39:AA39)+SUM(AB38,AC38)</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="5">
+      <c r="AE38" s="72">
         <f>SUM(F39:AA39)</f>
         <v>0</v>
       </c>
@@ -4205,7 +4318,7 @@
         <f>IF(S38=1,25,IF(S38=2,18,IF(S38=3,15,IF(S38=4,12,IF(S38=5,10,IF(S38=6,8,IF(S38=7,6,IF(S38=8,4,IF(S38=9,2,IF(S38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="T39" s="35">
+      <c r="T39" s="34">
         <f>IF(T38=1,25,IF(T38=2,18,IF(T38=3,15,IF(T38=4,12,IF(T38=5,10,IF(T38=6,8,IF(T38=7,6,IF(T38=8,4,IF(T38=9,2,IF(T38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4217,7 +4330,7 @@
         <f>IF(V38=1,25,IF(V38=2,18,IF(V38=3,15,IF(V38=4,12,IF(V38=5,10,IF(V38=6,8,IF(V38=7,6,IF(V38=8,4,IF(V38=9,2,IF(V38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="W39" s="35">
+      <c r="W39" s="34">
         <f>IF(W38=1,25,IF(W38=2,18,IF(W38=3,15,IF(W38=4,12,IF(W38=5,10,IF(W38=6,8,IF(W38=7,6,IF(W38=8,4,IF(W38=9,2,IF(W38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4276,7 +4389,9 @@
       <c r="K40" s="9">
         <v>12</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="9">
+        <v>14</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -4284,10 +4399,10 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="10"/>
-      <c r="T40" s="34"/>
+      <c r="T40" s="33"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
-      <c r="W40" s="44"/>
+      <c r="W40" s="43"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -4365,7 +4480,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T41" s="35">
+      <c r="T41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4377,7 +4492,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W41" s="35">
+      <c r="W41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4484,11 +4599,11 @@
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10" style="44" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="44" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.25" style="44" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
@@ -4552,7 +4667,7 @@
       <c r="S1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="32" t="s">
         <v>93</v>
       </c>
       <c r="U1" s="27" t="s">
@@ -4561,7 +4676,7 @@
       <c r="V1" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="32" t="s">
         <v>79</v>
       </c>
       <c r="X1" s="27" t="s">
@@ -4614,7 +4729,9 @@
       <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
       <c r="M2" s="9"/>
       <c r="N2" s="23"/>
       <c r="O2" s="9"/>
@@ -4623,16 +4740,16 @@
       <c r="R2" s="23"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
       <c r="X2" s="9"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -4667,7 +4784,7 @@
       </c>
       <c r="L3" s="28">
         <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="28">
         <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
@@ -4701,15 +4818,15 @@
         <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="34">
         <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="34">
         <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="34">
         <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -4717,11 +4834,11 @@
         <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="34">
         <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="34">
         <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -4732,58 +4849,60 @@
       <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="50">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="50">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="50">
         <v>5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="50">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="50">
         <v>2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="50">
         <v>16</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9">
+      <c r="L4" s="50">
+        <v>4</v>
+      </c>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -4818,7 +4937,7 @@
       </c>
       <c r="L5" s="28">
         <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
@@ -4852,15 +4971,15 @@
         <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="34">
         <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="34">
         <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="34">
         <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -4868,11 +4987,11 @@
         <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5" s="34">
         <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="34">
         <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -4883,58 +5002,60 @@
       <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="46">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="45">
         <v>3</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="55">
         <v>3</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="55">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="45">
         <v>4</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="55">
         <v>3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="45">
         <v>2</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8">
+      <c r="L6" s="45">
+        <v>7</v>
+      </c>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -4969,7 +5090,7 @@
       </c>
       <c r="L7" s="28">
         <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
@@ -5003,15 +5124,15 @@
         <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="34">
         <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="34">
         <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5019,11 +5140,11 @@
         <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="34">
         <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="34">
         <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5034,58 +5155,60 @@
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="69">
         <v>44</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="69">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="69">
         <v>5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="69">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="69">
         <v>6</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="69">
         <v>6</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="69">
         <v>4</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15">
+      <c r="L8" s="69">
+        <v>2</v>
+      </c>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5120,7 +5243,7 @@
       </c>
       <c r="L9" s="28">
         <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="28">
         <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
@@ -5154,15 +5277,15 @@
         <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="34">
         <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5170,11 +5293,11 @@
         <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="34">
         <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9" s="34">
         <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5185,58 +5308,60 @@
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="A10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="15">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15">
+        <v>7</v>
+      </c>
+      <c r="G10" s="18">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
-        <v>6</v>
-      </c>
-      <c r="H10" s="29">
-        <v>12</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="H10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="18">
+        <v>8</v>
+      </c>
+      <c r="J10" s="15">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15">
         <v>5</v>
       </c>
-      <c r="J10" s="7">
-        <v>5</v>
-      </c>
-      <c r="K10" s="7">
-        <v>8</v>
-      </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="L10" s="18">
+        <v>3</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
       <c r="W10" s="36"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="18"/>
       <c r="Y10" s="36"/>
       <c r="Z10" s="36"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7">
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18">
         <f>SUM(F11:AA11)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5247,11 +5372,11 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
@@ -5259,19 +5384,19 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
@@ -5305,15 +5430,15 @@
         <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="34">
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11" s="34">
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5321,11 +5446,11 @@
         <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Y11" s="34">
         <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11" s="34">
         <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5336,58 +5461,60 @@
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="A12" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="59">
+        <v>55</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="59">
         <v>4</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="18">
+      <c r="G12" s="59">
+        <v>6</v>
+      </c>
+      <c r="H12" s="61">
+        <v>12</v>
+      </c>
+      <c r="I12" s="61">
+        <v>5</v>
+      </c>
+      <c r="J12" s="59">
+        <v>5</v>
+      </c>
+      <c r="K12" s="59">
         <v>8</v>
       </c>
-      <c r="J12" s="15">
-        <v>4</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="L12" s="61">
         <v>5</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18">
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59">
         <f>SUM(F13:AA13)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5398,11 +5525,11 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
@@ -5410,19 +5537,19 @@
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
@@ -5456,15 +5583,15 @@
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="34">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13" s="34">
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13" s="34">
         <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5472,11 +5599,11 @@
         <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="35">
+      <c r="Y13" s="34">
         <f>IF(Y12=1,10,IF(Y12=2,8,IF(Y12=3,6,IF(Y12=4,5,IF(Y12=5,4,IF(Y12=6,3,IF(Y12=7,2,IF(Y12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="Z13" s="34">
         <f>IF(Z12=1,10,IF(Z12=2,8,IF(Z12=3,6,IF(Z12=4,5,IF(Z12=5,4,IF(Z12=6,3,IF(Z12=7,2,IF(Z12=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5520,7 +5647,9 @@
       <c r="K14" s="7">
         <v>6</v>
       </c>
-      <c r="L14" s="30"/>
+      <c r="L14" s="29">
+        <v>11</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="21"/>
@@ -5529,12 +5658,12 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
@@ -5607,15 +5736,15 @@
         <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="34">
         <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15" s="34">
         <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="34">
         <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5623,11 +5752,11 @@
         <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Y15" s="34">
         <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="35">
+      <c r="Z15" s="34">
         <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5671,7 +5800,9 @@
       <c r="K16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8">
+        <v>6</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="24"/>
@@ -5680,16 +5811,16 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8">
         <f>SUM(F17:AA17)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -5724,7 +5855,7 @@
       </c>
       <c r="L17" s="28">
         <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="28">
         <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
@@ -5758,15 +5889,15 @@
         <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="34">
         <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17" s="34">
         <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="34">
         <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5774,11 +5905,11 @@
         <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="35">
+      <c r="Y17" s="34">
         <f>IF(Y16=1,10,IF(Y16=2,8,IF(Y16=3,6,IF(Y16=4,5,IF(Y16=5,4,IF(Y16=6,3,IF(Y16=7,2,IF(Y16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="35">
+      <c r="Z17" s="34">
         <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5822,7 +5953,9 @@
       <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>8</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -5831,16 +5964,16 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
         <f>SUM(F19:AA19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -5875,7 +6008,7 @@
       </c>
       <c r="L19" s="28">
         <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="28">
         <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
@@ -5909,15 +6042,15 @@
         <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="34">
         <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V19" s="35">
+      <c r="V19" s="34">
         <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="34">
         <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5925,11 +6058,11 @@
         <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="35">
+      <c r="Y19" s="34">
         <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="35">
+      <c r="Z19" s="34">
         <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -5940,56 +6073,58 @@
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="65">
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="65">
         <v>17</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="65">
         <v>17</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="65">
         <v>6</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="65">
         <v>9</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="67">
         <v>17</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="65">
         <v>9</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6">
+      <c r="L20" s="65">
+        <v>17</v>
+      </c>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65">
         <f>SUM(F21:AA21)</f>
         <v>3</v>
       </c>
@@ -6060,15 +6195,15 @@
         <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="34">
         <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21" s="34">
         <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21" s="34">
         <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6076,11 +6211,11 @@
         <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="35">
+      <c r="Y21" s="34">
         <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="35">
+      <c r="Z21" s="34">
         <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6091,56 +6226,58 @@
       <c r="AB21" s="28"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="53">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="58">
         <v>9</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="53">
         <v>9</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="53">
         <v>14</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="53">
         <v>8</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="53">
         <v>7</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2">
+      <c r="L22" s="53">
+        <v>10</v>
+      </c>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53">
         <f>SUM(F23:AA23)</f>
         <v>3</v>
       </c>
@@ -6211,15 +6348,15 @@
         <f>IF(T22=1,10,IF(T22=2,8,IF(T22=3,6,IF(T22=4,5,IF(T22=5,4,IF(T22=6,3,IF(T22=7,2,IF(T22=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="34">
         <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V23" s="35">
+      <c r="V23" s="34">
         <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23" s="34">
         <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6227,11 +6364,11 @@
         <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="35">
+      <c r="Y23" s="34">
         <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="35">
+      <c r="Z23" s="34">
         <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6242,56 +6379,58 @@
       <c r="AB23" s="28"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="62">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="62">
         <v>15</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="62">
         <v>12</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="62">
         <v>7</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="62">
         <v>17</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="62">
         <v>15</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="62">
         <v>17</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3">
+      <c r="L24" s="62">
+        <v>15</v>
+      </c>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62">
         <f>SUM(F25:AA25)</f>
         <v>2</v>
       </c>
@@ -6362,15 +6501,15 @@
         <f>IF(T24=1,10,IF(T24=2,8,IF(T24=3,6,IF(T24=4,5,IF(T24=5,4,IF(T24=6,3,IF(T24=7,2,IF(T24=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="34">
         <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25" s="34">
         <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W25" s="35">
+      <c r="W25" s="34">
         <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6378,11 +6517,11 @@
         <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="35">
+      <c r="Y25" s="34">
         <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="35">
+      <c r="Z25" s="34">
         <f>IF(Z24=1,10,IF(Z24=2,8,IF(Z24=3,6,IF(Z24=4,5,IF(Z24=5,4,IF(Z24=6,3,IF(Z24=7,2,IF(Z24=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6426,7 +6565,9 @@
       <c r="K26" s="11">
         <v>11</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="11">
+        <v>19</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="22"/>
@@ -6435,12 +6576,12 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="11">
         <f>SUM(F27:AA27)</f>
@@ -6513,15 +6654,15 @@
         <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27" s="34">
         <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V27" s="35">
+      <c r="V27" s="34">
         <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W27" s="35">
+      <c r="W27" s="34">
         <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6529,11 +6670,11 @@
         <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="35">
+      <c r="Y27" s="34">
         <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="35">
+      <c r="Z27" s="34">
         <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6562,7 +6703,7 @@
       <c r="F28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <v>15</v>
       </c>
       <c r="H28" s="6">
@@ -6577,7 +6718,9 @@
       <c r="K28" s="6">
         <v>10</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6">
+        <v>13</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -6586,12 +6729,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6">
         <f>SUM(F29:AA29)</f>
@@ -6664,15 +6807,15 @@
         <f>IF(T28=1,10,IF(T28=2,8,IF(T28=3,6,IF(T28=4,5,IF(T28=5,4,IF(T28=6,3,IF(T28=7,2,IF(T28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U29" s="34">
         <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V29" s="35">
+      <c r="V29" s="34">
         <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W29" s="35">
+      <c r="W29" s="34">
         <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6680,11 +6823,11 @@
         <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="35">
+      <c r="Y29" s="34">
         <f>IF(Y28=1,10,IF(Y28=2,8,IF(Y28=3,6,IF(Y28=4,5,IF(Y28=5,4,IF(Y28=6,3,IF(Y28=7,2,IF(Y28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="35">
+      <c r="Z29" s="34">
         <f>IF(Z28=1,10,IF(Z28=2,8,IF(Z28=3,6,IF(Z28=4,5,IF(Z28=5,4,IF(Z28=6,3,IF(Z28=7,2,IF(Z28=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6695,56 +6838,58 @@
       <c r="AB29" s="28"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="72">
         <v>2</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="72">
         <v>12</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="72">
         <v>16</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="72">
         <v>16</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="72">
         <v>20</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="72">
         <v>18</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20">
+      <c r="L30" s="72">
+        <v>20</v>
+      </c>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74">
         <f>SUM(F31:AA31)</f>
         <v>0</v>
       </c>
@@ -6815,15 +6960,15 @@
         <f>IF(T30=1,10,IF(T30=2,8,IF(T30=3,6,IF(T30=4,5,IF(T30=5,4,IF(T30=6,3,IF(T30=7,2,IF(T30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U31" s="35">
+      <c r="U31" s="34">
         <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V31" s="35">
+      <c r="V31" s="34">
         <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W31" s="35">
+      <c r="W31" s="34">
         <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6831,11 +6976,11 @@
         <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="35">
+      <c r="Y31" s="34">
         <f>IF(Y30=1,10,IF(Y30=2,8,IF(Y30=3,6,IF(Y30=4,5,IF(Y30=5,4,IF(Y30=6,3,IF(Y30=7,2,IF(Y30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="35">
+      <c r="Z31" s="34">
         <f>IF(Z30=1,10,IF(Z30=2,8,IF(Z30=3,6,IF(Z30=4,5,IF(Z30=5,4,IF(Z30=6,3,IF(Z30=7,2,IF(Z30=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6879,7 +7024,9 @@
       <c r="K32" s="3">
         <v>19</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <v>18</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4"/>
@@ -6888,12 +7035,12 @@
       <c r="R32" s="4"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4">
         <f>SUM(F33:AA33)</f>
@@ -6966,15 +7113,15 @@
         <f>IF(T32=1,10,IF(T32=2,8,IF(T32=3,6,IF(T32=4,5,IF(T32=5,4,IF(T32=6,3,IF(T32=7,2,IF(T32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U33" s="35">
+      <c r="U33" s="34">
         <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V33" s="35">
+      <c r="V33" s="34">
         <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W33" s="35">
+      <c r="W33" s="34">
         <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6982,11 +7129,11 @@
         <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="35">
+      <c r="Y33" s="34">
         <f>IF(Y32=1,10,IF(Y32=2,8,IF(Y32=3,6,IF(Y32=4,5,IF(Y32=5,4,IF(Y32=6,3,IF(Y32=7,2,IF(Y32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="35">
+      <c r="Z33" s="34">
         <f>IF(Z32=1,10,IF(Z32=2,8,IF(Z32=3,6,IF(Z32=4,5,IF(Z32=5,4,IF(Z32=6,3,IF(Z32=7,2,IF(Z32=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6997,56 +7144,58 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="50">
         <v>22</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="50">
         <v>11</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="50">
         <v>11</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="50">
         <v>10</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="57">
         <v>10</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="50">
         <v>11</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="50">
         <v>15</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9">
+      <c r="L34" s="50">
+        <v>12</v>
+      </c>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50">
         <f>SUM(F35:AA35)</f>
         <v>0</v>
       </c>
@@ -7117,15 +7266,15 @@
         <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U35" s="35">
+      <c r="U35" s="34">
         <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V35" s="35">
+      <c r="V35" s="34">
         <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W35" s="35">
+      <c r="W35" s="34">
         <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7133,11 +7282,11 @@
         <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="35">
+      <c r="Y35" s="34">
         <f>IF(Y34=1,10,IF(Y34=2,8,IF(Y34=3,6,IF(Y34=4,5,IF(Y34=5,4,IF(Y34=6,3,IF(Y34=7,2,IF(Y34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="35">
+      <c r="Z35" s="34">
         <f>IF(Z34=1,10,IF(Z34=2,8,IF(Z34=3,6,IF(Z34=4,5,IF(Z34=5,4,IF(Z34=6,3,IF(Z34=7,2,IF(Z34=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7169,7 +7318,7 @@
       <c r="G36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="42" t="s">
         <v>106</v>
       </c>
       <c r="I36" s="5">
@@ -7181,7 +7330,9 @@
       <c r="K36" s="5">
         <v>14</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5">
+        <v>16</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -7190,12 +7341,12 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20">
         <f>SUM(F37:AA37)</f>
@@ -7268,15 +7419,15 @@
         <f>IF(T36=1,10,IF(T36=2,8,IF(T36=3,6,IF(T36=4,5,IF(T36=5,4,IF(T36=6,3,IF(T36=7,2,IF(T36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U37" s="35">
+      <c r="U37" s="34">
         <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V37" s="35">
+      <c r="V37" s="34">
         <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W37" s="35">
+      <c r="W37" s="34">
         <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7284,11 +7435,11 @@
         <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="35">
+      <c r="Y37" s="34">
         <f>IF(Y36=1,10,IF(Y36=2,8,IF(Y36=3,6,IF(Y36=4,5,IF(Y36=5,4,IF(Y36=6,3,IF(Y36=7,2,IF(Y36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="35">
+      <c r="Z37" s="34">
         <f>IF(Z36=1,10,IF(Z36=2,8,IF(Z36=3,6,IF(Z36=4,5,IF(Z36=5,4,IF(Z36=6,3,IF(Z36=7,2,IF(Z36=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7299,56 +7450,58 @@
       <c r="AB37" s="28"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="48">
         <v>24</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="48">
         <v>16</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="48">
         <v>13</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="48">
         <v>9</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="48">
         <v>16</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="48">
         <v>13</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22">
+      <c r="L38" s="48">
+        <v>9</v>
+      </c>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56">
         <f>SUM(F39:AA39)</f>
         <v>0</v>
       </c>
@@ -7419,15 +7572,15 @@
         <f>IF(T38=1,10,IF(T38=2,8,IF(T38=3,6,IF(T38=4,5,IF(T38=5,4,IF(T38=6,3,IF(T38=7,2,IF(T38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="U39" s="35">
+      <c r="U39" s="34">
         <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V39" s="35">
+      <c r="V39" s="34">
         <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W39" s="35">
+      <c r="W39" s="34">
         <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7435,11 +7588,11 @@
         <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="35">
+      <c r="Y39" s="34">
         <f>IF(Y38=1,10,IF(Y38=2,8,IF(Y38=3,6,IF(Y38=4,5,IF(Y38=5,4,IF(Y38=6,3,IF(Y38=7,2,IF(Y38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="35">
+      <c r="Z39" s="34">
         <f>IF(Z38=1,10,IF(Z38=2,8,IF(Z38=3,6,IF(Z38=4,5,IF(Z38=5,4,IF(Z38=6,3,IF(Z38=7,2,IF(Z38=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7483,7 +7636,9 @@
       <c r="K40" s="9">
         <v>12</v>
       </c>
-      <c r="L40" s="23"/>
+      <c r="L40" s="23">
+        <v>14</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -7492,12 +7647,12 @@
       <c r="R40" s="23"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
       <c r="X40" s="9"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9">
         <f>SUM(F41:AA41)</f>
@@ -7570,15 +7725,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U41" s="35">
+      <c r="U41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V41" s="35">
+      <c r="V41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W41" s="35">
+      <c r="W41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7586,11 +7741,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="35">
+      <c r="Y41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="35">
+      <c r="Z41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7638,12 +7793,12 @@
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="44" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="44" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.25" style="44" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
@@ -7707,7 +7862,7 @@
       <c r="S1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="32" t="s">
         <v>93</v>
       </c>
       <c r="U1" s="27" t="s">
@@ -7716,7 +7871,7 @@
       <c r="V1" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="32" t="s">
         <v>79</v>
       </c>
       <c r="X1" s="27" t="s">
@@ -7769,7 +7924,9 @@
       <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
       <c r="M2" s="9"/>
       <c r="N2" s="23"/>
       <c r="O2" s="9"/>
@@ -7778,16 +7935,16 @@
       <c r="R2" s="23"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="34"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="34"/>
+      <c r="W2" s="33"/>
       <c r="X2" s="9"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -7822,7 +7979,7 @@
       </c>
       <c r="L3" s="28">
         <f>IF(L2=1,10,IF(L2=2,6,IF(L2=3,4,IF(L2=4,3,IF(L2=5,2,IF(L2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="28">
         <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
@@ -7856,7 +8013,7 @@
         <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="34">
         <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -7864,7 +8021,7 @@
         <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="34">
         <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -7872,11 +8029,11 @@
         <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="34">
         <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="34">
         <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -7887,58 +8044,60 @@
       <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="50">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="50">
         <v>2</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="57">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="50">
         <v>5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="50">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="50">
         <v>2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="50">
         <v>16</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9">
+      <c r="L4" s="50">
+        <v>4</v>
+      </c>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -7973,7 +8132,7 @@
       </c>
       <c r="L5" s="28">
         <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
@@ -8007,7 +8166,7 @@
         <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="34">
         <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8015,7 +8174,7 @@
         <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="34">
         <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8023,11 +8182,11 @@
         <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5" s="34">
         <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="34">
         <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8038,56 +8197,58 @@
       <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="46">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="45">
         <v>3</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="55">
         <v>3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="45">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="45">
         <v>4</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="45">
         <v>3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="45">
         <v>2</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8">
+      <c r="L6" s="45">
+        <v>7</v>
+      </c>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45">
         <f>SUM(F7:AA7)</f>
         <v>25</v>
       </c>
@@ -8158,7 +8319,7 @@
         <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8166,7 +8327,7 @@
         <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="34">
         <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8174,11 +8335,11 @@
         <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="34">
         <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="34">
         <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8189,58 +8350,60 @@
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="69">
         <v>44</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="69">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="69">
         <v>5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="69">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="69">
         <v>6</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="69">
         <v>6</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="69">
         <v>4</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15">
+      <c r="L8" s="69">
+        <v>2</v>
+      </c>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -8275,7 +8438,7 @@
       </c>
       <c r="L9" s="28">
         <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M9" s="28">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
@@ -8309,7 +8472,7 @@
         <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8317,7 +8480,7 @@
         <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8325,11 +8488,11 @@
         <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="34">
         <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9" s="34">
         <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8340,58 +8503,60 @@
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="A10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="15">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15">
+        <v>7</v>
+      </c>
+      <c r="G10" s="18">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
-        <v>6</v>
-      </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="15">
+        <v>8</v>
+      </c>
+      <c r="J10" s="15">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15">
         <v>5</v>
       </c>
-      <c r="J10" s="7">
-        <v>5</v>
-      </c>
-      <c r="K10" s="7">
-        <v>8</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="L10" s="18">
+        <v>3</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
       <c r="U10" s="36"/>
-      <c r="V10" s="7"/>
+      <c r="V10" s="15"/>
       <c r="W10" s="36"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="18"/>
       <c r="Y10" s="36"/>
       <c r="Z10" s="36"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7">
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18">
         <f>SUM(F11:AA11)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -8402,11 +8567,11 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
@@ -8414,19 +8579,19 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
@@ -8460,7 +8625,7 @@
         <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="34">
         <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8468,7 +8633,7 @@
         <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8476,11 +8641,11 @@
         <f>IF(X10=1,10,IF(X10=2,6,IF(X10=3,4,IF(X10=4,3,IF(X10=5,2,IF(X10=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Y11" s="34">
         <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11" s="34">
         <f>IF(Z10=1,10,IF(Z10=2,6,IF(Z10=3,4,IF(Z10=4,3,IF(Z10=5,2,IF(Z10=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8491,58 +8656,60 @@
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="A12" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="59">
+        <v>55</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="59">
         <v>4</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="G12" s="59">
+        <v>6</v>
+      </c>
+      <c r="H12" s="59">
+        <v>12</v>
+      </c>
+      <c r="I12" s="59">
+        <v>5</v>
+      </c>
+      <c r="J12" s="59">
+        <v>5</v>
+      </c>
+      <c r="K12" s="59">
         <v>8</v>
       </c>
-      <c r="J12" s="15">
-        <v>4</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="L12" s="59">
         <v>5</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18">
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59">
         <f>SUM(F13:AA13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -8553,11 +8720,11 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
@@ -8565,19 +8732,19 @@
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
@@ -8611,7 +8778,7 @@
         <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="34">
         <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8619,7 +8786,7 @@
         <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13" s="34">
         <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8627,11 +8794,11 @@
         <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="35">
+      <c r="Y13" s="34">
         <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="Z13" s="34">
         <f>IF(Z12=1,10,IF(Z12=2,6,IF(Z12=3,4,IF(Z12=4,3,IF(Z12=5,2,IF(Z12=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8675,7 +8842,9 @@
       <c r="K14" s="7">
         <v>6</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7">
+        <v>11</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="21"/>
@@ -8684,12 +8853,12 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="36"/>
+      <c r="U14" s="35"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="36"/>
+      <c r="W14" s="35"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
@@ -8762,7 +8931,7 @@
         <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="34">
         <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8770,7 +8939,7 @@
         <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="34">
         <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8778,11 +8947,11 @@
         <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Y15" s="34">
         <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="35">
+      <c r="Z15" s="34">
         <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8826,7 +8995,9 @@
       <c r="K16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8">
+        <v>6</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="24"/>
@@ -8835,16 +9006,16 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="42"/>
+      <c r="U16" s="41"/>
       <c r="V16" s="24"/>
-      <c r="W16" s="42"/>
+      <c r="W16" s="41"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8">
         <f>SUM(F17:AA17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -8879,7 +9050,7 @@
       </c>
       <c r="L17" s="28">
         <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="28">
         <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
@@ -8913,7 +9084,7 @@
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="34">
         <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8921,7 +9092,7 @@
         <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="34">
         <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8929,11 +9100,11 @@
         <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="35">
+      <c r="Y17" s="34">
         <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="35">
+      <c r="Z17" s="34">
         <f>IF(Z16=1,10,IF(Z16=2,6,IF(Z16=3,4,IF(Z16=4,3,IF(Z16=5,2,IF(Z16=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -8977,7 +9148,9 @@
       <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>8</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -8986,12 +9159,12 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="39"/>
+      <c r="U18" s="38"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="39"/>
+      <c r="W18" s="38"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
         <f>SUM(F19:AA19)</f>
@@ -9064,7 +9237,7 @@
         <f>IF(T18=1,10,IF(T18=2,6,IF(T18=3,4,IF(T18=4,3,IF(T18=5,2,IF(T18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="34">
         <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9072,7 +9245,7 @@
         <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="34">
         <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9080,11 +9253,11 @@
         <f>IF(X18=1,10,IF(X18=2,6,IF(X18=3,4,IF(X18=4,3,IF(X18=5,2,IF(X18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="35">
+      <c r="Y19" s="34">
         <f>IF(Y18=1,10,IF(Y18=2,6,IF(Y18=3,4,IF(Y18=4,3,IF(Y18=5,2,IF(Y18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="35">
+      <c r="Z19" s="34">
         <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9095,56 +9268,58 @@
       <c r="AB19" s="28"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="65">
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="65">
         <v>17</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="65">
         <v>17</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="65">
         <v>6</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="65">
         <v>9</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="65">
         <v>17</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="65">
         <v>9</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6">
+      <c r="L20" s="65">
+        <v>17</v>
+      </c>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65">
         <f>SUM(F21:AA21)</f>
         <v>1</v>
       </c>
@@ -9215,7 +9390,7 @@
         <f>IF(T20=1,10,IF(T20=2,6,IF(T20=3,4,IF(T20=4,3,IF(T20=5,2,IF(T20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="34">
         <f>IF(U20=1,10,IF(U20=2,6,IF(U20=3,4,IF(U20=4,3,IF(U20=5,2,IF(U20=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9223,7 +9398,7 @@
         <f>IF(V20=1,10,IF(V20=2,6,IF(V20=3,4,IF(V20=4,3,IF(V20=5,2,IF(V20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21" s="34">
         <f>IF(W20=1,10,IF(W20=2,6,IF(W20=3,4,IF(W20=4,3,IF(W20=5,2,IF(W20=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9231,11 +9406,11 @@
         <f>IF(X20=1,10,IF(X20=2,6,IF(X20=3,4,IF(X20=4,3,IF(X20=5,2,IF(X20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="35">
+      <c r="Y21" s="34">
         <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="35">
+      <c r="Z21" s="34">
         <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9246,56 +9421,58 @@
       <c r="AB21" s="28"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="72">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="72">
         <v>12</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="72">
         <v>16</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="72">
         <v>16</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="72">
         <v>20</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="72">
         <v>18</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20">
+      <c r="L22" s="72">
+        <v>20</v>
+      </c>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74">
         <f>SUM(F23:AA23)</f>
         <v>0</v>
       </c>
@@ -9366,7 +9543,7 @@
         <f>IF(T22=1,10,IF(T22=2,6,IF(T22=3,4,IF(T22=4,3,IF(T22=5,2,IF(T22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="34">
         <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9374,7 +9551,7 @@
         <f>IF(V22=1,10,IF(V22=2,6,IF(V22=3,4,IF(V22=4,3,IF(V22=5,2,IF(V22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23" s="34">
         <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9382,11 +9559,11 @@
         <f>IF(X22=1,10,IF(X22=2,6,IF(X22=3,4,IF(X22=4,3,IF(X22=5,2,IF(X22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="35">
+      <c r="Y23" s="34">
         <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="35">
+      <c r="Z23" s="34">
         <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9397,56 +9574,58 @@
       <c r="AB23" s="28"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="53">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="58">
         <v>9</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="53">
         <v>9</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="53">
         <v>14</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="53">
         <v>8</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="53">
         <v>7</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2">
+      <c r="L24" s="53">
+        <v>10</v>
+      </c>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53">
         <f>SUM(F25:AA25)</f>
         <v>0</v>
       </c>
@@ -9517,7 +9696,7 @@
         <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="34">
         <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9525,7 +9704,7 @@
         <f>IF(V24=1,10,IF(V24=2,6,IF(V24=3,4,IF(V24=4,3,IF(V24=5,2,IF(V24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W25" s="35">
+      <c r="W25" s="34">
         <f>IF(W24=1,10,IF(W24=2,6,IF(W24=3,4,IF(W24=4,3,IF(W24=5,2,IF(W24=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9533,11 +9712,11 @@
         <f>IF(X24=1,10,IF(X24=2,6,IF(X24=3,4,IF(X24=4,3,IF(X24=5,2,IF(X24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="35">
+      <c r="Y25" s="34">
         <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="35">
+      <c r="Z25" s="34">
         <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9581,7 +9760,9 @@
       <c r="K26" s="3">
         <v>19</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>18</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
@@ -9590,12 +9771,12 @@
       <c r="R26" s="4"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="41"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="41"/>
+      <c r="W26" s="40"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4">
         <f>SUM(F27:AA27)</f>
@@ -9668,7 +9849,7 @@
         <f>IF(T26=1,10,IF(T26=2,6,IF(T26=3,4,IF(T26=4,3,IF(T26=5,2,IF(T26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27" s="34">
         <f>IF(U26=1,10,IF(U26=2,6,IF(U26=3,4,IF(U26=4,3,IF(U26=5,2,IF(U26=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9676,7 +9857,7 @@
         <f>IF(V26=1,10,IF(V26=2,6,IF(V26=3,4,IF(V26=4,3,IF(V26=5,2,IF(V26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W27" s="35">
+      <c r="W27" s="34">
         <f>IF(W26=1,10,IF(W26=2,6,IF(W26=3,4,IF(W26=4,3,IF(W26=5,2,IF(W26=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9684,11 +9865,11 @@
         <f>IF(X26=1,10,IF(X26=2,6,IF(X26=3,4,IF(X26=4,3,IF(X26=5,2,IF(X26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="35">
+      <c r="Y27" s="34">
         <f>IF(Y26=1,10,IF(Y26=2,6,IF(Y26=3,4,IF(Y26=4,3,IF(Y26=5,2,IF(Y26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="35">
+      <c r="Z27" s="34">
         <f>IF(Z26=1,10,IF(Z26=2,6,IF(Z26=3,4,IF(Z26=4,3,IF(Z26=5,2,IF(Z26=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9699,56 +9880,58 @@
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="50">
         <v>22</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="50">
         <v>11</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="50">
         <v>11</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="50">
         <v>10</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="57">
         <v>10</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="50">
         <v>11</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="50">
         <v>15</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9">
+      <c r="L28" s="50">
+        <v>12</v>
+      </c>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50">
         <f>SUM(F29:AA29)</f>
         <v>0</v>
       </c>
@@ -9819,7 +10002,7 @@
         <f>IF(T28=1,10,IF(T28=2,6,IF(T28=3,4,IF(T28=4,3,IF(T28=5,2,IF(T28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U29" s="34">
         <f>IF(U28=1,10,IF(U28=2,6,IF(U28=3,4,IF(U28=4,3,IF(U28=5,2,IF(U28=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9827,7 +10010,7 @@
         <f>IF(V28=1,10,IF(V28=2,6,IF(V28=3,4,IF(V28=4,3,IF(V28=5,2,IF(V28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W29" s="35">
+      <c r="W29" s="34">
         <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9835,11 +10018,11 @@
         <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="35">
+      <c r="Y29" s="34">
         <f>IF(Y28=1,10,IF(Y28=2,6,IF(Y28=3,4,IF(Y28=4,3,IF(Y28=5,2,IF(Y28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="35">
+      <c r="Z29" s="34">
         <f>IF(Z28=1,10,IF(Z28=2,6,IF(Z28=3,4,IF(Z28=4,3,IF(Z28=5,2,IF(Z28=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9871,7 +10054,7 @@
       <c r="G30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="42" t="s">
         <v>106</v>
       </c>
       <c r="I30" s="5">
@@ -9883,7 +10066,9 @@
       <c r="K30" s="5">
         <v>14</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="5">
+        <v>16</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -9892,12 +10077,12 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="43"/>
+      <c r="U30" s="42"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="43"/>
+      <c r="W30" s="42"/>
       <c r="X30" s="20"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20">
         <f>SUM(F31:AA31)</f>
@@ -9970,7 +10155,7 @@
         <f>IF(T30=1,10,IF(T30=2,6,IF(T30=3,4,IF(T30=4,3,IF(T30=5,2,IF(T30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U31" s="35">
+      <c r="U31" s="34">
         <f>IF(U30=1,10,IF(U30=2,6,IF(U30=3,4,IF(U30=4,3,IF(U30=5,2,IF(U30=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9978,7 +10163,7 @@
         <f>IF(V30=1,10,IF(V30=2,6,IF(V30=3,4,IF(V30=4,3,IF(V30=5,2,IF(V30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W31" s="35">
+      <c r="W31" s="34">
         <f>IF(W30=1,10,IF(W30=2,6,IF(W30=3,4,IF(W30=4,3,IF(W30=5,2,IF(W30=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9986,11 +10171,11 @@
         <f>IF(X30=1,10,IF(X30=2,6,IF(X30=3,4,IF(X30=4,3,IF(X30=5,2,IF(X30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="35">
+      <c r="Y31" s="34">
         <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="35">
+      <c r="Z31" s="34">
         <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10001,56 +10186,58 @@
       <c r="AB31" s="28"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="48">
         <v>24</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="48">
         <v>16</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="48">
         <v>13</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="48">
         <v>9</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="48">
         <v>16</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="48">
         <v>13</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22">
+      <c r="L32" s="48">
+        <v>9</v>
+      </c>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56">
         <f>SUM(F33:AA33)</f>
         <v>0</v>
       </c>
@@ -10121,7 +10308,7 @@
         <f>IF(T32=1,10,IF(T32=2,6,IF(T32=3,4,IF(T32=4,3,IF(T32=5,2,IF(T32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U33" s="35">
+      <c r="U33" s="34">
         <f>IF(U32=1,10,IF(U32=2,6,IF(U32=3,4,IF(U32=4,3,IF(U32=5,2,IF(U32=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10129,7 +10316,7 @@
         <f>IF(V32=1,10,IF(V32=2,6,IF(V32=3,4,IF(V32=4,3,IF(V32=5,2,IF(V32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W33" s="35">
+      <c r="W33" s="34">
         <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10137,11 +10324,11 @@
         <f>IF(X32=1,10,IF(X32=2,6,IF(X32=3,4,IF(X32=4,3,IF(X32=5,2,IF(X32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="35">
+      <c r="Y33" s="34">
         <f>IF(Y32=1,10,IF(Y32=2,6,IF(Y32=3,4,IF(Y32=4,3,IF(Y32=5,2,IF(Y32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="35">
+      <c r="Z33" s="34">
         <f>IF(Z32=1,10,IF(Z32=2,6,IF(Z32=3,4,IF(Z32=4,3,IF(Z32=5,2,IF(Z32=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10152,56 +10339,58 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="62">
         <v>27</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="62">
         <v>15</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="62">
         <v>12</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="62">
         <v>7</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="62">
         <v>17</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="62">
         <v>15</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="62">
         <v>17</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3">
+      <c r="L34" s="62">
+        <v>15</v>
+      </c>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62">
         <f>SUM(F35:AA35)</f>
         <v>0</v>
       </c>
@@ -10272,7 +10461,7 @@
         <f>IF(T34=1,10,IF(T34=2,6,IF(T34=3,4,IF(T34=4,3,IF(T34=5,2,IF(T34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U35" s="35">
+      <c r="U35" s="34">
         <f>IF(U34=1,10,IF(U34=2,6,IF(U34=3,4,IF(U34=4,3,IF(U34=5,2,IF(U34=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10280,7 +10469,7 @@
         <f>IF(V34=1,10,IF(V34=2,6,IF(V34=3,4,IF(V34=4,3,IF(V34=5,2,IF(V34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W35" s="35">
+      <c r="W35" s="34">
         <f>IF(W34=1,10,IF(W34=2,6,IF(W34=3,4,IF(W34=4,3,IF(W34=5,2,IF(W34=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10288,11 +10477,11 @@
         <f>IF(X34=1,10,IF(X34=2,6,IF(X34=3,4,IF(X34=4,3,IF(X34=5,2,IF(X34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="35">
+      <c r="Y35" s="34">
         <f>IF(Y34=1,10,IF(Y34=2,6,IF(Y34=3,4,IF(Y34=4,3,IF(Y34=5,2,IF(Y34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="35">
+      <c r="Z35" s="34">
         <f>IF(Z34=1,10,IF(Z34=2,6,IF(Z34=3,4,IF(Z34=4,3,IF(Z34=5,2,IF(Z34=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10336,7 +10525,9 @@
       <c r="K36" s="9">
         <v>12</v>
       </c>
-      <c r="L36" s="23"/>
+      <c r="L36" s="23">
+        <v>14</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -10345,12 +10536,12 @@
       <c r="R36" s="23"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="34"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="34"/>
+      <c r="W36" s="33"/>
       <c r="X36" s="9"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9">
         <f>SUM(F37:AA37)</f>
@@ -10423,7 +10614,7 @@
         <f>IF(T36=1,10,IF(T36=2,6,IF(T36=3,4,IF(T36=4,3,IF(T36=5,2,IF(T36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U37" s="35">
+      <c r="U37" s="34">
         <f>IF(U36=1,10,IF(U36=2,6,IF(U36=3,4,IF(U36=4,3,IF(U36=5,2,IF(U36=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10431,7 +10622,7 @@
         <f>IF(V36=1,10,IF(V36=2,6,IF(V36=3,4,IF(V36=4,3,IF(V36=5,2,IF(V36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W37" s="35">
+      <c r="W37" s="34">
         <f>IF(W36=1,10,IF(W36=2,6,IF(W36=3,4,IF(W36=4,3,IF(W36=5,2,IF(W36=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10439,11 +10630,11 @@
         <f>IF(X36=1,10,IF(X36=2,6,IF(X36=3,4,IF(X36=4,3,IF(X36=5,2,IF(X36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="35">
+      <c r="Y37" s="34">
         <f>IF(Y36=1,10,IF(Y36=2,6,IF(Y36=3,4,IF(Y36=4,3,IF(Y36=5,2,IF(Y36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="35">
+      <c r="Z37" s="34">
         <f>IF(Z36=1,10,IF(Z36=2,6,IF(Z36=3,4,IF(Z36=4,3,IF(Z36=5,2,IF(Z36=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10487,7 +10678,9 @@
       <c r="K38" s="11">
         <v>11</v>
       </c>
-      <c r="L38" s="11"/>
+      <c r="L38" s="11">
+        <v>19</v>
+      </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="22"/>
@@ -10496,12 +10689,12 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-      <c r="U38" s="40"/>
+      <c r="U38" s="39"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="40"/>
+      <c r="W38" s="39"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
       <c r="AA38" s="11"/>
       <c r="AB38" s="11">
         <f>SUM(F39:AA39)</f>
@@ -10574,7 +10767,7 @@
         <f>IF(T38=1,10,IF(T38=2,6,IF(T38=3,4,IF(T38=4,3,IF(T38=5,2,IF(T38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="U39" s="35">
+      <c r="U39" s="34">
         <f>IF(U38=1,10,IF(U38=2,6,IF(U38=3,4,IF(U38=4,3,IF(U38=5,2,IF(U38=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10582,7 +10775,7 @@
         <f>IF(V38=1,10,IF(V38=2,6,IF(V38=3,4,IF(V38=4,3,IF(V38=5,2,IF(V38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="W39" s="35">
+      <c r="W39" s="34">
         <f>IF(W38=1,10,IF(W38=2,6,IF(W38=3,4,IF(W38=4,3,IF(W38=5,2,IF(W38=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10590,11 +10783,11 @@
         <f>IF(X38=1,10,IF(X38=2,6,IF(X38=3,4,IF(X38=4,3,IF(X38=5,2,IF(X38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="35">
+      <c r="Y39" s="34">
         <f>IF(Y38=1,10,IF(Y38=2,6,IF(Y38=3,4,IF(Y38=4,3,IF(Y38=5,2,IF(Y38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="35">
+      <c r="Z39" s="34">
         <f>IF(Z38=1,10,IF(Z38=2,6,IF(Z38=3,4,IF(Z38=4,3,IF(Z38=5,2,IF(Z38=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10638,7 +10831,9 @@
       <c r="K40" s="6">
         <v>10</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6">
+        <v>13</v>
+      </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -10647,12 +10842,12 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="38"/>
+      <c r="U40" s="37"/>
       <c r="V40" s="25"/>
-      <c r="W40" s="38"/>
+      <c r="W40" s="37"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6">
         <f>SUM(F41:AA41)</f>
@@ -10725,7 +10920,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U41" s="35">
+      <c r="U41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10733,7 +10928,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W41" s="35">
+      <c r="W41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10741,11 +10936,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="35">
+      <c r="Y41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="35">
+      <c r="Z41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10812,49 +11007,49 @@
       </c>
       <c r="D2" s="10">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="E2" s="10">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD10</f>
+        <v>152</v>
+      </c>
+      <c r="E3" s="15">
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE10</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="8">
         <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD16</f>
-        <v>120</v>
-      </c>
-      <c r="E3" s="8">
+        <v>134</v>
+      </c>
+      <c r="E4" s="8">
         <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE16</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="15">
-        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD10</f>
-        <v>119</v>
-      </c>
-      <c r="E4" s="15">
-        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE10</f>
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10869,11 +11064,11 @@
       </c>
       <c r="D5" s="7">
         <f>'2023 Driver Ranking'!AD12+'2023 Driver Ranking'!AD14</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E5" s="7">
         <f>'2023 Driver Ranking'!AE12+'2023 Driver Ranking'!AE14</f>
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10888,11 +11083,11 @@
       </c>
       <c r="D6" s="2">
         <f>'2023 Driver Ranking'!AD18+'2023 Driver Ranking'!AD20</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE20</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10945,11 +11140,11 @@
       </c>
       <c r="D9" s="11">
         <f>'2023 Driver Ranking'!AD28+'2023 Driver Ranking'!AD30</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="11">
         <f>'2023 Driver Ranking'!AE28+'2023 Driver Ranking'!AE30</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11043,37 +11238,37 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB10</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="8">
         <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB16</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="15">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB12</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11087,8 +11282,8 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB14</f>
-        <v>30</v>
+        <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11103,7 +11298,7 @@
       </c>
       <c r="D6" s="2">
         <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB22</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11233,37 +11428,37 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB10</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="8">
         <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB16</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="15">
-        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB12</f>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11277,8 +11472,8 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB14</f>
-        <v>13</v>
+        <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB14</f>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="117">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,22 @@
   </si>
   <si>
     <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teams</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1128,7 +1144,7 @@
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -1278,7 +1294,9 @@
       <c r="L2" s="10">
         <v>1</v>
       </c>
-      <c r="M2" s="10"/>
+      <c r="M2" s="10">
+        <v>1</v>
+      </c>
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
       <c r="P2" s="9"/>
@@ -1303,11 +1321,11 @@
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1346,7 +1364,7 @@
       </c>
       <c r="M3" s="28">
         <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N3" s="28">
         <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
@@ -1446,7 +1464,9 @@
       <c r="L4" s="50">
         <v>4</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="50">
+        <v>6</v>
+      </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="51"/>
@@ -1462,8 +1482,8 @@
       <c r="Z4" s="50"/>
       <c r="AA4" s="50"/>
       <c r="AB4" s="50">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="AC4" s="50">
         <f>8</f>
@@ -1471,11 +1491,11 @@
       </c>
       <c r="AD4" s="50">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1514,7 +1534,7 @@
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
@@ -1614,7 +1634,9 @@
       <c r="L6" s="45">
         <v>7</v>
       </c>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45">
+        <v>2</v>
+      </c>
       <c r="N6" s="45"/>
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
@@ -1636,11 +1658,11 @@
       </c>
       <c r="AD6" s="45">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AE6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1679,7 +1701,7 @@
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
@@ -1779,7 +1801,9 @@
       <c r="L8" s="69">
         <v>2</v>
       </c>
-      <c r="M8" s="69"/>
+      <c r="M8" s="69">
+        <v>3</v>
+      </c>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69"/>
@@ -1804,11 +1828,11 @@
       </c>
       <c r="AD8" s="69">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AE8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1847,7 +1871,7 @@
       </c>
       <c r="M9" s="28">
         <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N9" s="28">
         <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
@@ -1911,72 +1935,71 @@
       <c r="AE9" s="28"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="15">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15">
-        <v>7</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="A10" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="59">
+        <v>55</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="59">
         <v>4</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="G10" s="59">
+        <v>6</v>
+      </c>
+      <c r="H10" s="59">
+        <v>12</v>
+      </c>
+      <c r="I10" s="59">
+        <v>5</v>
+      </c>
+      <c r="J10" s="59">
+        <v>5</v>
+      </c>
+      <c r="K10" s="59">
         <v>8</v>
       </c>
-      <c r="J10" s="15">
+      <c r="L10" s="59">
+        <v>5</v>
+      </c>
+      <c r="M10" s="59">
+        <v>5</v>
+      </c>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59">
+        <f>4</f>
         <v>4</v>
       </c>
-      <c r="K10" s="15">
-        <v>5</v>
-      </c>
-      <c r="L10" s="15">
-        <v>3</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AC10" s="15">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="AD10" s="15">
+      <c r="AD10" s="59">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>65</v>
-      </c>
-      <c r="AE10" s="15">
+        <v>68</v>
+      </c>
+      <c r="AE10" s="59">
         <f>SUM(F11:AA11)</f>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1987,11 +2010,11 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
@@ -1999,23 +2022,23 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11" s="28">
         <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
@@ -2079,69 +2102,74 @@
       <c r="AE11" s="28"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="59">
-        <v>55</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="59">
+      <c r="A12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="15">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="15">
         <v>4</v>
       </c>
-      <c r="G12" s="59">
-        <v>6</v>
-      </c>
-      <c r="H12" s="59">
-        <v>12</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="15">
+        <v>8</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15">
         <v>5</v>
       </c>
-      <c r="J12" s="59">
+      <c r="L12" s="15">
+        <v>3</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="15">
+        <f>5</f>
         <v>5</v>
       </c>
-      <c r="K12" s="59">
-        <v>8</v>
-      </c>
-      <c r="L12" s="59">
-        <v>5</v>
-      </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="AD12" s="59">
+      <c r="AD12" s="15">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>58</v>
-      </c>
-      <c r="AE12" s="59">
+        <v>65</v>
+      </c>
+      <c r="AE12" s="15">
         <f>SUM(F13:AA13)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2152,11 +2180,11 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
@@ -2164,19 +2192,19 @@
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
@@ -2280,7 +2308,9 @@
       <c r="L14" s="7">
         <v>11</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -2302,11 +2332,11 @@
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2345,7 +2375,7 @@
       </c>
       <c r="M15" s="28">
         <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N15" s="28">
         <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
@@ -2445,7 +2475,9 @@
       <c r="L16" s="8">
         <v>6</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="8">
+        <v>9</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -2467,11 +2499,11 @@
       </c>
       <c r="AD16" s="8">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE16" s="8">
         <f>SUM(F17:AA17)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2510,7 +2542,7 @@
       </c>
       <c r="M17" s="28">
         <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="28">
         <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
@@ -2610,7 +2642,9 @@
       <c r="L18" s="2">
         <v>8</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <v>8</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -2629,11 +2663,11 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2">
         <f>SUM(F19:AA19)+SUM(AB18,AC18)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE18" s="2">
         <f>SUM(F19:AA19)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2672,7 +2706,7 @@
       </c>
       <c r="M19" s="28">
         <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" s="28">
         <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
@@ -2772,7 +2806,9 @@
       <c r="L20" s="53">
         <v>10</v>
       </c>
-      <c r="M20" s="53"/>
+      <c r="M20" s="53">
+        <v>12</v>
+      </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -2934,7 +2970,9 @@
       <c r="L22" s="65">
         <v>17</v>
       </c>
-      <c r="M22" s="65"/>
+      <c r="M22" s="65">
+        <v>13</v>
+      </c>
       <c r="N22" s="65"/>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
@@ -3060,66 +3098,68 @@
       <c r="AE23" s="28"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="62">
-        <v>27</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="62">
-        <v>15</v>
-      </c>
-      <c r="G24" s="62">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="5">
         <v>12</v>
       </c>
-      <c r="H24" s="62">
+      <c r="J24" s="5">
+        <v>14</v>
+      </c>
+      <c r="K24" s="5">
+        <v>14</v>
+      </c>
+      <c r="L24" s="5">
+        <v>16</v>
+      </c>
+      <c r="M24" s="5">
         <v>7</v>
       </c>
-      <c r="I24" s="62">
-        <v>17</v>
-      </c>
-      <c r="J24" s="62">
-        <v>15</v>
-      </c>
-      <c r="K24" s="62">
-        <v>17</v>
-      </c>
-      <c r="L24" s="62">
-        <v>15</v>
-      </c>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5">
         <f>SUM(F25:AA25)+SUM(AB24,AC24)</f>
-        <v>6</v>
-      </c>
-      <c r="AE24" s="62">
+        <v>7</v>
+      </c>
+      <c r="AE24" s="5">
         <f>SUM(F25:AA25)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3130,7 +3170,7 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28">
         <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
@@ -3138,7 +3178,7 @@
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25" s="28">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
@@ -3158,7 +3198,7 @@
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
@@ -3222,66 +3262,68 @@
       <c r="AE25" s="28"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="6">
-        <v>81</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="A26" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="62">
+        <v>27</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="62">
         <v>15</v>
       </c>
-      <c r="H26" s="6">
-        <v>8</v>
-      </c>
-      <c r="I26" s="6">
-        <v>11</v>
-      </c>
-      <c r="J26" s="6">
-        <v>19</v>
-      </c>
-      <c r="K26" s="6">
-        <v>10</v>
-      </c>
-      <c r="L26" s="6">
-        <v>13</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6">
+      <c r="G26" s="62">
+        <v>12</v>
+      </c>
+      <c r="H26" s="62">
+        <v>7</v>
+      </c>
+      <c r="I26" s="62">
+        <v>17</v>
+      </c>
+      <c r="J26" s="62">
+        <v>15</v>
+      </c>
+      <c r="K26" s="62">
+        <v>17</v>
+      </c>
+      <c r="L26" s="62">
+        <v>15</v>
+      </c>
+      <c r="M26" s="62">
+        <v>15</v>
+      </c>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62">
         <f>SUM(F27:AA27)+SUM(AB26,AC26)</f>
-        <v>5</v>
-      </c>
-      <c r="AE26" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="62">
         <f>SUM(F27:AA27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3300,7 +3342,7 @@
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I27" s="28">
         <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
@@ -3312,7 +3354,7 @@
       </c>
       <c r="K27" s="28">
         <f>IF(K26=1,25,IF(K26=2,18,IF(K26=3,15,IF(K26=4,12,IF(K26=5,10,IF(K26=6,8,IF(K26=7,6,IF(K26=8,4,IF(K26=9,2,IF(K26=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="28">
         <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
@@ -3384,66 +3426,68 @@
       <c r="AE27" s="28"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="11">
-        <v>77</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="A28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="6">
+        <v>81</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="6">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6">
         <v>8</v>
       </c>
-      <c r="G28" s="11">
-        <v>18</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="I28" s="6">
         <v>11</v>
       </c>
-      <c r="I28" s="11">
-        <v>18</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="J28" s="6">
+        <v>19</v>
+      </c>
+      <c r="K28" s="6">
+        <v>10</v>
+      </c>
+      <c r="L28" s="6">
         <v>13</v>
       </c>
-      <c r="K28" s="11">
+      <c r="M28" s="6">
         <v>11</v>
       </c>
-      <c r="L28" s="11">
-        <v>19</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11">
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6">
         <f>SUM(F29:AA29)+SUM(AB28,AC28)</f>
-        <v>4</v>
-      </c>
-      <c r="AE28" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="6">
         <f>SUM(F29:AA29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -3454,7 +3498,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28">
         <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" s="28">
         <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
@@ -3462,7 +3506,7 @@
       </c>
       <c r="H29" s="28">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="28">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
@@ -3474,7 +3518,7 @@
       </c>
       <c r="K29" s="28">
         <f>IF(K28=1,25,IF(K28=2,18,IF(K28=3,15,IF(K28=4,12,IF(K28=5,10,IF(K28=6,8,IF(K28=7,6,IF(K28=8,4,IF(K28=9,2,IF(K28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="28">
         <f>IF(L28=1,25,IF(L28=2,18,IF(L28=3,15,IF(L28=4,12,IF(L28=5,10,IF(L28=6,8,IF(L28=7,6,IF(L28=8,4,IF(L28=9,2,IF(L28=10,1,0))))))))))</f>
@@ -3546,66 +3590,68 @@
       <c r="AE29" s="28"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="48">
-        <v>24</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="48" t="s">
+      <c r="A30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="11">
+        <v>77</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="48">
-        <v>16</v>
-      </c>
-      <c r="G30" s="48">
+      <c r="E30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="11">
+        <v>8</v>
+      </c>
+      <c r="G30" s="11">
+        <v>18</v>
+      </c>
+      <c r="H30" s="11">
+        <v>11</v>
+      </c>
+      <c r="I30" s="11">
+        <v>18</v>
+      </c>
+      <c r="J30" s="11">
         <v>13</v>
       </c>
-      <c r="H30" s="48">
-        <v>9</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="48">
-        <v>16</v>
-      </c>
-      <c r="K30" s="48">
-        <v>13</v>
-      </c>
-      <c r="L30" s="48">
-        <v>9</v>
-      </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48">
+      <c r="K30" s="11">
+        <v>11</v>
+      </c>
+      <c r="L30" s="11">
+        <v>19</v>
+      </c>
+      <c r="M30" s="11">
+        <v>10</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11">
         <f>SUM(F31:AA31)+SUM(AB30,AC30)</f>
-        <v>4</v>
-      </c>
-      <c r="AE30" s="48">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="11">
         <f>SUM(F31:AA31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -3616,7 +3662,7 @@
       <c r="E31" s="28"/>
       <c r="F31" s="28">
         <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="28">
         <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
@@ -3624,7 +3670,7 @@
       </c>
       <c r="H31" s="28">
         <f>IF(H30=1,25,IF(H30=2,18,IF(H30=3,15,IF(H30=4,12,IF(H30=5,10,IF(H30=6,8,IF(H30=7,6,IF(H30=8,4,IF(H30=9,2,IF(H30=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="28">
         <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
@@ -3640,11 +3686,11 @@
       </c>
       <c r="L31" s="28">
         <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="28">
         <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="28">
         <f>IF(N30=1,25,IF(N30=2,18,IF(N30=3,15,IF(N30=4,12,IF(N30=5,10,IF(N30=6,8,IF(N30=7,6,IF(N30=8,4,IF(N30=9,2,IF(N30=10,1,0))))))))))</f>
@@ -3708,66 +3754,68 @@
       <c r="AE31" s="28"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="50">
-        <v>22</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="50">
-        <v>11</v>
-      </c>
-      <c r="G32" s="50">
-        <v>11</v>
-      </c>
-      <c r="H32" s="50">
-        <v>10</v>
-      </c>
-      <c r="I32" s="50">
-        <v>10</v>
-      </c>
-      <c r="J32" s="50">
-        <v>11</v>
-      </c>
-      <c r="K32" s="50">
-        <v>15</v>
-      </c>
-      <c r="L32" s="50">
-        <v>12</v>
-      </c>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50">
+      <c r="A32" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="48">
+        <v>24</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="48">
+        <v>16</v>
+      </c>
+      <c r="G32" s="48">
+        <v>13</v>
+      </c>
+      <c r="H32" s="48">
+        <v>9</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="48">
+        <v>16</v>
+      </c>
+      <c r="K32" s="48">
+        <v>13</v>
+      </c>
+      <c r="L32" s="48">
+        <v>9</v>
+      </c>
+      <c r="M32" s="48">
+        <v>16</v>
+      </c>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48">
         <f>SUM(F33:AA33)+SUM(AB32,AC32)</f>
-        <v>2</v>
-      </c>
-      <c r="AE32" s="50">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="48">
         <f>SUM(F33:AA33)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -3786,11 +3834,11 @@
       </c>
       <c r="H33" s="28">
         <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="28">
         <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="28">
         <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
@@ -3802,7 +3850,7 @@
       </c>
       <c r="L33" s="28">
         <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="28">
         <f>IF(M32=1,25,IF(M32=2,18,IF(M32=3,15,IF(M32=4,12,IF(M32=5,10,IF(M32=6,8,IF(M32=7,6,IF(M32=8,4,IF(M32=9,2,IF(M32=10,1,0))))))))))</f>
@@ -3870,64 +3918,66 @@
       <c r="AE33" s="28"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="3">
-        <v>20</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="3">
-        <v>13</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="A34" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="50">
+        <v>22</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="50">
+        <v>11</v>
+      </c>
+      <c r="G34" s="50">
+        <v>11</v>
+      </c>
+      <c r="H34" s="50">
         <v>10</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" s="3">
-        <v>13</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="50">
         <v>10</v>
       </c>
-      <c r="K34" s="3">
-        <v>19</v>
-      </c>
-      <c r="L34" s="3">
-        <v>18</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3">
+      <c r="J34" s="50">
+        <v>11</v>
+      </c>
+      <c r="K34" s="50">
+        <v>15</v>
+      </c>
+      <c r="L34" s="50">
+        <v>12</v>
+      </c>
+      <c r="M34" s="50">
+        <v>14</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50">
         <f>SUM(F35:AA35)+SUM(AB34,AC34)</f>
         <v>2</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AE34" s="50">
         <f>SUM(F35:AA35)</f>
         <v>2</v>
       </c>
@@ -3944,19 +3994,19 @@
       </c>
       <c r="G35" s="28">
         <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="28">
         <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="28">
         <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="28">
         <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="28">
         <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
@@ -4032,66 +4082,68 @@
       <c r="AE35" s="28"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="5">
-        <v>23</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="A36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="3">
         <v>20</v>
       </c>
-      <c r="F36" s="5">
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="3">
+        <v>13</v>
+      </c>
+      <c r="G36" s="3">
         <v>10</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="5">
-        <v>12</v>
-      </c>
-      <c r="J36" s="5">
-        <v>14</v>
-      </c>
-      <c r="K36" s="5">
-        <v>14</v>
-      </c>
-      <c r="L36" s="5">
-        <v>16</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5">
+      <c r="I36" s="3">
+        <v>13</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10</v>
+      </c>
+      <c r="K36" s="3">
+        <v>19</v>
+      </c>
+      <c r="L36" s="3">
+        <v>18</v>
+      </c>
+      <c r="M36" s="3">
+        <v>17</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3">
         <f>SUM(F37:AA37)+SUM(AB36,AC36)</f>
-        <v>1</v>
-      </c>
-      <c r="AE36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE36" s="3">
         <f>SUM(F37:AA37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -4102,11 +4154,11 @@
       <c r="E37" s="28"/>
       <c r="F37" s="28">
         <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="28">
         <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="28">
         <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
@@ -4118,7 +4170,7 @@
       </c>
       <c r="J37" s="28">
         <f>IF(J36=1,25,IF(J36=2,18,IF(J36=3,15,IF(J36=4,12,IF(J36=5,10,IF(J36=6,8,IF(J36=7,6,IF(J36=8,4,IF(J36=9,2,IF(J36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="28">
         <f>IF(K36=1,25,IF(K36=2,18,IF(K36=3,15,IF(K36=4,12,IF(K36=5,10,IF(K36=6,8,IF(K36=7,6,IF(K36=8,4,IF(K36=9,2,IF(K36=10,1,0))))))))))</f>
@@ -4230,7 +4282,9 @@
       <c r="L38" s="72">
         <v>20</v>
       </c>
-      <c r="M38" s="72"/>
+      <c r="M38" s="72" t="s">
+        <v>114</v>
+      </c>
       <c r="N38" s="72"/>
       <c r="O38" s="72"/>
       <c r="P38" s="72"/>
@@ -4392,7 +4446,9 @@
       <c r="L40" s="9">
         <v>14</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="9">
+        <v>18</v>
+      </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -4592,7 +4648,7 @@
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -4732,7 +4788,9 @@
       <c r="L2" s="9">
         <v>1</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
       <c r="N2" s="23"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -4749,7 +4807,7 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -4788,7 +4846,7 @@
       </c>
       <c r="M3" s="28">
         <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="28">
         <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
@@ -4885,7 +4943,9 @@
       <c r="L4" s="50">
         <v>4</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="50">
+        <v>6</v>
+      </c>
       <c r="N4" s="50"/>
       <c r="O4" s="57"/>
       <c r="P4" s="50"/>
@@ -4902,7 +4962,7 @@
       <c r="AA4" s="50"/>
       <c r="AB4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -4941,7 +5001,7 @@
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
@@ -5038,7 +5098,9 @@
       <c r="L6" s="45">
         <v>7</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="55">
+        <v>2</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="55"/>
       <c r="P6" s="45"/>
@@ -5055,7 +5117,7 @@
       <c r="AA6" s="45"/>
       <c r="AB6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5094,7 +5156,7 @@
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
@@ -5191,7 +5253,9 @@
       <c r="L8" s="69">
         <v>2</v>
       </c>
-      <c r="M8" s="69"/>
+      <c r="M8" s="69">
+        <v>3</v>
+      </c>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69"/>
@@ -5208,7 +5272,7 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5247,7 +5311,7 @@
       </c>
       <c r="M9" s="28">
         <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N9" s="28">
         <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
@@ -5308,60 +5372,62 @@
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="15">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15">
-        <v>7</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="A10" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="59">
+        <v>55</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="59">
         <v>4</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="G10" s="59">
+        <v>6</v>
+      </c>
+      <c r="H10" s="61">
+        <v>12</v>
+      </c>
+      <c r="I10" s="61">
+        <v>5</v>
+      </c>
+      <c r="J10" s="59">
+        <v>5</v>
+      </c>
+      <c r="K10" s="59">
         <v>8</v>
       </c>
-      <c r="J10" s="15">
-        <v>4</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="L10" s="61">
         <v>5</v>
       </c>
-      <c r="L10" s="18">
-        <v>3</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18">
+      <c r="M10" s="59">
+        <v>5</v>
+      </c>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59">
         <f>SUM(F11:AA11)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5372,11 +5438,11 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
@@ -5384,23 +5450,23 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" s="28">
         <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
@@ -5461,60 +5527,62 @@
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="59">
-        <v>55</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="59">
+      <c r="A12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="15">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="59">
-        <v>6</v>
-      </c>
-      <c r="H12" s="61">
-        <v>12</v>
-      </c>
-      <c r="I12" s="61">
+      <c r="H12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="18">
+        <v>8</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15">
         <v>5</v>
       </c>
-      <c r="J12" s="59">
-        <v>5</v>
-      </c>
-      <c r="K12" s="59">
-        <v>8</v>
-      </c>
-      <c r="L12" s="61">
-        <v>5</v>
-      </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59">
+      <c r="L12" s="18">
+        <v>3</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18">
         <f>SUM(F13:AA13)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5525,11 +5593,11 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
@@ -5537,19 +5605,19 @@
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
@@ -5650,7 +5718,9 @@
       <c r="L14" s="29">
         <v>11</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="21"/>
       <c r="P14" s="7"/>
@@ -5667,7 +5737,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -5706,7 +5776,7 @@
       </c>
       <c r="M15" s="28">
         <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15" s="28">
         <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
@@ -5803,7 +5873,9 @@
       <c r="L16" s="8">
         <v>6</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="8">
+        <v>9</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="24"/>
       <c r="P16" s="8"/>
@@ -5956,7 +6028,9 @@
       <c r="L18" s="2">
         <v>8</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="19">
+        <v>8</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -5973,7 +6047,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
         <f>SUM(F19:AA19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6012,7 +6086,7 @@
       </c>
       <c r="M19" s="28">
         <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="28">
         <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
@@ -6109,7 +6183,9 @@
       <c r="L20" s="65">
         <v>17</v>
       </c>
-      <c r="M20" s="65"/>
+      <c r="M20" s="65">
+        <v>13</v>
+      </c>
       <c r="N20" s="65"/>
       <c r="O20" s="68"/>
       <c r="P20" s="65"/>
@@ -6262,7 +6338,9 @@
       <c r="L22" s="53">
         <v>10</v>
       </c>
-      <c r="M22" s="53"/>
+      <c r="M22" s="53">
+        <v>12</v>
+      </c>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
@@ -6415,7 +6493,9 @@
       <c r="L24" s="62">
         <v>15</v>
       </c>
-      <c r="M24" s="62"/>
+      <c r="M24" s="62">
+        <v>15</v>
+      </c>
       <c r="N24" s="62"/>
       <c r="O24" s="62"/>
       <c r="P24" s="62"/>
@@ -6532,60 +6612,62 @@
       <c r="AB25" s="28"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="11">
-        <v>77</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="11">
-        <v>8</v>
-      </c>
-      <c r="G26" s="11">
-        <v>18</v>
-      </c>
-      <c r="H26" s="11">
-        <v>11</v>
-      </c>
-      <c r="I26" s="11">
-        <v>18</v>
-      </c>
-      <c r="J26" s="22">
-        <v>13</v>
-      </c>
-      <c r="K26" s="11">
-        <v>11</v>
-      </c>
-      <c r="L26" s="11">
-        <v>19</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11">
+      <c r="A26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="5">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>14</v>
+      </c>
+      <c r="K26" s="5">
+        <v>14</v>
+      </c>
+      <c r="L26" s="5">
+        <v>16</v>
+      </c>
+      <c r="M26" s="5">
+        <v>7</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20">
         <f>SUM(F27:AA27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -6596,7 +6678,7 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28">
         <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
@@ -6624,7 +6706,7 @@
       </c>
       <c r="M27" s="28">
         <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="28">
         <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
@@ -6685,58 +6767,60 @@
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="6">
-        <v>81</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="30">
-        <v>15</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="A28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="11">
+        <v>77</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="11">
         <v>8</v>
       </c>
-      <c r="I28" s="6">
+      <c r="G28" s="11">
+        <v>18</v>
+      </c>
+      <c r="H28" s="11">
         <v>11</v>
       </c>
-      <c r="J28" s="6">
+      <c r="I28" s="11">
+        <v>18</v>
+      </c>
+      <c r="J28" s="22">
+        <v>13</v>
+      </c>
+      <c r="K28" s="11">
+        <v>11</v>
+      </c>
+      <c r="L28" s="11">
         <v>19</v>
       </c>
-      <c r="K28" s="6">
+      <c r="M28" s="11">
         <v>10</v>
       </c>
-      <c r="L28" s="6">
-        <v>13</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6">
+      <c r="N28" s="11"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11">
         <f>SUM(F29:AA29)</f>
         <v>1</v>
       </c>
@@ -6749,7 +6833,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28">
         <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="28">
         <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
@@ -6757,7 +6841,7 @@
       </c>
       <c r="H29" s="28">
         <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="28">
         <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
@@ -6838,60 +6922,62 @@
       <c r="AB29" s="28"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="72">
-        <v>2</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="72" t="s">
+      <c r="A30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="6">
+        <v>81</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="72">
-        <v>12</v>
-      </c>
-      <c r="G30" s="72">
-        <v>16</v>
-      </c>
-      <c r="H30" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" s="72">
-        <v>16</v>
-      </c>
-      <c r="J30" s="72">
-        <v>20</v>
-      </c>
-      <c r="K30" s="72">
-        <v>18</v>
-      </c>
-      <c r="L30" s="72">
-        <v>20</v>
-      </c>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74">
+      <c r="F30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="30">
+        <v>15</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8</v>
+      </c>
+      <c r="I30" s="6">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <v>19</v>
+      </c>
+      <c r="K30" s="6">
+        <v>10</v>
+      </c>
+      <c r="L30" s="6">
+        <v>13</v>
+      </c>
+      <c r="M30" s="6">
+        <v>11</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6">
         <f>SUM(F31:AA31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -6910,7 +6996,7 @@
       </c>
       <c r="H31" s="28">
         <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="28">
         <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
@@ -6991,58 +7077,60 @@
       <c r="AB31" s="28"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="72">
+        <v>2</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="4">
-        <v>13</v>
-      </c>
-      <c r="G32" s="3">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="F32" s="72">
+        <v>12</v>
+      </c>
+      <c r="G32" s="72">
+        <v>16</v>
+      </c>
+      <c r="H32" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="3">
-        <v>13</v>
-      </c>
-      <c r="J32" s="3">
-        <v>10</v>
-      </c>
-      <c r="K32" s="3">
-        <v>19</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="I32" s="72">
+        <v>16</v>
+      </c>
+      <c r="J32" s="72">
+        <v>20</v>
+      </c>
+      <c r="K32" s="72">
         <v>18</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4">
+      <c r="L32" s="72">
+        <v>20</v>
+      </c>
+      <c r="M32" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74">
         <f>SUM(F33:AA33)</f>
         <v>0</v>
       </c>
@@ -7144,58 +7232,60 @@
       <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="50">
-        <v>22</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="50">
-        <v>11</v>
-      </c>
-      <c r="G34" s="50">
-        <v>11</v>
-      </c>
-      <c r="H34" s="50">
+      <c r="A34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3">
         <v>10</v>
       </c>
-      <c r="I34" s="57">
+      <c r="H34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="3">
+        <v>13</v>
+      </c>
+      <c r="J34" s="3">
         <v>10</v>
       </c>
-      <c r="J34" s="50">
-        <v>11</v>
-      </c>
-      <c r="K34" s="50">
-        <v>15</v>
-      </c>
-      <c r="L34" s="50">
-        <v>12</v>
-      </c>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50">
+      <c r="K34" s="3">
+        <v>19</v>
+      </c>
+      <c r="L34" s="3">
+        <v>18</v>
+      </c>
+      <c r="M34" s="3">
+        <v>17</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4">
         <f>SUM(F35:AA35)</f>
         <v>0</v>
       </c>
@@ -7297,58 +7387,60 @@
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="5">
-        <v>23</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="A36" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="50">
+        <v>22</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="50">
+        <v>11</v>
+      </c>
+      <c r="G36" s="50">
+        <v>11</v>
+      </c>
+      <c r="H36" s="50">
         <v>10</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="I36" s="57">
+        <v>10</v>
+      </c>
+      <c r="J36" s="50">
+        <v>11</v>
+      </c>
+      <c r="K36" s="50">
+        <v>15</v>
+      </c>
+      <c r="L36" s="50">
         <v>12</v>
       </c>
-      <c r="J36" s="5">
+      <c r="M36" s="50">
         <v>14</v>
       </c>
-      <c r="K36" s="5">
-        <v>14</v>
-      </c>
-      <c r="L36" s="5">
-        <v>16</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20">
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50">
         <f>SUM(F37:AA37)</f>
         <v>0</v>
       </c>
@@ -7486,7 +7578,9 @@
       <c r="L38" s="48">
         <v>9</v>
       </c>
-      <c r="M38" s="48"/>
+      <c r="M38" s="48">
+        <v>16</v>
+      </c>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
@@ -7639,7 +7733,9 @@
       <c r="L40" s="23">
         <v>14</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="9">
+        <v>18</v>
+      </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -7786,7 +7882,7 @@
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -7927,7 +8023,9 @@
       <c r="L2" s="9">
         <v>1</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
       <c r="N2" s="23"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -7944,7 +8042,7 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -7983,7 +8081,7 @@
       </c>
       <c r="M3" s="28">
         <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="28">
         <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
@@ -8080,7 +8178,9 @@
       <c r="L4" s="50">
         <v>4</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="50">
+        <v>6</v>
+      </c>
       <c r="N4" s="50"/>
       <c r="O4" s="57"/>
       <c r="P4" s="50"/>
@@ -8097,7 +8197,7 @@
       <c r="AA4" s="50"/>
       <c r="AB4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -8136,7 +8236,7 @@
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
@@ -8233,7 +8333,9 @@
       <c r="L6" s="45">
         <v>7</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="55">
+        <v>2</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="55"/>
       <c r="P6" s="45"/>
@@ -8250,7 +8352,7 @@
       <c r="AA6" s="45"/>
       <c r="AB6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -8289,7 +8391,7 @@
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
@@ -8386,7 +8488,9 @@
       <c r="L8" s="69">
         <v>2</v>
       </c>
-      <c r="M8" s="69"/>
+      <c r="M8" s="69">
+        <v>3</v>
+      </c>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69"/>
@@ -8403,7 +8507,7 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -8442,7 +8546,7 @@
       </c>
       <c r="M9" s="28">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="28">
         <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
@@ -8539,7 +8643,9 @@
       <c r="L10" s="18">
         <v>3</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -8692,7 +8798,9 @@
       <c r="L12" s="59">
         <v>5</v>
       </c>
-      <c r="M12" s="59"/>
+      <c r="M12" s="59">
+        <v>5</v>
+      </c>
       <c r="N12" s="59"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
@@ -8709,7 +8817,7 @@
       <c r="AA12" s="59"/>
       <c r="AB12" s="59">
         <f>SUM(F13:AA13)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -8748,7 +8856,7 @@
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="28">
         <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
@@ -8845,7 +8953,9 @@
       <c r="L14" s="7">
         <v>11</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="21"/>
       <c r="P14" s="7"/>
@@ -8862,7 +8972,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -8901,7 +9011,7 @@
       </c>
       <c r="M15" s="28">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="28">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
@@ -8998,7 +9108,9 @@
       <c r="L16" s="8">
         <v>6</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="8">
+        <v>9</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="24"/>
       <c r="P16" s="8"/>
@@ -9151,7 +9263,9 @@
       <c r="L18" s="2">
         <v>8</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="19">
+        <v>8</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -9304,7 +9418,9 @@
       <c r="L20" s="65">
         <v>17</v>
       </c>
-      <c r="M20" s="65"/>
+      <c r="M20" s="65">
+        <v>13</v>
+      </c>
       <c r="N20" s="65"/>
       <c r="O20" s="68"/>
       <c r="P20" s="65"/>
@@ -9457,7 +9573,9 @@
       <c r="L22" s="72">
         <v>20</v>
       </c>
-      <c r="M22" s="72"/>
+      <c r="M22" s="72" t="s">
+        <v>115</v>
+      </c>
       <c r="N22" s="72"/>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
@@ -9610,7 +9728,9 @@
       <c r="L24" s="53">
         <v>10</v>
       </c>
-      <c r="M24" s="53"/>
+      <c r="M24" s="53">
+        <v>12</v>
+      </c>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
@@ -9763,7 +9883,9 @@
       <c r="L26" s="3">
         <v>18</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>17</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
       <c r="P26" s="3"/>
@@ -9916,7 +10038,9 @@
       <c r="L28" s="50">
         <v>12</v>
       </c>
-      <c r="M28" s="50"/>
+      <c r="M28" s="50">
+        <v>14</v>
+      </c>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
       <c r="P28" s="50"/>
@@ -10069,7 +10193,9 @@
       <c r="L30" s="5">
         <v>16</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="5">
+        <v>7</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -10222,7 +10348,9 @@
       <c r="L32" s="48">
         <v>9</v>
       </c>
-      <c r="M32" s="48"/>
+      <c r="M32" s="48">
+        <v>16</v>
+      </c>
       <c r="N32" s="48"/>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
@@ -10375,7 +10503,9 @@
       <c r="L34" s="62">
         <v>15</v>
       </c>
-      <c r="M34" s="62"/>
+      <c r="M34" s="62">
+        <v>15</v>
+      </c>
       <c r="N34" s="62"/>
       <c r="O34" s="62"/>
       <c r="P34" s="62"/>
@@ -10528,7 +10658,9 @@
       <c r="L36" s="23">
         <v>14</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="M36" s="9">
+        <v>18</v>
+      </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -10681,7 +10813,9 @@
       <c r="L38" s="11">
         <v>19</v>
       </c>
-      <c r="M38" s="11"/>
+      <c r="M38" s="11">
+        <v>10</v>
+      </c>
       <c r="N38" s="11"/>
       <c r="O38" s="22"/>
       <c r="P38" s="11"/>
@@ -10834,7 +10968,9 @@
       <c r="L40" s="6">
         <v>13</v>
       </c>
-      <c r="M40" s="6"/>
+      <c r="M40" s="6">
+        <v>11</v>
+      </c>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -10966,7 +11102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10980,7 +11118,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>62</v>
@@ -11007,11 +11145,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="E2" s="10">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11025,12 +11163,12 @@
         <v>65</v>
       </c>
       <c r="D3" s="15">
-        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD10</f>
-        <v>152</v>
+        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD12</f>
+        <v>167</v>
       </c>
       <c r="E3" s="15">
-        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE10</f>
-        <v>143</v>
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE12</f>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11045,11 +11183,11 @@
       </c>
       <c r="D4" s="8">
         <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD16</f>
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E4" s="8">
         <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE16</f>
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11063,12 +11201,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <f>'2023 Driver Ranking'!AD12+'2023 Driver Ranking'!AD14</f>
-        <v>100</v>
+        <f>'2023 Driver Ranking'!AD10+'2023 Driver Ranking'!AD14</f>
+        <v>122</v>
       </c>
       <c r="E5" s="7">
-        <f>'2023 Driver Ranking'!AE12+'2023 Driver Ranking'!AE14</f>
-        <v>89</v>
+        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE14</f>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11083,11 +11221,11 @@
       </c>
       <c r="D6" s="2">
         <f>'2023 Driver Ranking'!AD18+'2023 Driver Ranking'!AD20</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2">
         <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE20</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11101,88 +11239,88 @@
         <v>73</v>
       </c>
       <c r="D7" s="6">
-        <f>'2023 Driver Ranking'!AD22+'2023 Driver Ranking'!AD26</f>
+        <f>'2023 Driver Ranking'!AD22+'2023 Driver Ranking'!AD28</f>
         <v>17</v>
       </c>
       <c r="E7" s="6">
-        <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE26</f>
+        <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE28</f>
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="11">
+        <f>'2023 Driver Ranking'!AD30+'2023 Driver Ranking'!AD32</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="11">
+        <f>'2023 Driver Ranking'!AE30+'2023 Driver Ranking'!AE32</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="3">
-        <f>'2023 Driver Ranking'!AD24+'2023 Driver Ranking'!AD34</f>
+      <c r="D9" s="3">
+        <f>'2023 Driver Ranking'!AD26+'2023 Driver Ranking'!AD36</f>
         <v>8</v>
       </c>
-      <c r="E8" s="3">
-        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE34</f>
+      <c r="E9" s="3">
+        <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE36</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="11">
-        <f>'2023 Driver Ranking'!AD28+'2023 Driver Ranking'!AD30</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="11">
-        <f>'2023 Driver Ranking'!AE28+'2023 Driver Ranking'!AE30</f>
-        <v>8</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5">
+        <f>'2023 Driver Ranking'!AD24+'2023 Driver Ranking'!AD38</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE38</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="10">
-        <f>'2023 Driver Ranking'!AD32+'2023 Driver Ranking'!AD40</f>
+      <c r="D11" s="10">
+        <f>'2023 Driver Ranking'!AD34+'2023 Driver Ranking'!AD40</f>
         <v>2</v>
       </c>
-      <c r="E10" s="10">
-        <f>'2023 Driver Ranking'!AE32+'2023 Driver Ranking'!AE40</f>
+      <c r="E11" s="10">
+        <f>'2023 Driver Ranking'!AE34+'2023 Driver Ranking'!AE40</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="5">
-        <f>'2023 Driver Ranking'!AD36+'2023 Driver Ranking'!AD38</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <f>'2023 Driver Ranking'!AE36+'2023 Driver Ranking'!AE38</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11238,7 +11376,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11252,8 +11390,8 @@
         <v>65</v>
       </c>
       <c r="D3" s="15">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB10</f>
-        <v>58</v>
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB12</f>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11268,7 +11406,7 @@
       </c>
       <c r="D4" s="8">
         <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB16</f>
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11282,8 +11420,8 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
-        <v>34</v>
+        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB14</f>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11298,7 +11436,7 @@
       </c>
       <c r="D6" s="2">
         <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB22</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11312,7 +11450,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="6">
-        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB28</f>
+        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB30</f>
         <v>4</v>
       </c>
     </row>
@@ -11327,52 +11465,52 @@
         <v>70</v>
       </c>
       <c r="D8" s="3">
-        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB32</f>
+        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB34</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="5">
+        <f>'2003-2009 Driver Ranking'!AB26+'2003-2009 Driver Ranking'!AB32</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="11">
-        <f>'2003-2009 Driver Ranking'!AB26+'2003-2009 Driver Ranking'!AB38</f>
+      <c r="D10" s="11">
+        <f>'2003-2009 Driver Ranking'!AB28+'2003-2009 Driver Ranking'!AB38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="10">
-        <f>'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="5">
-        <f>'2003-2009 Driver Ranking'!AB30+'2003-2009 Driver Ranking'!AB36</f>
+      <c r="D11" s="10">
+        <f>'2003-2009 Driver Ranking'!AB36+'2003-2009 Driver Ranking'!AB40</f>
         <v>0</v>
       </c>
     </row>
@@ -11428,7 +11566,7 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11443,7 +11581,7 @@
       </c>
       <c r="D3" s="15">
         <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB10</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11458,7 +11596,7 @@
       </c>
       <c r="D4" s="8">
         <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB16</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11473,7 +11611,7 @@
       </c>
       <c r="D5" s="7">
         <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB14</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="119">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,11 +501,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Teams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Teams</t>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,8 +1152,7 @@
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
@@ -1297,7 +1304,9 @@
       <c r="M2" s="10">
         <v>1</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
       <c r="O2" s="10"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -1312,20 +1321,20 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="AC2" s="9">
-        <f>6</f>
-        <v>6</v>
+        <f>6+8</f>
+        <v>14</v>
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1368,7 +1377,7 @@
       </c>
       <c r="N3" s="28">
         <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O3" s="28">
         <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
@@ -1467,7 +1476,9 @@
       <c r="M4" s="50">
         <v>6</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="50">
+        <v>3</v>
+      </c>
       <c r="O4" s="50"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="50"/>
@@ -1486,16 +1497,16 @@
         <v>2</v>
       </c>
       <c r="AC4" s="50">
-        <f>8</f>
-        <v>8</v>
+        <f>8+7</f>
+        <v>15</v>
       </c>
       <c r="AD4" s="50">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AE4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1538,7 +1549,7 @@
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O5" s="28">
         <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
@@ -1637,7 +1648,9 @@
       <c r="M6" s="45">
         <v>2</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="45">
+        <v>5</v>
+      </c>
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="45"/>
@@ -1653,16 +1666,16 @@
       <c r="AA6" s="45"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="45">
-        <f>3</f>
-        <v>3</v>
+        <f>3+4</f>
+        <v>7</v>
       </c>
       <c r="AD6" s="45">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="AE6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1705,7 +1718,7 @@
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7" s="28">
         <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
@@ -1804,7 +1817,9 @@
       <c r="M8" s="69">
         <v>3</v>
       </c>
-      <c r="N8" s="69"/>
+      <c r="N8" s="69">
+        <v>8</v>
+      </c>
       <c r="O8" s="69"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="69"/>
@@ -1828,11 +1843,11 @@
       </c>
       <c r="AD8" s="69">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AE8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1875,7 +1890,7 @@
       </c>
       <c r="N9" s="28">
         <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="28">
         <f>IF(O8=1,25,IF(O8=2,18,IF(O8=3,15,IF(O8=4,12,IF(O8=5,10,IF(O8=6,8,IF(O8=7,6,IF(O8=8,4,IF(O8=9,2,IF(O8=10,1,0))))))))))</f>
@@ -1974,7 +1989,9 @@
       <c r="M10" s="59">
         <v>5</v>
       </c>
-      <c r="N10" s="59"/>
+      <c r="N10" s="59">
+        <v>6</v>
+      </c>
       <c r="O10" s="59"/>
       <c r="P10" s="59"/>
       <c r="Q10" s="59"/>
@@ -1990,16 +2007,16 @@
       <c r="AA10" s="59"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59">
-        <f>4</f>
-        <v>4</v>
+        <f>4+6</f>
+        <v>10</v>
       </c>
       <c r="AD10" s="59">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="AE10" s="59">
         <f>SUM(F11:AA11)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2042,7 +2059,7 @@
       </c>
       <c r="N11" s="28">
         <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O11" s="28">
         <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
@@ -2141,7 +2158,9 @@
       <c r="M12" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="15"/>
+      <c r="N12" s="15">
+        <v>7</v>
+      </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -2160,16 +2179,16 @@
         <v>1</v>
       </c>
       <c r="AC12" s="15">
-        <f>5</f>
-        <v>5</v>
+        <f>5+1</f>
+        <v>6</v>
       </c>
       <c r="AD12" s="15">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AE12" s="15">
         <f>SUM(F13:AA13)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2212,7 +2231,7 @@
       </c>
       <c r="N13" s="28">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O13" s="28">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
@@ -2311,7 +2330,9 @@
       <c r="M14" s="7">
         <v>4</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="7">
+        <v>2</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2332,11 +2353,11 @@
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2379,7 +2400,7 @@
       </c>
       <c r="N15" s="28">
         <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O15" s="28">
         <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
@@ -2478,7 +2499,9 @@
       <c r="M16" s="8">
         <v>9</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8">
+        <v>9</v>
+      </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -2494,16 +2517,16 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8">
-        <f>1</f>
-        <v>1</v>
+        <f>1+5</f>
+        <v>6</v>
       </c>
       <c r="AD16" s="8">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AE16" s="8">
         <f>SUM(F17:AA17)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2546,7 +2569,7 @@
       </c>
       <c r="N17" s="28">
         <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="28">
         <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
@@ -2645,7 +2668,9 @@
       <c r="M18" s="2">
         <v>8</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2">
+        <v>14</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2660,10 +2685,13 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
+      <c r="AC18" s="2">
+        <f>2</f>
+        <v>2</v>
+      </c>
       <c r="AD18" s="2">
         <f>SUM(F19:AA19)+SUM(AB18,AC18)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE18" s="2">
         <f>SUM(F19:AA19)</f>
@@ -2770,68 +2798,70 @@
       <c r="AE19" s="28"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="53">
-        <v>10</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="53">
+      <c r="A20" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="65">
+        <v>4</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="65">
+        <v>17</v>
+      </c>
+      <c r="G20" s="65">
+        <v>17</v>
+      </c>
+      <c r="H20" s="65">
+        <v>6</v>
+      </c>
+      <c r="I20" s="65">
         <v>9</v>
       </c>
-      <c r="G20" s="53">
+      <c r="J20" s="65">
+        <v>17</v>
+      </c>
+      <c r="K20" s="65">
         <v>9</v>
       </c>
-      <c r="H20" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="53">
-        <v>14</v>
-      </c>
-      <c r="J20" s="53">
-        <v>8</v>
-      </c>
-      <c r="K20" s="53">
-        <v>7</v>
-      </c>
-      <c r="L20" s="53">
-        <v>10</v>
-      </c>
-      <c r="M20" s="53">
-        <v>12</v>
-      </c>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53">
+      <c r="L20" s="65">
+        <v>17</v>
+      </c>
+      <c r="M20" s="65">
+        <v>13</v>
+      </c>
+      <c r="N20" s="65">
+        <v>4</v>
+      </c>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65">
         <f>SUM(F21:AA21)+SUM(AB20,AC20)</f>
-        <v>15</v>
-      </c>
-      <c r="AE20" s="53">
+        <v>24</v>
+      </c>
+      <c r="AE20" s="65">
         <f>SUM(F21:AA21)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2842,31 +2872,31 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="28">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="28">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I21" s="28">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="28">
         <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" s="28">
         <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L21" s="28">
         <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="28">
         <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
@@ -2874,7 +2904,7 @@
       </c>
       <c r="N21" s="28">
         <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O21" s="28">
         <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
@@ -2934,68 +2964,70 @@
       <c r="AE21" s="28"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="65">
-        <v>4</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="65">
-        <v>17</v>
-      </c>
-      <c r="G22" s="65">
-        <v>17</v>
-      </c>
-      <c r="H22" s="65">
-        <v>6</v>
-      </c>
-      <c r="I22" s="65">
+      <c r="A22" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="53">
+        <v>10</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="53">
         <v>9</v>
       </c>
-      <c r="J22" s="65">
-        <v>17</v>
-      </c>
-      <c r="K22" s="65">
+      <c r="G22" s="53">
         <v>9</v>
       </c>
-      <c r="L22" s="65">
-        <v>17</v>
-      </c>
-      <c r="M22" s="65">
-        <v>13</v>
-      </c>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65">
+      <c r="H22" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="53">
+        <v>14</v>
+      </c>
+      <c r="J22" s="53">
+        <v>8</v>
+      </c>
+      <c r="K22" s="53">
+        <v>7</v>
+      </c>
+      <c r="L22" s="53">
+        <v>10</v>
+      </c>
+      <c r="M22" s="53">
+        <v>12</v>
+      </c>
+      <c r="N22" s="53">
+        <v>10</v>
+      </c>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53">
         <f>SUM(F23:AA23)+SUM(AB22,AC22)</f>
-        <v>12</v>
-      </c>
-      <c r="AE22" s="65">
+        <v>16</v>
+      </c>
+      <c r="AE22" s="53">
         <f>SUM(F23:AA23)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3006,31 +3038,31 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="28">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I23" s="28">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="28">
         <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" s="28">
         <f>IF(K22=1,25,IF(K22=2,18,IF(K22=3,15,IF(K22=4,12,IF(K22=5,10,IF(K22=6,8,IF(K22=7,6,IF(K22=8,4,IF(K22=9,2,IF(K22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L23" s="28">
         <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="28">
         <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
@@ -3038,7 +3070,7 @@
       </c>
       <c r="N23" s="28">
         <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="28">
         <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
@@ -3098,68 +3130,73 @@
       <c r="AE23" s="28"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="A24" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="62">
+        <v>27</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="62">
+        <v>15</v>
+      </c>
+      <c r="G24" s="62">
         <v>12</v>
       </c>
-      <c r="J24" s="5">
-        <v>14</v>
-      </c>
-      <c r="K24" s="5">
-        <v>14</v>
-      </c>
-      <c r="L24" s="5">
-        <v>16</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="H24" s="62">
         <v>7</v>
       </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5">
+      <c r="I24" s="62">
+        <v>17</v>
+      </c>
+      <c r="J24" s="62">
+        <v>15</v>
+      </c>
+      <c r="K24" s="62">
+        <v>17</v>
+      </c>
+      <c r="L24" s="62">
+        <v>15</v>
+      </c>
+      <c r="M24" s="62">
+        <v>15</v>
+      </c>
+      <c r="N24" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="AD24" s="62">
         <f>SUM(F25:AA25)+SUM(AB24,AC24)</f>
-        <v>7</v>
-      </c>
-      <c r="AE24" s="5">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="62">
         <f>SUM(F25:AA25)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3170,7 +3207,7 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28">
         <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
@@ -3178,7 +3215,7 @@
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="28">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
@@ -3198,7 +3235,7 @@
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
@@ -3262,68 +3299,70 @@
       <c r="AE25" s="28"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="62">
-        <v>27</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="62">
-        <v>15</v>
-      </c>
-      <c r="G26" s="62">
+      <c r="A26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="5">
         <v>12</v>
       </c>
-      <c r="H26" s="62">
+      <c r="J26" s="5">
+        <v>14</v>
+      </c>
+      <c r="K26" s="5">
+        <v>14</v>
+      </c>
+      <c r="L26" s="5">
+        <v>16</v>
+      </c>
+      <c r="M26" s="5">
         <v>7</v>
       </c>
-      <c r="I26" s="62">
-        <v>17</v>
-      </c>
-      <c r="J26" s="62">
-        <v>15</v>
-      </c>
-      <c r="K26" s="62">
-        <v>17</v>
-      </c>
-      <c r="L26" s="62">
-        <v>15</v>
-      </c>
-      <c r="M26" s="62">
-        <v>15</v>
-      </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62">
+      <c r="N26" s="5">
+        <v>11</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5">
         <f>SUM(F27:AA27)+SUM(AB26,AC26)</f>
-        <v>6</v>
-      </c>
-      <c r="AE26" s="62">
+        <v>7</v>
+      </c>
+      <c r="AE26" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3334,7 +3373,7 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28">
         <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
@@ -3342,7 +3381,7 @@
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I27" s="28">
         <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
@@ -3362,7 +3401,7 @@
       </c>
       <c r="M27" s="28">
         <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N27" s="28">
         <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
@@ -3465,7 +3504,9 @@
       <c r="M28" s="6">
         <v>11</v>
       </c>
-      <c r="N28" s="6"/>
+      <c r="N28" s="6">
+        <v>16</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -3629,7 +3670,9 @@
       <c r="M30" s="11">
         <v>10</v>
       </c>
-      <c r="N30" s="11"/>
+      <c r="N30" s="11">
+        <v>15</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -3779,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J32" s="48">
         <v>16</v>
@@ -3793,7 +3836,9 @@
       <c r="M32" s="48">
         <v>16</v>
       </c>
-      <c r="N32" s="48"/>
+      <c r="N32" s="48">
+        <v>12</v>
+      </c>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
@@ -3957,7 +4002,9 @@
       <c r="M34" s="50">
         <v>14</v>
       </c>
-      <c r="N34" s="50"/>
+      <c r="N34" s="50">
+        <v>19</v>
+      </c>
       <c r="O34" s="50"/>
       <c r="P34" s="50"/>
       <c r="Q34" s="50"/>
@@ -4121,7 +4168,9 @@
       <c r="M36" s="3">
         <v>17</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="3">
+        <v>18</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -4285,7 +4334,9 @@
       <c r="M38" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="N38" s="72"/>
+      <c r="N38" s="72">
+        <v>13</v>
+      </c>
       <c r="O38" s="72"/>
       <c r="P38" s="72"/>
       <c r="Q38" s="72"/>
@@ -4449,7 +4500,9 @@
       <c r="M40" s="9">
         <v>18</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="9">
+        <v>17</v>
+      </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -4648,8 +4701,7 @@
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
@@ -4791,7 +4843,9 @@
       <c r="M2" s="9">
         <v>1</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="23">
+        <v>1</v>
+      </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -4807,7 +4861,7 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -4850,7 +4904,7 @@
       </c>
       <c r="N3" s="28">
         <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="28">
         <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
@@ -4946,7 +5000,9 @@
       <c r="M4" s="50">
         <v>6</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="50">
+        <v>3</v>
+      </c>
       <c r="O4" s="57"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
@@ -4962,7 +5018,7 @@
       <c r="AA4" s="50"/>
       <c r="AB4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5005,7 +5061,7 @@
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O5" s="28">
         <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
@@ -5101,7 +5157,9 @@
       <c r="M6" s="55">
         <v>2</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="55">
+        <v>5</v>
+      </c>
       <c r="O6" s="55"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="45"/>
@@ -5117,7 +5175,7 @@
       <c r="AA6" s="45"/>
       <c r="AB6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5160,7 +5218,7 @@
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="28">
         <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
@@ -5256,7 +5314,9 @@
       <c r="M8" s="69">
         <v>3</v>
       </c>
-      <c r="N8" s="69"/>
+      <c r="N8" s="69">
+        <v>8</v>
+      </c>
       <c r="O8" s="69"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="69"/>
@@ -5272,7 +5332,7 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69">
         <f>SUM(F9:AA9)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5315,7 +5375,7 @@
       </c>
       <c r="N9" s="28">
         <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="28">
         <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
@@ -5411,7 +5471,9 @@
       <c r="M10" s="59">
         <v>5</v>
       </c>
-      <c r="N10" s="59"/>
+      <c r="N10" s="59">
+        <v>6</v>
+      </c>
       <c r="O10" s="59"/>
       <c r="P10" s="59"/>
       <c r="Q10" s="59"/>
@@ -5427,7 +5489,7 @@
       <c r="AA10" s="59"/>
       <c r="AB10" s="59">
         <f>SUM(F11:AA11)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5470,7 +5532,7 @@
       </c>
       <c r="N11" s="28">
         <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" s="28">
         <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
@@ -5527,62 +5589,64 @@
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="7">
         <v>7</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="21">
+        <v>7</v>
+      </c>
+      <c r="K12" s="7">
+        <v>6</v>
+      </c>
+      <c r="L12" s="29">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="18">
-        <v>8</v>
-      </c>
-      <c r="J12" s="15">
-        <v>4</v>
-      </c>
-      <c r="K12" s="15">
-        <v>5</v>
-      </c>
-      <c r="L12" s="18">
-        <v>3</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18">
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5593,11 +5657,11 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
@@ -5605,27 +5669,27 @@
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="28">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O13" s="28">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
@@ -5682,62 +5746,64 @@
       <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="18">
+        <v>8</v>
+      </c>
+      <c r="J14" s="15">
+        <v>4</v>
+      </c>
+      <c r="K14" s="15">
+        <v>5</v>
+      </c>
+      <c r="L14" s="18">
+        <v>3</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="15">
+        <v>7</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18">
+        <f>SUM(F15:AA15)</f>
         <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="7">
-        <v>7</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="21">
-        <v>7</v>
-      </c>
-      <c r="K14" s="7">
-        <v>6</v>
-      </c>
-      <c r="L14" s="29">
-        <v>11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7">
-        <f>SUM(F15:AA15)</f>
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -5748,11 +5814,11 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
@@ -5760,27 +5826,27 @@
       </c>
       <c r="I15" s="28">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" s="28">
         <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="28">
         <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M15" s="28">
         <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="28">
         <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="28">
         <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
@@ -5876,7 +5942,9 @@
       <c r="M16" s="8">
         <v>9</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8">
+        <v>9</v>
+      </c>
       <c r="O16" s="24"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -6031,7 +6099,9 @@
       <c r="M18" s="19">
         <v>8</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2">
+        <v>14</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -6186,7 +6256,9 @@
       <c r="M20" s="65">
         <v>13</v>
       </c>
-      <c r="N20" s="65"/>
+      <c r="N20" s="65">
+        <v>4</v>
+      </c>
       <c r="O20" s="68"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="65"/>
@@ -6202,7 +6274,7 @@
       <c r="AA20" s="65"/>
       <c r="AB20" s="65">
         <f>SUM(F21:AA21)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -6245,7 +6317,7 @@
       </c>
       <c r="N21" s="28">
         <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O21" s="28">
         <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
@@ -6341,7 +6413,9 @@
       <c r="M22" s="53">
         <v>12</v>
       </c>
-      <c r="N22" s="53"/>
+      <c r="N22" s="53">
+        <v>10</v>
+      </c>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
@@ -6496,7 +6570,9 @@
       <c r="M24" s="62">
         <v>15</v>
       </c>
-      <c r="N24" s="62"/>
+      <c r="N24" s="62" t="s">
+        <v>117</v>
+      </c>
       <c r="O24" s="62"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
@@ -6651,7 +6727,9 @@
       <c r="M26" s="5">
         <v>7</v>
       </c>
-      <c r="N26" s="5"/>
+      <c r="N26" s="5">
+        <v>11</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -6806,7 +6884,9 @@
       <c r="M28" s="11">
         <v>10</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="11">
+        <v>15</v>
+      </c>
       <c r="O28" s="22"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -6961,7 +7041,9 @@
       <c r="M30" s="6">
         <v>11</v>
       </c>
-      <c r="N30" s="6"/>
+      <c r="N30" s="6">
+        <v>16</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -7114,9 +7196,11 @@
         <v>20</v>
       </c>
       <c r="M32" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="N32" s="72"/>
+        <v>118</v>
+      </c>
+      <c r="N32" s="72">
+        <v>13</v>
+      </c>
       <c r="O32" s="72"/>
       <c r="P32" s="72"/>
       <c r="Q32" s="72"/>
@@ -7271,7 +7355,9 @@
       <c r="M34" s="3">
         <v>17</v>
       </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3">
+        <v>18</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="4"/>
@@ -7426,7 +7512,9 @@
       <c r="M36" s="50">
         <v>14</v>
       </c>
-      <c r="N36" s="50"/>
+      <c r="N36" s="50">
+        <v>19</v>
+      </c>
       <c r="O36" s="50"/>
       <c r="P36" s="50"/>
       <c r="Q36" s="57"/>
@@ -7581,7 +7669,9 @@
       <c r="M38" s="48">
         <v>16</v>
       </c>
-      <c r="N38" s="48"/>
+      <c r="N38" s="48">
+        <v>12</v>
+      </c>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
@@ -7736,7 +7826,9 @@
       <c r="M40" s="9">
         <v>18</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="9">
+        <v>17</v>
+      </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -7882,8 +7974,7 @@
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
@@ -8026,7 +8117,9 @@
       <c r="M2" s="9">
         <v>1</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="23">
+        <v>1</v>
+      </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -8042,7 +8135,7 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -8085,7 +8178,7 @@
       </c>
       <c r="N3" s="28">
         <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="28">
         <f>IF(O2=1,10,IF(O2=2,6,IF(O2=3,4,IF(O2=4,3,IF(O2=5,2,IF(O2=6,1,0))))))</f>
@@ -8181,7 +8274,9 @@
       <c r="M4" s="50">
         <v>6</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="50">
+        <v>3</v>
+      </c>
       <c r="O4" s="57"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
@@ -8197,7 +8292,7 @@
       <c r="AA4" s="50"/>
       <c r="AB4" s="50">
         <f>SUM(F5:AA5)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -8240,7 +8335,7 @@
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="28">
         <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
@@ -8336,7 +8431,9 @@
       <c r="M6" s="55">
         <v>2</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="55">
+        <v>5</v>
+      </c>
       <c r="O6" s="55"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="45"/>
@@ -8352,7 +8449,7 @@
       <c r="AA6" s="45"/>
       <c r="AB6" s="45">
         <f>SUM(F7:AA7)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -8395,7 +8492,7 @@
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="28">
         <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
@@ -8491,7 +8588,9 @@
       <c r="M8" s="69">
         <v>3</v>
       </c>
-      <c r="N8" s="69"/>
+      <c r="N8" s="69">
+        <v>8</v>
+      </c>
       <c r="O8" s="69"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="69"/>
@@ -8607,62 +8706,64 @@
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="15">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="7">
         <v>7</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="21">
+        <v>7</v>
+      </c>
+      <c r="K10" s="7">
+        <v>6</v>
+      </c>
+      <c r="L10" s="7">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
         <v>4</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="15">
-        <v>8</v>
-      </c>
-      <c r="J10" s="15">
-        <v>4</v>
-      </c>
-      <c r="K10" s="15">
-        <v>5</v>
-      </c>
-      <c r="L10" s="18">
-        <v>3</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18">
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -8677,7 +8778,7 @@
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
@@ -8685,27 +8786,27 @@
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="28">
         <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" s="28">
         <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
@@ -8801,7 +8902,9 @@
       <c r="M12" s="59">
         <v>5</v>
       </c>
-      <c r="N12" s="59"/>
+      <c r="N12" s="59">
+        <v>6</v>
+      </c>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -8817,7 +8920,7 @@
       <c r="AA12" s="59"/>
       <c r="AB12" s="59">
         <f>SUM(F13:AA13)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -8860,7 +8963,7 @@
       </c>
       <c r="N13" s="28">
         <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="28">
         <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
@@ -8917,62 +9020,64 @@
       <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="A14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="15">
         <v>7</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="15">
+        <v>8</v>
+      </c>
+      <c r="J14" s="15">
+        <v>4</v>
+      </c>
+      <c r="K14" s="15">
+        <v>5</v>
+      </c>
+      <c r="L14" s="18">
         <v>3</v>
       </c>
-      <c r="J14" s="21">
+      <c r="M14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="15">
         <v>7</v>
       </c>
-      <c r="K14" s="7">
-        <v>6</v>
-      </c>
-      <c r="L14" s="7">
-        <v>11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7">
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18">
         <f>SUM(F15:AA15)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -8987,7 +9092,7 @@
       </c>
       <c r="G15" s="28">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="28">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -8995,23 +9100,23 @@
       </c>
       <c r="I15" s="28">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="28">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="28">
         <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="28">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="28">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" s="28">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
@@ -9111,7 +9216,9 @@
       <c r="M16" s="8">
         <v>9</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8">
+        <v>9</v>
+      </c>
       <c r="O16" s="24"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -9266,7 +9373,9 @@
       <c r="M18" s="19">
         <v>8</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2">
+        <v>14</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -9421,7 +9530,9 @@
       <c r="M20" s="65">
         <v>13</v>
       </c>
-      <c r="N20" s="65"/>
+      <c r="N20" s="65">
+        <v>4</v>
+      </c>
       <c r="O20" s="68"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="65"/>
@@ -9437,7 +9548,7 @@
       <c r="AA20" s="65"/>
       <c r="AB20" s="65">
         <f>SUM(F21:AA21)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -9480,7 +9591,7 @@
       </c>
       <c r="N21" s="28">
         <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="28">
         <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
@@ -9574,9 +9685,11 @@
         <v>20</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" s="72"/>
+        <v>118</v>
+      </c>
+      <c r="N22" s="72">
+        <v>10</v>
+      </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
       <c r="Q22" s="72"/>
@@ -9731,7 +9844,9 @@
       <c r="M24" s="53">
         <v>12</v>
       </c>
-      <c r="N24" s="53"/>
+      <c r="N24" s="53">
+        <v>13</v>
+      </c>
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
@@ -9886,7 +10001,9 @@
       <c r="M26" s="3">
         <v>17</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3">
+        <v>18</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="4"/>
@@ -10041,7 +10158,9 @@
       <c r="M28" s="50">
         <v>14</v>
       </c>
-      <c r="N28" s="50"/>
+      <c r="N28" s="50">
+        <v>19</v>
+      </c>
       <c r="O28" s="50"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="57"/>
@@ -10196,7 +10315,9 @@
       <c r="M30" s="5">
         <v>7</v>
       </c>
-      <c r="N30" s="5"/>
+      <c r="N30" s="5">
+        <v>11</v>
+      </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -10351,7 +10472,9 @@
       <c r="M32" s="48">
         <v>16</v>
       </c>
-      <c r="N32" s="48"/>
+      <c r="N32" s="48">
+        <v>12</v>
+      </c>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
@@ -10506,7 +10629,9 @@
       <c r="M34" s="62">
         <v>15</v>
       </c>
-      <c r="N34" s="62"/>
+      <c r="N34" s="62" t="s">
+        <v>117</v>
+      </c>
       <c r="O34" s="62"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
@@ -10661,7 +10786,9 @@
       <c r="M36" s="9">
         <v>18</v>
       </c>
-      <c r="N36" s="9"/>
+      <c r="N36" s="9">
+        <v>17</v>
+      </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -10816,7 +10943,9 @@
       <c r="M38" s="11">
         <v>10</v>
       </c>
-      <c r="N38" s="11"/>
+      <c r="N38" s="11">
+        <v>15</v>
+      </c>
       <c r="O38" s="22"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -10971,7 +11100,9 @@
       <c r="M40" s="6">
         <v>11</v>
       </c>
-      <c r="N40" s="6"/>
+      <c r="N40" s="6">
+        <v>16</v>
+      </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -11102,9 +11233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11118,7 +11247,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>62</v>
@@ -11145,11 +11274,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="E2" s="10">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>302</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11164,11 +11293,11 @@
       </c>
       <c r="D3" s="15">
         <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD12</f>
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E3" s="15">
         <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE12</f>
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11183,11 +11312,11 @@
       </c>
       <c r="D4" s="8">
         <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD16</f>
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E4" s="8">
         <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE16</f>
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11202,11 +11331,11 @@
       </c>
       <c r="D5" s="7">
         <f>'2023 Driver Ranking'!AD10+'2023 Driver Ranking'!AD14</f>
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E5" s="7">
         <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE14</f>
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11220,12 +11349,12 @@
         <v>69</v>
       </c>
       <c r="D6" s="2">
-        <f>'2023 Driver Ranking'!AD18+'2023 Driver Ranking'!AD20</f>
-        <v>44</v>
+        <f>'2023 Driver Ranking'!AD18+'2023 Driver Ranking'!AD22</f>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
-        <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE20</f>
-        <v>44</v>
+        <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE22</f>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11239,50 +11368,50 @@
         <v>73</v>
       </c>
       <c r="D7" s="6">
-        <f>'2023 Driver Ranking'!AD22+'2023 Driver Ranking'!AD28</f>
-        <v>17</v>
+        <f>'2023 Driver Ranking'!AD20+'2023 Driver Ranking'!AD28</f>
+        <v>29</v>
       </c>
       <c r="E7" s="6">
-        <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE28</f>
-        <v>17</v>
+        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE28</f>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'2023 Driver Ranking'!AD24+'2023 Driver Ranking'!AD36</f>
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE36</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <f>'2023 Driver Ranking'!AD30+'2023 Driver Ranking'!AD32</f>
         <v>9</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <f>'2023 Driver Ranking'!AE30+'2023 Driver Ranking'!AE32</f>
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="3">
-        <f>'2023 Driver Ranking'!AD26+'2023 Driver Ranking'!AD36</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE36</f>
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11296,11 +11425,11 @@
         <v>73</v>
       </c>
       <c r="D10" s="5">
-        <f>'2023 Driver Ranking'!AD24+'2023 Driver Ranking'!AD38</f>
+        <f>'2023 Driver Ranking'!AD26+'2023 Driver Ranking'!AD38</f>
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <f>'2023 Driver Ranking'!AE24+'2023 Driver Ranking'!AE38</f>
+        <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE38</f>
         <v>7</v>
       </c>
     </row>
@@ -11376,7 +11505,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11390,8 +11519,8 @@
         <v>65</v>
       </c>
       <c r="D3" s="15">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB12</f>
-        <v>64</v>
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB14</f>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11406,7 +11535,7 @@
       </c>
       <c r="D4" s="8">
         <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB16</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11420,8 +11549,8 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB14</f>
-        <v>43</v>
+        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB12</f>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11451,7 +11580,7 @@
       </c>
       <c r="D7" s="6">
         <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB30</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11566,37 +11695,37 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB16</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="15">
-        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB10</f>
+      <c r="D4" s="15">
+        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB14</f>
         <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8">
-        <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB16</f>
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11610,8 +11739,8 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB14</f>
-        <v>20</v>
+        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB12</f>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11641,7 +11770,7 @@
       </c>
       <c r="D7" s="6">
         <f>'1991-2002 Driver Ranking'!AB20+'1991-2002 Driver Ranking'!AB40</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AB$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2003-2009 Engine Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2003-2009 Team Ranking'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Driver Ranking'!$A$1:$AE$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Driver Ranking'!$A$1:$AE$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2023 Engine Ranking'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2023 Team Ranking'!$A$1:$E$11</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="124">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,18 @@
     <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Australian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel Ricciardo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel Ricciardo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -720,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -775,6 +787,8 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1086,13 +1100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
@@ -4495,18 +4509,18 @@
       <c r="O40" s="18">
         <v>17</v>
       </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
       <c r="AB40" s="18"/>
       <c r="AC40" s="18"/>
       <c r="AD40" s="18">
@@ -4525,91 +4539,91 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19">
-        <f t="shared" ref="F41:AA41" si="0">IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
+        <f>IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(G40=1,25,IF(G40=2,18,IF(G40=3,15,IF(G40=4,12,IF(G40=5,10,IF(G40=6,8,IF(G40=7,6,IF(G40=8,4,IF(G40=9,2,IF(G40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(H40=1,25,IF(H40=2,18,IF(H40=3,15,IF(H40=4,12,IF(H40=5,10,IF(H40=6,8,IF(H40=7,6,IF(H40=8,4,IF(H40=9,2,IF(H40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(I40=1,25,IF(I40=2,18,IF(I40=3,15,IF(I40=4,12,IF(I40=5,10,IF(I40=6,8,IF(I40=7,6,IF(I40=8,4,IF(I40=9,2,IF(I40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(J40=1,25,IF(J40=2,18,IF(J40=3,15,IF(J40=4,12,IF(J40=5,10,IF(J40=6,8,IF(J40=7,6,IF(J40=8,4,IF(J40=9,2,IF(J40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(K40=1,25,IF(K40=2,18,IF(K40=3,15,IF(K40=4,12,IF(K40=5,10,IF(K40=6,8,IF(K40=7,6,IF(K40=8,4,IF(K40=9,2,IF(K40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(L40=1,25,IF(L40=2,18,IF(L40=3,15,IF(L40=4,12,IF(L40=5,10,IF(L40=6,8,IF(L40=7,6,IF(L40=8,4,IF(L40=9,2,IF(L40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(M40=1,25,IF(M40=2,18,IF(M40=3,15,IF(M40=4,12,IF(M40=5,10,IF(M40=6,8,IF(M40=7,6,IF(M40=8,4,IF(M40=9,2,IF(M40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(N40=1,25,IF(N40=2,18,IF(N40=3,15,IF(N40=4,12,IF(N40=5,10,IF(N40=6,8,IF(N40=7,6,IF(N40=8,4,IF(N40=9,2,IF(N40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(O40=1,25,IF(O40=2,18,IF(O40=3,15,IF(O40=4,12,IF(O40=5,10,IF(O40=6,8,IF(O40=7,6,IF(O40=8,4,IF(O40=9,2,IF(O40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(P40=1,25,IF(P40=2,18,IF(P40=3,15,IF(P40=4,12,IF(P40=5,10,IF(P40=6,8,IF(P40=7,6,IF(P40=8,4,IF(P40=9,2,IF(P40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Q40=1,25,IF(Q40=2,18,IF(Q40=3,15,IF(Q40=4,12,IF(Q40=5,10,IF(Q40=6,8,IF(Q40=7,6,IF(Q40=8,4,IF(Q40=9,2,IF(Q40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(R40=1,25,IF(R40=2,18,IF(R40=3,15,IF(R40=4,12,IF(R40=5,10,IF(R40=6,8,IF(R40=7,6,IF(R40=8,4,IF(R40=9,2,IF(R40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(S40=1,25,IF(S40=2,18,IF(S40=3,15,IF(S40=4,12,IF(S40=5,10,IF(S40=6,8,IF(S40=7,6,IF(S40=8,4,IF(S40=9,2,IF(S40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(T40=1,25,IF(T40=2,18,IF(T40=3,15,IF(T40=4,12,IF(T40=5,10,IF(T40=6,8,IF(T40=7,6,IF(T40=8,4,IF(T40=9,2,IF(T40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(U40=1,25,IF(U40=2,18,IF(U40=3,15,IF(U40=4,12,IF(U40=5,10,IF(U40=6,8,IF(U40=7,6,IF(U40=8,4,IF(U40=9,2,IF(U40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(V40=1,25,IF(V40=2,18,IF(V40=3,15,IF(V40=4,12,IF(V40=5,10,IF(V40=6,8,IF(V40=7,6,IF(V40=8,4,IF(V40=9,2,IF(V40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(W40=1,25,IF(W40=2,18,IF(W40=3,15,IF(W40=4,12,IF(W40=5,10,IF(W40=6,8,IF(W40=7,6,IF(W40=8,4,IF(W40=9,2,IF(W40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(X40=1,25,IF(X40=2,18,IF(X40=3,15,IF(X40=4,12,IF(X40=5,10,IF(X40=6,8,IF(X40=7,6,IF(X40=8,4,IF(X40=9,2,IF(X40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Y40=1,25,IF(Y40=2,18,IF(Y40=3,15,IF(Y40=4,12,IF(Y40=5,10,IF(Y40=6,8,IF(Y40=7,6,IF(Y40=8,4,IF(Y40=9,2,IF(Y40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="19">
-        <f t="shared" ref="Z41" si="1">IF(Z40=1,25,IF(Z40=2,18,IF(Z40=3,15,IF(Z40=4,12,IF(Z40=5,10,IF(Z40=6,8,IF(Z40=7,6,IF(Z40=8,4,IF(Z40=9,2,IF(Z40=10,1,0))))))))))</f>
+        <f>IF(Z40=1,25,IF(Z40=2,18,IF(Z40=3,15,IF(Z40=4,12,IF(Z40=5,10,IF(Z40=6,8,IF(Z40=7,6,IF(Z40=8,4,IF(Z40=9,2,IF(Z40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="19"/>
@@ -4617,10 +4631,158 @@
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
     </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="18">
+        <v>3</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18">
+        <f>SUM(F43:AA43)+SUM(AB42,AC42)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="18">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19">
+        <f t="shared" ref="F43:AA43" si="0">IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="19">
+        <f t="shared" ref="Z41:AA43" si="1">IF(Z42=1,25,IF(Z42=2,18,IF(Z42=3,15,IF(Z42=4,12,IF(Z42=5,10,IF(Z42=6,8,IF(Z42=7,6,IF(Z42=8,4,IF(Z42=9,2,IF(Z42=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE41">
-    <sortState ref="A2:AE40">
-      <sortCondition descending="1" ref="AD1:AD41"/>
+  <autoFilter ref="A1:AE43">
+    <sortState ref="A2:AE42">
+      <sortCondition descending="1" ref="AD1:AD43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4675,13 +4837,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
@@ -4864,91 +5028,91 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19">
-        <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
+        <f t="shared" ref="F3:AA3" si="0">IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="G3" s="19">
-        <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H3" s="19">
-        <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I3" s="19">
-        <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J3" s="19">
-        <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K3" s="19">
-        <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L3" s="19">
-        <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M3" s="19">
-        <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N3" s="19">
-        <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O3" s="19">
-        <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P3" s="19">
-        <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="19">
-        <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="19">
-        <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="19">
-        <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="19">
-        <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="19">
-        <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="19">
-        <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="19">
-        <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="19">
-        <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="19">
-        <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="19">
-        <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="19">
-        <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="19"/>
@@ -5023,91 +5187,91 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19">
-        <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
+        <f t="shared" ref="F5:AA5" si="1">IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="G5" s="19">
-        <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H5" s="19">
-        <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I5" s="19">
-        <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J5" s="19">
-        <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K5" s="19">
-        <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="19">
-        <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M5" s="19">
-        <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N5" s="19">
-        <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O5" s="19">
-        <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P5" s="19">
-        <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="19">
-        <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="19">
-        <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="19">
-        <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="19">
-        <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="19">
-        <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" s="19">
-        <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" s="19">
-        <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5" s="19">
-        <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5" s="19">
-        <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="19">
-        <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB5" s="19"/>
@@ -5182,91 +5346,91 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19">
-        <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
+        <f t="shared" ref="F7:AA7" si="2">IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="G7" s="19">
-        <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H7" s="19">
-        <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I7" s="19">
-        <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J7" s="19">
-        <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K7" s="19">
-        <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L7" s="19">
-        <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M7" s="19">
-        <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N7" s="19">
-        <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O7" s="19">
-        <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P7" s="19">
-        <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="19">
-        <f>IF(Q6=1,10,IF(Q6=2,8,IF(Q6=3,6,IF(Q6=4,5,IF(Q6=5,4,IF(Q6=6,3,IF(Q6=7,2,IF(Q6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="19">
-        <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="19">
-        <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="19">
-        <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="19">
-        <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="19">
-        <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="19">
-        <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="19">
-        <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="19">
-        <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="19"/>
@@ -5341,91 +5505,91 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19">
-        <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
+        <f t="shared" ref="F9:AA9" si="3">IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="G9" s="19">
-        <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H9" s="19">
-        <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I9" s="19">
-        <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J9" s="19">
-        <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K9" s="19">
-        <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L9" s="19">
-        <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M9" s="19">
-        <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N9" s="19">
-        <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O9" s="19">
-        <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="P9" s="19">
-        <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="19">
-        <f>IF(Q8=1,10,IF(Q8=2,8,IF(Q8=3,6,IF(Q8=4,5,IF(Q8=5,4,IF(Q8=6,3,IF(Q8=7,2,IF(Q8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="19">
-        <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9" s="19">
-        <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="19">
-        <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="19">
-        <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="19">
-        <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="19">
-        <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="19">
-        <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB9" s="19"/>
@@ -5500,91 +5664,91 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19">
-        <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
+        <f t="shared" ref="F11:AA11" si="4">IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="G11" s="19">
-        <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H11" s="19">
-        <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J11" s="19">
-        <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K11" s="19">
-        <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L11" s="19">
-        <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M11" s="19">
-        <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="19">
-        <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O11" s="19">
-        <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P11" s="19">
-        <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="19">
-        <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="19">
-        <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U11" s="19">
-        <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="19">
-        <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="19">
-        <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X11" s="19">
-        <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y11" s="19">
-        <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z11" s="19">
-        <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="19">
-        <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB11" s="19"/>
@@ -5659,91 +5823,91 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19">
-        <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
+        <f t="shared" ref="F13:AA13" si="5">IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="G13" s="19">
-        <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H13" s="19">
-        <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J13" s="19">
-        <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K13" s="19">
-        <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L13" s="19">
-        <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M13" s="19">
-        <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N13" s="19">
-        <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O13" s="19">
-        <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P13" s="19">
-        <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="19">
-        <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="19">
-        <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="19">
-        <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W13" s="19">
-        <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="19">
-        <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="19">
-        <f>IF(Y12=1,10,IF(Y12=2,8,IF(Y12=3,6,IF(Y12=4,5,IF(Y12=5,4,IF(Y12=6,3,IF(Y12=7,2,IF(Y12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="19">
-        <f>IF(Z12=1,10,IF(Z12=2,8,IF(Z12=3,6,IF(Z12=4,5,IF(Z12=5,4,IF(Z12=6,3,IF(Z12=7,2,IF(Z12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="19">
-        <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB13" s="19"/>
@@ -5818,91 +5982,91 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19">
-        <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
+        <f t="shared" ref="F15:AA15" si="6">IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="19">
-        <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H15" s="19">
-        <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J15" s="19">
-        <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K15" s="19">
-        <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="L15" s="19">
-        <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M15" s="19">
-        <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N15" s="19">
-        <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O15" s="19">
-        <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15" s="19">
-        <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="19">
-        <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="19">
-        <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15" s="19">
-        <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X15" s="19">
-        <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y15" s="19">
-        <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z15" s="19">
-        <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA15" s="19">
-        <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB15" s="19"/>
@@ -5977,91 +6141,91 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19">
-        <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
+        <f t="shared" ref="F17:AA17" si="7">IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I17" s="19">
-        <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J17" s="19">
-        <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K17" s="19">
-        <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L17" s="19">
-        <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M17" s="19">
-        <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N17" s="19">
-        <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="O17" s="19">
-        <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="P17" s="19">
-        <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="19">
-        <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R17" s="19">
-        <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17" s="19">
-        <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="19">
-        <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="19">
-        <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17" s="19">
-        <f>IF(Y16=1,10,IF(Y16=2,8,IF(Y16=3,6,IF(Y16=4,5,IF(Y16=5,4,IF(Y16=6,3,IF(Y16=7,2,IF(Y16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z17" s="19">
-        <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA17" s="19">
-        <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB17" s="19"/>
@@ -6136,91 +6300,91 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19">
-        <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
+        <f t="shared" ref="F19:AA19" si="8">IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="G19" s="19">
-        <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I19" s="19">
-        <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J19" s="19">
-        <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="19">
-        <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19" s="19">
-        <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M19" s="19">
-        <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N19" s="19">
-        <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="19">
-        <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19" s="19">
-        <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="19">
-        <f>IF(Q18=1,10,IF(Q18=2,8,IF(Q18=3,6,IF(Q18=4,5,IF(Q18=5,4,IF(Q18=6,3,IF(Q18=7,2,IF(Q18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="19">
-        <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U19" s="19">
-        <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V19" s="19">
-        <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W19" s="19">
-        <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19" s="19">
-        <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19" s="19">
-        <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z19" s="19">
-        <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA19" s="19">
-        <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB19" s="19"/>
@@ -6295,91 +6459,91 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19">
-        <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
+        <f t="shared" ref="F21:AA21" si="9">IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="19">
-        <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H21" s="19">
-        <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J21" s="19">
-        <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K21" s="19">
-        <f>IF(K20=1,10,IF(K20=2,8,IF(K20=3,6,IF(K20=4,5,IF(K20=5,4,IF(K20=6,3,IF(K20=7,2,IF(K20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="L21" s="19">
-        <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M21" s="19">
-        <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N21" s="19">
-        <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O21" s="19">
-        <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="19">
-        <f>IF(P20=1,10,IF(P20=2,8,IF(P20=3,6,IF(P20=4,5,IF(P20=5,4,IF(P20=6,3,IF(P20=7,2,IF(P20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="19">
-        <f>IF(Q20=1,10,IF(Q20=2,8,IF(Q20=3,6,IF(Q20=4,5,IF(Q20=5,4,IF(Q20=6,3,IF(Q20=7,2,IF(Q20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R21" s="19">
-        <f>IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S21" s="19">
-        <f>IF(S20=1,10,IF(S20=2,8,IF(S20=3,6,IF(S20=4,5,IF(S20=5,4,IF(S20=6,3,IF(S20=7,2,IF(S20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U21" s="19">
-        <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V21" s="19">
-        <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="19">
-        <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X21" s="19">
-        <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21" s="19">
-        <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z21" s="19">
-        <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA21" s="19">
-        <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB21" s="19"/>
@@ -6454,91 +6618,91 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19">
-        <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
+        <f t="shared" ref="F23:AA23" si="10">IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I23" s="19">
-        <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="19">
-        <f>IF(K22=1,10,IF(K22=2,8,IF(K22=3,6,IF(K22=4,5,IF(K22=5,4,IF(K22=6,3,IF(K22=7,2,IF(K22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="19">
-        <f>IF(L22=1,10,IF(L22=2,8,IF(L22=3,6,IF(L22=4,5,IF(L22=5,4,IF(L22=6,3,IF(L22=7,2,IF(L22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="19">
-        <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N23" s="19">
-        <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O23" s="19">
-        <f>IF(O22=1,10,IF(O22=2,8,IF(O22=3,6,IF(O22=4,5,IF(O22=5,4,IF(O22=6,3,IF(O22=7,2,IF(O22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="P23" s="19">
-        <f>IF(P22=1,10,IF(P22=2,8,IF(P22=3,6,IF(P22=4,5,IF(P22=5,4,IF(P22=6,3,IF(P22=7,2,IF(P22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
-        <f>IF(Q22=1,10,IF(Q22=2,8,IF(Q22=3,6,IF(Q22=4,5,IF(Q22=5,4,IF(Q22=6,3,IF(Q22=7,2,IF(Q22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="19">
-        <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <f>IF(S22=1,10,IF(S22=2,8,IF(S22=3,6,IF(S22=4,5,IF(S22=5,4,IF(S22=6,3,IF(S22=7,2,IF(S22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <f>IF(T22=1,10,IF(T22=2,8,IF(T22=3,6,IF(T22=4,5,IF(T22=5,4,IF(T22=6,3,IF(T22=7,2,IF(T22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V23" s="19">
-        <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W23" s="19">
-        <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X23" s="19">
-        <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y23" s="19">
-        <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z23" s="19">
-        <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA23" s="19">
-        <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB23" s="19"/>
@@ -6613,91 +6777,91 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19">
-        <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
+        <f t="shared" ref="F25:AA25" si="11">IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K25" s="19">
-        <f>IF(K24=1,10,IF(K24=2,8,IF(K24=3,6,IF(K24=4,5,IF(K24=5,4,IF(K24=6,3,IF(K24=7,2,IF(K24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="L25" s="19">
-        <f>IF(L24=1,10,IF(L24=2,8,IF(L24=3,6,IF(L24=4,5,IF(L24=5,4,IF(L24=6,3,IF(L24=7,2,IF(L24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M25" s="19">
-        <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="19">
-        <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O25" s="19">
-        <f>IF(O24=1,10,IF(O24=2,8,IF(O24=3,6,IF(O24=4,5,IF(O24=5,4,IF(O24=6,3,IF(O24=7,2,IF(O24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
-        <f>IF(Q24=1,10,IF(Q24=2,8,IF(Q24=3,6,IF(Q24=4,5,IF(Q24=5,4,IF(Q24=6,3,IF(Q24=7,2,IF(Q24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25" s="19">
-        <f>IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <f>IF(S24=1,10,IF(S24=2,8,IF(S24=3,6,IF(S24=4,5,IF(S24=5,4,IF(S24=6,3,IF(S24=7,2,IF(S24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <f>IF(T24=1,10,IF(T24=2,8,IF(T24=3,6,IF(T24=4,5,IF(T24=5,4,IF(T24=6,3,IF(T24=7,2,IF(T24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V25" s="19">
-        <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W25" s="19">
-        <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X25" s="19">
-        <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y25" s="19">
-        <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z25" s="19">
-        <f>IF(Z24=1,10,IF(Z24=2,8,IF(Z24=3,6,IF(Z24=4,5,IF(Z24=5,4,IF(Z24=6,3,IF(Z24=7,2,IF(Z24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA25" s="19">
-        <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB25" s="19"/>
@@ -6772,91 +6936,91 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19">
-        <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
+        <f t="shared" ref="F27:AA27" si="12">IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="19">
-        <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J27" s="19">
-        <f>IF(J26=1,10,IF(J26=2,8,IF(J26=3,6,IF(J26=4,5,IF(J26=5,4,IF(J26=6,3,IF(J26=7,2,IF(J26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K27" s="19">
-        <f>IF(K26=1,10,IF(K26=2,8,IF(K26=3,6,IF(K26=4,5,IF(K26=5,4,IF(K26=6,3,IF(K26=7,2,IF(K26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27" s="19">
-        <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27" s="19">
-        <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="N27" s="19">
-        <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="19">
-        <f>IF(O26=1,10,IF(O26=2,8,IF(O26=3,6,IF(O26=4,5,IF(O26=5,4,IF(O26=6,3,IF(O26=7,2,IF(O26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P27" s="19">
-        <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27" s="19">
-        <f>IF(Q26=1,10,IF(Q26=2,8,IF(Q26=3,6,IF(Q26=4,5,IF(Q26=5,4,IF(Q26=6,3,IF(Q26=7,2,IF(Q26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R27" s="19">
-        <f>IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S27" s="19">
-        <f>IF(S26=1,10,IF(S26=2,8,IF(S26=3,6,IF(S26=4,5,IF(S26=5,4,IF(S26=6,3,IF(S26=7,2,IF(S26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V27" s="19">
-        <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W27" s="19">
-        <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X27" s="19">
-        <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y27" s="19">
-        <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z27" s="19">
-        <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA27" s="19">
-        <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB27" s="19"/>
@@ -6931,91 +7095,91 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19">
-        <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
+        <f t="shared" ref="F29:AA29" si="13">IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="19">
-        <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H29" s="19">
-        <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="I29" s="19">
-        <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J29" s="19">
-        <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K29" s="19">
-        <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L29" s="19">
-        <f>IF(L28=1,10,IF(L28=2,8,IF(L28=3,6,IF(L28=4,5,IF(L28=5,4,IF(L28=6,3,IF(L28=7,2,IF(L28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29" s="19">
-        <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O29" s="19">
-        <f>IF(O28=1,10,IF(O28=2,8,IF(O28=3,6,IF(O28=4,5,IF(O28=5,4,IF(O28=6,3,IF(O28=7,2,IF(O28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P29" s="19">
-        <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q29" s="19">
-        <f>IF(Q28=1,10,IF(Q28=2,8,IF(Q28=3,6,IF(Q28=4,5,IF(Q28=5,4,IF(Q28=6,3,IF(Q28=7,2,IF(Q28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R29" s="19">
-        <f>IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S29" s="19">
-        <f>IF(S28=1,10,IF(S28=2,8,IF(S28=3,6,IF(S28=4,5,IF(S28=5,4,IF(S28=6,3,IF(S28=7,2,IF(S28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <f>IF(T28=1,10,IF(T28=2,8,IF(T28=3,6,IF(T28=4,5,IF(T28=5,4,IF(T28=6,3,IF(T28=7,2,IF(T28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U29" s="19">
-        <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V29" s="19">
-        <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W29" s="19">
-        <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X29" s="19">
-        <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y29" s="19">
-        <f>IF(Y28=1,10,IF(Y28=2,8,IF(Y28=3,6,IF(Y28=4,5,IF(Y28=5,4,IF(Y28=6,3,IF(Y28=7,2,IF(Y28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29" s="19">
-        <f>IF(Z28=1,10,IF(Z28=2,8,IF(Z28=3,6,IF(Z28=4,5,IF(Z28=5,4,IF(Z28=6,3,IF(Z28=7,2,IF(Z28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA29" s="19">
-        <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB29" s="19"/>
@@ -7090,91 +7254,91 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19">
-        <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
+        <f t="shared" ref="F31:AA31" si="14">IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="G31" s="19">
-        <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H31" s="19">
-        <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I31" s="19">
-        <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31" s="19">
-        <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K31" s="19">
-        <f>IF(K30=1,10,IF(K30=2,8,IF(K30=3,6,IF(K30=4,5,IF(K30=5,4,IF(K30=6,3,IF(K30=7,2,IF(K30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L31" s="19">
-        <f>IF(L30=1,10,IF(L30=2,8,IF(L30=3,6,IF(L30=4,5,IF(L30=5,4,IF(L30=6,3,IF(L30=7,2,IF(L30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M31" s="19">
-        <f>IF(M30=1,10,IF(M30=2,8,IF(M30=3,6,IF(M30=4,5,IF(M30=5,4,IF(M30=6,3,IF(M30=7,2,IF(M30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="19">
-        <f>IF(N30=1,10,IF(N30=2,8,IF(N30=3,6,IF(N30=4,5,IF(N30=5,4,IF(N30=6,3,IF(N30=7,2,IF(N30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O31" s="19">
-        <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P31" s="19">
-        <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31" s="19">
-        <f>IF(Q30=1,10,IF(Q30=2,8,IF(Q30=3,6,IF(Q30=4,5,IF(Q30=5,4,IF(Q30=6,3,IF(Q30=7,2,IF(Q30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R31" s="19">
-        <f>IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S31" s="19">
-        <f>IF(S30=1,10,IF(S30=2,8,IF(S30=3,6,IF(S30=4,5,IF(S30=5,4,IF(S30=6,3,IF(S30=7,2,IF(S30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <f>IF(T30=1,10,IF(T30=2,8,IF(T30=3,6,IF(T30=4,5,IF(T30=5,4,IF(T30=6,3,IF(T30=7,2,IF(T30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V31" s="19">
-        <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="19">
-        <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X31" s="19">
-        <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y31" s="19">
-        <f>IF(Y30=1,10,IF(Y30=2,8,IF(Y30=3,6,IF(Y30=4,5,IF(Y30=5,4,IF(Y30=6,3,IF(Y30=7,2,IF(Y30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z31" s="19">
-        <f>IF(Z30=1,10,IF(Z30=2,8,IF(Z30=3,6,IF(Z30=4,5,IF(Z30=5,4,IF(Z30=6,3,IF(Z30=7,2,IF(Z30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA31" s="19">
-        <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB31" s="19"/>
@@ -7249,91 +7413,91 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19">
-        <f>IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
+        <f t="shared" ref="F33:AA33" si="15">IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <f>IF(G32=1,10,IF(G32=2,8,IF(G32=3,6,IF(G32=4,5,IF(G32=5,4,IF(G32=6,3,IF(G32=7,2,IF(G32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H33" s="19">
-        <f>IF(H32=1,10,IF(H32=2,8,IF(H32=3,6,IF(H32=4,5,IF(H32=5,4,IF(H32=6,3,IF(H32=7,2,IF(H32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I33" s="19">
-        <f>IF(I32=1,10,IF(I32=2,8,IF(I32=3,6,IF(I32=4,5,IF(I32=5,4,IF(I32=6,3,IF(I32=7,2,IF(I32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J33" s="19">
-        <f>IF(J32=1,10,IF(J32=2,8,IF(J32=3,6,IF(J32=4,5,IF(J32=5,4,IF(J32=6,3,IF(J32=7,2,IF(J32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K33" s="19">
-        <f>IF(K32=1,10,IF(K32=2,8,IF(K32=3,6,IF(K32=4,5,IF(K32=5,4,IF(K32=6,3,IF(K32=7,2,IF(K32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L33" s="19">
-        <f>IF(L32=1,10,IF(L32=2,8,IF(L32=3,6,IF(L32=4,5,IF(L32=5,4,IF(L32=6,3,IF(L32=7,2,IF(L32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M33" s="19">
-        <f>IF(M32=1,10,IF(M32=2,8,IF(M32=3,6,IF(M32=4,5,IF(M32=5,4,IF(M32=6,3,IF(M32=7,2,IF(M32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33" s="19">
-        <f>IF(N32=1,10,IF(N32=2,8,IF(N32=3,6,IF(N32=4,5,IF(N32=5,4,IF(N32=6,3,IF(N32=7,2,IF(N32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O33" s="19">
-        <f>IF(O32=1,10,IF(O32=2,8,IF(O32=3,6,IF(O32=4,5,IF(O32=5,4,IF(O32=6,3,IF(O32=7,2,IF(O32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P33" s="19">
-        <f>IF(P32=1,10,IF(P32=2,8,IF(P32=3,6,IF(P32=4,5,IF(P32=5,4,IF(P32=6,3,IF(P32=7,2,IF(P32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q33" s="19">
-        <f>IF(Q32=1,10,IF(Q32=2,8,IF(Q32=3,6,IF(Q32=4,5,IF(Q32=5,4,IF(Q32=6,3,IF(Q32=7,2,IF(Q32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="19">
-        <f>IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <f>IF(S32=1,10,IF(S32=2,8,IF(S32=3,6,IF(S32=4,5,IF(S32=5,4,IF(S32=6,3,IF(S32=7,2,IF(S32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <f>IF(T32=1,10,IF(T32=2,8,IF(T32=3,6,IF(T32=4,5,IF(T32=5,4,IF(T32=6,3,IF(T32=7,2,IF(T32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V33" s="19">
-        <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W33" s="19">
-        <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X33" s="19">
-        <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y33" s="19">
-        <f>IF(Y32=1,10,IF(Y32=2,8,IF(Y32=3,6,IF(Y32=4,5,IF(Y32=5,4,IF(Y32=6,3,IF(Y32=7,2,IF(Y32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z33" s="19">
-        <f>IF(Z32=1,10,IF(Z32=2,8,IF(Z32=3,6,IF(Z32=4,5,IF(Z32=5,4,IF(Z32=6,3,IF(Z32=7,2,IF(Z32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA33" s="19">
-        <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB33" s="19"/>
@@ -7408,91 +7572,91 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19">
-        <f>IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
+        <f t="shared" ref="F35:AA35" si="16">IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="19">
-        <f>IF(G34=1,10,IF(G34=2,8,IF(G34=3,6,IF(G34=4,5,IF(G34=5,4,IF(G34=6,3,IF(G34=7,2,IF(G34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H35" s="19">
-        <f>IF(H34=1,10,IF(H34=2,8,IF(H34=3,6,IF(H34=4,5,IF(H34=5,4,IF(H34=6,3,IF(H34=7,2,IF(H34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I35" s="19">
-        <f>IF(I34=1,10,IF(I34=2,8,IF(I34=3,6,IF(I34=4,5,IF(I34=5,4,IF(I34=6,3,IF(I34=7,2,IF(I34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J35" s="19">
-        <f>IF(J34=1,10,IF(J34=2,8,IF(J34=3,6,IF(J34=4,5,IF(J34=5,4,IF(J34=6,3,IF(J34=7,2,IF(J34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K35" s="19">
-        <f>IF(K34=1,10,IF(K34=2,8,IF(K34=3,6,IF(K34=4,5,IF(K34=5,4,IF(K34=6,3,IF(K34=7,2,IF(K34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L35" s="19">
-        <f>IF(L34=1,10,IF(L34=2,8,IF(L34=3,6,IF(L34=4,5,IF(L34=5,4,IF(L34=6,3,IF(L34=7,2,IF(L34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M35" s="19">
-        <f>IF(M34=1,10,IF(M34=2,8,IF(M34=3,6,IF(M34=4,5,IF(M34=5,4,IF(M34=6,3,IF(M34=7,2,IF(M34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N35" s="19">
-        <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="19">
-        <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P35" s="19">
-        <f>IF(P34=1,10,IF(P34=2,8,IF(P34=3,6,IF(P34=4,5,IF(P34=5,4,IF(P34=6,3,IF(P34=7,2,IF(P34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q35" s="19">
-        <f>IF(Q34=1,10,IF(Q34=2,8,IF(Q34=3,6,IF(Q34=4,5,IF(Q34=5,4,IF(Q34=6,3,IF(Q34=7,2,IF(Q34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R35" s="19">
-        <f>IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <f>IF(S34=1,10,IF(S34=2,8,IF(S34=3,6,IF(S34=4,5,IF(S34=5,4,IF(S34=6,3,IF(S34=7,2,IF(S34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V35" s="19">
-        <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W35" s="19">
-        <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X35" s="19">
-        <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y35" s="19">
-        <f>IF(Y34=1,10,IF(Y34=2,8,IF(Y34=3,6,IF(Y34=4,5,IF(Y34=5,4,IF(Y34=6,3,IF(Y34=7,2,IF(Y34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z35" s="19">
-        <f>IF(Z34=1,10,IF(Z34=2,8,IF(Z34=3,6,IF(Z34=4,5,IF(Z34=5,4,IF(Z34=6,3,IF(Z34=7,2,IF(Z34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA35" s="19">
-        <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB35" s="19"/>
@@ -7567,91 +7731,91 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19">
-        <f>IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
+        <f t="shared" ref="F37:AA37" si="17">IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="19">
-        <f>IF(G36=1,10,IF(G36=2,8,IF(G36=3,6,IF(G36=4,5,IF(G36=5,4,IF(G36=6,3,IF(G36=7,2,IF(G36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H37" s="19">
-        <f>IF(H36=1,10,IF(H36=2,8,IF(H36=3,6,IF(H36=4,5,IF(H36=5,4,IF(H36=6,3,IF(H36=7,2,IF(H36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I37" s="19">
-        <f>IF(I36=1,10,IF(I36=2,8,IF(I36=3,6,IF(I36=4,5,IF(I36=5,4,IF(I36=6,3,IF(I36=7,2,IF(I36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37" s="19">
-        <f>IF(J36=1,10,IF(J36=2,8,IF(J36=3,6,IF(J36=4,5,IF(J36=5,4,IF(J36=6,3,IF(J36=7,2,IF(J36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K37" s="19">
-        <f>IF(K36=1,10,IF(K36=2,8,IF(K36=3,6,IF(K36=4,5,IF(K36=5,4,IF(K36=6,3,IF(K36=7,2,IF(K36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L37" s="19">
-        <f>IF(L36=1,10,IF(L36=2,8,IF(L36=3,6,IF(L36=4,5,IF(L36=5,4,IF(L36=6,3,IF(L36=7,2,IF(L36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M37" s="19">
-        <f>IF(M36=1,10,IF(M36=2,8,IF(M36=3,6,IF(M36=4,5,IF(M36=5,4,IF(M36=6,3,IF(M36=7,2,IF(M36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N37" s="19">
-        <f>IF(N36=1,10,IF(N36=2,8,IF(N36=3,6,IF(N36=4,5,IF(N36=5,4,IF(N36=6,3,IF(N36=7,2,IF(N36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O37" s="19">
-        <f>IF(O36=1,10,IF(O36=2,8,IF(O36=3,6,IF(O36=4,5,IF(O36=5,4,IF(O36=6,3,IF(O36=7,2,IF(O36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P37" s="19">
-        <f>IF(P36=1,10,IF(P36=2,8,IF(P36=3,6,IF(P36=4,5,IF(P36=5,4,IF(P36=6,3,IF(P36=7,2,IF(P36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q37" s="19">
-        <f>IF(Q36=1,10,IF(Q36=2,8,IF(Q36=3,6,IF(Q36=4,5,IF(Q36=5,4,IF(Q36=6,3,IF(Q36=7,2,IF(Q36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R37" s="19">
-        <f>IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <f>IF(S36=1,10,IF(S36=2,8,IF(S36=3,6,IF(S36=4,5,IF(S36=5,4,IF(S36=6,3,IF(S36=7,2,IF(S36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T37" s="19">
-        <f>IF(T36=1,10,IF(T36=2,8,IF(T36=3,6,IF(T36=4,5,IF(T36=5,4,IF(T36=6,3,IF(T36=7,2,IF(T36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U37" s="19">
-        <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V37" s="19">
-        <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W37" s="19">
-        <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X37" s="19">
-        <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y37" s="19">
-        <f>IF(Y36=1,10,IF(Y36=2,8,IF(Y36=3,6,IF(Y36=4,5,IF(Y36=5,4,IF(Y36=6,3,IF(Y36=7,2,IF(Y36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z37" s="19">
-        <f>IF(Z36=1,10,IF(Z36=2,8,IF(Z36=3,6,IF(Z36=4,5,IF(Z36=5,4,IF(Z36=6,3,IF(Z36=7,2,IF(Z36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA37" s="19">
-        <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB37" s="19"/>
@@ -7726,91 +7890,91 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19">
-        <f>IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
+        <f t="shared" ref="F39:AA39" si="18">IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="19">
-        <f>IF(G38=1,10,IF(G38=2,8,IF(G38=3,6,IF(G38=4,5,IF(G38=5,4,IF(G38=6,3,IF(G38=7,2,IF(G38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H39" s="19">
-        <f>IF(H38=1,10,IF(H38=2,8,IF(H38=3,6,IF(H38=4,5,IF(H38=5,4,IF(H38=6,3,IF(H38=7,2,IF(H38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I39" s="19">
-        <f>IF(I38=1,10,IF(I38=2,8,IF(I38=3,6,IF(I38=4,5,IF(I38=5,4,IF(I38=6,3,IF(I38=7,2,IF(I38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J39" s="19">
-        <f>IF(J38=1,10,IF(J38=2,8,IF(J38=3,6,IF(J38=4,5,IF(J38=5,4,IF(J38=6,3,IF(J38=7,2,IF(J38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39" s="19">
-        <f>IF(K38=1,10,IF(K38=2,8,IF(K38=3,6,IF(K38=4,5,IF(K38=5,4,IF(K38=6,3,IF(K38=7,2,IF(K38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L39" s="19">
-        <f>IF(L38=1,10,IF(L38=2,8,IF(L38=3,6,IF(L38=4,5,IF(L38=5,4,IF(L38=6,3,IF(L38=7,2,IF(L38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M39" s="19">
-        <f>IF(M38=1,10,IF(M38=2,8,IF(M38=3,6,IF(M38=4,5,IF(M38=5,4,IF(M38=6,3,IF(M38=7,2,IF(M38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N39" s="19">
-        <f>IF(N38=1,10,IF(N38=2,8,IF(N38=3,6,IF(N38=4,5,IF(N38=5,4,IF(N38=6,3,IF(N38=7,2,IF(N38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O39" s="19">
-        <f>IF(O38=1,10,IF(O38=2,8,IF(O38=3,6,IF(O38=4,5,IF(O38=5,4,IF(O38=6,3,IF(O38=7,2,IF(O38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P39" s="19">
-        <f>IF(P38=1,10,IF(P38=2,8,IF(P38=3,6,IF(P38=4,5,IF(P38=5,4,IF(P38=6,3,IF(P38=7,2,IF(P38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q39" s="19">
-        <f>IF(Q38=1,10,IF(Q38=2,8,IF(Q38=3,6,IF(Q38=4,5,IF(Q38=5,4,IF(Q38=6,3,IF(Q38=7,2,IF(Q38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R39" s="19">
-        <f>IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <f>IF(S38=1,10,IF(S38=2,8,IF(S38=3,6,IF(S38=4,5,IF(S38=5,4,IF(S38=6,3,IF(S38=7,2,IF(S38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T39" s="19">
-        <f>IF(T38=1,10,IF(T38=2,8,IF(T38=3,6,IF(T38=4,5,IF(T38=5,4,IF(T38=6,3,IF(T38=7,2,IF(T38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U39" s="19">
-        <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V39" s="19">
-        <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W39" s="19">
-        <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X39" s="19">
-        <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y39" s="19">
-        <f>IF(Y38=1,10,IF(Y38=2,8,IF(Y38=3,6,IF(Y38=4,5,IF(Y38=5,4,IF(Y38=6,3,IF(Y38=7,2,IF(Y38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z39" s="19">
-        <f>IF(Z38=1,10,IF(Z38=2,8,IF(Z38=3,6,IF(Z38=4,5,IF(Z38=5,4,IF(Z38=6,3,IF(Z38=7,2,IF(Z38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA39" s="19">
-        <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="19"/>
@@ -7861,18 +8025,18 @@
       <c r="O40" s="18">
         <v>17</v>
       </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
       <c r="AB40" s="18">
         <f>SUM(F41:AA41)</f>
         <v>0</v>
@@ -7885,94 +8049,233 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19">
-        <f t="shared" ref="F41:AA41" si="0">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
+        <f t="shared" ref="F41:AA41" si="19">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB41" s="19"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="18">
+        <v>3</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19">
+        <f t="shared" ref="F43:AA43" si="20">IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB41">
@@ -7988,13 +8291,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
@@ -8178,91 +8481,91 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19">
-        <f>IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
+        <f t="shared" ref="F3:AA3" si="0">IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="G3" s="19">
-        <f>IF(G2=1,10,IF(G2=2,6,IF(G2=3,4,IF(G2=4,3,IF(G2=5,2,IF(G2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H3" s="19">
-        <f>IF(H2=1,10,IF(H2=2,6,IF(H2=3,4,IF(H2=4,3,IF(H2=5,2,IF(H2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I3" s="19">
-        <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J3" s="19">
-        <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K3" s="19">
-        <f>IF(K2=1,10,IF(K2=2,6,IF(K2=3,4,IF(K2=4,3,IF(K2=5,2,IF(K2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L3" s="19">
-        <f>IF(L2=1,10,IF(L2=2,6,IF(L2=3,4,IF(L2=4,3,IF(L2=5,2,IF(L2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M3" s="19">
-        <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N3" s="19">
-        <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O3" s="19">
-        <f>IF(O2=1,10,IF(O2=2,6,IF(O2=3,4,IF(O2=4,3,IF(O2=5,2,IF(O2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P3" s="19">
-        <f>IF(P2=1,10,IF(P2=2,6,IF(P2=3,4,IF(P2=4,3,IF(P2=5,2,IF(P2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="19">
-        <f>IF(Q2=1,10,IF(Q2=2,6,IF(Q2=3,4,IF(Q2=4,3,IF(Q2=5,2,IF(Q2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="19">
-        <f>IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="19">
-        <f>IF(S2=1,10,IF(S2=2,6,IF(S2=3,4,IF(S2=4,3,IF(S2=5,2,IF(S2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="19">
-        <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="19">
-        <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="19">
-        <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="19">
-        <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="19">
-        <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="19">
-        <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="19">
-        <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="19">
-        <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="19"/>
@@ -8337,91 +8640,91 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19">
-        <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
+        <f t="shared" ref="F5:AA5" si="1">IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="G5" s="19">
-        <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H5" s="19">
-        <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I5" s="19">
-        <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J5" s="19">
-        <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K5" s="19">
-        <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="19">
-        <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M5" s="19">
-        <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N5" s="19">
-        <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O5" s="19">
-        <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P5" s="19">
-        <f>IF(P4=1,10,IF(P4=2,6,IF(P4=3,4,IF(P4=4,3,IF(P4=5,2,IF(P4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="19">
-        <f>IF(Q4=1,10,IF(Q4=2,6,IF(Q4=3,4,IF(Q4=4,3,IF(Q4=5,2,IF(Q4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="19">
-        <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="19">
-        <f>IF(S4=1,10,IF(S4=2,6,IF(S4=3,4,IF(S4=4,3,IF(S4=5,2,IF(S4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="19">
-        <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="19">
-        <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" s="19">
-        <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" s="19">
-        <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5" s="19">
-        <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5" s="19">
-        <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="19">
-        <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB5" s="19"/>
@@ -8496,91 +8799,91 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19">
-        <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
+        <f t="shared" ref="F7:AA7" si="2">IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="G7" s="19">
-        <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H7" s="19">
-        <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I7" s="19">
-        <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J7" s="19">
-        <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K7" s="19">
-        <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L7" s="19">
-        <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="19">
-        <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N7" s="19">
-        <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O7" s="19">
-        <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="19">
-        <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="19">
-        <f>IF(Q6=1,10,IF(Q6=2,6,IF(Q6=3,4,IF(Q6=4,3,IF(Q6=5,2,IF(Q6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="19">
-        <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="19">
-        <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="19">
-        <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="19">
-        <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="19">
-        <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="19">
-        <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="19">
-        <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="19">
-        <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="19"/>
@@ -8655,91 +8958,91 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19">
-        <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
+        <f t="shared" ref="F9:AA9" si="3">IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="G9" s="19">
-        <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H9" s="19">
-        <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I9" s="19">
-        <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J9" s="19">
-        <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K9" s="19">
-        <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L9" s="19">
-        <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M9" s="19">
-        <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N9" s="19">
-        <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="19">
-        <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P9" s="19">
-        <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="19">
-        <f>IF(Q8=1,10,IF(Q8=2,6,IF(Q8=3,4,IF(Q8=4,3,IF(Q8=5,2,IF(Q8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="19">
-        <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9" s="19">
-        <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="19">
-        <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="19">
-        <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="19">
-        <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="19">
-        <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="19">
-        <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB9" s="19"/>
@@ -8814,91 +9117,91 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19">
-        <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
+        <f t="shared" ref="F11:AA11" si="4">IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G11" s="19">
-        <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J11" s="19">
-        <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="19">
-        <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L11" s="19">
-        <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11" s="19">
-        <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N11" s="19">
-        <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O11" s="19">
-        <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="19">
-        <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="19">
-        <f>IF(Q10=1,10,IF(Q10=2,6,IF(Q10=3,4,IF(Q10=4,3,IF(Q10=5,2,IF(Q10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="19">
-        <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U11" s="19">
-        <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="19">
-        <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="19">
-        <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X11" s="19">
-        <f>IF(X10=1,10,IF(X10=2,6,IF(X10=3,4,IF(X10=4,3,IF(X10=5,2,IF(X10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y11" s="19">
-        <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z11" s="19">
-        <f>IF(Z10=1,10,IF(Z10=2,6,IF(Z10=3,4,IF(Z10=4,3,IF(Z10=5,2,IF(Z10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="19">
-        <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB11" s="19"/>
@@ -8973,91 +9276,91 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19">
-        <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
+        <f t="shared" ref="F13:AA13" si="5">IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G13" s="19">
-        <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H13" s="19">
-        <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13" s="19">
-        <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K13" s="19">
-        <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L13" s="19">
-        <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M13" s="19">
-        <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N13" s="19">
-        <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="19">
-        <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P13" s="19">
-        <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="19">
-        <f>IF(Q12=1,10,IF(Q12=2,6,IF(Q12=3,4,IF(Q12=4,3,IF(Q12=5,2,IF(Q12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="19">
-        <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="19">
-        <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W13" s="19">
-        <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="19">
-        <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="19">
-        <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="19">
-        <f>IF(Z12=1,10,IF(Z12=2,6,IF(Z12=3,4,IF(Z12=4,3,IF(Z12=5,2,IF(Z12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="19">
-        <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB13" s="19"/>
@@ -9132,91 +9435,91 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19">
-        <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
+        <f t="shared" ref="F15:AA15" si="6">IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="G15" s="19">
-        <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H15" s="19">
-        <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J15" s="19">
-        <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K15" s="19">
-        <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L15" s="19">
-        <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M15" s="19">
-        <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N15" s="19">
-        <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O15" s="19">
-        <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15" s="19">
-        <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="19">
-        <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="19">
-        <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15" s="19">
-        <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X15" s="19">
-        <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y15" s="19">
-        <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z15" s="19">
-        <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA15" s="19">
-        <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB15" s="19"/>
@@ -9291,91 +9594,91 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19">
-        <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
+        <f t="shared" ref="F17:AA17" si="7">IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I17" s="19">
-        <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J17" s="19">
-        <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K17" s="19">
-        <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L17" s="19">
-        <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M17" s="19">
-        <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N17" s="19">
-        <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O17" s="19">
-        <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="P17" s="19">
-        <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="19">
-        <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R17" s="19">
-        <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17" s="19">
-        <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="19">
-        <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="19">
-        <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17" s="19">
-        <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z17" s="19">
-        <f>IF(Z16=1,10,IF(Z16=2,6,IF(Z16=3,4,IF(Z16=4,3,IF(Z16=5,2,IF(Z16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA17" s="19">
-        <f>IF(AA16=1,10,IF(AA16=2,6,IF(AA16=3,4,IF(AA16=4,3,IF(AA16=5,2,IF(AA16=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB17" s="19"/>
@@ -9450,91 +9753,91 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19">
-        <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
+        <f t="shared" ref="F19:AA19" si="8">IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="G19" s="19">
-        <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I19" s="19">
-        <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J19" s="19">
-        <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="19">
-        <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19" s="19">
-        <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M19" s="19">
-        <f>IF(M18=1,10,IF(M18=2,6,IF(M18=3,4,IF(M18=4,3,IF(M18=5,2,IF(M18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N19" s="19">
-        <f>IF(N18=1,10,IF(N18=2,6,IF(N18=3,4,IF(N18=4,3,IF(N18=5,2,IF(N18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="19">
-        <f>IF(O18=1,10,IF(O18=2,6,IF(O18=3,4,IF(O18=4,3,IF(O18=5,2,IF(O18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19" s="19">
-        <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="19">
-        <f>IF(Q18=1,10,IF(Q18=2,6,IF(Q18=3,4,IF(Q18=4,3,IF(Q18=5,2,IF(Q18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="19">
-        <f>IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <f>IF(S18=1,10,IF(S18=2,6,IF(S18=3,4,IF(S18=4,3,IF(S18=5,2,IF(S18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <f>IF(T18=1,10,IF(T18=2,6,IF(T18=3,4,IF(T18=4,3,IF(T18=5,2,IF(T18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U19" s="19">
-        <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V19" s="19">
-        <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W19" s="19">
-        <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19" s="19">
-        <f>IF(X18=1,10,IF(X18=2,6,IF(X18=3,4,IF(X18=4,3,IF(X18=5,2,IF(X18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y19" s="19">
-        <f>IF(Y18=1,10,IF(Y18=2,6,IF(Y18=3,4,IF(Y18=4,3,IF(Y18=5,2,IF(Y18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z19" s="19">
-        <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA19" s="19">
-        <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB19" s="19"/>
@@ -9609,91 +9912,91 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19">
-        <f>IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
+        <f t="shared" ref="F21:AA21" si="9">IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="19">
-        <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>IF(I20=1,10,IF(I20=2,6,IF(I20=3,4,IF(I20=4,3,IF(I20=5,2,IF(I20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J21" s="19">
-        <f>IF(J20=1,10,IF(J20=2,6,IF(J20=3,4,IF(J20=4,3,IF(J20=5,2,IF(J20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K21" s="19">
-        <f>IF(K20=1,10,IF(K20=2,6,IF(K20=3,4,IF(K20=4,3,IF(K20=5,2,IF(K20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="L21" s="19">
-        <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M21" s="19">
-        <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N21" s="19">
-        <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O21" s="19">
-        <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="19">
-        <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="19">
-        <f>IF(Q20=1,10,IF(Q20=2,6,IF(Q20=3,4,IF(Q20=4,3,IF(Q20=5,2,IF(Q20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R21" s="19">
-        <f>IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S21" s="19">
-        <f>IF(S20=1,10,IF(S20=2,6,IF(S20=3,4,IF(S20=4,3,IF(S20=5,2,IF(S20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <f>IF(T20=1,10,IF(T20=2,6,IF(T20=3,4,IF(T20=4,3,IF(T20=5,2,IF(T20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U21" s="19">
-        <f>IF(U20=1,10,IF(U20=2,6,IF(U20=3,4,IF(U20=4,3,IF(U20=5,2,IF(U20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V21" s="19">
-        <f>IF(V20=1,10,IF(V20=2,6,IF(V20=3,4,IF(V20=4,3,IF(V20=5,2,IF(V20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W21" s="19">
-        <f>IF(W20=1,10,IF(W20=2,6,IF(W20=3,4,IF(W20=4,3,IF(W20=5,2,IF(W20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X21" s="19">
-        <f>IF(X20=1,10,IF(X20=2,6,IF(X20=3,4,IF(X20=4,3,IF(X20=5,2,IF(X20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21" s="19">
-        <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z21" s="19">
-        <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA21" s="19">
-        <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB21" s="19"/>
@@ -9768,91 +10071,91 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19">
-        <f>IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
+        <f t="shared" ref="F23:AA23" si="10">IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <f>IF(J22=1,10,IF(J22=2,6,IF(J22=3,4,IF(J22=4,3,IF(J22=5,2,IF(J22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="19">
-        <f>IF(K22=1,10,IF(K22=2,6,IF(K22=3,4,IF(K22=4,3,IF(K22=5,2,IF(K22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="19">
-        <f>IF(L22=1,10,IF(L22=2,6,IF(L22=3,4,IF(L22=4,3,IF(L22=5,2,IF(L22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="19">
-        <f>IF(M22=1,10,IF(M22=2,6,IF(M22=3,4,IF(M22=4,3,IF(M22=5,2,IF(M22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N23" s="19">
-        <f>IF(N22=1,10,IF(N22=2,6,IF(N22=3,4,IF(N22=4,3,IF(N22=5,2,IF(N22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O23" s="19">
-        <f>IF(O22=1,10,IF(O22=2,6,IF(O22=3,4,IF(O22=4,3,IF(O22=5,2,IF(O22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="P23" s="19">
-        <f>IF(P22=1,10,IF(P22=2,6,IF(P22=3,4,IF(P22=4,3,IF(P22=5,2,IF(P22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
-        <f>IF(Q22=1,10,IF(Q22=2,6,IF(Q22=3,4,IF(Q22=4,3,IF(Q22=5,2,IF(Q22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="19">
-        <f>IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <f>IF(S22=1,10,IF(S22=2,6,IF(S22=3,4,IF(S22=4,3,IF(S22=5,2,IF(S22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <f>IF(T22=1,10,IF(T22=2,6,IF(T22=3,4,IF(T22=4,3,IF(T22=5,2,IF(T22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V23" s="19">
-        <f>IF(V22=1,10,IF(V22=2,6,IF(V22=3,4,IF(V22=4,3,IF(V22=5,2,IF(V22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W23" s="19">
-        <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X23" s="19">
-        <f>IF(X22=1,10,IF(X22=2,6,IF(X22=3,4,IF(X22=4,3,IF(X22=5,2,IF(X22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y23" s="19">
-        <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z23" s="19">
-        <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA23" s="19">
-        <f>IF(AA22=1,10,IF(AA22=2,6,IF(AA22=3,4,IF(AA22=4,3,IF(AA22=5,2,IF(AA22=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB23" s="19"/>
@@ -9927,91 +10230,91 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19">
-        <f>IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
+        <f t="shared" ref="F25:AA25" si="11">IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f>IF(G24=1,10,IF(G24=2,6,IF(G24=3,4,IF(G24=4,3,IF(G24=5,2,IF(G24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>IF(H24=1,10,IF(H24=2,6,IF(H24=3,4,IF(H24=4,3,IF(H24=5,2,IF(H24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>IF(I24=1,10,IF(I24=2,6,IF(I24=3,4,IF(I24=4,3,IF(I24=5,2,IF(I24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <f>IF(J24=1,10,IF(J24=2,6,IF(J24=3,4,IF(J24=4,3,IF(J24=5,2,IF(J24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K25" s="19">
-        <f>IF(K24=1,10,IF(K24=2,6,IF(K24=3,4,IF(K24=4,3,IF(K24=5,2,IF(K24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L25" s="19">
-        <f>IF(L24=1,10,IF(L24=2,6,IF(L24=3,4,IF(L24=4,3,IF(L24=5,2,IF(L24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M25" s="19">
-        <f>IF(M24=1,10,IF(M24=2,6,IF(M24=3,4,IF(M24=4,3,IF(M24=5,2,IF(M24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="19">
-        <f>IF(N24=1,10,IF(N24=2,6,IF(N24=3,4,IF(N24=4,3,IF(N24=5,2,IF(N24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O25" s="19">
-        <f>IF(O24=1,10,IF(O24=2,6,IF(O24=3,4,IF(O24=4,3,IF(O24=5,2,IF(O24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f>IF(P24=1,10,IF(P24=2,6,IF(P24=3,4,IF(P24=4,3,IF(P24=5,2,IF(P24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
-        <f>IF(Q24=1,10,IF(Q24=2,6,IF(Q24=3,4,IF(Q24=4,3,IF(Q24=5,2,IF(Q24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R25" s="19">
-        <f>IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <f>IF(S24=1,10,IF(S24=2,6,IF(S24=3,4,IF(S24=4,3,IF(S24=5,2,IF(S24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V25" s="19">
-        <f>IF(V24=1,10,IF(V24=2,6,IF(V24=3,4,IF(V24=4,3,IF(V24=5,2,IF(V24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W25" s="19">
-        <f>IF(W24=1,10,IF(W24=2,6,IF(W24=3,4,IF(W24=4,3,IF(W24=5,2,IF(W24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X25" s="19">
-        <f>IF(X24=1,10,IF(X24=2,6,IF(X24=3,4,IF(X24=4,3,IF(X24=5,2,IF(X24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y25" s="19">
-        <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z25" s="19">
-        <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA25" s="19">
-        <f>IF(AA24=1,10,IF(AA24=2,6,IF(AA24=3,4,IF(AA24=4,3,IF(AA24=5,2,IF(AA24=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB25" s="19"/>
@@ -10086,91 +10389,91 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19">
-        <f>IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
+        <f t="shared" ref="F27:AA27" si="12">IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="19">
-        <f>IF(G26=1,10,IF(G26=2,6,IF(G26=3,4,IF(G26=4,3,IF(G26=5,2,IF(G26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>IF(H26=1,10,IF(H26=2,6,IF(H26=3,4,IF(H26=4,3,IF(H26=5,2,IF(H26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>IF(I26=1,10,IF(I26=2,6,IF(I26=3,4,IF(I26=4,3,IF(I26=5,2,IF(I26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J27" s="19">
-        <f>IF(J26=1,10,IF(J26=2,6,IF(J26=3,4,IF(J26=4,3,IF(J26=5,2,IF(J26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K27" s="19">
-        <f>IF(K26=1,10,IF(K26=2,6,IF(K26=3,4,IF(K26=4,3,IF(K26=5,2,IF(K26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27" s="19">
-        <f>IF(L26=1,10,IF(L26=2,6,IF(L26=3,4,IF(L26=4,3,IF(L26=5,2,IF(L26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27" s="19">
-        <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N27" s="19">
-        <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="19">
-        <f>IF(O26=1,10,IF(O26=2,6,IF(O26=3,4,IF(O26=4,3,IF(O26=5,2,IF(O26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P27" s="19">
-        <f>IF(P26=1,10,IF(P26=2,6,IF(P26=3,4,IF(P26=4,3,IF(P26=5,2,IF(P26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27" s="19">
-        <f>IF(Q26=1,10,IF(Q26=2,6,IF(Q26=3,4,IF(Q26=4,3,IF(Q26=5,2,IF(Q26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R27" s="19">
-        <f>IF(R26=1,10,IF(R26=2,6,IF(R26=3,4,IF(R26=4,3,IF(R26=5,2,IF(R26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S27" s="19">
-        <f>IF(S26=1,10,IF(S26=2,6,IF(S26=3,4,IF(S26=4,3,IF(S26=5,2,IF(S26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <f>IF(T26=1,10,IF(T26=2,6,IF(T26=3,4,IF(T26=4,3,IF(T26=5,2,IF(T26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <f>IF(U26=1,10,IF(U26=2,6,IF(U26=3,4,IF(U26=4,3,IF(U26=5,2,IF(U26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V27" s="19">
-        <f>IF(V26=1,10,IF(V26=2,6,IF(V26=3,4,IF(V26=4,3,IF(V26=5,2,IF(V26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W27" s="19">
-        <f>IF(W26=1,10,IF(W26=2,6,IF(W26=3,4,IF(W26=4,3,IF(W26=5,2,IF(W26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X27" s="19">
-        <f>IF(X26=1,10,IF(X26=2,6,IF(X26=3,4,IF(X26=4,3,IF(X26=5,2,IF(X26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y27" s="19">
-        <f>IF(Y26=1,10,IF(Y26=2,6,IF(Y26=3,4,IF(Y26=4,3,IF(Y26=5,2,IF(Y26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z27" s="19">
-        <f>IF(Z26=1,10,IF(Z26=2,6,IF(Z26=3,4,IF(Z26=4,3,IF(Z26=5,2,IF(Z26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA27" s="19">
-        <f>IF(AA26=1,10,IF(AA26=2,6,IF(AA26=3,4,IF(AA26=4,3,IF(AA26=5,2,IF(AA26=6,1,0))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB27" s="19"/>
@@ -10245,91 +10548,91 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19">
-        <f>IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
+        <f t="shared" ref="F29:AA29" si="13">IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="19">
-        <f>IF(G28=1,10,IF(G28=2,6,IF(G28=3,4,IF(G28=4,3,IF(G28=5,2,IF(G28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H29" s="19">
-        <f>IF(H28=1,10,IF(H28=2,6,IF(H28=3,4,IF(H28=4,3,IF(H28=5,2,IF(H28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I29" s="19">
-        <f>IF(I28=1,10,IF(I28=2,6,IF(I28=3,4,IF(I28=4,3,IF(I28=5,2,IF(I28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J29" s="19">
-        <f>IF(J28=1,10,IF(J28=2,6,IF(J28=3,4,IF(J28=4,3,IF(J28=5,2,IF(J28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K29" s="19">
-        <f>IF(K28=1,10,IF(K28=2,6,IF(K28=3,4,IF(K28=4,3,IF(K28=5,2,IF(K28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L29" s="19">
-        <f>IF(L28=1,10,IF(L28=2,6,IF(L28=3,4,IF(L28=4,3,IF(L28=5,2,IF(L28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <f>IF(M28=1,10,IF(M28=2,6,IF(M28=3,4,IF(M28=4,3,IF(M28=5,2,IF(M28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29" s="19">
-        <f>IF(N28=1,10,IF(N28=2,6,IF(N28=3,4,IF(N28=4,3,IF(N28=5,2,IF(N28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O29" s="19">
-        <f>IF(O28=1,10,IF(O28=2,6,IF(O28=3,4,IF(O28=4,3,IF(O28=5,2,IF(O28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P29" s="19">
-        <f>IF(P28=1,10,IF(P28=2,6,IF(P28=3,4,IF(P28=4,3,IF(P28=5,2,IF(P28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q29" s="19">
-        <f>IF(Q28=1,10,IF(Q28=2,6,IF(Q28=3,4,IF(Q28=4,3,IF(Q28=5,2,IF(Q28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R29" s="19">
-        <f>IF(R28=1,10,IF(R28=2,6,IF(R28=3,4,IF(R28=4,3,IF(R28=5,2,IF(R28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S29" s="19">
-        <f>IF(S28=1,10,IF(S28=2,6,IF(S28=3,4,IF(S28=4,3,IF(S28=5,2,IF(S28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <f>IF(T28=1,10,IF(T28=2,6,IF(T28=3,4,IF(T28=4,3,IF(T28=5,2,IF(T28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U29" s="19">
-        <f>IF(U28=1,10,IF(U28=2,6,IF(U28=3,4,IF(U28=4,3,IF(U28=5,2,IF(U28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V29" s="19">
-        <f>IF(V28=1,10,IF(V28=2,6,IF(V28=3,4,IF(V28=4,3,IF(V28=5,2,IF(V28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W29" s="19">
-        <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X29" s="19">
-        <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y29" s="19">
-        <f>IF(Y28=1,10,IF(Y28=2,6,IF(Y28=3,4,IF(Y28=4,3,IF(Y28=5,2,IF(Y28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29" s="19">
-        <f>IF(Z28=1,10,IF(Z28=2,6,IF(Z28=3,4,IF(Z28=4,3,IF(Z28=5,2,IF(Z28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA29" s="19">
-        <f>IF(AA28=1,10,IF(AA28=2,6,IF(AA28=3,4,IF(AA28=4,3,IF(AA28=5,2,IF(AA28=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB29" s="19"/>
@@ -10404,91 +10707,91 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19">
-        <f>IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
+        <f t="shared" ref="F31:AA31" si="14">IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="19">
-        <f>IF(G30=1,10,IF(G30=2,6,IF(G30=3,4,IF(G30=4,3,IF(G30=5,2,IF(G30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H31" s="19">
-        <f>IF(H30=1,10,IF(H30=2,6,IF(H30=3,4,IF(H30=4,3,IF(H30=5,2,IF(H30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I31" s="19">
-        <f>IF(I30=1,10,IF(I30=2,6,IF(I30=3,4,IF(I30=4,3,IF(I30=5,2,IF(I30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31" s="19">
-        <f>IF(J30=1,10,IF(J30=2,6,IF(J30=3,4,IF(J30=4,3,IF(J30=5,2,IF(J30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K31" s="19">
-        <f>IF(K30=1,10,IF(K30=2,6,IF(K30=3,4,IF(K30=4,3,IF(K30=5,2,IF(K30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L31" s="19">
-        <f>IF(L30=1,10,IF(L30=2,6,IF(L30=3,4,IF(L30=4,3,IF(L30=5,2,IF(L30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M31" s="19">
-        <f>IF(M30=1,10,IF(M30=2,6,IF(M30=3,4,IF(M30=4,3,IF(M30=5,2,IF(M30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="19">
-        <f>IF(N30=1,10,IF(N30=2,6,IF(N30=3,4,IF(N30=4,3,IF(N30=5,2,IF(N30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O31" s="19">
-        <f>IF(O30=1,10,IF(O30=2,6,IF(O30=3,4,IF(O30=4,3,IF(O30=5,2,IF(O30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P31" s="19">
-        <f>IF(P30=1,10,IF(P30=2,6,IF(P30=3,4,IF(P30=4,3,IF(P30=5,2,IF(P30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31" s="19">
-        <f>IF(Q30=1,10,IF(Q30=2,6,IF(Q30=3,4,IF(Q30=4,3,IF(Q30=5,2,IF(Q30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R31" s="19">
-        <f>IF(R30=1,10,IF(R30=2,6,IF(R30=3,4,IF(R30=4,3,IF(R30=5,2,IF(R30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S31" s="19">
-        <f>IF(S30=1,10,IF(S30=2,6,IF(S30=3,4,IF(S30=4,3,IF(S30=5,2,IF(S30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <f>IF(T30=1,10,IF(T30=2,6,IF(T30=3,4,IF(T30=4,3,IF(T30=5,2,IF(T30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <f>IF(U30=1,10,IF(U30=2,6,IF(U30=3,4,IF(U30=4,3,IF(U30=5,2,IF(U30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V31" s="19">
-        <f>IF(V30=1,10,IF(V30=2,6,IF(V30=3,4,IF(V30=4,3,IF(V30=5,2,IF(V30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="19">
-        <f>IF(W30=1,10,IF(W30=2,6,IF(W30=3,4,IF(W30=4,3,IF(W30=5,2,IF(W30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X31" s="19">
-        <f>IF(X30=1,10,IF(X30=2,6,IF(X30=3,4,IF(X30=4,3,IF(X30=5,2,IF(X30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y31" s="19">
-        <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z31" s="19">
-        <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA31" s="19">
-        <f>IF(AA30=1,10,IF(AA30=2,6,IF(AA30=3,4,IF(AA30=4,3,IF(AA30=5,2,IF(AA30=6,1,0))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB31" s="19"/>
@@ -10563,91 +10866,91 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19">
-        <f>IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
+        <f t="shared" ref="F33:AA33" si="15">IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <f>IF(G32=1,10,IF(G32=2,6,IF(G32=3,4,IF(G32=4,3,IF(G32=5,2,IF(G32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H33" s="19">
-        <f>IF(H32=1,10,IF(H32=2,6,IF(H32=3,4,IF(H32=4,3,IF(H32=5,2,IF(H32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I33" s="19">
-        <f>IF(I32=1,10,IF(I32=2,6,IF(I32=3,4,IF(I32=4,3,IF(I32=5,2,IF(I32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J33" s="19">
-        <f>IF(J32=1,10,IF(J32=2,6,IF(J32=3,4,IF(J32=4,3,IF(J32=5,2,IF(J32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K33" s="19">
-        <f>IF(K32=1,10,IF(K32=2,6,IF(K32=3,4,IF(K32=4,3,IF(K32=5,2,IF(K32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L33" s="19">
-        <f>IF(L32=1,10,IF(L32=2,6,IF(L32=3,4,IF(L32=4,3,IF(L32=5,2,IF(L32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M33" s="19">
-        <f>IF(M32=1,10,IF(M32=2,6,IF(M32=3,4,IF(M32=4,3,IF(M32=5,2,IF(M32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33" s="19">
-        <f>IF(N32=1,10,IF(N32=2,6,IF(N32=3,4,IF(N32=4,3,IF(N32=5,2,IF(N32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O33" s="19">
-        <f>IF(O32=1,10,IF(O32=2,6,IF(O32=3,4,IF(O32=4,3,IF(O32=5,2,IF(O32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P33" s="19">
-        <f>IF(P32=1,10,IF(P32=2,6,IF(P32=3,4,IF(P32=4,3,IF(P32=5,2,IF(P32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q33" s="19">
-        <f>IF(Q32=1,10,IF(Q32=2,6,IF(Q32=3,4,IF(Q32=4,3,IF(Q32=5,2,IF(Q32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="19">
-        <f>IF(R32=1,10,IF(R32=2,6,IF(R32=3,4,IF(R32=4,3,IF(R32=5,2,IF(R32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <f>IF(S32=1,10,IF(S32=2,6,IF(S32=3,4,IF(S32=4,3,IF(S32=5,2,IF(S32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <f>IF(T32=1,10,IF(T32=2,6,IF(T32=3,4,IF(T32=4,3,IF(T32=5,2,IF(T32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <f>IF(U32=1,10,IF(U32=2,6,IF(U32=3,4,IF(U32=4,3,IF(U32=5,2,IF(U32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V33" s="19">
-        <f>IF(V32=1,10,IF(V32=2,6,IF(V32=3,4,IF(V32=4,3,IF(V32=5,2,IF(V32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W33" s="19">
-        <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X33" s="19">
-        <f>IF(X32=1,10,IF(X32=2,6,IF(X32=3,4,IF(X32=4,3,IF(X32=5,2,IF(X32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y33" s="19">
-        <f>IF(Y32=1,10,IF(Y32=2,6,IF(Y32=3,4,IF(Y32=4,3,IF(Y32=5,2,IF(Y32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z33" s="19">
-        <f>IF(Z32=1,10,IF(Z32=2,6,IF(Z32=3,4,IF(Z32=4,3,IF(Z32=5,2,IF(Z32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA33" s="19">
-        <f>IF(AA32=1,10,IF(AA32=2,6,IF(AA32=3,4,IF(AA32=4,3,IF(AA32=5,2,IF(AA32=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB33" s="19"/>
@@ -10722,91 +11025,91 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19">
-        <f>IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
+        <f t="shared" ref="F35:AA35" si="16">IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="19">
-        <f>IF(G34=1,10,IF(G34=2,6,IF(G34=3,4,IF(G34=4,3,IF(G34=5,2,IF(G34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H35" s="19">
-        <f>IF(H34=1,10,IF(H34=2,6,IF(H34=3,4,IF(H34=4,3,IF(H34=5,2,IF(H34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I35" s="19">
-        <f>IF(I34=1,10,IF(I34=2,6,IF(I34=3,4,IF(I34=4,3,IF(I34=5,2,IF(I34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J35" s="19">
-        <f>IF(J34=1,10,IF(J34=2,6,IF(J34=3,4,IF(J34=4,3,IF(J34=5,2,IF(J34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K35" s="19">
-        <f>IF(K34=1,10,IF(K34=2,6,IF(K34=3,4,IF(K34=4,3,IF(K34=5,2,IF(K34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L35" s="19">
-        <f>IF(L34=1,10,IF(L34=2,6,IF(L34=3,4,IF(L34=4,3,IF(L34=5,2,IF(L34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M35" s="19">
-        <f>IF(M34=1,10,IF(M34=2,6,IF(M34=3,4,IF(M34=4,3,IF(M34=5,2,IF(M34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N35" s="19">
-        <f>IF(N34=1,10,IF(N34=2,6,IF(N34=3,4,IF(N34=4,3,IF(N34=5,2,IF(N34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="19">
-        <f>IF(O34=1,10,IF(O34=2,6,IF(O34=3,4,IF(O34=4,3,IF(O34=5,2,IF(O34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P35" s="19">
-        <f>IF(P34=1,10,IF(P34=2,6,IF(P34=3,4,IF(P34=4,3,IF(P34=5,2,IF(P34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q35" s="19">
-        <f>IF(Q34=1,10,IF(Q34=2,6,IF(Q34=3,4,IF(Q34=4,3,IF(Q34=5,2,IF(Q34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R35" s="19">
-        <f>IF(R34=1,10,IF(R34=2,6,IF(R34=3,4,IF(R34=4,3,IF(R34=5,2,IF(R34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <f>IF(S34=1,10,IF(S34=2,6,IF(S34=3,4,IF(S34=4,3,IF(S34=5,2,IF(S34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <f>IF(T34=1,10,IF(T34=2,6,IF(T34=3,4,IF(T34=4,3,IF(T34=5,2,IF(T34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <f>IF(U34=1,10,IF(U34=2,6,IF(U34=3,4,IF(U34=4,3,IF(U34=5,2,IF(U34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V35" s="19">
-        <f>IF(V34=1,10,IF(V34=2,6,IF(V34=3,4,IF(V34=4,3,IF(V34=5,2,IF(V34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W35" s="19">
-        <f>IF(W34=1,10,IF(W34=2,6,IF(W34=3,4,IF(W34=4,3,IF(W34=5,2,IF(W34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X35" s="19">
-        <f>IF(X34=1,10,IF(X34=2,6,IF(X34=3,4,IF(X34=4,3,IF(X34=5,2,IF(X34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y35" s="19">
-        <f>IF(Y34=1,10,IF(Y34=2,6,IF(Y34=3,4,IF(Y34=4,3,IF(Y34=5,2,IF(Y34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z35" s="19">
-        <f>IF(Z34=1,10,IF(Z34=2,6,IF(Z34=3,4,IF(Z34=4,3,IF(Z34=5,2,IF(Z34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA35" s="19">
-        <f>IF(AA34=1,10,IF(AA34=2,6,IF(AA34=3,4,IF(AA34=4,3,IF(AA34=5,2,IF(AA34=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB35" s="19"/>
@@ -10881,91 +11184,91 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19">
-        <f>IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
+        <f t="shared" ref="F37:AA37" si="17">IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="19">
-        <f>IF(G36=1,10,IF(G36=2,6,IF(G36=3,4,IF(G36=4,3,IF(G36=5,2,IF(G36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H37" s="19">
-        <f>IF(H36=1,10,IF(H36=2,6,IF(H36=3,4,IF(H36=4,3,IF(H36=5,2,IF(H36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I37" s="19">
-        <f>IF(I36=1,10,IF(I36=2,6,IF(I36=3,4,IF(I36=4,3,IF(I36=5,2,IF(I36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37" s="19">
-        <f>IF(J36=1,10,IF(J36=2,6,IF(J36=3,4,IF(J36=4,3,IF(J36=5,2,IF(J36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K37" s="19">
-        <f>IF(K36=1,10,IF(K36=2,6,IF(K36=3,4,IF(K36=4,3,IF(K36=5,2,IF(K36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L37" s="19">
-        <f>IF(L36=1,10,IF(L36=2,6,IF(L36=3,4,IF(L36=4,3,IF(L36=5,2,IF(L36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M37" s="19">
-        <f>IF(M36=1,10,IF(M36=2,6,IF(M36=3,4,IF(M36=4,3,IF(M36=5,2,IF(M36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N37" s="19">
-        <f>IF(N36=1,10,IF(N36=2,6,IF(N36=3,4,IF(N36=4,3,IF(N36=5,2,IF(N36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O37" s="19">
-        <f>IF(O36=1,10,IF(O36=2,6,IF(O36=3,4,IF(O36=4,3,IF(O36=5,2,IF(O36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P37" s="19">
-        <f>IF(P36=1,10,IF(P36=2,6,IF(P36=3,4,IF(P36=4,3,IF(P36=5,2,IF(P36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q37" s="19">
-        <f>IF(Q36=1,10,IF(Q36=2,6,IF(Q36=3,4,IF(Q36=4,3,IF(Q36=5,2,IF(Q36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R37" s="19">
-        <f>IF(R36=1,10,IF(R36=2,6,IF(R36=3,4,IF(R36=4,3,IF(R36=5,2,IF(R36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <f>IF(S36=1,10,IF(S36=2,6,IF(S36=3,4,IF(S36=4,3,IF(S36=5,2,IF(S36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T37" s="19">
-        <f>IF(T36=1,10,IF(T36=2,6,IF(T36=3,4,IF(T36=4,3,IF(T36=5,2,IF(T36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U37" s="19">
-        <f>IF(U36=1,10,IF(U36=2,6,IF(U36=3,4,IF(U36=4,3,IF(U36=5,2,IF(U36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V37" s="19">
-        <f>IF(V36=1,10,IF(V36=2,6,IF(V36=3,4,IF(V36=4,3,IF(V36=5,2,IF(V36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W37" s="19">
-        <f>IF(W36=1,10,IF(W36=2,6,IF(W36=3,4,IF(W36=4,3,IF(W36=5,2,IF(W36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X37" s="19">
-        <f>IF(X36=1,10,IF(X36=2,6,IF(X36=3,4,IF(X36=4,3,IF(X36=5,2,IF(X36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y37" s="19">
-        <f>IF(Y36=1,10,IF(Y36=2,6,IF(Y36=3,4,IF(Y36=4,3,IF(Y36=5,2,IF(Y36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z37" s="19">
-        <f>IF(Z36=1,10,IF(Z36=2,6,IF(Z36=3,4,IF(Z36=4,3,IF(Z36=5,2,IF(Z36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA37" s="19">
-        <f>IF(AA36=1,10,IF(AA36=2,6,IF(AA36=3,4,IF(AA36=4,3,IF(AA36=5,2,IF(AA36=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB37" s="19"/>
@@ -11016,18 +11319,18 @@
       <c r="O38" s="18">
         <v>17</v>
       </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
       <c r="AB38" s="18">
         <f>SUM(F39:AA39)</f>
         <v>0</v>
@@ -11040,91 +11343,91 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19">
-        <f>IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
+        <f t="shared" ref="F39:AA39" si="18">IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="19">
-        <f>IF(G38=1,10,IF(G38=2,6,IF(G38=3,4,IF(G38=4,3,IF(G38=5,2,IF(G38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H39" s="19">
-        <f>IF(H38=1,10,IF(H38=2,6,IF(H38=3,4,IF(H38=4,3,IF(H38=5,2,IF(H38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I39" s="19">
-        <f>IF(I38=1,10,IF(I38=2,6,IF(I38=3,4,IF(I38=4,3,IF(I38=5,2,IF(I38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J39" s="19">
-        <f>IF(J38=1,10,IF(J38=2,6,IF(J38=3,4,IF(J38=4,3,IF(J38=5,2,IF(J38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39" s="19">
-        <f>IF(K38=1,10,IF(K38=2,6,IF(K38=3,4,IF(K38=4,3,IF(K38=5,2,IF(K38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L39" s="19">
-        <f>IF(L38=1,10,IF(L38=2,6,IF(L38=3,4,IF(L38=4,3,IF(L38=5,2,IF(L38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M39" s="19">
-        <f>IF(M38=1,10,IF(M38=2,6,IF(M38=3,4,IF(M38=4,3,IF(M38=5,2,IF(M38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N39" s="19">
-        <f>IF(N38=1,10,IF(N38=2,6,IF(N38=3,4,IF(N38=4,3,IF(N38=5,2,IF(N38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O39" s="19">
-        <f>IF(O38=1,10,IF(O38=2,6,IF(O38=3,4,IF(O38=4,3,IF(O38=5,2,IF(O38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P39" s="19">
-        <f>IF(P38=1,10,IF(P38=2,6,IF(P38=3,4,IF(P38=4,3,IF(P38=5,2,IF(P38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q39" s="19">
-        <f>IF(Q38=1,10,IF(Q38=2,6,IF(Q38=3,4,IF(Q38=4,3,IF(Q38=5,2,IF(Q38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R39" s="19">
-        <f>IF(R38=1,10,IF(R38=2,6,IF(R38=3,4,IF(R38=4,3,IF(R38=5,2,IF(R38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <f>IF(S38=1,10,IF(S38=2,6,IF(S38=3,4,IF(S38=4,3,IF(S38=5,2,IF(S38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T39" s="19">
-        <f>IF(T38=1,10,IF(T38=2,6,IF(T38=3,4,IF(T38=4,3,IF(T38=5,2,IF(T38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U39" s="19">
-        <f>IF(U38=1,10,IF(U38=2,6,IF(U38=3,4,IF(U38=4,3,IF(U38=5,2,IF(U38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V39" s="19">
-        <f>IF(V38=1,10,IF(V38=2,6,IF(V38=3,4,IF(V38=4,3,IF(V38=5,2,IF(V38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W39" s="19">
-        <f>IF(W38=1,10,IF(W38=2,6,IF(W38=3,4,IF(W38=4,3,IF(W38=5,2,IF(W38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X39" s="19">
-        <f>IF(X38=1,10,IF(X38=2,6,IF(X38=3,4,IF(X38=4,3,IF(X38=5,2,IF(X38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y39" s="19">
-        <f>IF(Y38=1,10,IF(Y38=2,6,IF(Y38=3,4,IF(Y38=4,3,IF(Y38=5,2,IF(Y38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z39" s="19">
-        <f>IF(Z38=1,10,IF(Z38=2,6,IF(Z38=3,4,IF(Z38=4,3,IF(Z38=5,2,IF(Z38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA39" s="19">
-        <f>IF(AA38=1,10,IF(AA38=2,6,IF(AA38=3,4,IF(AA38=4,3,IF(AA38=5,2,IF(AA38=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB39" s="19"/>
@@ -11199,94 +11502,233 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19">
-        <f t="shared" ref="F41:AA41" si="0">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
+        <f t="shared" ref="F41:AA41" si="19">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB41" s="19"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="18">
+        <v>3</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19">
+        <f t="shared" ref="F43" si="20">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" ref="G43" si="21">IF(G42=1,10,IF(G42=2,6,IF(G42=3,4,IF(G42=4,3,IF(G42=5,2,IF(G42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" ref="H43" si="22">IF(H42=1,10,IF(H42=2,6,IF(H42=3,4,IF(H42=4,3,IF(H42=5,2,IF(H42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" ref="I43" si="23">IF(I42=1,10,IF(I42=2,6,IF(I42=3,4,IF(I42=4,3,IF(I42=5,2,IF(I42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" ref="J43" si="24">IF(J42=1,10,IF(J42=2,6,IF(J42=3,4,IF(J42=4,3,IF(J42=5,2,IF(J42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" ref="K43" si="25">IF(K42=1,10,IF(K42=2,6,IF(K42=3,4,IF(K42=4,3,IF(K42=5,2,IF(K42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" ref="L43" si="26">IF(L42=1,10,IF(L42=2,6,IF(L42=3,4,IF(L42=4,3,IF(L42=5,2,IF(L42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <f t="shared" ref="M43" si="27">IF(M42=1,10,IF(M42=2,6,IF(M42=3,4,IF(M42=4,3,IF(M42=5,2,IF(M42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" ref="N43" si="28">IF(N42=1,10,IF(N42=2,6,IF(N42=3,4,IF(N42=4,3,IF(N42=5,2,IF(N42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" ref="O43" si="29">IF(O42=1,10,IF(O42=2,6,IF(O42=3,4,IF(O42=4,3,IF(O42=5,2,IF(O42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" ref="P43" si="30">IF(P42=1,10,IF(P42=2,6,IF(P42=3,4,IF(P42=4,3,IF(P42=5,2,IF(P42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" ref="Q43" si="31">IF(Q42=1,10,IF(Q42=2,6,IF(Q42=3,4,IF(Q42=4,3,IF(Q42=5,2,IF(Q42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <f t="shared" ref="R43" si="32">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <f t="shared" ref="S43" si="33">IF(S42=1,10,IF(S42=2,6,IF(S42=3,4,IF(S42=4,3,IF(S42=5,2,IF(S42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <f t="shared" ref="T43" si="34">IF(T42=1,10,IF(T42=2,6,IF(T42=3,4,IF(T42=4,3,IF(T42=5,2,IF(T42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <f t="shared" ref="U43" si="35">IF(U42=1,10,IF(U42=2,6,IF(U42=3,4,IF(U42=4,3,IF(U42=5,2,IF(U42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <f t="shared" ref="V43" si="36">IF(V42=1,10,IF(V42=2,6,IF(V42=3,4,IF(V42=4,3,IF(V42=5,2,IF(V42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
+        <f t="shared" ref="W43" si="37">IF(W42=1,10,IF(W42=2,6,IF(W42=3,4,IF(W42=4,3,IF(W42=5,2,IF(W42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="19">
+        <f t="shared" ref="X43" si="38">IF(X42=1,10,IF(X42=2,6,IF(X42=3,4,IF(X42=4,3,IF(X42=5,2,IF(X42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="19">
+        <f t="shared" ref="Y43" si="39">IF(Y42=1,10,IF(Y42=2,6,IF(Y42=3,4,IF(Y42=4,3,IF(Y42=5,2,IF(Y42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="19">
+        <f t="shared" ref="Z43" si="40">IF(Z42=1,10,IF(Z42=2,6,IF(Z42=3,4,IF(Z42=4,3,IF(Z42=5,2,IF(Z42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <f t="shared" ref="AA43" si="41">IF(AA42=1,10,IF(AA42=2,6,IF(AA42=3,4,IF(AA42=4,3,IF(AA42=5,2,IF(AA42=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB41">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -19,10 +19,10 @@
     <sheet name="Ranking System Notes" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AB$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AB$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1991-2002 Engine Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1991-2002 Team Ranking'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AB$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AB$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2003-2009 Engine Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2003-2009 Team Ranking'!$A$1:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023 Driver Ranking'!$A$1:$AE$43</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="124">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,7 +1119,8 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="29" bestFit="1" customWidth="1"/>
@@ -1275,7 +1276,9 @@
       <c r="O2" s="28">
         <v>1</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="18">
+        <v>1</v>
+      </c>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="28"/>
@@ -1288,8 +1291,8 @@
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
-        <f>1+1+1+1+1</f>
-        <v>5</v>
+        <f>1+1+1+1+1+1</f>
+        <v>6</v>
       </c>
       <c r="AC2" s="18">
         <f>6+8</f>
@@ -1297,11 +1300,11 @@
       </c>
       <c r="AD2" s="18">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="AE2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1352,7 +1355,7 @@
       </c>
       <c r="P3" s="19">
         <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="19">
         <f>IF(Q2=1,25,IF(Q2=2,18,IF(Q2=3,15,IF(Q2=4,12,IF(Q2=5,10,IF(Q2=6,8,IF(Q2=7,6,IF(Q2=8,4,IF(Q2=9,2,IF(Q2=10,1,0))))))))))</f>
@@ -1449,7 +1452,9 @@
       <c r="O4" s="42">
         <v>6</v>
       </c>
-      <c r="P4" s="32"/>
+      <c r="P4" s="32">
+        <v>3</v>
+      </c>
       <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
@@ -1471,11 +1476,11 @@
       </c>
       <c r="AD4" s="42">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AE4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1526,7 +1531,7 @@
       </c>
       <c r="P5" s="19">
         <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="19">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
@@ -1623,7 +1628,9 @@
       <c r="O6" s="43">
         <v>7</v>
       </c>
-      <c r="P6" s="43"/>
+      <c r="P6" s="43">
+        <v>9</v>
+      </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>
@@ -1642,11 +1649,11 @@
       </c>
       <c r="AD6" s="43">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AE6" s="43">
         <f>SUM(F7:AA7)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1697,7 +1704,7 @@
       </c>
       <c r="P7" s="19">
         <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="19">
         <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
@@ -1794,7 +1801,9 @@
       <c r="O8" s="44">
         <v>3</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="44">
+        <v>4</v>
+      </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
@@ -1816,11 +1825,11 @@
       </c>
       <c r="AD8" s="44">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AE8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1871,7 +1880,7 @@
       </c>
       <c r="P9" s="19">
         <f>IF(P8=1,25,IF(P8=2,18,IF(P8=3,15,IF(P8=4,12,IF(P8=5,10,IF(P8=6,8,IF(P8=7,6,IF(P8=8,4,IF(P8=9,2,IF(P8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="19">
         <f>IF(Q8=1,25,IF(Q8=2,18,IF(Q8=3,15,IF(Q8=4,12,IF(Q8=5,10,IF(Q8=6,8,IF(Q8=7,6,IF(Q8=8,4,IF(Q8=9,2,IF(Q8=10,1,0))))))))))</f>
@@ -1923,75 +1932,80 @@
       <c r="AE9" s="19"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="45">
-        <v>55</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="45">
+      <c r="A10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="21">
+        <v>63</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="21">
+        <v>7</v>
+      </c>
+      <c r="G10" s="21">
         <v>4</v>
       </c>
-      <c r="G10" s="45">
+      <c r="H10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="21">
+        <v>8</v>
+      </c>
+      <c r="J10" s="21">
+        <v>4</v>
+      </c>
+      <c r="K10" s="21">
+        <v>5</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="21">
+        <v>7</v>
+      </c>
+      <c r="O10" s="21">
+        <v>5</v>
+      </c>
+      <c r="P10" s="21">
         <v>6</v>
       </c>
-      <c r="H10" s="45">
-        <v>12</v>
-      </c>
-      <c r="I10" s="45">
-        <v>5</v>
-      </c>
-      <c r="J10" s="45">
-        <v>5</v>
-      </c>
-      <c r="K10" s="45">
-        <v>8</v>
-      </c>
-      <c r="L10" s="45">
-        <v>5</v>
-      </c>
-      <c r="M10" s="45">
-        <v>5</v>
-      </c>
-      <c r="N10" s="45">
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="21">
+        <f>5+1</f>
         <v>6</v>
       </c>
-      <c r="O10" s="45">
-        <v>10</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45">
-        <f>4+6</f>
-        <v>10</v>
-      </c>
-      <c r="AD10" s="45">
+      <c r="AD10" s="21">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
+        <v>90</v>
+      </c>
+      <c r="AE10" s="21">
+        <f>SUM(F11:AA11)</f>
         <v>83</v>
-      </c>
-      <c r="AE10" s="45">
-        <f>SUM(F11:AA11)</f>
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2002,11 +2016,11 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G11" s="19">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H11" s="19">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
@@ -2014,35 +2028,35 @@
       </c>
       <c r="I11" s="19">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J11" s="19">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11" s="19">
         <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L11" s="19">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M11" s="19">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N11" s="19">
         <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O11" s="19">
         <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P11" s="19">
         <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="19">
         <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))</f>
@@ -2094,78 +2108,77 @@
       <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="21">
-        <v>63</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="21">
-        <v>7</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="A12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="45">
+        <v>55</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="45">
         <v>4</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="G12" s="45">
+        <v>6</v>
+      </c>
+      <c r="H12" s="45">
+        <v>12</v>
+      </c>
+      <c r="I12" s="45">
+        <v>5</v>
+      </c>
+      <c r="J12" s="45">
+        <v>5</v>
+      </c>
+      <c r="K12" s="45">
         <v>8</v>
       </c>
-      <c r="J12" s="21">
-        <v>4</v>
-      </c>
-      <c r="K12" s="21">
+      <c r="L12" s="45">
         <v>5</v>
       </c>
-      <c r="L12" s="21">
-        <v>3</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="21">
-        <v>7</v>
-      </c>
-      <c r="O12" s="21">
+      <c r="M12" s="45">
         <v>5</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AC12" s="21">
-        <f>5+1</f>
+      <c r="N12" s="45">
         <v>6</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="O12" s="45">
+        <v>10</v>
+      </c>
+      <c r="P12" s="45">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45">
+        <f>4+6</f>
+        <v>10</v>
+      </c>
+      <c r="AD12" s="45">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>82</v>
-      </c>
-      <c r="AE12" s="21">
+        <v>87</v>
+      </c>
+      <c r="AE12" s="45">
         <f>SUM(F13:AA13)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2176,11 +2189,11 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G13" s="19">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
@@ -2188,35 +2201,35 @@
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))</f>
@@ -2313,7 +2326,9 @@
       <c r="O14" s="20">
         <v>9</v>
       </c>
-      <c r="P14" s="20"/>
+      <c r="P14" s="20">
+        <v>7</v>
+      </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
@@ -2332,11 +2347,11 @@
       </c>
       <c r="AD14" s="20">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AE14" s="20">
         <f>SUM(F15:AA15)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2387,7 +2402,7 @@
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))</f>
@@ -2439,75 +2454,74 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="26">
-        <v>18</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="A16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="46">
+        <v>4</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="46">
+        <v>17</v>
+      </c>
+      <c r="G16" s="46">
+        <v>17</v>
+      </c>
+      <c r="H16" s="46">
         <v>6</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="I16" s="46">
+        <v>9</v>
+      </c>
+      <c r="J16" s="46">
+        <v>17</v>
+      </c>
+      <c r="K16" s="46">
+        <v>9</v>
+      </c>
+      <c r="L16" s="46">
+        <v>17</v>
+      </c>
+      <c r="M16" s="46">
+        <v>13</v>
+      </c>
+      <c r="N16" s="46">
         <v>4</v>
       </c>
-      <c r="I16" s="26">
-        <v>7</v>
-      </c>
-      <c r="J16" s="26">
-        <v>12</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="26">
-        <v>6</v>
-      </c>
-      <c r="M16" s="26">
-        <v>9</v>
-      </c>
-      <c r="N16" s="26">
-        <v>9</v>
-      </c>
-      <c r="O16" s="26">
-        <v>14</v>
-      </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26">
-        <f>1+5</f>
-        <v>6</v>
-      </c>
-      <c r="AD16" s="26">
+      <c r="O16" s="46">
+        <v>2</v>
+      </c>
+      <c r="P16" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>44</v>
-      </c>
-      <c r="AE16" s="26">
+        <v>60</v>
+      </c>
+      <c r="AE16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2518,7 +2532,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19">
         <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G17" s="19">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
@@ -2526,11 +2540,11 @@
       </c>
       <c r="H17" s="19">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17" s="19">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J17" s="19">
         <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
@@ -2538,27 +2552,27 @@
       </c>
       <c r="K17" s="19">
         <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="19">
         <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M17" s="19">
         <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="19">
         <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O17" s="19">
         <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P17" s="19">
         <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="19">
         <f>IF(Q16=1,25,IF(Q16=2,18,IF(Q16=3,15,IF(Q16=4,12,IF(Q16=5,10,IF(Q16=6,8,IF(Q16=7,6,IF(Q16=8,4,IF(Q16=9,2,IF(Q16=10,1,0))))))))))</f>
@@ -2610,72 +2624,77 @@
       <c r="AE17" s="19"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="46">
+      <c r="A18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="26">
+        <v>18</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="26">
+        <v>6</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="26">
         <v>4</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="46">
-        <v>17</v>
-      </c>
-      <c r="G18" s="46">
-        <v>17</v>
-      </c>
-      <c r="H18" s="46">
+      <c r="I18" s="26">
+        <v>7</v>
+      </c>
+      <c r="J18" s="26">
+        <v>12</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="26">
         <v>6</v>
       </c>
-      <c r="I18" s="46">
+      <c r="M18" s="26">
         <v>9</v>
       </c>
-      <c r="J18" s="46">
-        <v>17</v>
-      </c>
-      <c r="K18" s="46">
+      <c r="N18" s="26">
         <v>9</v>
       </c>
-      <c r="L18" s="46">
-        <v>17</v>
-      </c>
-      <c r="M18" s="46">
-        <v>13</v>
-      </c>
-      <c r="N18" s="46">
-        <v>4</v>
-      </c>
-      <c r="O18" s="46">
-        <v>2</v>
-      </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46">
+      <c r="O18" s="26">
+        <v>14</v>
+      </c>
+      <c r="P18" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26">
+        <f>1+5</f>
+        <v>6</v>
+      </c>
+      <c r="AD18" s="26">
         <f>SUM(F19:AA19)+SUM(AB18,AC18)</f>
-        <v>42</v>
-      </c>
-      <c r="AE18" s="46">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="26">
         <f>SUM(F19:AA19)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2686,7 +2705,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G19" s="19">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
@@ -2694,11 +2713,11 @@
       </c>
       <c r="H19" s="19">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I19" s="19">
         <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J19" s="19">
         <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
@@ -2706,27 +2725,27 @@
       </c>
       <c r="K19" s="19">
         <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="19">
         <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M19" s="19">
         <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="19">
         <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O19" s="19">
         <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P19" s="19">
         <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="19">
         <f>IF(Q18=1,25,IF(Q18=2,18,IF(Q18=3,15,IF(Q18=4,12,IF(Q18=5,10,IF(Q18=6,8,IF(Q18=7,6,IF(Q18=8,4,IF(Q18=9,2,IF(Q18=10,1,0))))))))))</f>
@@ -2823,7 +2842,9 @@
       <c r="O20" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="23"/>
+      <c r="P20" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
@@ -2994,7 +3015,9 @@
       <c r="O22" s="22">
         <v>4</v>
       </c>
-      <c r="P22" s="22"/>
+      <c r="P22" s="22">
+        <v>5</v>
+      </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
@@ -3010,11 +3033,11 @@
       <c r="AC22" s="22"/>
       <c r="AD22" s="22">
         <f>SUM(F23:AA23)+SUM(AB22,AC22)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE22" s="22">
         <f>SUM(F23:AA23)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3065,7 +3088,7 @@
       </c>
       <c r="P23" s="19">
         <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="19">
         <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
@@ -3162,7 +3185,9 @@
       <c r="O24" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="47"/>
+      <c r="P24" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="Q24" s="47"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
@@ -3330,7 +3355,9 @@
       <c r="O26" s="27">
         <v>8</v>
       </c>
-      <c r="P26" s="27"/>
+      <c r="P26" s="27">
+        <v>11</v>
+      </c>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
@@ -3498,7 +3525,9 @@
       <c r="O28" s="48">
         <v>13</v>
       </c>
-      <c r="P28" s="48"/>
+      <c r="P28" s="48">
+        <v>14</v>
+      </c>
       <c r="Q28" s="48"/>
       <c r="R28" s="48"/>
       <c r="S28" s="48"/>
@@ -3669,7 +3698,9 @@
       <c r="O30" s="24">
         <v>12</v>
       </c>
-      <c r="P30" s="24"/>
+      <c r="P30" s="24">
+        <v>12</v>
+      </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
@@ -3837,7 +3868,9 @@
       <c r="O32" s="49">
         <v>15</v>
       </c>
-      <c r="P32" s="49"/>
+      <c r="P32" s="49">
+        <v>16</v>
+      </c>
       <c r="Q32" s="49"/>
       <c r="R32" s="49"/>
       <c r="S32" s="49"/>
@@ -4005,7 +4038,9 @@
       <c r="O34" s="42">
         <v>16</v>
       </c>
-      <c r="P34" s="42"/>
+      <c r="P34" s="42">
+        <v>15</v>
+      </c>
       <c r="Q34" s="42"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
@@ -4173,7 +4208,9 @@
       <c r="O36" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="P36" s="25"/>
+      <c r="P36" s="25">
+        <v>17</v>
+      </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
@@ -4341,7 +4378,9 @@
       <c r="O38" s="50">
         <v>11</v>
       </c>
-      <c r="P38" s="50"/>
+      <c r="P38" s="50">
+        <v>18</v>
+      </c>
       <c r="Q38" s="50"/>
       <c r="R38" s="50"/>
       <c r="S38" s="50"/>
@@ -4657,7 +4696,9 @@
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
       <c r="O42" s="52"/>
-      <c r="P42" s="18"/>
+      <c r="P42" s="18">
+        <v>13</v>
+      </c>
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
       <c r="S42" s="28"/>
@@ -4687,7 +4728,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19">
-        <f t="shared" ref="F43:AA43" si="0">IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
+        <f t="shared" ref="F43:Y43" si="0">IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="19">
@@ -4767,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="19">
-        <f t="shared" ref="Z41:AA43" si="1">IF(Z42=1,25,IF(Z42=2,18,IF(Z42=3,15,IF(Z42=4,12,IF(Z42=5,10,IF(Z42=6,8,IF(Z42=7,6,IF(Z42=8,4,IF(Z42=9,2,IF(Z42=10,1,0))))))))))</f>
+        <f t="shared" ref="Z43:AA43" si="1">IF(Z42=1,25,IF(Z42=2,18,IF(Z42=3,15,IF(Z42=4,12,IF(Z42=5,10,IF(Z42=6,8,IF(Z42=7,6,IF(Z42=8,4,IF(Z42=9,2,IF(Z42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA43" s="19">
@@ -4839,9 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4858,7 +4897,8 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -5004,7 +5044,9 @@
       <c r="O2" s="18">
         <v>1</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="18">
+        <v>1</v>
+      </c>
       <c r="Q2" s="18"/>
       <c r="R2" s="28"/>
       <c r="S2" s="18"/>
@@ -5018,7 +5060,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5028,91 +5070,91 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:AA3" si="0">IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
+        <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="M3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="N3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="O3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="P3" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
+        <v>10</v>
       </c>
       <c r="Q3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="19"/>
@@ -5163,7 +5205,9 @@
       <c r="O4" s="32">
         <v>6</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="42">
+        <v>3</v>
+      </c>
       <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
@@ -5177,7 +5221,7 @@
       <c r="AA4" s="42"/>
       <c r="AB4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5187,91 +5231,91 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19">
-        <f t="shared" ref="F5:AA5" si="1">IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
+        <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="G5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="I5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="J5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="K5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="M5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="N5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="O5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="P5" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
+        <v>6</v>
       </c>
       <c r="Q5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB5" s="19"/>
@@ -5322,7 +5366,9 @@
       <c r="O6" s="30">
         <v>7</v>
       </c>
-      <c r="P6" s="43"/>
+      <c r="P6" s="43">
+        <v>9</v>
+      </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>
@@ -5346,91 +5392,91 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19">
-        <f t="shared" ref="F7:AA7" si="2">IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
+        <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="G7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="I7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="J7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="K7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="L7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="M7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="N7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="O7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="P7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(Q6=1,10,IF(Q6=2,8,IF(Q6=3,6,IF(Q6=4,5,IF(Q6=5,4,IF(Q6=6,3,IF(Q6=7,2,IF(Q6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="19"/>
@@ -5481,7 +5527,9 @@
       <c r="O8" s="44">
         <v>3</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="44">
+        <v>4</v>
+      </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="37"/>
       <c r="S8" s="44"/>
@@ -5495,7 +5543,7 @@
       <c r="AA8" s="44"/>
       <c r="AB8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5505,91 +5553,91 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19">
-        <f t="shared" ref="F9:AA9" si="3">IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
+        <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="G9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="J9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="K9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="M9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="N9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="O9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="P9" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
+        <v>5</v>
       </c>
       <c r="Q9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(Q8=1,10,IF(Q8=2,8,IF(Q8=3,6,IF(Q8=4,5,IF(Q8=5,4,IF(Q8=6,3,IF(Q8=7,2,IF(Q8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="19"/>
@@ -5640,7 +5688,9 @@
       <c r="O10" s="21">
         <v>5</v>
       </c>
-      <c r="P10" s="21"/>
+      <c r="P10" s="21">
+        <v>6</v>
+      </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
@@ -5654,7 +5704,7 @@
       <c r="AA10" s="21"/>
       <c r="AB10" s="21">
         <f>SUM(F11:AA11)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5664,91 +5714,91 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19">
-        <f t="shared" ref="F11:AA11" si="4">IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
+        <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="J11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="K11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="L11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="M11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="O11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="P11" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
+        <v>3</v>
       </c>
       <c r="Q11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="19"/>
@@ -5799,7 +5849,9 @@
       <c r="O12" s="45">
         <v>10</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="45">
+        <v>8</v>
+      </c>
       <c r="Q12" s="45"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
@@ -5813,7 +5865,7 @@
       <c r="AA12" s="45"/>
       <c r="AB12" s="45">
         <f>SUM(F13:AA13)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5823,91 +5875,91 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19">
-        <f t="shared" ref="F13:AA13" si="5">IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
+        <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="K13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="M13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="N13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="O13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P13" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
+        <v>1</v>
       </c>
       <c r="Q13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(Y12=1,10,IF(Y12=2,8,IF(Y12=3,6,IF(Y12=4,5,IF(Y12=5,4,IF(Y12=6,3,IF(Y12=7,2,IF(Y12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(Z12=1,10,IF(Z12=2,8,IF(Z12=3,6,IF(Z12=4,5,IF(Z12=5,4,IF(Z12=6,3,IF(Z12=7,2,IF(Z12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="19"/>
@@ -5958,7 +6010,9 @@
       <c r="O14" s="20">
         <v>9</v>
       </c>
-      <c r="P14" s="20"/>
+      <c r="P14" s="20">
+        <v>7</v>
+      </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
@@ -5972,7 +6026,7 @@
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
         <f>SUM(F15:AA15)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -5982,91 +6036,91 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19">
-        <f t="shared" ref="F15:AA15" si="6">IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
+        <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="K15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="N15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
+        <v>2</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB15" s="19"/>
@@ -6117,7 +6171,9 @@
       <c r="O16" s="36">
         <v>2</v>
       </c>
-      <c r="P16" s="46"/>
+      <c r="P16" s="46">
+        <v>2</v>
+      </c>
       <c r="Q16" s="46"/>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
@@ -6131,7 +6187,7 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6141,91 +6197,91 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19">
-        <f t="shared" ref="F17:AA17" si="7">IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
+        <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="I17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
+        <v>8</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(Y16=1,10,IF(Y16=2,8,IF(Y16=3,6,IF(Y16=4,5,IF(Y16=5,4,IF(Y16=6,3,IF(Y16=7,2,IF(Y16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="19"/>
@@ -6276,7 +6332,9 @@
       <c r="O18" s="26">
         <v>14</v>
       </c>
-      <c r="P18" s="26"/>
+      <c r="P18" s="26">
+        <v>10</v>
+      </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
@@ -6300,156 +6358,158 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19">
-        <f t="shared" ref="F19:AA19" si="8">IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
+        <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="M19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(Q18=1,10,IF(Q18=2,8,IF(Q18=3,6,IF(Q18=4,5,IF(Q18=5,4,IF(Q18=6,3,IF(Q18=7,2,IF(Q18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="19"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="23">
-        <v>31</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="A20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="22">
+        <v>81</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="41">
+        <v>15</v>
+      </c>
+      <c r="H20" s="22">
         <v>8</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="23">
-        <v>15</v>
-      </c>
-      <c r="J20" s="23">
-        <v>9</v>
-      </c>
-      <c r="K20" s="23">
-        <v>3</v>
-      </c>
-      <c r="L20" s="23">
-        <v>8</v>
-      </c>
-      <c r="M20" s="23">
-        <v>8</v>
-      </c>
-      <c r="N20" s="23">
-        <v>14</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23">
+      <c r="I20" s="22">
+        <v>11</v>
+      </c>
+      <c r="J20" s="22">
+        <v>19</v>
+      </c>
+      <c r="K20" s="22">
+        <v>10</v>
+      </c>
+      <c r="L20" s="22">
+        <v>13</v>
+      </c>
+      <c r="M20" s="22">
+        <v>11</v>
+      </c>
+      <c r="N20" s="22">
+        <v>16</v>
+      </c>
+      <c r="O20" s="22">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22">
         <f>SUM(F21:AA21)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -6459,156 +6519,158 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19">
-        <f t="shared" ref="F21:AA21" si="9">IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
+        <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
         <v>1</v>
       </c>
-      <c r="H21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f>IF(K20=1,10,IF(K20=2,8,IF(K20=3,6,IF(K20=4,5,IF(K20=5,4,IF(K20=6,3,IF(K20=7,2,IF(K20=8,1,0))))))))</f>
+        <v>0</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
+        <v>0</v>
       </c>
       <c r="M21" s="19">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
+        <v>0</v>
       </c>
       <c r="N21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
+        <v>5</v>
       </c>
       <c r="P21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(P20=1,10,IF(P20=2,8,IF(P20=3,6,IF(P20=4,5,IF(P20=5,4,IF(P20=6,3,IF(P20=7,2,IF(P20=8,1,0))))))))</f>
+        <v>4</v>
       </c>
       <c r="Q21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(Q20=1,10,IF(Q20=2,8,IF(Q20=3,6,IF(Q20=4,5,IF(Q20=5,4,IF(Q20=6,3,IF(Q20=7,2,IF(Q20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(S20=1,10,IF(S20=2,8,IF(S20=3,6,IF(S20=4,5,IF(S20=5,4,IF(S20=6,3,IF(S20=7,2,IF(S20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB21" s="19"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="22">
-        <v>81</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="A22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="23">
+        <v>31</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="23">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="23">
         <v>15</v>
       </c>
-      <c r="H22" s="22">
+      <c r="J22" s="23">
+        <v>9</v>
+      </c>
+      <c r="K22" s="23">
+        <v>3</v>
+      </c>
+      <c r="L22" s="23">
         <v>8</v>
       </c>
-      <c r="I22" s="22">
-        <v>11</v>
-      </c>
-      <c r="J22" s="22">
-        <v>19</v>
-      </c>
-      <c r="K22" s="22">
-        <v>10</v>
-      </c>
-      <c r="L22" s="22">
-        <v>13</v>
-      </c>
-      <c r="M22" s="22">
-        <v>11</v>
-      </c>
-      <c r="N22" s="22">
-        <v>16</v>
-      </c>
-      <c r="O22" s="22">
-        <v>4</v>
-      </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22">
+      <c r="M22" s="23">
+        <v>8</v>
+      </c>
+      <c r="N22" s="23">
+        <v>14</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23">
         <f>SUM(F23:AA23)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -6618,91 +6680,91 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19">
-        <f t="shared" ref="F23:AA23" si="10">IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
+        <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
+        <v>1</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <f>IF(K22=1,10,IF(K22=2,8,IF(K22=3,6,IF(K22=4,5,IF(K22=5,4,IF(K22=6,3,IF(K22=7,2,IF(K22=8,1,0))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="L23" s="19">
+        <f>IF(L22=1,10,IF(L22=2,8,IF(L22=3,6,IF(L22=4,5,IF(L22=5,4,IF(L22=6,3,IF(L22=7,2,IF(L22=8,1,0))))))))</f>
         <v>1</v>
       </c>
-      <c r="I23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="M23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
+        <v>1</v>
       </c>
       <c r="N23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f>IF(O22=1,10,IF(O22=2,8,IF(O22=3,6,IF(O22=4,5,IF(O22=5,4,IF(O22=6,3,IF(O22=7,2,IF(O22=8,1,0))))))))</f>
+        <v>0</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(P22=1,10,IF(P22=2,8,IF(P22=3,6,IF(P22=4,5,IF(P22=5,4,IF(P22=6,3,IF(P22=7,2,IF(P22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(Q22=1,10,IF(Q22=2,8,IF(Q22=3,6,IF(Q22=4,5,IF(Q22=5,4,IF(Q22=6,3,IF(Q22=7,2,IF(Q22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(S22=1,10,IF(S22=2,8,IF(S22=3,6,IF(S22=4,5,IF(S22=5,4,IF(S22=6,3,IF(S22=7,2,IF(S22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(T22=1,10,IF(T22=2,8,IF(T22=3,6,IF(T22=4,5,IF(T22=5,4,IF(T22=6,3,IF(T22=7,2,IF(T22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB23" s="19"/>
@@ -6753,7 +6815,9 @@
       <c r="O24" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="P24" s="47"/>
+      <c r="P24" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="Q24" s="47"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
@@ -6777,91 +6841,91 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19">
-        <f t="shared" ref="F25:AA25" si="11">IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
+        <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(K24=1,10,IF(K24=2,8,IF(K24=3,6,IF(K24=4,5,IF(K24=5,4,IF(K24=6,3,IF(K24=7,2,IF(K24=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="L25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(L24=1,10,IF(L24=2,8,IF(L24=3,6,IF(L24=4,5,IF(L24=5,4,IF(L24=6,3,IF(L24=7,2,IF(L24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(O24=1,10,IF(O24=2,8,IF(O24=3,6,IF(O24=4,5,IF(O24=5,4,IF(O24=6,3,IF(O24=7,2,IF(O24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(Q24=1,10,IF(Q24=2,8,IF(Q24=3,6,IF(Q24=4,5,IF(Q24=5,4,IF(Q24=6,3,IF(Q24=7,2,IF(Q24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(S24=1,10,IF(S24=2,8,IF(S24=3,6,IF(S24=4,5,IF(S24=5,4,IF(S24=6,3,IF(S24=7,2,IF(S24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(T24=1,10,IF(T24=2,8,IF(T24=3,6,IF(T24=4,5,IF(T24=5,4,IF(T24=6,3,IF(T24=7,2,IF(T24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(Z24=1,10,IF(Z24=2,8,IF(Z24=3,6,IF(Z24=4,5,IF(Z24=5,4,IF(Z24=6,3,IF(Z24=7,2,IF(Z24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB25" s="19"/>
@@ -6912,7 +6976,9 @@
       <c r="O26" s="27">
         <v>8</v>
       </c>
-      <c r="P26" s="27"/>
+      <c r="P26" s="27">
+        <v>11</v>
+      </c>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
@@ -6936,91 +7002,91 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19">
-        <f t="shared" ref="F27:AA27" si="12">IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
+        <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(J26=1,10,IF(J26=2,8,IF(J26=3,6,IF(J26=4,5,IF(J26=5,4,IF(J26=6,3,IF(J26=7,2,IF(J26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(K26=1,10,IF(K26=2,8,IF(K26=3,6,IF(K26=4,5,IF(K26=5,4,IF(K26=6,3,IF(K26=7,2,IF(K26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="N27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(O26=1,10,IF(O26=2,8,IF(O26=3,6,IF(O26=4,5,IF(O26=5,4,IF(O26=6,3,IF(O26=7,2,IF(O26=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="P27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(Q26=1,10,IF(Q26=2,8,IF(Q26=3,6,IF(Q26=4,5,IF(Q26=5,4,IF(Q26=6,3,IF(Q26=7,2,IF(Q26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(S26=1,10,IF(S26=2,8,IF(S26=3,6,IF(S26=4,5,IF(S26=5,4,IF(S26=6,3,IF(S26=7,2,IF(S26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="19"/>
@@ -7071,7 +7137,9 @@
       <c r="O28" s="48">
         <v>13</v>
       </c>
-      <c r="P28" s="48"/>
+      <c r="P28" s="48">
+        <v>14</v>
+      </c>
       <c r="Q28" s="48"/>
       <c r="R28" s="48"/>
       <c r="S28" s="35"/>
@@ -7095,91 +7163,91 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19">
-        <f t="shared" ref="F29:AA29" si="13">IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
+        <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(L28=1,10,IF(L28=2,8,IF(L28=3,6,IF(L28=4,5,IF(L28=5,4,IF(L28=6,3,IF(L28=7,2,IF(L28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(O28=1,10,IF(O28=2,8,IF(O28=3,6,IF(O28=4,5,IF(O28=5,4,IF(O28=6,3,IF(O28=7,2,IF(O28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(Q28=1,10,IF(Q28=2,8,IF(Q28=3,6,IF(Q28=4,5,IF(Q28=5,4,IF(Q28=6,3,IF(Q28=7,2,IF(Q28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(S28=1,10,IF(S28=2,8,IF(S28=3,6,IF(S28=4,5,IF(S28=5,4,IF(S28=6,3,IF(S28=7,2,IF(S28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(T28=1,10,IF(T28=2,8,IF(T28=3,6,IF(T28=4,5,IF(T28=5,4,IF(T28=6,3,IF(T28=7,2,IF(T28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(Y28=1,10,IF(Y28=2,8,IF(Y28=3,6,IF(Y28=4,5,IF(Y28=5,4,IF(Y28=6,3,IF(Y28=7,2,IF(Y28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(Z28=1,10,IF(Z28=2,8,IF(Z28=3,6,IF(Z28=4,5,IF(Z28=5,4,IF(Z28=6,3,IF(Z28=7,2,IF(Z28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="19"/>
@@ -7230,7 +7298,9 @@
       <c r="O30" s="24">
         <v>12</v>
       </c>
-      <c r="P30" s="24"/>
+      <c r="P30" s="24">
+        <v>12</v>
+      </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
@@ -7254,91 +7324,91 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19">
-        <f t="shared" ref="F31:AA31" si="14">IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
+        <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="G31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(K30=1,10,IF(K30=2,8,IF(K30=3,6,IF(K30=4,5,IF(K30=5,4,IF(K30=6,3,IF(K30=7,2,IF(K30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(L30=1,10,IF(L30=2,8,IF(L30=3,6,IF(L30=4,5,IF(L30=5,4,IF(L30=6,3,IF(L30=7,2,IF(L30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(M30=1,10,IF(M30=2,8,IF(M30=3,6,IF(M30=4,5,IF(M30=5,4,IF(M30=6,3,IF(M30=7,2,IF(M30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(N30=1,10,IF(N30=2,8,IF(N30=3,6,IF(N30=4,5,IF(N30=5,4,IF(N30=6,3,IF(N30=7,2,IF(N30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(Q30=1,10,IF(Q30=2,8,IF(Q30=3,6,IF(Q30=4,5,IF(Q30=5,4,IF(Q30=6,3,IF(Q30=7,2,IF(Q30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(S30=1,10,IF(S30=2,8,IF(S30=3,6,IF(S30=4,5,IF(S30=5,4,IF(S30=6,3,IF(S30=7,2,IF(S30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(T30=1,10,IF(T30=2,8,IF(T30=3,6,IF(T30=4,5,IF(T30=5,4,IF(T30=6,3,IF(T30=7,2,IF(T30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(Y30=1,10,IF(Y30=2,8,IF(Y30=3,6,IF(Y30=4,5,IF(Y30=5,4,IF(Y30=6,3,IF(Y30=7,2,IF(Y30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(Z30=1,10,IF(Z30=2,8,IF(Z30=3,6,IF(Z30=4,5,IF(Z30=5,4,IF(Z30=6,3,IF(Z30=7,2,IF(Z30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB31" s="19"/>
@@ -7389,7 +7459,9 @@
       <c r="O32" s="50">
         <v>11</v>
       </c>
-      <c r="P32" s="50"/>
+      <c r="P32" s="50">
+        <v>18</v>
+      </c>
       <c r="Q32" s="50"/>
       <c r="R32" s="50"/>
       <c r="S32" s="50"/>
@@ -7413,91 +7485,91 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19">
-        <f t="shared" ref="F33:AA33" si="15">IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
+        <f>IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(G32=1,10,IF(G32=2,8,IF(G32=3,6,IF(G32=4,5,IF(G32=5,4,IF(G32=6,3,IF(G32=7,2,IF(G32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(H32=1,10,IF(H32=2,8,IF(H32=3,6,IF(H32=4,5,IF(H32=5,4,IF(H32=6,3,IF(H32=7,2,IF(H32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(I32=1,10,IF(I32=2,8,IF(I32=3,6,IF(I32=4,5,IF(I32=5,4,IF(I32=6,3,IF(I32=7,2,IF(I32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(J32=1,10,IF(J32=2,8,IF(J32=3,6,IF(J32=4,5,IF(J32=5,4,IF(J32=6,3,IF(J32=7,2,IF(J32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(K32=1,10,IF(K32=2,8,IF(K32=3,6,IF(K32=4,5,IF(K32=5,4,IF(K32=6,3,IF(K32=7,2,IF(K32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(L32=1,10,IF(L32=2,8,IF(L32=3,6,IF(L32=4,5,IF(L32=5,4,IF(L32=6,3,IF(L32=7,2,IF(L32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(M32=1,10,IF(M32=2,8,IF(M32=3,6,IF(M32=4,5,IF(M32=5,4,IF(M32=6,3,IF(M32=7,2,IF(M32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(N32=1,10,IF(N32=2,8,IF(N32=3,6,IF(N32=4,5,IF(N32=5,4,IF(N32=6,3,IF(N32=7,2,IF(N32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(O32=1,10,IF(O32=2,8,IF(O32=3,6,IF(O32=4,5,IF(O32=5,4,IF(O32=6,3,IF(O32=7,2,IF(O32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(P32=1,10,IF(P32=2,8,IF(P32=3,6,IF(P32=4,5,IF(P32=5,4,IF(P32=6,3,IF(P32=7,2,IF(P32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(Q32=1,10,IF(Q32=2,8,IF(Q32=3,6,IF(Q32=4,5,IF(Q32=5,4,IF(Q32=6,3,IF(Q32=7,2,IF(Q32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(S32=1,10,IF(S32=2,8,IF(S32=3,6,IF(S32=4,5,IF(S32=5,4,IF(S32=6,3,IF(S32=7,2,IF(S32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(T32=1,10,IF(T32=2,8,IF(T32=3,6,IF(T32=4,5,IF(T32=5,4,IF(T32=6,3,IF(T32=7,2,IF(T32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(Y32=1,10,IF(Y32=2,8,IF(Y32=3,6,IF(Y32=4,5,IF(Y32=5,4,IF(Y32=6,3,IF(Y32=7,2,IF(Y32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(Z32=1,10,IF(Z32=2,8,IF(Z32=3,6,IF(Z32=4,5,IF(Z32=5,4,IF(Z32=6,3,IF(Z32=7,2,IF(Z32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB33" s="19"/>
@@ -7548,7 +7620,9 @@
       <c r="O34" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="P34" s="25"/>
+      <c r="P34" s="25">
+        <v>17</v>
+      </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -7572,91 +7646,91 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19">
-        <f t="shared" ref="F35:AA35" si="16">IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
+        <f>IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(G34=1,10,IF(G34=2,8,IF(G34=3,6,IF(G34=4,5,IF(G34=5,4,IF(G34=6,3,IF(G34=7,2,IF(G34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(H34=1,10,IF(H34=2,8,IF(H34=3,6,IF(H34=4,5,IF(H34=5,4,IF(H34=6,3,IF(H34=7,2,IF(H34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(I34=1,10,IF(I34=2,8,IF(I34=3,6,IF(I34=4,5,IF(I34=5,4,IF(I34=6,3,IF(I34=7,2,IF(I34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(J34=1,10,IF(J34=2,8,IF(J34=3,6,IF(J34=4,5,IF(J34=5,4,IF(J34=6,3,IF(J34=7,2,IF(J34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(K34=1,10,IF(K34=2,8,IF(K34=3,6,IF(K34=4,5,IF(K34=5,4,IF(K34=6,3,IF(K34=7,2,IF(K34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(L34=1,10,IF(L34=2,8,IF(L34=3,6,IF(L34=4,5,IF(L34=5,4,IF(L34=6,3,IF(L34=7,2,IF(L34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(M34=1,10,IF(M34=2,8,IF(M34=3,6,IF(M34=4,5,IF(M34=5,4,IF(M34=6,3,IF(M34=7,2,IF(M34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(P34=1,10,IF(P34=2,8,IF(P34=3,6,IF(P34=4,5,IF(P34=5,4,IF(P34=6,3,IF(P34=7,2,IF(P34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(Q34=1,10,IF(Q34=2,8,IF(Q34=3,6,IF(Q34=4,5,IF(Q34=5,4,IF(Q34=6,3,IF(Q34=7,2,IF(Q34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(S34=1,10,IF(S34=2,8,IF(S34=3,6,IF(S34=4,5,IF(S34=5,4,IF(S34=6,3,IF(S34=7,2,IF(S34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(Y34=1,10,IF(Y34=2,8,IF(Y34=3,6,IF(Y34=4,5,IF(Y34=5,4,IF(Y34=6,3,IF(Y34=7,2,IF(Y34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(Z34=1,10,IF(Z34=2,8,IF(Z34=3,6,IF(Z34=4,5,IF(Z34=5,4,IF(Z34=6,3,IF(Z34=7,2,IF(Z34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB35" s="19"/>
@@ -7707,7 +7781,9 @@
       <c r="O36" s="42">
         <v>16</v>
       </c>
-      <c r="P36" s="42"/>
+      <c r="P36" s="42">
+        <v>15</v>
+      </c>
       <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
       <c r="S36" s="42"/>
@@ -7731,91 +7807,91 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19">
-        <f t="shared" ref="F37:AA37" si="17">IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
+        <f>IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(G36=1,10,IF(G36=2,8,IF(G36=3,6,IF(G36=4,5,IF(G36=5,4,IF(G36=6,3,IF(G36=7,2,IF(G36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(H36=1,10,IF(H36=2,8,IF(H36=3,6,IF(H36=4,5,IF(H36=5,4,IF(H36=6,3,IF(H36=7,2,IF(H36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(I36=1,10,IF(I36=2,8,IF(I36=3,6,IF(I36=4,5,IF(I36=5,4,IF(I36=6,3,IF(I36=7,2,IF(I36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(J36=1,10,IF(J36=2,8,IF(J36=3,6,IF(J36=4,5,IF(J36=5,4,IF(J36=6,3,IF(J36=7,2,IF(J36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(K36=1,10,IF(K36=2,8,IF(K36=3,6,IF(K36=4,5,IF(K36=5,4,IF(K36=6,3,IF(K36=7,2,IF(K36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(L36=1,10,IF(L36=2,8,IF(L36=3,6,IF(L36=4,5,IF(L36=5,4,IF(L36=6,3,IF(L36=7,2,IF(L36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(M36=1,10,IF(M36=2,8,IF(M36=3,6,IF(M36=4,5,IF(M36=5,4,IF(M36=6,3,IF(M36=7,2,IF(M36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(N36=1,10,IF(N36=2,8,IF(N36=3,6,IF(N36=4,5,IF(N36=5,4,IF(N36=6,3,IF(N36=7,2,IF(N36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(O36=1,10,IF(O36=2,8,IF(O36=3,6,IF(O36=4,5,IF(O36=5,4,IF(O36=6,3,IF(O36=7,2,IF(O36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(P36=1,10,IF(P36=2,8,IF(P36=3,6,IF(P36=4,5,IF(P36=5,4,IF(P36=6,3,IF(P36=7,2,IF(P36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(Q36=1,10,IF(Q36=2,8,IF(Q36=3,6,IF(Q36=4,5,IF(Q36=5,4,IF(Q36=6,3,IF(Q36=7,2,IF(Q36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(S36=1,10,IF(S36=2,8,IF(S36=3,6,IF(S36=4,5,IF(S36=5,4,IF(S36=6,3,IF(S36=7,2,IF(S36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(T36=1,10,IF(T36=2,8,IF(T36=3,6,IF(T36=4,5,IF(T36=5,4,IF(T36=6,3,IF(T36=7,2,IF(T36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(Y36=1,10,IF(Y36=2,8,IF(Y36=3,6,IF(Y36=4,5,IF(Y36=5,4,IF(Y36=6,3,IF(Y36=7,2,IF(Y36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(Z36=1,10,IF(Z36=2,8,IF(Z36=3,6,IF(Z36=4,5,IF(Z36=5,4,IF(Z36=6,3,IF(Z36=7,2,IF(Z36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB37" s="19"/>
@@ -7866,7 +7942,9 @@
       <c r="O38" s="49">
         <v>15</v>
       </c>
-      <c r="P38" s="49"/>
+      <c r="P38" s="49">
+        <v>16</v>
+      </c>
       <c r="Q38" s="49"/>
       <c r="R38" s="49"/>
       <c r="S38" s="49"/>
@@ -7890,91 +7968,91 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19">
-        <f t="shared" ref="F39:AA39" si="18">IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
+        <f>IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(G38=1,10,IF(G38=2,8,IF(G38=3,6,IF(G38=4,5,IF(G38=5,4,IF(G38=6,3,IF(G38=7,2,IF(G38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(H38=1,10,IF(H38=2,8,IF(H38=3,6,IF(H38=4,5,IF(H38=5,4,IF(H38=6,3,IF(H38=7,2,IF(H38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(I38=1,10,IF(I38=2,8,IF(I38=3,6,IF(I38=4,5,IF(I38=5,4,IF(I38=6,3,IF(I38=7,2,IF(I38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(J38=1,10,IF(J38=2,8,IF(J38=3,6,IF(J38=4,5,IF(J38=5,4,IF(J38=6,3,IF(J38=7,2,IF(J38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(K38=1,10,IF(K38=2,8,IF(K38=3,6,IF(K38=4,5,IF(K38=5,4,IF(K38=6,3,IF(K38=7,2,IF(K38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(L38=1,10,IF(L38=2,8,IF(L38=3,6,IF(L38=4,5,IF(L38=5,4,IF(L38=6,3,IF(L38=7,2,IF(L38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(M38=1,10,IF(M38=2,8,IF(M38=3,6,IF(M38=4,5,IF(M38=5,4,IF(M38=6,3,IF(M38=7,2,IF(M38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(N38=1,10,IF(N38=2,8,IF(N38=3,6,IF(N38=4,5,IF(N38=5,4,IF(N38=6,3,IF(N38=7,2,IF(N38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(O38=1,10,IF(O38=2,8,IF(O38=3,6,IF(O38=4,5,IF(O38=5,4,IF(O38=6,3,IF(O38=7,2,IF(O38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(P38=1,10,IF(P38=2,8,IF(P38=3,6,IF(P38=4,5,IF(P38=5,4,IF(P38=6,3,IF(P38=7,2,IF(P38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(Q38=1,10,IF(Q38=2,8,IF(Q38=3,6,IF(Q38=4,5,IF(Q38=5,4,IF(Q38=6,3,IF(Q38=7,2,IF(Q38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(S38=1,10,IF(S38=2,8,IF(S38=3,6,IF(S38=4,5,IF(S38=5,4,IF(S38=6,3,IF(S38=7,2,IF(S38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(T38=1,10,IF(T38=2,8,IF(T38=3,6,IF(T38=4,5,IF(T38=5,4,IF(T38=6,3,IF(T38=7,2,IF(T38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(Y38=1,10,IF(Y38=2,8,IF(Y38=3,6,IF(Y38=4,5,IF(Y38=5,4,IF(Y38=6,3,IF(Y38=7,2,IF(Y38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(Z38=1,10,IF(Z38=2,8,IF(Z38=3,6,IF(Z38=4,5,IF(Z38=5,4,IF(Z38=6,3,IF(Z38=7,2,IF(Z38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB39" s="19"/>
@@ -8049,91 +8127,91 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19">
-        <f t="shared" ref="F41:AA41" si="19">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
+        <f>IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(G40=1,10,IF(G40=2,8,IF(G40=3,6,IF(G40=4,5,IF(G40=5,4,IF(G40=6,3,IF(G40=7,2,IF(G40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(H40=1,10,IF(H40=2,8,IF(H40=3,6,IF(H40=4,5,IF(H40=5,4,IF(H40=6,3,IF(H40=7,2,IF(H40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(I40=1,10,IF(I40=2,8,IF(I40=3,6,IF(I40=4,5,IF(I40=5,4,IF(I40=6,3,IF(I40=7,2,IF(I40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(J40=1,10,IF(J40=2,8,IF(J40=3,6,IF(J40=4,5,IF(J40=5,4,IF(J40=6,3,IF(J40=7,2,IF(J40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(K40=1,10,IF(K40=2,8,IF(K40=3,6,IF(K40=4,5,IF(K40=5,4,IF(K40=6,3,IF(K40=7,2,IF(K40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(L40=1,10,IF(L40=2,8,IF(L40=3,6,IF(L40=4,5,IF(L40=5,4,IF(L40=6,3,IF(L40=7,2,IF(L40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(M40=1,10,IF(M40=2,8,IF(M40=3,6,IF(M40=4,5,IF(M40=5,4,IF(M40=6,3,IF(M40=7,2,IF(M40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(N40=1,10,IF(N40=2,8,IF(N40=3,6,IF(N40=4,5,IF(N40=5,4,IF(N40=6,3,IF(N40=7,2,IF(N40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(O40=1,10,IF(O40=2,8,IF(O40=3,6,IF(O40=4,5,IF(O40=5,4,IF(O40=6,3,IF(O40=7,2,IF(O40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(P40=1,10,IF(P40=2,8,IF(P40=3,6,IF(P40=4,5,IF(P40=5,4,IF(P40=6,3,IF(P40=7,2,IF(P40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(Q40=1,10,IF(Q40=2,8,IF(Q40=3,6,IF(Q40=4,5,IF(Q40=5,4,IF(Q40=6,3,IF(Q40=7,2,IF(Q40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(R40=1,10,IF(R40=2,8,IF(R40=3,6,IF(R40=4,5,IF(R40=5,4,IF(R40=6,3,IF(R40=7,2,IF(R40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(S40=1,10,IF(S40=2,8,IF(S40=3,6,IF(S40=4,5,IF(S40=5,4,IF(S40=6,3,IF(S40=7,2,IF(S40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(T40=1,10,IF(T40=2,8,IF(T40=3,6,IF(T40=4,5,IF(T40=5,4,IF(T40=6,3,IF(T40=7,2,IF(T40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(U40=1,10,IF(U40=2,8,IF(U40=3,6,IF(U40=4,5,IF(U40=5,4,IF(U40=6,3,IF(U40=7,2,IF(U40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(V40=1,10,IF(V40=2,8,IF(V40=3,6,IF(V40=4,5,IF(V40=5,4,IF(V40=6,3,IF(V40=7,2,IF(V40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(W40=1,10,IF(W40=2,8,IF(W40=3,6,IF(W40=4,5,IF(W40=5,4,IF(W40=6,3,IF(W40=7,2,IF(W40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(X40=1,10,IF(X40=2,8,IF(X40=3,6,IF(X40=4,5,IF(X40=5,4,IF(X40=6,3,IF(X40=7,2,IF(X40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(Y40=1,10,IF(Y40=2,8,IF(Y40=3,6,IF(Y40=4,5,IF(Y40=5,4,IF(Y40=6,3,IF(Y40=7,2,IF(Y40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(Z40=1,10,IF(Z40=2,8,IF(Z40=3,6,IF(Z40=4,5,IF(Z40=5,4,IF(Z40=6,3,IF(Z40=7,2,IF(Z40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(AA40=1,10,IF(AA40=2,8,IF(AA40=3,6,IF(AA40=4,5,IF(AA40=5,4,IF(AA40=6,3,IF(AA40=7,2,IF(AA40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="19"/>
@@ -8164,7 +8242,9 @@
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
       <c r="O42" s="52"/>
-      <c r="P42" s="18"/>
+      <c r="P42" s="18">
+        <v>13</v>
+      </c>
       <c r="Q42" s="18"/>
       <c r="R42" s="28"/>
       <c r="S42" s="18"/>
@@ -8188,99 +8268,99 @@
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19">
-        <f t="shared" ref="F43:AA43" si="20">IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
+        <f t="shared" ref="F43:AA43" si="0">IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA43" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB43" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB41">
-    <sortState ref="A2:AB40">
-      <sortCondition descending="1" ref="AB1:AB41"/>
+  <autoFilter ref="A1:AB43">
+    <sortState ref="A2:AB42">
+      <sortCondition descending="1" ref="AB1:AB43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8310,7 +8390,8 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -8457,7 +8538,9 @@
       <c r="O2" s="18">
         <v>1</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="18">
+        <v>1</v>
+      </c>
       <c r="Q2" s="18"/>
       <c r="R2" s="28"/>
       <c r="S2" s="18"/>
@@ -8471,7 +8554,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -8481,91 +8564,91 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:AA3" si="0">IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
+        <f>IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(G2=1,10,IF(G2=2,6,IF(G2=3,4,IF(G2=4,3,IF(G2=5,2,IF(G2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(H2=1,10,IF(H2=2,6,IF(H2=3,4,IF(H2=4,3,IF(H2=5,2,IF(H2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(K2=1,10,IF(K2=2,6,IF(K2=3,4,IF(K2=4,3,IF(K2=5,2,IF(K2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(L2=1,10,IF(L2=2,6,IF(L2=3,4,IF(L2=4,3,IF(L2=5,2,IF(L2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="M3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="N3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="O3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(O2=1,10,IF(O2=2,6,IF(O2=3,4,IF(O2=4,3,IF(O2=5,2,IF(O2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="P3" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(P2=1,10,IF(P2=2,6,IF(P2=3,4,IF(P2=4,3,IF(P2=5,2,IF(P2=6,1,0))))))</f>
+        <v>10</v>
       </c>
       <c r="Q3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Q2=1,10,IF(Q2=2,6,IF(Q2=3,4,IF(Q2=4,3,IF(Q2=5,2,IF(Q2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(S2=1,10,IF(S2=2,6,IF(S2=3,4,IF(S2=4,3,IF(S2=5,2,IF(S2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="19"/>
@@ -8616,7 +8699,9 @@
       <c r="O4" s="32">
         <v>6</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="42">
+        <v>3</v>
+      </c>
       <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
@@ -8630,7 +8715,7 @@
       <c r="AA4" s="42"/>
       <c r="AB4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -8640,91 +8725,91 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19">
-        <f t="shared" ref="F5:AA5" si="1">IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
+        <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="G5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="I5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="J5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="K5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="M5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="N5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="O5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="P5" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(P4=1,10,IF(P4=2,6,IF(P4=3,4,IF(P4=4,3,IF(P4=5,2,IF(P4=6,1,0))))))</f>
+        <v>4</v>
       </c>
       <c r="Q5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(Q4=1,10,IF(Q4=2,6,IF(Q4=3,4,IF(Q4=4,3,IF(Q4=5,2,IF(Q4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(S4=1,10,IF(S4=2,6,IF(S4=3,4,IF(S4=4,3,IF(S4=5,2,IF(S4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB5" s="19"/>
@@ -8775,7 +8860,9 @@
       <c r="O6" s="30">
         <v>7</v>
       </c>
-      <c r="P6" s="43"/>
+      <c r="P6" s="43">
+        <v>9</v>
+      </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>
@@ -8799,91 +8886,91 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19">
-        <f t="shared" ref="F7:AA7" si="2">IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
+        <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="G7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="I7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="J7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="K7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="L7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="N7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="O7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(Q6=1,10,IF(Q6=2,6,IF(Q6=3,4,IF(Q6=4,3,IF(Q6=5,2,IF(Q6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA7" s="19">
-        <f t="shared" si="2"/>
+        <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="19"/>
@@ -8934,7 +9021,9 @@
       <c r="O8" s="44">
         <v>3</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="44">
+        <v>4</v>
+      </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="37"/>
       <c r="S8" s="44"/>
@@ -8948,7 +9037,7 @@
       <c r="AA8" s="44"/>
       <c r="AB8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -8958,156 +9047,158 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19">
-        <f t="shared" ref="F9:AA9" si="3">IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
+        <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="G9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="J9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="K9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="M9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="N9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="P9" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
+        <v>3</v>
       </c>
       <c r="Q9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(Q8=1,10,IF(Q8=2,6,IF(Q8=3,4,IF(Q8=4,3,IF(Q8=5,2,IF(Q8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA9" s="19">
-        <f t="shared" si="3"/>
+        <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="19"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="A10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="46">
+        <v>4</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="46">
+        <v>17</v>
+      </c>
+      <c r="G10" s="46">
+        <v>17</v>
+      </c>
+      <c r="H10" s="46">
+        <v>6</v>
+      </c>
+      <c r="I10" s="46">
+        <v>9</v>
+      </c>
+      <c r="J10" s="46">
+        <v>17</v>
+      </c>
+      <c r="K10" s="46">
+        <v>9</v>
+      </c>
+      <c r="L10" s="46">
+        <v>17</v>
+      </c>
+      <c r="M10" s="46">
+        <v>13</v>
+      </c>
+      <c r="N10" s="46">
+        <v>4</v>
+      </c>
+      <c r="O10" s="36">
+        <v>2</v>
+      </c>
+      <c r="P10" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46">
+        <f>SUM(F11:AA11)</f>
         <v>16</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="20">
-        <v>7</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="20">
-        <v>3</v>
-      </c>
-      <c r="J10" s="20">
-        <v>7</v>
-      </c>
-      <c r="K10" s="20">
-        <v>6</v>
-      </c>
-      <c r="L10" s="20">
-        <v>11</v>
-      </c>
-      <c r="M10" s="20">
-        <v>4</v>
-      </c>
-      <c r="N10" s="20">
-        <v>2</v>
-      </c>
-      <c r="O10" s="20">
-        <v>9</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20">
-        <f>SUM(F11:AA11)</f>
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -9117,91 +9208,91 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19">
-        <f t="shared" ref="F11:AA11" si="4">IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
+        <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
+        <v>1</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
+        <v>0</v>
       </c>
       <c r="J11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K11" s="19">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
+        <v>0</v>
       </c>
       <c r="L11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
         <v>3</v>
       </c>
-      <c r="N11" s="19">
-        <f t="shared" si="4"/>
+      <c r="O11" s="19">
+        <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
         <v>6</v>
       </c>
-      <c r="O11" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="P11" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
+        <v>6</v>
       </c>
       <c r="Q11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(Q10=1,10,IF(Q10=2,6,IF(Q10=3,4,IF(Q10=4,3,IF(Q10=5,2,IF(Q10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(X10=1,10,IF(X10=2,6,IF(X10=3,4,IF(X10=4,3,IF(X10=5,2,IF(X10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(Z10=1,10,IF(Z10=2,6,IF(Z10=3,4,IF(Z10=4,3,IF(Z10=5,2,IF(Z10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA11" s="19">
-        <f t="shared" si="4"/>
+        <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="19"/>
@@ -9252,7 +9343,9 @@
       <c r="O12" s="21">
         <v>5</v>
       </c>
-      <c r="P12" s="21"/>
+      <c r="P12" s="21">
+        <v>6</v>
+      </c>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
@@ -9266,7 +9359,7 @@
       <c r="AA12" s="21"/>
       <c r="AB12" s="21">
         <f>SUM(F13:AA13)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -9276,156 +9369,158 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19">
-        <f t="shared" ref="F13:AA13" si="5">IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
+        <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="K13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="M13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="P13" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
+        <v>1</v>
       </c>
       <c r="Q13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(Q12=1,10,IF(Q12=2,6,IF(Q12=3,4,IF(Q12=4,3,IF(Q12=5,2,IF(Q12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(Z12=1,10,IF(Z12=2,6,IF(Z12=3,4,IF(Z12=4,3,IF(Z12=5,2,IF(Z12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="19"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="45">
-        <v>55</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="45" t="s">
+      <c r="A14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="20">
+        <v>7</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="20">
+        <v>3</v>
+      </c>
+      <c r="J14" s="20">
+        <v>7</v>
+      </c>
+      <c r="K14" s="20">
+        <v>6</v>
+      </c>
+      <c r="L14" s="20">
+        <v>11</v>
+      </c>
+      <c r="M14" s="20">
         <v>4</v>
       </c>
-      <c r="G14" s="45">
-        <v>6</v>
-      </c>
-      <c r="H14" s="45">
-        <v>12</v>
-      </c>
-      <c r="I14" s="45">
-        <v>5</v>
-      </c>
-      <c r="J14" s="45">
-        <v>5</v>
-      </c>
-      <c r="K14" s="45">
-        <v>8</v>
-      </c>
-      <c r="L14" s="45">
-        <v>5</v>
-      </c>
-      <c r="M14" s="45">
-        <v>5</v>
-      </c>
-      <c r="N14" s="45">
-        <v>6</v>
-      </c>
-      <c r="O14" s="45">
-        <v>10</v>
-      </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45">
+      <c r="N14" s="20">
+        <v>2</v>
+      </c>
+      <c r="O14" s="20">
+        <v>9</v>
+      </c>
+      <c r="P14" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20">
         <f>SUM(F15:AA15)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -9435,156 +9530,158 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19">
-        <f t="shared" ref="F15:AA15" si="6">IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
+        <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="19">
+        <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="19">
+        <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
         <v>3</v>
       </c>
-      <c r="G15" s="19">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="19">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K15" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="19">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="M15" s="19">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
       <c r="N15" s="19">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
+        <v>6</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="19">
-        <f t="shared" si="6"/>
+        <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB15" s="19"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="46">
+      <c r="A16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="45">
+        <v>55</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="45">
         <v>4</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="46">
-        <v>17</v>
-      </c>
-      <c r="G16" s="46">
-        <v>17</v>
-      </c>
-      <c r="H16" s="46">
+      <c r="G16" s="45">
         <v>6</v>
       </c>
-      <c r="I16" s="46">
-        <v>9</v>
-      </c>
-      <c r="J16" s="46">
-        <v>17</v>
-      </c>
-      <c r="K16" s="46">
-        <v>9</v>
-      </c>
-      <c r="L16" s="46">
-        <v>17</v>
-      </c>
-      <c r="M16" s="46">
+      <c r="H16" s="45">
+        <v>12</v>
+      </c>
+      <c r="I16" s="45">
+        <v>5</v>
+      </c>
+      <c r="J16" s="45">
+        <v>5</v>
+      </c>
+      <c r="K16" s="45">
+        <v>8</v>
+      </c>
+      <c r="L16" s="45">
+        <v>5</v>
+      </c>
+      <c r="M16" s="45">
+        <v>5</v>
+      </c>
+      <c r="N16" s="45">
+        <v>6</v>
+      </c>
+      <c r="O16" s="45">
+        <v>10</v>
+      </c>
+      <c r="P16" s="45">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45">
+        <f>SUM(F17:AA17)</f>
         <v>13</v>
-      </c>
-      <c r="N16" s="46">
-        <v>4</v>
-      </c>
-      <c r="O16" s="36">
-        <v>2</v>
-      </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46">
-        <f>SUM(F17:AA17)</f>
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -9594,91 +9691,91 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19">
-        <f t="shared" ref="F17:AA17" si="7">IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
-        <v>0</v>
+        <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
+        <v>3</v>
       </c>
       <c r="G17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
+        <v>1</v>
       </c>
       <c r="H17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="19">
+        <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="19">
+        <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="19">
+        <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
+        <v>2</v>
+      </c>
+      <c r="N17" s="19">
+        <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
         <v>1</v>
       </c>
-      <c r="I17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="19">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
       <c r="O17" s="19">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
+        <v>0</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(Z16=1,10,IF(Z16=2,6,IF(Z16=3,4,IF(Z16=4,3,IF(Z16=5,2,IF(Z16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA17" s="19">
-        <f t="shared" si="7"/>
+        <f>IF(AA16=1,10,IF(AA16=2,6,IF(AA16=3,4,IF(AA16=4,3,IF(AA16=5,2,IF(AA16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="19"/>
@@ -9729,7 +9826,9 @@
       <c r="O18" s="26">
         <v>14</v>
       </c>
-      <c r="P18" s="26"/>
+      <c r="P18" s="26">
+        <v>10</v>
+      </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
@@ -9753,156 +9852,158 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19">
-        <f t="shared" ref="F19:AA19" si="8">IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
+        <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="M19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(M18=1,10,IF(M18=2,6,IF(M18=3,4,IF(M18=4,3,IF(M18=5,2,IF(M18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(N18=1,10,IF(N18=2,6,IF(N18=3,4,IF(N18=4,3,IF(N18=5,2,IF(N18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(O18=1,10,IF(O18=2,6,IF(O18=3,4,IF(O18=4,3,IF(O18=5,2,IF(O18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(Q18=1,10,IF(Q18=2,6,IF(Q18=3,4,IF(Q18=4,3,IF(Q18=5,2,IF(Q18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(S18=1,10,IF(S18=2,6,IF(S18=3,4,IF(S18=4,3,IF(S18=5,2,IF(S18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(T18=1,10,IF(T18=2,6,IF(T18=3,4,IF(T18=4,3,IF(T18=5,2,IF(T18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(X18=1,10,IF(X18=2,6,IF(X18=3,4,IF(X18=4,3,IF(X18=5,2,IF(X18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(Y18=1,10,IF(Y18=2,6,IF(Y18=3,4,IF(Y18=4,3,IF(Y18=5,2,IF(Y18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA19" s="19">
-        <f t="shared" si="8"/>
+        <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="19"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="23">
-        <v>31</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="A20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="22">
+        <v>81</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
+        <v>15</v>
+      </c>
+      <c r="H20" s="22">
         <v>8</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="23">
-        <v>15</v>
-      </c>
-      <c r="J20" s="23">
-        <v>9</v>
-      </c>
-      <c r="K20" s="23">
-        <v>3</v>
-      </c>
-      <c r="L20" s="23">
-        <v>8</v>
-      </c>
-      <c r="M20" s="23">
-        <v>8</v>
-      </c>
-      <c r="N20" s="23">
-        <v>14</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23">
+      <c r="I20" s="22">
+        <v>11</v>
+      </c>
+      <c r="J20" s="22">
+        <v>19</v>
+      </c>
+      <c r="K20" s="22">
+        <v>10</v>
+      </c>
+      <c r="L20" s="22">
+        <v>13</v>
+      </c>
+      <c r="M20" s="22">
+        <v>11</v>
+      </c>
+      <c r="N20" s="22">
+        <v>16</v>
+      </c>
+      <c r="O20" s="22">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22">
         <f>SUM(F21:AA21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -9912,156 +10013,158 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19">
-        <f t="shared" ref="F21:AA21" si="9">IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
+        <f>IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(I20=1,10,IF(I20=2,6,IF(I20=3,4,IF(I20=4,3,IF(I20=5,2,IF(I20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(J20=1,10,IF(J20=2,6,IF(J20=3,4,IF(J20=4,3,IF(J20=5,2,IF(J20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="9"/>
+        <f>IF(K20=1,10,IF(K20=2,6,IF(K20=3,4,IF(K20=4,3,IF(K20=5,2,IF(K20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="19">
+        <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
+        <v>3</v>
+      </c>
+      <c r="P21" s="19">
+        <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="19">
+        <f>IF(Q20=1,10,IF(Q20=2,6,IF(Q20=3,4,IF(Q20=4,3,IF(Q20=5,2,IF(Q20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="19">
+        <f>IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="19">
+        <f>IF(S20=1,10,IF(S20=2,6,IF(S20=3,4,IF(S20=4,3,IF(S20=5,2,IF(S20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <f>IF(T20=1,10,IF(T20=2,6,IF(T20=3,4,IF(T20=4,3,IF(T20=5,2,IF(T20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="19">
+        <f>IF(U20=1,10,IF(U20=2,6,IF(U20=3,4,IF(U20=4,3,IF(U20=5,2,IF(U20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="19">
+        <f>IF(V20=1,10,IF(V20=2,6,IF(V20=3,4,IF(V20=4,3,IF(V20=5,2,IF(V20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="19">
+        <f>IF(W20=1,10,IF(W20=2,6,IF(W20=3,4,IF(W20=4,3,IF(W20=5,2,IF(W20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="19">
+        <f>IF(X20=1,10,IF(X20=2,6,IF(X20=3,4,IF(X20=4,3,IF(X20=5,2,IF(X20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="19">
+        <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19">
+        <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="19">
+        <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="19"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="23">
+        <v>31</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="23">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="23">
+        <v>15</v>
+      </c>
+      <c r="J22" s="23">
+        <v>9</v>
+      </c>
+      <c r="K22" s="23">
+        <v>3</v>
+      </c>
+      <c r="L22" s="23">
+        <v>8</v>
+      </c>
+      <c r="M22" s="23">
+        <v>8</v>
+      </c>
+      <c r="N22" s="23">
+        <v>14</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23">
+        <f>SUM(F23:AA23)</f>
         <v>4</v>
-      </c>
-      <c r="L21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="19"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="22">
-        <v>81</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="22">
-        <v>15</v>
-      </c>
-      <c r="H22" s="22">
-        <v>8</v>
-      </c>
-      <c r="I22" s="22">
-        <v>11</v>
-      </c>
-      <c r="J22" s="22">
-        <v>19</v>
-      </c>
-      <c r="K22" s="22">
-        <v>10</v>
-      </c>
-      <c r="L22" s="22">
-        <v>13</v>
-      </c>
-      <c r="M22" s="22">
-        <v>11</v>
-      </c>
-      <c r="N22" s="22">
-        <v>16</v>
-      </c>
-      <c r="O22" s="22">
-        <v>4</v>
-      </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22">
-        <f>SUM(F23:AA23)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -10071,91 +10174,91 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19">
-        <f t="shared" ref="F23:AA23" si="10">IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
+        <f>IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(J22=1,10,IF(J22=2,6,IF(J22=3,4,IF(J22=4,3,IF(J22=5,2,IF(J22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K23" s="19">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(K22=1,10,IF(K22=2,6,IF(K22=3,4,IF(K22=4,3,IF(K22=5,2,IF(K22=6,1,0))))))</f>
+        <v>4</v>
       </c>
       <c r="L23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(L22=1,10,IF(L22=2,6,IF(L22=3,4,IF(L22=4,3,IF(L22=5,2,IF(L22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(M22=1,10,IF(M22=2,6,IF(M22=3,4,IF(M22=4,3,IF(M22=5,2,IF(M22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(N22=1,10,IF(N22=2,6,IF(N22=3,4,IF(N22=4,3,IF(N22=5,2,IF(N22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>IF(O22=1,10,IF(O22=2,6,IF(O22=3,4,IF(O22=4,3,IF(O22=5,2,IF(O22=6,1,0))))))</f>
+        <v>0</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(P22=1,10,IF(P22=2,6,IF(P22=3,4,IF(P22=4,3,IF(P22=5,2,IF(P22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(Q22=1,10,IF(Q22=2,6,IF(Q22=3,4,IF(Q22=4,3,IF(Q22=5,2,IF(Q22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(S22=1,10,IF(S22=2,6,IF(S22=3,4,IF(S22=4,3,IF(S22=5,2,IF(S22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(T22=1,10,IF(T22=2,6,IF(T22=3,4,IF(T22=4,3,IF(T22=5,2,IF(T22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(V22=1,10,IF(V22=2,6,IF(V22=3,4,IF(V22=4,3,IF(V22=5,2,IF(V22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(X22=1,10,IF(X22=2,6,IF(X22=3,4,IF(X22=4,3,IF(X22=5,2,IF(X22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="19">
-        <f t="shared" si="10"/>
+        <f>IF(AA22=1,10,IF(AA22=2,6,IF(AA22=3,4,IF(AA22=4,3,IF(AA22=5,2,IF(AA22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB23" s="19"/>
@@ -10206,7 +10309,9 @@
       <c r="O24" s="50">
         <v>11</v>
       </c>
-      <c r="P24" s="50"/>
+      <c r="P24" s="50">
+        <v>18</v>
+      </c>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
       <c r="S24" s="50"/>
@@ -10230,91 +10335,91 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19">
-        <f t="shared" ref="F25:AA25" si="11">IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
+        <f>IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(G24=1,10,IF(G24=2,6,IF(G24=3,4,IF(G24=4,3,IF(G24=5,2,IF(G24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(H24=1,10,IF(H24=2,6,IF(H24=3,4,IF(H24=4,3,IF(H24=5,2,IF(H24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(I24=1,10,IF(I24=2,6,IF(I24=3,4,IF(I24=4,3,IF(I24=5,2,IF(I24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(J24=1,10,IF(J24=2,6,IF(J24=3,4,IF(J24=4,3,IF(J24=5,2,IF(J24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(K24=1,10,IF(K24=2,6,IF(K24=3,4,IF(K24=4,3,IF(K24=5,2,IF(K24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(L24=1,10,IF(L24=2,6,IF(L24=3,4,IF(L24=4,3,IF(L24=5,2,IF(L24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(M24=1,10,IF(M24=2,6,IF(M24=3,4,IF(M24=4,3,IF(M24=5,2,IF(M24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(N24=1,10,IF(N24=2,6,IF(N24=3,4,IF(N24=4,3,IF(N24=5,2,IF(N24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(O24=1,10,IF(O24=2,6,IF(O24=3,4,IF(O24=4,3,IF(O24=5,2,IF(O24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(P24=1,10,IF(P24=2,6,IF(P24=3,4,IF(P24=4,3,IF(P24=5,2,IF(P24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(Q24=1,10,IF(Q24=2,6,IF(Q24=3,4,IF(Q24=4,3,IF(Q24=5,2,IF(Q24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(S24=1,10,IF(S24=2,6,IF(S24=3,4,IF(S24=4,3,IF(S24=5,2,IF(S24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(V24=1,10,IF(V24=2,6,IF(V24=3,4,IF(V24=4,3,IF(V24=5,2,IF(V24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(W24=1,10,IF(W24=2,6,IF(W24=3,4,IF(W24=4,3,IF(W24=5,2,IF(W24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(X24=1,10,IF(X24=2,6,IF(X24=3,4,IF(X24=4,3,IF(X24=5,2,IF(X24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA25" s="19">
-        <f t="shared" si="11"/>
+        <f>IF(AA24=1,10,IF(AA24=2,6,IF(AA24=3,4,IF(AA24=4,3,IF(AA24=5,2,IF(AA24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB25" s="19"/>
@@ -10365,7 +10470,9 @@
       <c r="O26" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="47"/>
+      <c r="P26" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
       <c r="S26" s="47"/>
@@ -10389,91 +10496,91 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19">
-        <f t="shared" ref="F27:AA27" si="12">IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
+        <f>IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(G26=1,10,IF(G26=2,6,IF(G26=3,4,IF(G26=4,3,IF(G26=5,2,IF(G26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(H26=1,10,IF(H26=2,6,IF(H26=3,4,IF(H26=4,3,IF(H26=5,2,IF(H26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(I26=1,10,IF(I26=2,6,IF(I26=3,4,IF(I26=4,3,IF(I26=5,2,IF(I26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(J26=1,10,IF(J26=2,6,IF(J26=3,4,IF(J26=4,3,IF(J26=5,2,IF(J26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(K26=1,10,IF(K26=2,6,IF(K26=3,4,IF(K26=4,3,IF(K26=5,2,IF(K26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(L26=1,10,IF(L26=2,6,IF(L26=3,4,IF(L26=4,3,IF(L26=5,2,IF(L26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(O26=1,10,IF(O26=2,6,IF(O26=3,4,IF(O26=4,3,IF(O26=5,2,IF(O26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(P26=1,10,IF(P26=2,6,IF(P26=3,4,IF(P26=4,3,IF(P26=5,2,IF(P26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(Q26=1,10,IF(Q26=2,6,IF(Q26=3,4,IF(Q26=4,3,IF(Q26=5,2,IF(Q26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(R26=1,10,IF(R26=2,6,IF(R26=3,4,IF(R26=4,3,IF(R26=5,2,IF(R26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(S26=1,10,IF(S26=2,6,IF(S26=3,4,IF(S26=4,3,IF(S26=5,2,IF(S26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(T26=1,10,IF(T26=2,6,IF(T26=3,4,IF(T26=4,3,IF(T26=5,2,IF(T26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(U26=1,10,IF(U26=2,6,IF(U26=3,4,IF(U26=4,3,IF(U26=5,2,IF(U26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(V26=1,10,IF(V26=2,6,IF(V26=3,4,IF(V26=4,3,IF(V26=5,2,IF(V26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(W26=1,10,IF(W26=2,6,IF(W26=3,4,IF(W26=4,3,IF(W26=5,2,IF(W26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(X26=1,10,IF(X26=2,6,IF(X26=3,4,IF(X26=4,3,IF(X26=5,2,IF(X26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(Y26=1,10,IF(Y26=2,6,IF(Y26=3,4,IF(Y26=4,3,IF(Y26=5,2,IF(Y26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(Z26=1,10,IF(Z26=2,6,IF(Z26=3,4,IF(Z26=4,3,IF(Z26=5,2,IF(Z26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="19">
-        <f t="shared" si="12"/>
+        <f>IF(AA26=1,10,IF(AA26=2,6,IF(AA26=3,4,IF(AA26=4,3,IF(AA26=5,2,IF(AA26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="19"/>
@@ -10524,7 +10631,9 @@
       <c r="O28" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="P28" s="25"/>
+      <c r="P28" s="25">
+        <v>17</v>
+      </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
@@ -10548,91 +10657,91 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19">
-        <f t="shared" ref="F29:AA29" si="13">IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
+        <f>IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(G28=1,10,IF(G28=2,6,IF(G28=3,4,IF(G28=4,3,IF(G28=5,2,IF(G28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(H28=1,10,IF(H28=2,6,IF(H28=3,4,IF(H28=4,3,IF(H28=5,2,IF(H28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(I28=1,10,IF(I28=2,6,IF(I28=3,4,IF(I28=4,3,IF(I28=5,2,IF(I28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(J28=1,10,IF(J28=2,6,IF(J28=3,4,IF(J28=4,3,IF(J28=5,2,IF(J28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(K28=1,10,IF(K28=2,6,IF(K28=3,4,IF(K28=4,3,IF(K28=5,2,IF(K28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(L28=1,10,IF(L28=2,6,IF(L28=3,4,IF(L28=4,3,IF(L28=5,2,IF(L28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(M28=1,10,IF(M28=2,6,IF(M28=3,4,IF(M28=4,3,IF(M28=5,2,IF(M28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(N28=1,10,IF(N28=2,6,IF(N28=3,4,IF(N28=4,3,IF(N28=5,2,IF(N28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(O28=1,10,IF(O28=2,6,IF(O28=3,4,IF(O28=4,3,IF(O28=5,2,IF(O28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(P28=1,10,IF(P28=2,6,IF(P28=3,4,IF(P28=4,3,IF(P28=5,2,IF(P28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(Q28=1,10,IF(Q28=2,6,IF(Q28=3,4,IF(Q28=4,3,IF(Q28=5,2,IF(Q28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(R28=1,10,IF(R28=2,6,IF(R28=3,4,IF(R28=4,3,IF(R28=5,2,IF(R28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(S28=1,10,IF(S28=2,6,IF(S28=3,4,IF(S28=4,3,IF(S28=5,2,IF(S28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(T28=1,10,IF(T28=2,6,IF(T28=3,4,IF(T28=4,3,IF(T28=5,2,IF(T28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(U28=1,10,IF(U28=2,6,IF(U28=3,4,IF(U28=4,3,IF(U28=5,2,IF(U28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(V28=1,10,IF(V28=2,6,IF(V28=3,4,IF(V28=4,3,IF(V28=5,2,IF(V28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(Y28=1,10,IF(Y28=2,6,IF(Y28=3,4,IF(Y28=4,3,IF(Y28=5,2,IF(Y28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(Z28=1,10,IF(Z28=2,6,IF(Z28=3,4,IF(Z28=4,3,IF(Z28=5,2,IF(Z28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="19">
-        <f t="shared" si="13"/>
+        <f>IF(AA28=1,10,IF(AA28=2,6,IF(AA28=3,4,IF(AA28=4,3,IF(AA28=5,2,IF(AA28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="19"/>
@@ -10683,7 +10792,9 @@
       <c r="O30" s="42">
         <v>16</v>
       </c>
-      <c r="P30" s="42"/>
+      <c r="P30" s="42">
+        <v>15</v>
+      </c>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
       <c r="S30" s="42"/>
@@ -10707,91 +10818,91 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19">
-        <f t="shared" ref="F31:AA31" si="14">IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
+        <f>IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(G30=1,10,IF(G30=2,6,IF(G30=3,4,IF(G30=4,3,IF(G30=5,2,IF(G30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(H30=1,10,IF(H30=2,6,IF(H30=3,4,IF(H30=4,3,IF(H30=5,2,IF(H30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(I30=1,10,IF(I30=2,6,IF(I30=3,4,IF(I30=4,3,IF(I30=5,2,IF(I30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(J30=1,10,IF(J30=2,6,IF(J30=3,4,IF(J30=4,3,IF(J30=5,2,IF(J30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(K30=1,10,IF(K30=2,6,IF(K30=3,4,IF(K30=4,3,IF(K30=5,2,IF(K30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(L30=1,10,IF(L30=2,6,IF(L30=3,4,IF(L30=4,3,IF(L30=5,2,IF(L30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(M30=1,10,IF(M30=2,6,IF(M30=3,4,IF(M30=4,3,IF(M30=5,2,IF(M30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(N30=1,10,IF(N30=2,6,IF(N30=3,4,IF(N30=4,3,IF(N30=5,2,IF(N30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(O30=1,10,IF(O30=2,6,IF(O30=3,4,IF(O30=4,3,IF(O30=5,2,IF(O30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(P30=1,10,IF(P30=2,6,IF(P30=3,4,IF(P30=4,3,IF(P30=5,2,IF(P30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(Q30=1,10,IF(Q30=2,6,IF(Q30=3,4,IF(Q30=4,3,IF(Q30=5,2,IF(Q30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(R30=1,10,IF(R30=2,6,IF(R30=3,4,IF(R30=4,3,IF(R30=5,2,IF(R30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(S30=1,10,IF(S30=2,6,IF(S30=3,4,IF(S30=4,3,IF(S30=5,2,IF(S30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(T30=1,10,IF(T30=2,6,IF(T30=3,4,IF(T30=4,3,IF(T30=5,2,IF(T30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(U30=1,10,IF(U30=2,6,IF(U30=3,4,IF(U30=4,3,IF(U30=5,2,IF(U30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(V30=1,10,IF(V30=2,6,IF(V30=3,4,IF(V30=4,3,IF(V30=5,2,IF(V30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(W30=1,10,IF(W30=2,6,IF(W30=3,4,IF(W30=4,3,IF(W30=5,2,IF(W30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(X30=1,10,IF(X30=2,6,IF(X30=3,4,IF(X30=4,3,IF(X30=5,2,IF(X30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA31" s="19">
-        <f t="shared" si="14"/>
+        <f>IF(AA30=1,10,IF(AA30=2,6,IF(AA30=3,4,IF(AA30=4,3,IF(AA30=5,2,IF(AA30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB31" s="19"/>
@@ -10842,7 +10953,9 @@
       <c r="O32" s="27">
         <v>8</v>
       </c>
-      <c r="P32" s="27"/>
+      <c r="P32" s="27">
+        <v>11</v>
+      </c>
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
@@ -10866,91 +10979,91 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19">
-        <f t="shared" ref="F33:AA33" si="15">IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
+        <f>IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(G32=1,10,IF(G32=2,6,IF(G32=3,4,IF(G32=4,3,IF(G32=5,2,IF(G32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(H32=1,10,IF(H32=2,6,IF(H32=3,4,IF(H32=4,3,IF(H32=5,2,IF(H32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(I32=1,10,IF(I32=2,6,IF(I32=3,4,IF(I32=4,3,IF(I32=5,2,IF(I32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(J32=1,10,IF(J32=2,6,IF(J32=3,4,IF(J32=4,3,IF(J32=5,2,IF(J32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(K32=1,10,IF(K32=2,6,IF(K32=3,4,IF(K32=4,3,IF(K32=5,2,IF(K32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(L32=1,10,IF(L32=2,6,IF(L32=3,4,IF(L32=4,3,IF(L32=5,2,IF(L32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(M32=1,10,IF(M32=2,6,IF(M32=3,4,IF(M32=4,3,IF(M32=5,2,IF(M32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(N32=1,10,IF(N32=2,6,IF(N32=3,4,IF(N32=4,3,IF(N32=5,2,IF(N32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(O32=1,10,IF(O32=2,6,IF(O32=3,4,IF(O32=4,3,IF(O32=5,2,IF(O32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(P32=1,10,IF(P32=2,6,IF(P32=3,4,IF(P32=4,3,IF(P32=5,2,IF(P32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(Q32=1,10,IF(Q32=2,6,IF(Q32=3,4,IF(Q32=4,3,IF(Q32=5,2,IF(Q32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(R32=1,10,IF(R32=2,6,IF(R32=3,4,IF(R32=4,3,IF(R32=5,2,IF(R32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(S32=1,10,IF(S32=2,6,IF(S32=3,4,IF(S32=4,3,IF(S32=5,2,IF(S32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(T32=1,10,IF(T32=2,6,IF(T32=3,4,IF(T32=4,3,IF(T32=5,2,IF(T32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(U32=1,10,IF(U32=2,6,IF(U32=3,4,IF(U32=4,3,IF(U32=5,2,IF(U32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(V32=1,10,IF(V32=2,6,IF(V32=3,4,IF(V32=4,3,IF(V32=5,2,IF(V32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(X32=1,10,IF(X32=2,6,IF(X32=3,4,IF(X32=4,3,IF(X32=5,2,IF(X32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(Y32=1,10,IF(Y32=2,6,IF(Y32=3,4,IF(Y32=4,3,IF(Y32=5,2,IF(Y32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(Z32=1,10,IF(Z32=2,6,IF(Z32=3,4,IF(Z32=4,3,IF(Z32=5,2,IF(Z32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA33" s="19">
-        <f t="shared" si="15"/>
+        <f>IF(AA32=1,10,IF(AA32=2,6,IF(AA32=3,4,IF(AA32=4,3,IF(AA32=5,2,IF(AA32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB33" s="19"/>
@@ -11001,7 +11114,9 @@
       <c r="O34" s="49">
         <v>15</v>
       </c>
-      <c r="P34" s="49"/>
+      <c r="P34" s="49">
+        <v>16</v>
+      </c>
       <c r="Q34" s="49"/>
       <c r="R34" s="49"/>
       <c r="S34" s="49"/>
@@ -11025,91 +11140,91 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19">
-        <f t="shared" ref="F35:AA35" si="16">IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
+        <f>IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(G34=1,10,IF(G34=2,6,IF(G34=3,4,IF(G34=4,3,IF(G34=5,2,IF(G34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(H34=1,10,IF(H34=2,6,IF(H34=3,4,IF(H34=4,3,IF(H34=5,2,IF(H34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(I34=1,10,IF(I34=2,6,IF(I34=3,4,IF(I34=4,3,IF(I34=5,2,IF(I34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(J34=1,10,IF(J34=2,6,IF(J34=3,4,IF(J34=4,3,IF(J34=5,2,IF(J34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(K34=1,10,IF(K34=2,6,IF(K34=3,4,IF(K34=4,3,IF(K34=5,2,IF(K34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(L34=1,10,IF(L34=2,6,IF(L34=3,4,IF(L34=4,3,IF(L34=5,2,IF(L34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(M34=1,10,IF(M34=2,6,IF(M34=3,4,IF(M34=4,3,IF(M34=5,2,IF(M34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(N34=1,10,IF(N34=2,6,IF(N34=3,4,IF(N34=4,3,IF(N34=5,2,IF(N34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(O34=1,10,IF(O34=2,6,IF(O34=3,4,IF(O34=4,3,IF(O34=5,2,IF(O34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(P34=1,10,IF(P34=2,6,IF(P34=3,4,IF(P34=4,3,IF(P34=5,2,IF(P34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(Q34=1,10,IF(Q34=2,6,IF(Q34=3,4,IF(Q34=4,3,IF(Q34=5,2,IF(Q34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(R34=1,10,IF(R34=2,6,IF(R34=3,4,IF(R34=4,3,IF(R34=5,2,IF(R34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(S34=1,10,IF(S34=2,6,IF(S34=3,4,IF(S34=4,3,IF(S34=5,2,IF(S34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(T34=1,10,IF(T34=2,6,IF(T34=3,4,IF(T34=4,3,IF(T34=5,2,IF(T34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(U34=1,10,IF(U34=2,6,IF(U34=3,4,IF(U34=4,3,IF(U34=5,2,IF(U34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(V34=1,10,IF(V34=2,6,IF(V34=3,4,IF(V34=4,3,IF(V34=5,2,IF(V34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(W34=1,10,IF(W34=2,6,IF(W34=3,4,IF(W34=4,3,IF(W34=5,2,IF(W34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(X34=1,10,IF(X34=2,6,IF(X34=3,4,IF(X34=4,3,IF(X34=5,2,IF(X34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(Y34=1,10,IF(Y34=2,6,IF(Y34=3,4,IF(Y34=4,3,IF(Y34=5,2,IF(Y34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(Z34=1,10,IF(Z34=2,6,IF(Z34=3,4,IF(Z34=4,3,IF(Z34=5,2,IF(Z34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA35" s="19">
-        <f t="shared" si="16"/>
+        <f>IF(AA34=1,10,IF(AA34=2,6,IF(AA34=3,4,IF(AA34=4,3,IF(AA34=5,2,IF(AA34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB35" s="19"/>
@@ -11160,7 +11275,9 @@
       <c r="O36" s="48">
         <v>13</v>
       </c>
-      <c r="P36" s="48"/>
+      <c r="P36" s="48">
+        <v>14</v>
+      </c>
       <c r="Q36" s="48"/>
       <c r="R36" s="48"/>
       <c r="S36" s="35"/>
@@ -11184,91 +11301,91 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19">
-        <f t="shared" ref="F37:AA37" si="17">IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
+        <f>IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(G36=1,10,IF(G36=2,6,IF(G36=3,4,IF(G36=4,3,IF(G36=5,2,IF(G36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(H36=1,10,IF(H36=2,6,IF(H36=3,4,IF(H36=4,3,IF(H36=5,2,IF(H36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(I36=1,10,IF(I36=2,6,IF(I36=3,4,IF(I36=4,3,IF(I36=5,2,IF(I36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(J36=1,10,IF(J36=2,6,IF(J36=3,4,IF(J36=4,3,IF(J36=5,2,IF(J36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(K36=1,10,IF(K36=2,6,IF(K36=3,4,IF(K36=4,3,IF(K36=5,2,IF(K36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(L36=1,10,IF(L36=2,6,IF(L36=3,4,IF(L36=4,3,IF(L36=5,2,IF(L36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(M36=1,10,IF(M36=2,6,IF(M36=3,4,IF(M36=4,3,IF(M36=5,2,IF(M36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(N36=1,10,IF(N36=2,6,IF(N36=3,4,IF(N36=4,3,IF(N36=5,2,IF(N36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(O36=1,10,IF(O36=2,6,IF(O36=3,4,IF(O36=4,3,IF(O36=5,2,IF(O36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(P36=1,10,IF(P36=2,6,IF(P36=3,4,IF(P36=4,3,IF(P36=5,2,IF(P36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(Q36=1,10,IF(Q36=2,6,IF(Q36=3,4,IF(Q36=4,3,IF(Q36=5,2,IF(Q36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(R36=1,10,IF(R36=2,6,IF(R36=3,4,IF(R36=4,3,IF(R36=5,2,IF(R36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(S36=1,10,IF(S36=2,6,IF(S36=3,4,IF(S36=4,3,IF(S36=5,2,IF(S36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(T36=1,10,IF(T36=2,6,IF(T36=3,4,IF(T36=4,3,IF(T36=5,2,IF(T36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(U36=1,10,IF(U36=2,6,IF(U36=3,4,IF(U36=4,3,IF(U36=5,2,IF(U36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(V36=1,10,IF(V36=2,6,IF(V36=3,4,IF(V36=4,3,IF(V36=5,2,IF(V36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(W36=1,10,IF(W36=2,6,IF(W36=3,4,IF(W36=4,3,IF(W36=5,2,IF(W36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(X36=1,10,IF(X36=2,6,IF(X36=3,4,IF(X36=4,3,IF(X36=5,2,IF(X36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(Y36=1,10,IF(Y36=2,6,IF(Y36=3,4,IF(Y36=4,3,IF(Y36=5,2,IF(Y36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(Z36=1,10,IF(Z36=2,6,IF(Z36=3,4,IF(Z36=4,3,IF(Z36=5,2,IF(Z36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA37" s="19">
-        <f t="shared" si="17"/>
+        <f>IF(AA36=1,10,IF(AA36=2,6,IF(AA36=3,4,IF(AA36=4,3,IF(AA36=5,2,IF(AA36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB37" s="19"/>
@@ -11343,91 +11460,91 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19">
-        <f t="shared" ref="F39:AA39" si="18">IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
+        <f>IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(G38=1,10,IF(G38=2,6,IF(G38=3,4,IF(G38=4,3,IF(G38=5,2,IF(G38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(H38=1,10,IF(H38=2,6,IF(H38=3,4,IF(H38=4,3,IF(H38=5,2,IF(H38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(I38=1,10,IF(I38=2,6,IF(I38=3,4,IF(I38=4,3,IF(I38=5,2,IF(I38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(J38=1,10,IF(J38=2,6,IF(J38=3,4,IF(J38=4,3,IF(J38=5,2,IF(J38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(K38=1,10,IF(K38=2,6,IF(K38=3,4,IF(K38=4,3,IF(K38=5,2,IF(K38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(L38=1,10,IF(L38=2,6,IF(L38=3,4,IF(L38=4,3,IF(L38=5,2,IF(L38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(M38=1,10,IF(M38=2,6,IF(M38=3,4,IF(M38=4,3,IF(M38=5,2,IF(M38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(N38=1,10,IF(N38=2,6,IF(N38=3,4,IF(N38=4,3,IF(N38=5,2,IF(N38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(O38=1,10,IF(O38=2,6,IF(O38=3,4,IF(O38=4,3,IF(O38=5,2,IF(O38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(P38=1,10,IF(P38=2,6,IF(P38=3,4,IF(P38=4,3,IF(P38=5,2,IF(P38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(Q38=1,10,IF(Q38=2,6,IF(Q38=3,4,IF(Q38=4,3,IF(Q38=5,2,IF(Q38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(R38=1,10,IF(R38=2,6,IF(R38=3,4,IF(R38=4,3,IF(R38=5,2,IF(R38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(S38=1,10,IF(S38=2,6,IF(S38=3,4,IF(S38=4,3,IF(S38=5,2,IF(S38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(T38=1,10,IF(T38=2,6,IF(T38=3,4,IF(T38=4,3,IF(T38=5,2,IF(T38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(U38=1,10,IF(U38=2,6,IF(U38=3,4,IF(U38=4,3,IF(U38=5,2,IF(U38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(V38=1,10,IF(V38=2,6,IF(V38=3,4,IF(V38=4,3,IF(V38=5,2,IF(V38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(W38=1,10,IF(W38=2,6,IF(W38=3,4,IF(W38=4,3,IF(W38=5,2,IF(W38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(X38=1,10,IF(X38=2,6,IF(X38=3,4,IF(X38=4,3,IF(X38=5,2,IF(X38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(Y38=1,10,IF(Y38=2,6,IF(Y38=3,4,IF(Y38=4,3,IF(Y38=5,2,IF(Y38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(Z38=1,10,IF(Z38=2,6,IF(Z38=3,4,IF(Z38=4,3,IF(Z38=5,2,IF(Z38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA39" s="19">
-        <f t="shared" si="18"/>
+        <f>IF(AA38=1,10,IF(AA38=2,6,IF(AA38=3,4,IF(AA38=4,3,IF(AA38=5,2,IF(AA38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB39" s="19"/>
@@ -11478,7 +11595,9 @@
       <c r="O40" s="24">
         <v>12</v>
       </c>
-      <c r="P40" s="24"/>
+      <c r="P40" s="24">
+        <v>12</v>
+      </c>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
@@ -11502,91 +11621,91 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19">
-        <f t="shared" ref="F41:AA41" si="19">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
+        <f>IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(G40=1,10,IF(G40=2,6,IF(G40=3,4,IF(G40=4,3,IF(G40=5,2,IF(G40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(H40=1,10,IF(H40=2,6,IF(H40=3,4,IF(H40=4,3,IF(H40=5,2,IF(H40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(I40=1,10,IF(I40=2,6,IF(I40=3,4,IF(I40=4,3,IF(I40=5,2,IF(I40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(J40=1,10,IF(J40=2,6,IF(J40=3,4,IF(J40=4,3,IF(J40=5,2,IF(J40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(K40=1,10,IF(K40=2,6,IF(K40=3,4,IF(K40=4,3,IF(K40=5,2,IF(K40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(L40=1,10,IF(L40=2,6,IF(L40=3,4,IF(L40=4,3,IF(L40=5,2,IF(L40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(M40=1,10,IF(M40=2,6,IF(M40=3,4,IF(M40=4,3,IF(M40=5,2,IF(M40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(N40=1,10,IF(N40=2,6,IF(N40=3,4,IF(N40=4,3,IF(N40=5,2,IF(N40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(O40=1,10,IF(O40=2,6,IF(O40=3,4,IF(O40=4,3,IF(O40=5,2,IF(O40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(P40=1,10,IF(P40=2,6,IF(P40=3,4,IF(P40=4,3,IF(P40=5,2,IF(P40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(Q40=1,10,IF(Q40=2,6,IF(Q40=3,4,IF(Q40=4,3,IF(Q40=5,2,IF(Q40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(R40=1,10,IF(R40=2,6,IF(R40=3,4,IF(R40=4,3,IF(R40=5,2,IF(R40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(S40=1,10,IF(S40=2,6,IF(S40=3,4,IF(S40=4,3,IF(S40=5,2,IF(S40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(T40=1,10,IF(T40=2,6,IF(T40=3,4,IF(T40=4,3,IF(T40=5,2,IF(T40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(U40=1,10,IF(U40=2,6,IF(U40=3,4,IF(U40=4,3,IF(U40=5,2,IF(U40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(V40=1,10,IF(V40=2,6,IF(V40=3,4,IF(V40=4,3,IF(V40=5,2,IF(V40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(W40=1,10,IF(W40=2,6,IF(W40=3,4,IF(W40=4,3,IF(W40=5,2,IF(W40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(X40=1,10,IF(X40=2,6,IF(X40=3,4,IF(X40=4,3,IF(X40=5,2,IF(X40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(Y40=1,10,IF(Y40=2,6,IF(Y40=3,4,IF(Y40=4,3,IF(Y40=5,2,IF(Y40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(Z40=1,10,IF(Z40=2,6,IF(Z40=3,4,IF(Z40=4,3,IF(Z40=5,2,IF(Z40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="19">
-        <f t="shared" si="19"/>
+        <f>IF(AA40=1,10,IF(AA40=2,6,IF(AA40=3,4,IF(AA40=4,3,IF(AA40=5,2,IF(AA40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="19"/>
@@ -11617,7 +11736,9 @@
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
       <c r="O42" s="52"/>
-      <c r="P42" s="18"/>
+      <c r="P42" s="18">
+        <v>13</v>
+      </c>
       <c r="Q42" s="18"/>
       <c r="R42" s="28"/>
       <c r="S42" s="18"/>
@@ -11641,99 +11762,99 @@
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19">
-        <f t="shared" ref="F43" si="20">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
+        <f t="shared" ref="F43" si="0">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="19">
-        <f t="shared" ref="G43" si="21">IF(G42=1,10,IF(G42=2,6,IF(G42=3,4,IF(G42=4,3,IF(G42=5,2,IF(G42=6,1,0))))))</f>
+        <f t="shared" ref="G43" si="1">IF(G42=1,10,IF(G42=2,6,IF(G42=3,4,IF(G42=4,3,IF(G42=5,2,IF(G42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="19">
-        <f t="shared" ref="H43" si="22">IF(H42=1,10,IF(H42=2,6,IF(H42=3,4,IF(H42=4,3,IF(H42=5,2,IF(H42=6,1,0))))))</f>
+        <f t="shared" ref="H43" si="2">IF(H42=1,10,IF(H42=2,6,IF(H42=3,4,IF(H42=4,3,IF(H42=5,2,IF(H42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I43" s="19">
-        <f t="shared" ref="I43" si="23">IF(I42=1,10,IF(I42=2,6,IF(I42=3,4,IF(I42=4,3,IF(I42=5,2,IF(I42=6,1,0))))))</f>
+        <f t="shared" ref="I43" si="3">IF(I42=1,10,IF(I42=2,6,IF(I42=3,4,IF(I42=4,3,IF(I42=5,2,IF(I42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J43" s="19">
-        <f t="shared" ref="J43" si="24">IF(J42=1,10,IF(J42=2,6,IF(J42=3,4,IF(J42=4,3,IF(J42=5,2,IF(J42=6,1,0))))))</f>
+        <f t="shared" ref="J43" si="4">IF(J42=1,10,IF(J42=2,6,IF(J42=3,4,IF(J42=4,3,IF(J42=5,2,IF(J42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K43" s="19">
-        <f t="shared" ref="K43" si="25">IF(K42=1,10,IF(K42=2,6,IF(K42=3,4,IF(K42=4,3,IF(K42=5,2,IF(K42=6,1,0))))))</f>
+        <f t="shared" ref="K43" si="5">IF(K42=1,10,IF(K42=2,6,IF(K42=3,4,IF(K42=4,3,IF(K42=5,2,IF(K42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L43" s="19">
-        <f t="shared" ref="L43" si="26">IF(L42=1,10,IF(L42=2,6,IF(L42=3,4,IF(L42=4,3,IF(L42=5,2,IF(L42=6,1,0))))))</f>
+        <f t="shared" ref="L43" si="6">IF(L42=1,10,IF(L42=2,6,IF(L42=3,4,IF(L42=4,3,IF(L42=5,2,IF(L42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M43" s="19">
-        <f t="shared" ref="M43" si="27">IF(M42=1,10,IF(M42=2,6,IF(M42=3,4,IF(M42=4,3,IF(M42=5,2,IF(M42=6,1,0))))))</f>
+        <f t="shared" ref="M43" si="7">IF(M42=1,10,IF(M42=2,6,IF(M42=3,4,IF(M42=4,3,IF(M42=5,2,IF(M42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="19">
-        <f t="shared" ref="N43" si="28">IF(N42=1,10,IF(N42=2,6,IF(N42=3,4,IF(N42=4,3,IF(N42=5,2,IF(N42=6,1,0))))))</f>
+        <f t="shared" ref="N43" si="8">IF(N42=1,10,IF(N42=2,6,IF(N42=3,4,IF(N42=4,3,IF(N42=5,2,IF(N42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O43" s="19">
-        <f t="shared" ref="O43" si="29">IF(O42=1,10,IF(O42=2,6,IF(O42=3,4,IF(O42=4,3,IF(O42=5,2,IF(O42=6,1,0))))))</f>
+        <f t="shared" ref="O43" si="9">IF(O42=1,10,IF(O42=2,6,IF(O42=3,4,IF(O42=4,3,IF(O42=5,2,IF(O42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P43" s="19">
-        <f t="shared" ref="P43" si="30">IF(P42=1,10,IF(P42=2,6,IF(P42=3,4,IF(P42=4,3,IF(P42=5,2,IF(P42=6,1,0))))))</f>
+        <f t="shared" ref="P43" si="10">IF(P42=1,10,IF(P42=2,6,IF(P42=3,4,IF(P42=4,3,IF(P42=5,2,IF(P42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="19">
-        <f t="shared" ref="Q43" si="31">IF(Q42=1,10,IF(Q42=2,6,IF(Q42=3,4,IF(Q42=4,3,IF(Q42=5,2,IF(Q42=6,1,0))))))</f>
+        <f t="shared" ref="Q43" si="11">IF(Q42=1,10,IF(Q42=2,6,IF(Q42=3,4,IF(Q42=4,3,IF(Q42=5,2,IF(Q42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="R43" s="19">
-        <f t="shared" ref="R43" si="32">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
+        <f t="shared" ref="R43" si="12">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <f t="shared" ref="S43" si="33">IF(S42=1,10,IF(S42=2,6,IF(S42=3,4,IF(S42=4,3,IF(S42=5,2,IF(S42=6,1,0))))))</f>
+        <f t="shared" ref="S43" si="13">IF(S42=1,10,IF(S42=2,6,IF(S42=3,4,IF(S42=4,3,IF(S42=5,2,IF(S42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="19">
-        <f t="shared" ref="T43" si="34">IF(T42=1,10,IF(T42=2,6,IF(T42=3,4,IF(T42=4,3,IF(T42=5,2,IF(T42=6,1,0))))))</f>
+        <f t="shared" ref="T43" si="14">IF(T42=1,10,IF(T42=2,6,IF(T42=3,4,IF(T42=4,3,IF(T42=5,2,IF(T42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="19">
-        <f t="shared" ref="U43" si="35">IF(U42=1,10,IF(U42=2,6,IF(U42=3,4,IF(U42=4,3,IF(U42=5,2,IF(U42=6,1,0))))))</f>
+        <f t="shared" ref="U43" si="15">IF(U42=1,10,IF(U42=2,6,IF(U42=3,4,IF(U42=4,3,IF(U42=5,2,IF(U42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="19">
-        <f t="shared" ref="V43" si="36">IF(V42=1,10,IF(V42=2,6,IF(V42=3,4,IF(V42=4,3,IF(V42=5,2,IF(V42=6,1,0))))))</f>
+        <f t="shared" ref="V43" si="16">IF(V42=1,10,IF(V42=2,6,IF(V42=3,4,IF(V42=4,3,IF(V42=5,2,IF(V42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W43" s="19">
-        <f t="shared" ref="W43" si="37">IF(W42=1,10,IF(W42=2,6,IF(W42=3,4,IF(W42=4,3,IF(W42=5,2,IF(W42=6,1,0))))))</f>
+        <f t="shared" ref="W43" si="17">IF(W42=1,10,IF(W42=2,6,IF(W42=3,4,IF(W42=4,3,IF(W42=5,2,IF(W42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X43" s="19">
-        <f t="shared" ref="X43" si="38">IF(X42=1,10,IF(X42=2,6,IF(X42=3,4,IF(X42=4,3,IF(X42=5,2,IF(X42=6,1,0))))))</f>
+        <f t="shared" ref="X43" si="18">IF(X42=1,10,IF(X42=2,6,IF(X42=3,4,IF(X42=4,3,IF(X42=5,2,IF(X42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y43" s="19">
-        <f t="shared" ref="Y43" si="39">IF(Y42=1,10,IF(Y42=2,6,IF(Y42=3,4,IF(Y42=4,3,IF(Y42=5,2,IF(Y42=6,1,0))))))</f>
+        <f t="shared" ref="Y43" si="19">IF(Y42=1,10,IF(Y42=2,6,IF(Y42=3,4,IF(Y42=4,3,IF(Y42=5,2,IF(Y42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z43" s="19">
-        <f t="shared" ref="Z43" si="40">IF(Z42=1,10,IF(Z42=2,6,IF(Z42=3,4,IF(Z42=4,3,IF(Z42=5,2,IF(Z42=6,1,0))))))</f>
+        <f t="shared" ref="Z43" si="20">IF(Z42=1,10,IF(Z42=2,6,IF(Z42=3,4,IF(Z42=4,3,IF(Z42=5,2,IF(Z42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA43" s="19">
-        <f t="shared" ref="AA43" si="41">IF(AA42=1,10,IF(AA42=2,6,IF(AA42=3,4,IF(AA42=4,3,IF(AA42=5,2,IF(AA42=6,1,0))))))</f>
+        <f t="shared" ref="AA43" si="21">IF(AA42=1,10,IF(AA42=2,6,IF(AA42=3,4,IF(AA42=4,3,IF(AA42=5,2,IF(AA42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB43" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB41">
-    <sortState ref="A2:AB40">
-      <sortCondition descending="1" ref="AB1:AB41"/>
+  <autoFilter ref="A1:AB43">
+    <sortState ref="A2:AB42">
+      <sortCondition descending="1" ref="AB1:AB43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11787,11 +11908,11 @@
       </c>
       <c r="D2" s="9">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="E2" s="9">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>375</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11805,12 +11926,12 @@
         <v>65</v>
       </c>
       <c r="D3" s="14">
-        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD12</f>
-        <v>203</v>
+        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD10</f>
+        <v>223</v>
       </c>
       <c r="E3" s="14">
-        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE12</f>
-        <v>193</v>
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE10</f>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11824,12 +11945,12 @@
         <v>73</v>
       </c>
       <c r="D4" s="7">
-        <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD16</f>
-        <v>181</v>
+        <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD18</f>
+        <v>184</v>
       </c>
       <c r="E4" s="7">
-        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE16</f>
-        <v>168</v>
+        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE18</f>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11843,12 +11964,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="6">
-        <f>'2023 Driver Ranking'!AD10+'2023 Driver Ranking'!AD14</f>
-        <v>157</v>
+        <f>'2023 Driver Ranking'!AD12+'2023 Driver Ranking'!AD14</f>
+        <v>167</v>
       </c>
       <c r="E5" s="6">
-        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE14</f>
-        <v>140</v>
+        <f>'2023 Driver Ranking'!AE12+'2023 Driver Ranking'!AE14</f>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11862,12 +11983,12 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'2023 Driver Ranking'!AD18+'2023 Driver Ranking'!AD22</f>
-        <v>59</v>
+        <f>'2023 Driver Ranking'!AD16+'2023 Driver Ranking'!AD22</f>
+        <v>87</v>
       </c>
       <c r="E6" s="5">
-        <f>'2023 Driver Ranking'!AE18+'2023 Driver Ranking'!AE22</f>
-        <v>59</v>
+        <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE22</f>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11957,11 +12078,11 @@
         <v>66</v>
       </c>
       <c r="D11" s="9">
-        <f>'2023 Driver Ranking'!AD34+'2023 Driver Ranking'!AD40</f>
+        <f>'2023 Driver Ranking'!AD34+'2023 Driver Ranking'!AD40+'2023 Driver Ranking'!AD42</f>
         <v>2</v>
       </c>
       <c r="E11" s="9">
-        <f>'2023 Driver Ranking'!AE34+'2023 Driver Ranking'!AE40</f>
+        <f>'2023 Driver Ranking'!AE34+'2023 Driver Ranking'!AE40+'2023 Driver Ranking'!AE42</f>
         <v>2</v>
       </c>
     </row>
@@ -12018,7 +12139,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12033,7 +12154,7 @@
       </c>
       <c r="D3" s="14">
         <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB10</f>
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12063,7 +12184,7 @@
       </c>
       <c r="D5" s="6">
         <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12077,8 +12198,8 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB22</f>
-        <v>22</v>
+        <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB20</f>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12092,7 +12213,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="2">
-        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB24</f>
+        <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB24</f>
         <v>12</v>
       </c>
     </row>
@@ -12152,7 +12273,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="9">
-        <f>'2003-2009 Driver Ranking'!AB36+'2003-2009 Driver Ranking'!AB40</f>
+        <f>'2003-2009 Driver Ranking'!AB36+'2003-2009 Driver Ranking'!AB40+'2003-2009 Driver Ranking'!AB42</f>
         <v>0</v>
       </c>
     </row>
@@ -12208,7 +12329,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12223,7 +12344,7 @@
       </c>
       <c r="D3" s="14">
         <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB12</f>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12252,7 +12373,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="6">
-        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB14</f>
+        <f>'1991-2002 Driver Ranking'!AB14+'1991-2002 Driver Ranking'!AB16</f>
         <v>27</v>
       </c>
     </row>
@@ -12267,8 +12388,8 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'1991-2002 Driver Ranking'!AB16+'1991-2002 Driver Ranking'!AB22</f>
-        <v>13</v>
+        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB20</f>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12282,7 +12403,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="2">
-        <f>'1991-2002 Driver Ranking'!AB20+'1991-2002 Driver Ranking'!AB26</f>
+        <f>'1991-2002 Driver Ranking'!AB22+'1991-2002 Driver Ranking'!AB26</f>
         <v>4</v>
       </c>
     </row>
@@ -12327,7 +12448,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="9">
-        <f>'1991-2002 Driver Ranking'!AB30+'1991-2002 Driver Ranking'!AB38</f>
+        <f>'1991-2002 Driver Ranking'!AB30+'1991-2002 Driver Ranking'!AB38+'1991-2002 Driver Ranking'!AB42</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="127">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,18 @@
   </si>
   <si>
     <t>Daniel Ricciardo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1131,7 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="29" bestFit="1" customWidth="1"/>
@@ -1279,7 +1290,9 @@
       <c r="P2" s="18">
         <v>1</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="18">
+        <v>1</v>
+      </c>
       <c r="R2" s="18"/>
       <c r="S2" s="28"/>
       <c r="T2" s="18"/>
@@ -1295,16 +1308,16 @@
         <v>6</v>
       </c>
       <c r="AC2" s="18">
-        <f>6+8</f>
-        <v>14</v>
+        <f>6+8+8</f>
+        <v>22</v>
       </c>
       <c r="AD2" s="18">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="AE2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1359,7 +1372,7 @@
       </c>
       <c r="Q3" s="19">
         <f>IF(Q2=1,25,IF(Q2=2,18,IF(Q2=3,15,IF(Q2=4,12,IF(Q2=5,10,IF(Q2=6,8,IF(Q2=7,6,IF(Q2=8,4,IF(Q2=9,2,IF(Q2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R3" s="19">
         <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
@@ -1455,7 +1468,9 @@
       <c r="P4" s="32">
         <v>3</v>
       </c>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="42">
+        <v>2</v>
+      </c>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
       <c r="T4" s="32"/>
@@ -1476,11 +1491,11 @@
       </c>
       <c r="AD4" s="42">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AE4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1535,7 +1550,7 @@
       </c>
       <c r="Q5" s="19">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R5" s="19">
         <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
@@ -1631,7 +1646,9 @@
       <c r="P6" s="43">
         <v>9</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="43">
+        <v>5</v>
+      </c>
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>
       <c r="T6" s="30"/>
@@ -1649,11 +1666,11 @@
       </c>
       <c r="AD6" s="43">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AE6" s="43">
         <f>SUM(F7:AA7)</f>
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1708,7 +1725,7 @@
       </c>
       <c r="Q7" s="19">
         <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7" s="19">
         <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
@@ -1804,7 +1821,9 @@
       <c r="P8" s="44">
         <v>4</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="44">
+        <v>4</v>
+      </c>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="37"/>
@@ -1816,20 +1835,20 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="44">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="AC8" s="44">
-        <f>2</f>
-        <v>2</v>
+        <f>2+2</f>
+        <v>4</v>
       </c>
       <c r="AD8" s="44">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AE8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1884,7 +1903,7 @@
       </c>
       <c r="Q9" s="19">
         <f>IF(Q8=1,25,IF(Q8=2,18,IF(Q8=3,15,IF(Q8=4,12,IF(Q8=5,10,IF(Q8=6,8,IF(Q8=7,6,IF(Q8=8,4,IF(Q8=9,2,IF(Q8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R9" s="19">
         <f>IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
@@ -1980,7 +1999,9 @@
       <c r="P10" s="21">
         <v>6</v>
       </c>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="21">
+        <v>6</v>
+      </c>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -1996,16 +2017,16 @@
         <v>1</v>
       </c>
       <c r="AC10" s="21">
-        <f>5+1</f>
-        <v>6</v>
+        <f>5+1+1</f>
+        <v>7</v>
       </c>
       <c r="AD10" s="21">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AE10" s="21">
         <f>SUM(F11:AA11)</f>
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2060,7 +2081,7 @@
       </c>
       <c r="Q11" s="19">
         <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R11" s="19">
         <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
@@ -2108,77 +2129,79 @@
       <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="45">
-        <v>55</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="A12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="20">
+        <v>16</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="20">
+        <v>7</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="20">
+        <v>3</v>
+      </c>
+      <c r="J12" s="20">
+        <v>7</v>
+      </c>
+      <c r="K12" s="20">
+        <v>6</v>
+      </c>
+      <c r="L12" s="20">
+        <v>11</v>
+      </c>
+      <c r="M12" s="20">
         <v>4</v>
       </c>
-      <c r="G12" s="45">
-        <v>6</v>
-      </c>
-      <c r="H12" s="45">
-        <v>12</v>
-      </c>
-      <c r="I12" s="45">
-        <v>5</v>
-      </c>
-      <c r="J12" s="45">
-        <v>5</v>
-      </c>
-      <c r="K12" s="45">
-        <v>8</v>
-      </c>
-      <c r="L12" s="45">
-        <v>5</v>
-      </c>
-      <c r="M12" s="45">
-        <v>5</v>
-      </c>
-      <c r="N12" s="45">
-        <v>6</v>
-      </c>
-      <c r="O12" s="45">
-        <v>10</v>
-      </c>
-      <c r="P12" s="45">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45">
-        <f>4+6</f>
-        <v>10</v>
-      </c>
-      <c r="AD12" s="45">
+      <c r="N12" s="20">
+        <v>2</v>
+      </c>
+      <c r="O12" s="20">
+        <v>9</v>
+      </c>
+      <c r="P12" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>3</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
+        <f>7+4</f>
+        <v>11</v>
+      </c>
+      <c r="AD12" s="20">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>87</v>
-      </c>
-      <c r="AE12" s="45">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2189,11 +2212,11 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G13" s="19">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
@@ -2201,39 +2224,39 @@
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R13" s="19">
         <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
@@ -2281,77 +2304,79 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="45">
+        <v>55</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="20">
-        <v>7</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="20">
-        <v>3</v>
-      </c>
-      <c r="J14" s="20">
-        <v>7</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="F14" s="45">
+        <v>4</v>
+      </c>
+      <c r="G14" s="45">
         <v>6</v>
       </c>
-      <c r="L14" s="20">
-        <v>11</v>
-      </c>
-      <c r="M14" s="20">
-        <v>4</v>
-      </c>
-      <c r="N14" s="20">
-        <v>2</v>
-      </c>
-      <c r="O14" s="20">
-        <v>9</v>
-      </c>
-      <c r="P14" s="20">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20">
-        <f>7</f>
-        <v>7</v>
-      </c>
-      <c r="AD14" s="20">
+      <c r="H14" s="45">
+        <v>12</v>
+      </c>
+      <c r="I14" s="45">
+        <v>5</v>
+      </c>
+      <c r="J14" s="45">
+        <v>5</v>
+      </c>
+      <c r="K14" s="45">
+        <v>8</v>
+      </c>
+      <c r="L14" s="45">
+        <v>5</v>
+      </c>
+      <c r="M14" s="45">
+        <v>5</v>
+      </c>
+      <c r="N14" s="45">
+        <v>6</v>
+      </c>
+      <c r="O14" s="45">
+        <v>10</v>
+      </c>
+      <c r="P14" s="45">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45">
+        <f>4+6+5</f>
+        <v>15</v>
+      </c>
+      <c r="AD14" s="45">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>80</v>
-      </c>
-      <c r="AE14" s="20">
+        <v>92</v>
+      </c>
+      <c r="AE14" s="45">
         <f>SUM(F15:AA15)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2362,11 +2387,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G15" s="19">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H15" s="19">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
@@ -2374,35 +2399,35 @@
       </c>
       <c r="I15" s="19">
         <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J15" s="19">
         <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K15" s="19">
         <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L15" s="19">
         <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="19">
         <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N15" s="19">
         <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O15" s="19">
         <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))</f>
@@ -2502,7 +2527,9 @@
       <c r="P16" s="46">
         <v>2</v>
       </c>
-      <c r="Q16" s="46"/>
+      <c r="Q16" s="46">
+        <v>7</v>
+      </c>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="36"/>
@@ -2514,14 +2541,17 @@
       <c r="Z16" s="46"/>
       <c r="AA16" s="46"/>
       <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
+      <c r="AC16" s="46">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="AD16" s="46">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AE16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2576,7 +2606,7 @@
       </c>
       <c r="Q17" s="19">
         <f>IF(Q16=1,25,IF(Q16=2,18,IF(Q16=3,15,IF(Q16=4,12,IF(Q16=5,10,IF(Q16=6,8,IF(Q16=7,6,IF(Q16=8,4,IF(Q16=9,2,IF(Q16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R17" s="19">
         <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
@@ -2672,7 +2702,9 @@
       <c r="P18" s="26">
         <v>10</v>
       </c>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>9</v>
+      </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -2690,11 +2722,11 @@
       </c>
       <c r="AD18" s="26">
         <f>SUM(F19:AA19)+SUM(AB18,AC18)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AE18" s="26">
         <f>SUM(F19:AA19)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2749,7 +2781,7 @@
       </c>
       <c r="Q19" s="19">
         <f>IF(Q18=1,25,IF(Q18=2,18,IF(Q18=3,15,IF(Q18=4,12,IF(Q18=5,10,IF(Q18=6,8,IF(Q18=7,6,IF(Q18=8,4,IF(Q18=9,2,IF(Q18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="19">
         <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
@@ -2845,7 +2877,9 @@
       <c r="P20" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Q20" s="23"/>
+      <c r="Q20" s="23">
+        <v>8</v>
+      </c>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
@@ -2863,11 +2897,11 @@
       </c>
       <c r="AD20" s="23">
         <f>SUM(F21:AA21)+SUM(AB20,AC20)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AE20" s="23">
         <f>SUM(F21:AA21)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2922,7 +2956,7 @@
       </c>
       <c r="Q21" s="19">
         <f>IF(Q20=1,25,IF(Q20=2,18,IF(Q20=3,15,IF(Q20=4,12,IF(Q20=5,10,IF(Q20=6,8,IF(Q20=7,6,IF(Q20=8,4,IF(Q20=9,2,IF(Q20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R21" s="19">
         <f>IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
@@ -3018,7 +3052,9 @@
       <c r="P22" s="22">
         <v>5</v>
       </c>
-      <c r="Q22" s="22"/>
+      <c r="Q22" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3030,10 +3066,13 @@
       <c r="Z22" s="22"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
+      <c r="AC22" s="22">
+        <f>7</f>
+        <v>7</v>
+      </c>
       <c r="AD22" s="22">
         <f>SUM(F23:AA23)+SUM(AB22,AC22)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AE22" s="22">
         <f>SUM(F23:AA23)</f>
@@ -3188,7 +3227,9 @@
       <c r="P24" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="47"/>
+      <c r="Q24" s="47">
+        <v>11</v>
+      </c>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
       <c r="T24" s="33"/>
@@ -3200,10 +3241,13 @@
       <c r="Z24" s="47"/>
       <c r="AA24" s="47"/>
       <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
+      <c r="AC24" s="47">
+        <f>6</f>
+        <v>6</v>
+      </c>
       <c r="AD24" s="47">
         <f>SUM(F25:AA25)+SUM(AB24,AC24)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE24" s="47">
         <f>SUM(F25:AA25)</f>
@@ -3358,7 +3402,9 @@
       <c r="P26" s="27">
         <v>11</v>
       </c>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="27">
+        <v>14</v>
+      </c>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
@@ -3528,7 +3574,9 @@
       <c r="P28" s="48">
         <v>14</v>
       </c>
-      <c r="Q28" s="48"/>
+      <c r="Q28" s="48">
+        <v>18</v>
+      </c>
       <c r="R28" s="48"/>
       <c r="S28" s="48"/>
       <c r="T28" s="35"/>
@@ -3701,7 +3749,9 @@
       <c r="P30" s="24">
         <v>12</v>
       </c>
-      <c r="Q30" s="24"/>
+      <c r="Q30" s="24">
+        <v>12</v>
+      </c>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
@@ -3871,7 +3921,9 @@
       <c r="P32" s="49">
         <v>16</v>
       </c>
-      <c r="Q32" s="49"/>
+      <c r="Q32" s="49">
+        <v>13</v>
+      </c>
       <c r="R32" s="49"/>
       <c r="S32" s="49"/>
       <c r="T32" s="31"/>
@@ -4041,7 +4093,9 @@
       <c r="P34" s="42">
         <v>15</v>
       </c>
-      <c r="Q34" s="42"/>
+      <c r="Q34" s="42">
+        <v>10</v>
+      </c>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
       <c r="T34" s="32"/>
@@ -4056,11 +4110,11 @@
       <c r="AC34" s="42"/>
       <c r="AD34" s="42">
         <f>SUM(F35:AA35)+SUM(AB34,AC34)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE34" s="42">
         <f>SUM(F35:AA35)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -4115,7 +4169,7 @@
       </c>
       <c r="Q35" s="19">
         <f>IF(Q34=1,25,IF(Q34=2,18,IF(Q34=3,15,IF(Q34=4,12,IF(Q34=5,10,IF(Q34=6,8,IF(Q34=7,6,IF(Q34=8,4,IF(Q34=9,2,IF(Q34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="19">
         <f>IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
@@ -4211,7 +4265,9 @@
       <c r="P36" s="25">
         <v>17</v>
       </c>
-      <c r="Q36" s="25"/>
+      <c r="Q36" s="25">
+        <v>15</v>
+      </c>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -4381,7 +4437,9 @@
       <c r="P38" s="50">
         <v>18</v>
       </c>
-      <c r="Q38" s="50"/>
+      <c r="Q38" s="50">
+        <v>17</v>
+      </c>
       <c r="R38" s="50"/>
       <c r="S38" s="50"/>
       <c r="T38" s="38"/>
@@ -4699,7 +4757,9 @@
       <c r="P42" s="18">
         <v>13</v>
       </c>
-      <c r="Q42" s="18"/>
+      <c r="Q42" s="18">
+        <v>16</v>
+      </c>
       <c r="R42" s="18"/>
       <c r="S42" s="28"/>
       <c r="T42" s="18"/>
@@ -4897,8 +4957,7 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -5047,7 +5106,9 @@
       <c r="P2" s="18">
         <v>1</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="18">
+        <v>1</v>
+      </c>
       <c r="R2" s="28"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -5060,7 +5121,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5115,7 +5176,7 @@
       </c>
       <c r="Q3" s="19">
         <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" s="19">
         <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
@@ -5208,7 +5269,9 @@
       <c r="P4" s="42">
         <v>3</v>
       </c>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="42">
+        <v>2</v>
+      </c>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
       <c r="T4" s="42"/>
@@ -5221,7 +5284,7 @@
       <c r="AA4" s="42"/>
       <c r="AB4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5276,7 +5339,7 @@
       </c>
       <c r="Q5" s="19">
         <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R5" s="19">
         <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
@@ -5321,68 +5384,70 @@
       <c r="AB5" s="19"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="30">
-        <v>14</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="A6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="44">
+        <v>44</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43">
+      <c r="E6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="44">
+        <v>5</v>
+      </c>
+      <c r="G6" s="44">
+        <v>5</v>
+      </c>
+      <c r="H6" s="44">
+        <v>2</v>
+      </c>
+      <c r="I6" s="44">
+        <v>6</v>
+      </c>
+      <c r="J6" s="44">
+        <v>6</v>
+      </c>
+      <c r="K6" s="44">
+        <v>4</v>
+      </c>
+      <c r="L6" s="44">
+        <v>2</v>
+      </c>
+      <c r="M6" s="44">
         <v>3</v>
       </c>
-      <c r="G6" s="30">
+      <c r="N6" s="44">
+        <v>8</v>
+      </c>
+      <c r="O6" s="44">
         <v>3</v>
       </c>
-      <c r="H6" s="30">
-        <v>3</v>
-      </c>
-      <c r="I6" s="43">
+      <c r="P6" s="44">
         <v>4</v>
       </c>
-      <c r="J6" s="30">
-        <v>3</v>
-      </c>
-      <c r="K6" s="43">
-        <v>2</v>
-      </c>
-      <c r="L6" s="43">
-        <v>7</v>
-      </c>
-      <c r="M6" s="30">
-        <v>2</v>
-      </c>
-      <c r="N6" s="30">
-        <v>5</v>
-      </c>
-      <c r="O6" s="30">
-        <v>7</v>
-      </c>
-      <c r="P6" s="43">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43">
+      <c r="Q6" s="44">
+        <v>4</v>
+      </c>
+      <c r="R6" s="37"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44">
         <f>SUM(F7:AA7)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5393,51 +5458,51 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19">
         <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="19">
         <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7" s="19">
         <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" s="19">
         <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="19">
         <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K7" s="19">
         <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L7" s="19">
         <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M7" s="19">
         <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" s="19">
         <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O7" s="19">
         <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P7" s="19">
         <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="19">
         <f>IF(Q6=1,10,IF(Q6=2,8,IF(Q6=3,6,IF(Q6=4,5,IF(Q6=5,4,IF(Q6=6,3,IF(Q6=7,2,IF(Q6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R7" s="19">
         <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
@@ -5482,68 +5547,70 @@
       <c r="AB7" s="19"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="44">
-        <v>44</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="A8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="30">
+        <v>14</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="44">
+      <c r="F8" s="43">
+        <v>3</v>
+      </c>
+      <c r="G8" s="30">
+        <v>3</v>
+      </c>
+      <c r="H8" s="30">
+        <v>3</v>
+      </c>
+      <c r="I8" s="43">
+        <v>4</v>
+      </c>
+      <c r="J8" s="30">
+        <v>3</v>
+      </c>
+      <c r="K8" s="43">
+        <v>2</v>
+      </c>
+      <c r="L8" s="43">
+        <v>7</v>
+      </c>
+      <c r="M8" s="30">
+        <v>2</v>
+      </c>
+      <c r="N8" s="30">
         <v>5</v>
       </c>
-      <c r="G8" s="44">
+      <c r="O8" s="30">
+        <v>7</v>
+      </c>
+      <c r="P8" s="43">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="43">
         <v>5</v>
       </c>
-      <c r="H8" s="44">
-        <v>2</v>
-      </c>
-      <c r="I8" s="44">
-        <v>6</v>
-      </c>
-      <c r="J8" s="44">
-        <v>6</v>
-      </c>
-      <c r="K8" s="44">
-        <v>4</v>
-      </c>
-      <c r="L8" s="44">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44">
-        <v>8</v>
-      </c>
-      <c r="O8" s="44">
-        <v>3</v>
-      </c>
-      <c r="P8" s="44">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44">
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43">
         <f>SUM(F9:AA9)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5554,51 +5621,51 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19">
         <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" s="19">
         <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" s="19">
         <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="19">
         <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="19">
         <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" s="19">
         <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L9" s="19">
         <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M9" s="19">
         <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9" s="19">
         <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" s="19">
         <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P9" s="19">
         <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="19">
         <f>IF(Q8=1,10,IF(Q8=2,8,IF(Q8=3,6,IF(Q8=4,5,IF(Q8=5,4,IF(Q8=6,3,IF(Q8=7,2,IF(Q8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9" s="19">
         <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
@@ -5691,7 +5758,9 @@
       <c r="P10" s="21">
         <v>6</v>
       </c>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="21">
+        <v>6</v>
+      </c>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -5704,7 +5773,7 @@
       <c r="AA10" s="21"/>
       <c r="AB10" s="21">
         <f>SUM(F11:AA11)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5759,7 +5828,7 @@
       </c>
       <c r="Q11" s="19">
         <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="19">
         <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
@@ -5804,68 +5873,70 @@
       <c r="AB11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="45">
-        <v>55</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="A12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="20">
+        <v>16</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="20">
+        <v>7</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="20">
+        <v>3</v>
+      </c>
+      <c r="J12" s="20">
+        <v>7</v>
+      </c>
+      <c r="K12" s="20">
+        <v>6</v>
+      </c>
+      <c r="L12" s="51">
+        <v>11</v>
+      </c>
+      <c r="M12" s="20">
         <v>4</v>
       </c>
-      <c r="G12" s="45">
-        <v>6</v>
-      </c>
-      <c r="H12" s="34">
-        <v>12</v>
-      </c>
-      <c r="I12" s="34">
-        <v>5</v>
-      </c>
-      <c r="J12" s="45">
-        <v>5</v>
-      </c>
-      <c r="K12" s="45">
-        <v>8</v>
-      </c>
-      <c r="L12" s="34">
-        <v>5</v>
-      </c>
-      <c r="M12" s="45">
-        <v>5</v>
-      </c>
-      <c r="N12" s="45">
-        <v>6</v>
-      </c>
-      <c r="O12" s="45">
-        <v>10</v>
-      </c>
-      <c r="P12" s="45">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45">
+      <c r="N12" s="20">
+        <v>2</v>
+      </c>
+      <c r="O12" s="20">
+        <v>9</v>
+      </c>
+      <c r="P12" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>3</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5876,11 +5947,11 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="19">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
@@ -5888,27 +5959,27 @@
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
@@ -5916,11 +5987,11 @@
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R13" s="19">
         <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
@@ -5965,68 +6036,70 @@
       <c r="AB13" s="19"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="45">
+        <v>55</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="20">
-        <v>7</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="20">
-        <v>3</v>
-      </c>
-      <c r="J14" s="20">
-        <v>7</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="F14" s="45">
+        <v>4</v>
+      </c>
+      <c r="G14" s="45">
         <v>6</v>
       </c>
-      <c r="L14" s="51">
-        <v>11</v>
-      </c>
-      <c r="M14" s="20">
-        <v>4</v>
-      </c>
-      <c r="N14" s="20">
-        <v>2</v>
-      </c>
-      <c r="O14" s="20">
-        <v>9</v>
-      </c>
-      <c r="P14" s="20">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="H14" s="34">
+        <v>12</v>
+      </c>
+      <c r="I14" s="34">
+        <v>5</v>
+      </c>
+      <c r="J14" s="45">
+        <v>5</v>
+      </c>
+      <c r="K14" s="45">
+        <v>8</v>
+      </c>
+      <c r="L14" s="34">
+        <v>5</v>
+      </c>
+      <c r="M14" s="45">
+        <v>5</v>
+      </c>
+      <c r="N14" s="45">
+        <v>6</v>
+      </c>
+      <c r="O14" s="45">
+        <v>10</v>
+      </c>
+      <c r="P14" s="45">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45">
         <f>SUM(F15:AA15)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6037,11 +6110,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="19">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="19">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
@@ -6049,27 +6122,27 @@
       </c>
       <c r="I15" s="19">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="19">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="19">
         <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" s="19">
         <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="19">
         <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" s="19">
         <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O15" s="19">
         <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
@@ -6077,7 +6150,7 @@
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))</f>
@@ -6174,7 +6247,9 @@
       <c r="P16" s="46">
         <v>2</v>
       </c>
-      <c r="Q16" s="46"/>
+      <c r="Q16" s="46">
+        <v>7</v>
+      </c>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
@@ -6187,7 +6262,7 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6242,7 +6317,7 @@
       </c>
       <c r="Q17" s="19">
         <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" s="19">
         <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
@@ -6335,7 +6410,9 @@
       <c r="P18" s="26">
         <v>10</v>
       </c>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>9</v>
+      </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -6496,7 +6573,9 @@
       <c r="P20" s="22">
         <v>5</v>
       </c>
-      <c r="Q20" s="22"/>
+      <c r="Q20" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
@@ -6657,7 +6736,9 @@
       <c r="P22" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Q22" s="23"/>
+      <c r="Q22" s="23">
+        <v>8</v>
+      </c>
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
@@ -6670,7 +6751,7 @@
       <c r="AA22" s="23"/>
       <c r="AB22" s="23">
         <f>SUM(F23:AA23)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -6725,7 +6806,7 @@
       </c>
       <c r="Q23" s="19">
         <f>IF(Q22=1,10,IF(Q22=2,8,IF(Q22=3,6,IF(Q22=4,5,IF(Q22=5,4,IF(Q22=6,3,IF(Q22=7,2,IF(Q22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="19">
         <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
@@ -6818,7 +6899,9 @@
       <c r="P24" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="47"/>
+      <c r="Q24" s="47">
+        <v>11</v>
+      </c>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
       <c r="T24" s="47"/>
@@ -6979,7 +7062,9 @@
       <c r="P26" s="27">
         <v>11</v>
       </c>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="27">
+        <v>14</v>
+      </c>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
@@ -7140,7 +7225,9 @@
       <c r="P28" s="48">
         <v>14</v>
       </c>
-      <c r="Q28" s="48"/>
+      <c r="Q28" s="48">
+        <v>18</v>
+      </c>
       <c r="R28" s="48"/>
       <c r="S28" s="35"/>
       <c r="T28" s="48"/>
@@ -7301,7 +7388,9 @@
       <c r="P30" s="24">
         <v>12</v>
       </c>
-      <c r="Q30" s="24"/>
+      <c r="Q30" s="24">
+        <v>12</v>
+      </c>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
@@ -7462,7 +7551,9 @@
       <c r="P32" s="50">
         <v>18</v>
       </c>
-      <c r="Q32" s="50"/>
+      <c r="Q32" s="50">
+        <v>17</v>
+      </c>
       <c r="R32" s="50"/>
       <c r="S32" s="50"/>
       <c r="T32" s="50"/>
@@ -7623,7 +7714,9 @@
       <c r="P34" s="25">
         <v>17</v>
       </c>
-      <c r="Q34" s="25"/>
+      <c r="Q34" s="25">
+        <v>15</v>
+      </c>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -7784,7 +7877,9 @@
       <c r="P36" s="42">
         <v>15</v>
       </c>
-      <c r="Q36" s="32"/>
+      <c r="Q36" s="32">
+        <v>10</v>
+      </c>
       <c r="R36" s="32"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -7945,7 +8040,9 @@
       <c r="P38" s="49">
         <v>16</v>
       </c>
-      <c r="Q38" s="49"/>
+      <c r="Q38" s="49">
+        <v>13</v>
+      </c>
       <c r="R38" s="49"/>
       <c r="S38" s="49"/>
       <c r="T38" s="49"/>
@@ -8245,7 +8342,9 @@
       <c r="P42" s="18">
         <v>13</v>
       </c>
-      <c r="Q42" s="18"/>
+      <c r="Q42" s="18">
+        <v>16</v>
+      </c>
       <c r="R42" s="28"/>
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
@@ -8390,8 +8489,7 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -8541,7 +8639,9 @@
       <c r="P2" s="18">
         <v>1</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="18">
+        <v>1</v>
+      </c>
       <c r="R2" s="28"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -8554,7 +8654,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -8609,7 +8709,7 @@
       </c>
       <c r="Q3" s="19">
         <f>IF(Q2=1,10,IF(Q2=2,6,IF(Q2=3,4,IF(Q2=4,3,IF(Q2=5,2,IF(Q2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" s="19">
         <f>IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
@@ -8702,7 +8802,9 @@
       <c r="P4" s="42">
         <v>3</v>
       </c>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="42">
+        <v>2</v>
+      </c>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
       <c r="T4" s="42"/>
@@ -8715,7 +8817,7 @@
       <c r="AA4" s="42"/>
       <c r="AB4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -8770,7 +8872,7 @@
       </c>
       <c r="Q5" s="19">
         <f>IF(Q4=1,10,IF(Q4=2,6,IF(Q4=3,4,IF(Q4=4,3,IF(Q4=5,2,IF(Q4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R5" s="19">
         <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
@@ -8863,7 +8965,9 @@
       <c r="P6" s="43">
         <v>9</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="43">
+        <v>5</v>
+      </c>
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
@@ -8876,7 +8980,7 @@
       <c r="AA6" s="43"/>
       <c r="AB6" s="43">
         <f>SUM(F7:AA7)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -8931,7 +9035,7 @@
       </c>
       <c r="Q7" s="19">
         <f>IF(Q6=1,10,IF(Q6=2,6,IF(Q6=3,4,IF(Q6=4,3,IF(Q6=5,2,IF(Q6=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="19">
         <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
@@ -9024,7 +9128,9 @@
       <c r="P8" s="44">
         <v>4</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="44">
+        <v>4</v>
+      </c>
       <c r="R8" s="37"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
@@ -9037,7 +9143,7 @@
       <c r="AA8" s="44"/>
       <c r="AB8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -9092,7 +9198,7 @@
       </c>
       <c r="Q9" s="19">
         <f>IF(Q8=1,10,IF(Q8=2,6,IF(Q8=3,4,IF(Q8=4,3,IF(Q8=5,2,IF(Q8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="19">
         <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
@@ -9137,68 +9243,70 @@
       <c r="AB9" s="19"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="46">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="20">
+        <v>7</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="20">
+        <v>3</v>
+      </c>
+      <c r="J10" s="20">
+        <v>7</v>
+      </c>
+      <c r="K10" s="20">
+        <v>6</v>
+      </c>
+      <c r="L10" s="20">
+        <v>11</v>
+      </c>
+      <c r="M10" s="20">
         <v>4</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="46">
-        <v>17</v>
-      </c>
-      <c r="G10" s="46">
-        <v>17</v>
-      </c>
-      <c r="H10" s="46">
-        <v>6</v>
-      </c>
-      <c r="I10" s="46">
+      <c r="N10" s="20">
+        <v>2</v>
+      </c>
+      <c r="O10" s="20">
         <v>9</v>
       </c>
-      <c r="J10" s="46">
-        <v>17</v>
-      </c>
-      <c r="K10" s="46">
-        <v>9</v>
-      </c>
-      <c r="L10" s="46">
-        <v>17</v>
-      </c>
-      <c r="M10" s="46">
-        <v>13</v>
-      </c>
-      <c r="N10" s="46">
-        <v>4</v>
-      </c>
-      <c r="O10" s="36">
-        <v>2</v>
-      </c>
-      <c r="P10" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46">
+      <c r="P10" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>3</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20">
         <f>SUM(F11:AA11)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -9217,11 +9325,11 @@
       </c>
       <c r="H11" s="19">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="19">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="19">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
@@ -9229,7 +9337,7 @@
       </c>
       <c r="K11" s="19">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="19">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
@@ -9237,23 +9345,23 @@
       </c>
       <c r="M11" s="19">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="19">
         <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O11" s="19">
         <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P11" s="19">
         <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="19">
         <f>IF(Q10=1,10,IF(Q10=2,6,IF(Q10=3,4,IF(Q10=4,3,IF(Q10=5,2,IF(Q10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R11" s="19">
         <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
@@ -9298,68 +9406,70 @@
       <c r="AB11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="21">
-        <v>63</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="46">
+        <v>4</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="F12" s="46">
+        <v>17</v>
+      </c>
+      <c r="G12" s="46">
+        <v>17</v>
+      </c>
+      <c r="H12" s="46">
+        <v>6</v>
+      </c>
+      <c r="I12" s="46">
+        <v>9</v>
+      </c>
+      <c r="J12" s="46">
+        <v>17</v>
+      </c>
+      <c r="K12" s="46">
+        <v>9</v>
+      </c>
+      <c r="L12" s="46">
+        <v>17</v>
+      </c>
+      <c r="M12" s="46">
+        <v>13</v>
+      </c>
+      <c r="N12" s="46">
+        <v>4</v>
+      </c>
+      <c r="O12" s="36">
+        <v>2</v>
+      </c>
+      <c r="P12" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="46">
         <v>7</v>
       </c>
-      <c r="G12" s="21">
-        <v>4</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="21">
-        <v>8</v>
-      </c>
-      <c r="J12" s="21">
-        <v>4</v>
-      </c>
-      <c r="K12" s="21">
-        <v>5</v>
-      </c>
-      <c r="L12" s="21">
-        <v>3</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="21">
-        <v>7</v>
-      </c>
-      <c r="O12" s="21">
-        <v>5</v>
-      </c>
-      <c r="P12" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21">
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46">
         <f>SUM(F13:AA13)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -9374,11 +9484,11 @@
       </c>
       <c r="G13" s="19">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
@@ -9386,15 +9496,15 @@
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
@@ -9402,15 +9512,15 @@
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,10,IF(Q12=2,6,IF(Q12=3,4,IF(Q12=4,3,IF(Q12=5,2,IF(Q12=6,1,0))))))</f>
@@ -9459,68 +9569,70 @@
       <c r="AB13" s="19"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20">
+      <c r="A14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="21">
+        <v>63</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="21">
+        <v>7</v>
+      </c>
+      <c r="G14" s="21">
+        <v>4</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="21">
+        <v>8</v>
+      </c>
+      <c r="J14" s="21">
+        <v>4</v>
+      </c>
+      <c r="K14" s="21">
+        <v>5</v>
+      </c>
+      <c r="L14" s="21">
+        <v>3</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="21">
+        <v>7</v>
+      </c>
+      <c r="O14" s="21">
+        <v>5</v>
+      </c>
+      <c r="P14" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>6</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21">
+        <f>SUM(F15:AA15)</f>
         <v>16</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="20">
-        <v>7</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="20">
-        <v>3</v>
-      </c>
-      <c r="J14" s="20">
-        <v>7</v>
-      </c>
-      <c r="K14" s="20">
-        <v>6</v>
-      </c>
-      <c r="L14" s="20">
-        <v>11</v>
-      </c>
-      <c r="M14" s="20">
-        <v>4</v>
-      </c>
-      <c r="N14" s="20">
-        <v>2</v>
-      </c>
-      <c r="O14" s="20">
-        <v>9</v>
-      </c>
-      <c r="P14" s="20">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
-        <f>SUM(F15:AA15)</f>
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -9535,7 +9647,7 @@
       </c>
       <c r="G15" s="19">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="19">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -9543,39 +9655,39 @@
       </c>
       <c r="I15" s="19">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="19">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="19">
         <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="19">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="19">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" s="19">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O15" s="19">
         <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="19">
         <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
@@ -9668,7 +9780,9 @@
       <c r="P16" s="45">
         <v>8</v>
       </c>
-      <c r="Q16" s="45"/>
+      <c r="Q16" s="45" t="s">
+        <v>124</v>
+      </c>
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="45"/>
@@ -9829,7 +9943,9 @@
       <c r="P18" s="26">
         <v>10</v>
       </c>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>9</v>
+      </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -9990,7 +10106,9 @@
       <c r="P20" s="22">
         <v>5</v>
       </c>
-      <c r="Q20" s="22"/>
+      <c r="Q20" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
@@ -10151,7 +10269,9 @@
       <c r="P22" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Q22" s="23"/>
+      <c r="Q22" s="23">
+        <v>8</v>
+      </c>
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
@@ -10312,7 +10432,9 @@
       <c r="P24" s="50">
         <v>18</v>
       </c>
-      <c r="Q24" s="50"/>
+      <c r="Q24" s="50">
+        <v>17</v>
+      </c>
       <c r="R24" s="50"/>
       <c r="S24" s="50"/>
       <c r="T24" s="50"/>
@@ -10473,7 +10595,9 @@
       <c r="P26" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Q26" s="47"/>
+      <c r="Q26" s="47">
+        <v>11</v>
+      </c>
       <c r="R26" s="47"/>
       <c r="S26" s="47"/>
       <c r="T26" s="47"/>
@@ -10634,7 +10758,9 @@
       <c r="P28" s="25">
         <v>17</v>
       </c>
-      <c r="Q28" s="25"/>
+      <c r="Q28" s="25">
+        <v>15</v>
+      </c>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
@@ -10795,7 +10921,9 @@
       <c r="P30" s="42">
         <v>15</v>
       </c>
-      <c r="Q30" s="32"/>
+      <c r="Q30" s="32">
+        <v>10</v>
+      </c>
       <c r="R30" s="32"/>
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
@@ -10956,7 +11084,9 @@
       <c r="P32" s="27">
         <v>11</v>
       </c>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="27">
+        <v>14</v>
+      </c>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
@@ -11117,7 +11247,9 @@
       <c r="P34" s="49">
         <v>16</v>
       </c>
-      <c r="Q34" s="49"/>
+      <c r="Q34" s="49">
+        <v>13</v>
+      </c>
       <c r="R34" s="49"/>
       <c r="S34" s="49"/>
       <c r="T34" s="49"/>
@@ -11278,7 +11410,9 @@
       <c r="P36" s="48">
         <v>14</v>
       </c>
-      <c r="Q36" s="48"/>
+      <c r="Q36" s="48">
+        <v>18</v>
+      </c>
       <c r="R36" s="48"/>
       <c r="S36" s="35"/>
       <c r="T36" s="48"/>
@@ -11598,7 +11732,9 @@
       <c r="P40" s="24">
         <v>12</v>
       </c>
-      <c r="Q40" s="24"/>
+      <c r="Q40" s="24">
+        <v>12</v>
+      </c>
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
@@ -11739,7 +11875,9 @@
       <c r="P42" s="18">
         <v>13</v>
       </c>
-      <c r="Q42" s="18"/>
+      <c r="Q42" s="18">
+        <v>16</v>
+      </c>
       <c r="R42" s="28"/>
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
@@ -11908,11 +12046,11 @@
       </c>
       <c r="D2" s="9">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="E2" s="9">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>415</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11927,11 +12065,11 @@
       </c>
       <c r="D3" s="14">
         <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD10</f>
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E3" s="14">
         <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE10</f>
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11946,11 +12084,11 @@
       </c>
       <c r="D4" s="7">
         <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD18</f>
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E4" s="7">
         <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE18</f>
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11965,11 +12103,11 @@
       </c>
       <c r="D5" s="6">
         <f>'2023 Driver Ranking'!AD12+'2023 Driver Ranking'!AD14</f>
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="E5" s="6">
         <f>'2023 Driver Ranking'!AE12+'2023 Driver Ranking'!AE14</f>
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11984,11 +12122,11 @@
       </c>
       <c r="D6" s="5">
         <f>'2023 Driver Ranking'!AD16+'2023 Driver Ranking'!AD22</f>
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E6" s="5">
         <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE22</f>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12003,49 +12141,49 @@
       </c>
       <c r="D7" s="2">
         <f>'2023 Driver Ranking'!AD20+'2023 Driver Ranking'!AD24</f>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2">
         <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE24</f>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4">
+        <f>'2023 Driver Ranking'!AD26+'2023 Driver Ranking'!AD38</f>
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE38</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <f>'2023 Driver Ranking'!AD28+'2023 Driver Ranking'!AD36</f>
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <f>'2023 Driver Ranking'!AE28+'2023 Driver Ranking'!AE36</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="4">
-        <f>'2023 Driver Ranking'!AD26+'2023 Driver Ranking'!AD38</f>
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE38</f>
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12079,11 +12217,11 @@
       </c>
       <c r="D11" s="9">
         <f>'2023 Driver Ranking'!AD34+'2023 Driver Ranking'!AD40+'2023 Driver Ranking'!AD42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="9">
         <f>'2023 Driver Ranking'!AE34+'2023 Driver Ranking'!AE40+'2023 Driver Ranking'!AE42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12139,7 +12277,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12153,8 +12291,8 @@
         <v>65</v>
       </c>
       <c r="D3" s="14">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB10</f>
-        <v>85</v>
+        <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB10</f>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12168,8 +12306,8 @@
         <v>73</v>
       </c>
       <c r="D4" s="7">
-        <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB18</f>
-        <v>66</v>
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB18</f>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12184,7 +12322,7 @@
       </c>
       <c r="D5" s="6">
         <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12199,7 +12337,7 @@
       </c>
       <c r="D6" s="5">
         <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB20</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12214,7 +12352,7 @@
       </c>
       <c r="D7" s="2">
         <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB24</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12329,7 +12467,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12343,8 +12481,8 @@
         <v>65</v>
       </c>
       <c r="D3" s="14">
-        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB12</f>
-        <v>47</v>
+        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB14</f>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12359,7 +12497,7 @@
       </c>
       <c r="D4" s="7">
         <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB18</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12373,8 +12511,8 @@
         <v>67</v>
       </c>
       <c r="D5" s="6">
-        <f>'1991-2002 Driver Ranking'!AB14+'1991-2002 Driver Ranking'!AB16</f>
-        <v>27</v>
+        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB16</f>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12388,7 +12526,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB20</f>
+        <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB20</f>
         <v>21</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="133">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,14 @@
   </si>
   <si>
     <t>New Zealander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1147,8 +1155,7 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="29" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
@@ -1311,7 +1318,9 @@
       <c r="R2" s="18">
         <v>1</v>
       </c>
-      <c r="S2" s="28"/>
+      <c r="S2" s="28">
+        <v>1</v>
+      </c>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
@@ -1330,11 +1339,11 @@
       </c>
       <c r="AD2" s="18">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1397,7 +1406,7 @@
       </c>
       <c r="S3" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T3" s="19">
         <f t="shared" si="0"/>
@@ -1491,7 +1500,9 @@
       <c r="R4" s="42">
         <v>4</v>
       </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="42">
+        <v>2</v>
+      </c>
       <c r="T4" s="32"/>
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
@@ -1510,11 +1521,11 @@
       </c>
       <c r="AD4" s="42">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AE4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1577,7 +1588,7 @@
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T5" s="19">
         <f t="shared" si="1"/>
@@ -1671,7 +1682,9 @@
       <c r="R6" s="43">
         <v>2</v>
       </c>
-      <c r="S6" s="43"/>
+      <c r="S6" s="43">
+        <v>9</v>
+      </c>
       <c r="T6" s="30"/>
       <c r="U6" s="43"/>
       <c r="V6" s="43"/>
@@ -1690,11 +1703,11 @@
       </c>
       <c r="AD6" s="43">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AE6" s="43">
         <f>SUM(F7:AA7)</f>
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1757,7 +1770,7 @@
       </c>
       <c r="S7" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" si="2"/>
@@ -1851,7 +1864,9 @@
       <c r="R8" s="44">
         <v>6</v>
       </c>
-      <c r="S8" s="44"/>
+      <c r="S8" s="44">
+        <v>6</v>
+      </c>
       <c r="T8" s="37"/>
       <c r="U8" s="44"/>
       <c r="V8" s="44"/>
@@ -1870,11 +1885,11 @@
       </c>
       <c r="AD8" s="44">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AE8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1937,7 +1952,7 @@
       </c>
       <c r="S9" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T9" s="19">
         <f t="shared" si="3"/>
@@ -2031,7 +2046,9 @@
       <c r="R10" s="45">
         <v>5</v>
       </c>
-      <c r="S10" s="45"/>
+      <c r="S10" s="45">
+        <v>3</v>
+      </c>
       <c r="T10" s="34"/>
       <c r="U10" s="45"/>
       <c r="V10" s="45"/>
@@ -2047,11 +2064,11 @@
       </c>
       <c r="AD10" s="45">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AE10" s="45">
         <f>SUM(F11:AA11)</f>
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2114,7 +2131,7 @@
       </c>
       <c r="S11" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T11" s="19">
         <f t="shared" si="4"/>
@@ -2154,84 +2171,83 @@
       <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="21">
-        <v>63</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="A12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="20">
+        <v>16</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="20">
         <v>7</v>
       </c>
-      <c r="G12" s="21">
+      <c r="H12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="20">
+        <v>3</v>
+      </c>
+      <c r="J12" s="20">
+        <v>7</v>
+      </c>
+      <c r="K12" s="20">
+        <v>6</v>
+      </c>
+      <c r="L12" s="20">
+        <v>11</v>
+      </c>
+      <c r="M12" s="20">
         <v>4</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="21">
-        <v>8</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="N12" s="20">
+        <v>2</v>
+      </c>
+      <c r="O12" s="20">
+        <v>9</v>
+      </c>
+      <c r="P12" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>3</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="S12" s="20">
         <v>4</v>
       </c>
-      <c r="K12" s="21">
-        <v>5</v>
-      </c>
-      <c r="L12" s="21">
-        <v>3</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="21">
-        <v>7</v>
-      </c>
-      <c r="O12" s="21">
-        <v>5</v>
-      </c>
-      <c r="P12" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>6</v>
-      </c>
-      <c r="R12" s="21">
-        <v>17</v>
-      </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AC12" s="21">
-        <f>5+1+1</f>
-        <v>7</v>
-      </c>
-      <c r="AD12" s="21">
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
+        <f>7+4</f>
+        <v>11</v>
+      </c>
+      <c r="AD12" s="20">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>99</v>
-      </c>
-      <c r="AE12" s="21">
+        <v>111</v>
+      </c>
+      <c r="AE12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2242,11 +2258,11 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19">
         <f t="shared" ref="F13:AA13" si="5">IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="5"/>
@@ -2254,39 +2270,39 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J13" s="19">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K13" s="19">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N13" s="19">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="5"/>
@@ -2294,7 +2310,7 @@
       </c>
       <c r="S13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T13" s="19">
         <f t="shared" si="5"/>
@@ -2334,81 +2350,86 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="A14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="21">
+        <v>63</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="21">
         <v>7</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="G14" s="21">
+        <v>4</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="21">
+        <v>8</v>
+      </c>
+      <c r="J14" s="21">
+        <v>4</v>
+      </c>
+      <c r="K14" s="21">
+        <v>5</v>
+      </c>
+      <c r="L14" s="21">
         <v>3</v>
       </c>
-      <c r="J14" s="20">
+      <c r="M14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="21">
         <v>7</v>
       </c>
-      <c r="K14" s="20">
+      <c r="O14" s="21">
+        <v>5</v>
+      </c>
+      <c r="P14" s="21">
         <v>6</v>
       </c>
-      <c r="L14" s="20">
-        <v>11</v>
-      </c>
-      <c r="M14" s="20">
-        <v>4</v>
-      </c>
-      <c r="N14" s="20">
-        <v>2</v>
-      </c>
-      <c r="O14" s="20">
-        <v>9</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="Q14" s="21">
+        <v>6</v>
+      </c>
+      <c r="R14" s="21">
+        <v>17</v>
+      </c>
+      <c r="S14" s="21">
+        <v>5</v>
+      </c>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="21">
+        <f>5+1+1</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="20">
-        <v>3</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20">
-        <f>7+4</f>
-        <v>11</v>
-      </c>
-      <c r="AD14" s="20">
+      <c r="AD14" s="21">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>99</v>
-      </c>
-      <c r="AE14" s="20">
+        <v>109</v>
+      </c>
+      <c r="AE14" s="21">
         <f>SUM(F15:AA15)</f>
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2419,11 +2440,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19">
         <f t="shared" ref="F15:AA15" si="6">IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" si="6"/>
@@ -2431,39 +2452,39 @@
       </c>
       <c r="I15" s="19">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K15" s="19">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M15" s="19">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N15" s="19">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P15" s="19">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="6"/>
@@ -2471,7 +2492,7 @@
       </c>
       <c r="S15" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="19">
         <f t="shared" si="6"/>
@@ -2565,7 +2586,9 @@
       <c r="R16" s="46">
         <v>7</v>
       </c>
-      <c r="S16" s="46"/>
+      <c r="S16" s="46">
+        <v>8</v>
+      </c>
       <c r="T16" s="36"/>
       <c r="U16" s="46"/>
       <c r="V16" s="46"/>
@@ -2581,11 +2604,11 @@
       </c>
       <c r="AD16" s="46">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AE16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2648,7 +2671,7 @@
       </c>
       <c r="S17" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T17" s="19">
         <f t="shared" si="7"/>
@@ -2742,7 +2765,9 @@
       <c r="R18" s="26">
         <v>11</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="26">
+        <v>14</v>
+      </c>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
@@ -2919,7 +2944,9 @@
       <c r="R20" s="47">
         <v>3</v>
       </c>
-      <c r="S20" s="47"/>
+      <c r="S20" s="47">
+        <v>16</v>
+      </c>
       <c r="T20" s="33"/>
       <c r="U20" s="47"/>
       <c r="V20" s="47"/>
@@ -3096,7 +3123,9 @@
       <c r="R22" s="23">
         <v>10</v>
       </c>
-      <c r="S22" s="23"/>
+      <c r="S22" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -3273,7 +3302,9 @@
       <c r="R24" s="22">
         <v>9</v>
       </c>
-      <c r="S24" s="22"/>
+      <c r="S24" s="22">
+        <v>12</v>
+      </c>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
@@ -3450,7 +3481,9 @@
       <c r="R26" s="27">
         <v>8</v>
       </c>
-      <c r="S26" s="27"/>
+      <c r="S26" s="27">
+        <v>7</v>
+      </c>
       <c r="T26" s="27"/>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -3463,11 +3496,11 @@
       <c r="AC26" s="27"/>
       <c r="AD26" s="27">
         <f>SUM(F27:AA27)+SUM(AB26,AC26)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE26" s="27">
         <f>SUM(F27:AA27)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3530,7 +3563,7 @@
       </c>
       <c r="S27" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T27" s="19">
         <f t="shared" si="12"/>
@@ -3624,7 +3657,9 @@
       <c r="R28" s="48">
         <v>12</v>
       </c>
-      <c r="S28" s="48"/>
+      <c r="S28" s="48">
+        <v>17</v>
+      </c>
       <c r="T28" s="35"/>
       <c r="U28" s="48"/>
       <c r="V28" s="48"/>
@@ -3801,7 +3836,9 @@
       <c r="R30" s="24">
         <v>14</v>
       </c>
-      <c r="S30" s="24"/>
+      <c r="S30" s="24">
+        <v>10</v>
+      </c>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
       <c r="V30" s="24"/>
@@ -3814,11 +3851,11 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24">
         <f>SUM(F31:AA31)+SUM(AB30,AC30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" s="24">
         <f>SUM(F31:AA31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -3881,7 +3918,7 @@
       </c>
       <c r="S31" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="19">
         <f t="shared" si="14"/>
@@ -3975,7 +4012,9 @@
       <c r="R32" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="S32" s="49"/>
+      <c r="S32" s="49">
+        <v>15</v>
+      </c>
       <c r="T32" s="31"/>
       <c r="U32" s="49"/>
       <c r="V32" s="49"/>
@@ -4149,7 +4188,9 @@
       <c r="R34" s="32">
         <v>15</v>
       </c>
-      <c r="S34" s="32"/>
+      <c r="S34" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="T34" s="32"/>
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
@@ -4323,7 +4364,9 @@
       <c r="R36" s="25">
         <v>16</v>
       </c>
-      <c r="S36" s="25"/>
+      <c r="S36" s="25">
+        <v>18</v>
+      </c>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
@@ -4497,7 +4540,9 @@
       <c r="R38" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="S38" s="50"/>
+      <c r="S38" s="50">
+        <v>11</v>
+      </c>
       <c r="T38" s="38"/>
       <c r="U38" s="50"/>
       <c r="V38" s="50"/>
@@ -4818,8 +4863,8 @@
       </c>
       <c r="R42" s="52"/>
       <c r="S42" s="52"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
       <c r="V42" s="18"/>
       <c r="W42" s="28"/>
       <c r="X42" s="18"/>
@@ -4900,11 +4945,11 @@
         <v>0</v>
       </c>
       <c r="T43" s="19">
-        <f t="shared" si="20"/>
+        <f>IF(T44=1,25,IF(T44=2,18,IF(T44=3,15,IF(T44=4,12,IF(T44=5,10,IF(T44=6,8,IF(T44=7,6,IF(T44=8,4,IF(T44=9,2,IF(T44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="19">
-        <f t="shared" si="20"/>
+        <f>IF(U44=1,25,IF(U44=2,18,IF(U44=3,15,IF(U44=4,12,IF(U44=5,10,IF(U44=6,8,IF(U44=7,6,IF(U44=8,4,IF(U44=9,2,IF(U44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="19">
@@ -4967,9 +5012,11 @@
       <c r="R44" s="18">
         <v>13</v>
       </c>
-      <c r="S44" s="18"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
+      <c r="S44" s="18">
+        <v>13</v>
+      </c>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
       <c r="V44" s="52"/>
       <c r="W44" s="52"/>
       <c r="X44" s="52"/>
@@ -5146,7 +5193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5163,8 +5212,7 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
@@ -5317,7 +5365,9 @@
       <c r="R2" s="28">
         <v>1</v>
       </c>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18">
+        <v>1</v>
+      </c>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
@@ -5328,7 +5378,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5391,7 +5441,7 @@
       </c>
       <c r="S3" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="19">
         <f t="shared" si="0"/>
@@ -5482,7 +5532,9 @@
       <c r="R4" s="42">
         <v>4</v>
       </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="42">
+        <v>2</v>
+      </c>
       <c r="T4" s="42"/>
       <c r="U4" s="32"/>
       <c r="V4" s="32"/>
@@ -5493,7 +5545,7 @@
       <c r="AA4" s="42"/>
       <c r="AB4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5556,7 +5608,7 @@
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T5" s="19">
         <f t="shared" si="1"/>
@@ -5647,7 +5699,9 @@
       <c r="R6" s="43">
         <v>2</v>
       </c>
-      <c r="S6" s="43"/>
+      <c r="S6" s="43">
+        <v>9</v>
+      </c>
       <c r="T6" s="43"/>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
@@ -5812,7 +5866,9 @@
       <c r="R8" s="37">
         <v>6</v>
       </c>
-      <c r="S8" s="44"/>
+      <c r="S8" s="44">
+        <v>6</v>
+      </c>
       <c r="T8" s="44"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
@@ -5823,7 +5879,7 @@
       <c r="AA8" s="44"/>
       <c r="AB8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5886,7 +5942,7 @@
       </c>
       <c r="S9" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T9" s="19">
         <f t="shared" si="3"/>
@@ -5977,7 +6033,9 @@
       <c r="R10" s="21">
         <v>17</v>
       </c>
-      <c r="S10" s="21"/>
+      <c r="S10" s="21">
+        <v>5</v>
+      </c>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
@@ -5988,7 +6046,7 @@
       <c r="AA10" s="21"/>
       <c r="AB10" s="21">
         <f>SUM(F11:AA11)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -6051,7 +6109,7 @@
       </c>
       <c r="S11" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="19">
         <f t="shared" si="4"/>
@@ -6142,7 +6200,9 @@
       <c r="R12" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="S12" s="20"/>
+      <c r="S12" s="20">
+        <v>4</v>
+      </c>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
@@ -6153,7 +6213,7 @@
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6216,7 +6276,7 @@
       </c>
       <c r="S13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T13" s="19">
         <f t="shared" si="5"/>
@@ -6307,7 +6367,9 @@
       <c r="R14" s="45">
         <v>5</v>
       </c>
-      <c r="S14" s="45"/>
+      <c r="S14" s="45">
+        <v>3</v>
+      </c>
       <c r="T14" s="45"/>
       <c r="U14" s="34"/>
       <c r="V14" s="34"/>
@@ -6318,7 +6380,7 @@
       <c r="AA14" s="45"/>
       <c r="AB14" s="45">
         <f>SUM(F15:AA15)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6381,7 +6443,7 @@
       </c>
       <c r="S15" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T15" s="19">
         <f t="shared" si="6"/>
@@ -6472,7 +6534,9 @@
       <c r="R16" s="46">
         <v>7</v>
       </c>
-      <c r="S16" s="46"/>
+      <c r="S16" s="46">
+        <v>8</v>
+      </c>
       <c r="T16" s="46"/>
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
@@ -6483,7 +6547,7 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6546,7 +6610,7 @@
       </c>
       <c r="S17" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="19">
         <f t="shared" si="7"/>
@@ -6637,7 +6701,9 @@
       <c r="R18" s="26">
         <v>11</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="26">
+        <v>14</v>
+      </c>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
@@ -6802,7 +6868,9 @@
       <c r="R20" s="22">
         <v>9</v>
       </c>
-      <c r="S20" s="22"/>
+      <c r="S20" s="22">
+        <v>12</v>
+      </c>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
@@ -6967,7 +7035,9 @@
       <c r="R22" s="23">
         <v>10</v>
       </c>
-      <c r="S22" s="23"/>
+      <c r="S22" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -7132,7 +7202,9 @@
       <c r="R24" s="47">
         <v>3</v>
       </c>
-      <c r="S24" s="47"/>
+      <c r="S24" s="47">
+        <v>16</v>
+      </c>
       <c r="T24" s="47"/>
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
@@ -7297,7 +7369,9 @@
       <c r="R26" s="27">
         <v>8</v>
       </c>
-      <c r="S26" s="27"/>
+      <c r="S26" s="27">
+        <v>7</v>
+      </c>
       <c r="T26" s="27"/>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -7308,7 +7382,7 @@
       <c r="AA26" s="27"/>
       <c r="AB26" s="27">
         <f>SUM(F27:AA27)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -7371,7 +7445,7 @@
       </c>
       <c r="S27" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" s="19">
         <f t="shared" si="12"/>
@@ -7462,7 +7536,9 @@
       <c r="R28" s="48">
         <v>12</v>
       </c>
-      <c r="S28" s="35"/>
+      <c r="S28" s="35">
+        <v>17</v>
+      </c>
       <c r="T28" s="48"/>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
@@ -7627,7 +7703,9 @@
       <c r="R30" s="24">
         <v>14</v>
       </c>
-      <c r="S30" s="24"/>
+      <c r="S30" s="24">
+        <v>10</v>
+      </c>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
       <c r="V30" s="24"/>
@@ -7792,7 +7870,9 @@
       <c r="R32" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="S32" s="50"/>
+      <c r="S32" s="50">
+        <v>11</v>
+      </c>
       <c r="T32" s="50"/>
       <c r="U32" s="38"/>
       <c r="V32" s="38"/>
@@ -7957,7 +8037,9 @@
       <c r="R34" s="25">
         <v>16</v>
       </c>
-      <c r="S34" s="25"/>
+      <c r="S34" s="25">
+        <v>18</v>
+      </c>
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
@@ -8122,7 +8204,9 @@
       <c r="R36" s="32">
         <v>15</v>
       </c>
-      <c r="S36" s="42"/>
+      <c r="S36" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="T36" s="42"/>
       <c r="U36" s="32"/>
       <c r="V36" s="32"/>
@@ -8287,7 +8371,9 @@
       <c r="R38" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="S38" s="49"/>
+      <c r="S38" s="49">
+        <v>15</v>
+      </c>
       <c r="T38" s="49"/>
       <c r="U38" s="31"/>
       <c r="V38" s="31"/>
@@ -8590,8 +8676,8 @@
       </c>
       <c r="R42" s="52"/>
       <c r="S42" s="52"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
@@ -8730,9 +8816,11 @@
       <c r="R44" s="18">
         <v>13</v>
       </c>
-      <c r="S44" s="18"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
+      <c r="S44" s="18">
+        <v>13</v>
+      </c>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
       <c r="V44" s="52"/>
       <c r="W44" s="52"/>
       <c r="X44" s="52"/>
@@ -8873,8 +8961,7 @@
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -9028,7 +9115,9 @@
       <c r="R2" s="28">
         <v>1</v>
       </c>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18">
+        <v>1</v>
+      </c>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
@@ -9039,7 +9128,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -9102,7 +9191,7 @@
       </c>
       <c r="S3" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="19">
         <f t="shared" si="0"/>
@@ -9193,7 +9282,9 @@
       <c r="R4" s="42">
         <v>4</v>
       </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="42">
+        <v>2</v>
+      </c>
       <c r="T4" s="42"/>
       <c r="U4" s="32"/>
       <c r="V4" s="42"/>
@@ -9204,7 +9295,7 @@
       <c r="AA4" s="42"/>
       <c r="AB4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -9267,7 +9358,7 @@
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T5" s="19">
         <f t="shared" si="1"/>
@@ -9358,7 +9449,9 @@
       <c r="R6" s="43">
         <v>2</v>
       </c>
-      <c r="S6" s="43"/>
+      <c r="S6" s="43">
+        <v>9</v>
+      </c>
       <c r="T6" s="43"/>
       <c r="U6" s="30"/>
       <c r="V6" s="43"/>
@@ -9523,7 +9616,9 @@
       <c r="R8" s="37">
         <v>6</v>
       </c>
-      <c r="S8" s="44"/>
+      <c r="S8" s="44">
+        <v>6</v>
+      </c>
       <c r="T8" s="44"/>
       <c r="U8" s="37"/>
       <c r="V8" s="44"/>
@@ -9534,7 +9629,7 @@
       <c r="AA8" s="44"/>
       <c r="AB8" s="44">
         <f>SUM(F9:AA9)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -9597,7 +9692,7 @@
       </c>
       <c r="S9" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="19">
         <f t="shared" si="3"/>
@@ -9688,7 +9783,9 @@
       <c r="R10" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="S10" s="20"/>
+      <c r="S10" s="20">
+        <v>4</v>
+      </c>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
@@ -9699,7 +9796,7 @@
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
         <f>SUM(F11:AA11)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -9762,7 +9859,7 @@
       </c>
       <c r="S11" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" s="19">
         <f t="shared" si="4"/>
@@ -9799,72 +9896,74 @@
       <c r="AB11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="46">
+      <c r="A12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="45">
+        <v>55</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="45">
         <v>4</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="G12" s="45">
+        <v>6</v>
+      </c>
+      <c r="H12" s="45">
+        <v>12</v>
+      </c>
+      <c r="I12" s="45">
+        <v>5</v>
+      </c>
+      <c r="J12" s="45">
+        <v>5</v>
+      </c>
+      <c r="K12" s="45">
+        <v>8</v>
+      </c>
+      <c r="L12" s="45">
+        <v>5</v>
+      </c>
+      <c r="M12" s="45">
+        <v>5</v>
+      </c>
+      <c r="N12" s="45">
+        <v>6</v>
+      </c>
+      <c r="O12" s="45">
+        <v>10</v>
+      </c>
+      <c r="P12" s="45">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="45">
+        <v>5</v>
+      </c>
+      <c r="S12" s="45">
+        <v>3</v>
+      </c>
+      <c r="T12" s="45"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45">
+        <f>SUM(F13:AA13)</f>
         <v>19</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="46">
-        <v>17</v>
-      </c>
-      <c r="G12" s="46">
-        <v>17</v>
-      </c>
-      <c r="H12" s="46">
-        <v>6</v>
-      </c>
-      <c r="I12" s="46">
-        <v>9</v>
-      </c>
-      <c r="J12" s="46">
-        <v>17</v>
-      </c>
-      <c r="K12" s="46">
-        <v>9</v>
-      </c>
-      <c r="L12" s="46">
-        <v>17</v>
-      </c>
-      <c r="M12" s="46">
-        <v>13</v>
-      </c>
-      <c r="N12" s="46">
-        <v>4</v>
-      </c>
-      <c r="O12" s="36">
-        <v>2</v>
-      </c>
-      <c r="P12" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="46">
-        <v>7</v>
-      </c>
-      <c r="R12" s="46">
-        <v>7</v>
-      </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46">
-        <f>SUM(F13:AA13)</f>
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -9875,23 +9974,23 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19">
         <f t="shared" ref="F13:AA13" si="5">IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="19">
         <f t="shared" si="5"/>
@@ -9899,23 +9998,23 @@
       </c>
       <c r="L13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="19">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="5"/>
@@ -9923,11 +10022,11 @@
       </c>
       <c r="R13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" s="19">
         <f t="shared" si="5"/>
@@ -10018,7 +10117,9 @@
       <c r="R14" s="21">
         <v>17</v>
       </c>
-      <c r="S14" s="21"/>
+      <c r="S14" s="21">
+        <v>5</v>
+      </c>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
@@ -10029,7 +10130,7 @@
       <c r="AA14" s="21"/>
       <c r="AB14" s="21">
         <f>SUM(F15:AA15)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -10092,7 +10193,7 @@
       </c>
       <c r="S15" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="19">
         <f t="shared" si="6"/>
@@ -10129,72 +10230,74 @@
       <c r="AB15" s="19"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="45">
-        <v>55</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="45">
+      <c r="A16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="46">
         <v>4</v>
       </c>
-      <c r="G16" s="45">
+      <c r="C16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="46">
+        <v>17</v>
+      </c>
+      <c r="G16" s="46">
+        <v>17</v>
+      </c>
+      <c r="H16" s="46">
         <v>6</v>
       </c>
-      <c r="H16" s="45">
-        <v>12</v>
-      </c>
-      <c r="I16" s="45">
-        <v>5</v>
-      </c>
-      <c r="J16" s="45">
-        <v>5</v>
-      </c>
-      <c r="K16" s="45">
+      <c r="I16" s="46">
+        <v>9</v>
+      </c>
+      <c r="J16" s="46">
+        <v>17</v>
+      </c>
+      <c r="K16" s="46">
+        <v>9</v>
+      </c>
+      <c r="L16" s="46">
+        <v>17</v>
+      </c>
+      <c r="M16" s="46">
+        <v>13</v>
+      </c>
+      <c r="N16" s="46">
+        <v>4</v>
+      </c>
+      <c r="O16" s="36">
+        <v>2</v>
+      </c>
+      <c r="P16" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>7</v>
+      </c>
+      <c r="R16" s="46">
+        <v>7</v>
+      </c>
+      <c r="S16" s="46">
         <v>8</v>
       </c>
-      <c r="L16" s="45">
-        <v>5</v>
-      </c>
-      <c r="M16" s="45">
-        <v>5</v>
-      </c>
-      <c r="N16" s="45">
-        <v>6</v>
-      </c>
-      <c r="O16" s="45">
-        <v>10</v>
-      </c>
-      <c r="P16" s="45">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="R16" s="45">
-        <v>5</v>
-      </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45">
+      <c r="T16" s="46"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -10205,23 +10308,23 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19">
         <f t="shared" ref="F17:AA17" si="7">IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="7"/>
@@ -10229,23 +10332,23 @@
       </c>
       <c r="L17" s="19">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="19">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="7"/>
@@ -10253,7 +10356,7 @@
       </c>
       <c r="R17" s="19">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="7"/>
@@ -10348,7 +10451,9 @@
       <c r="R18" s="26">
         <v>11</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="26">
+        <v>14</v>
+      </c>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
@@ -10513,7 +10618,9 @@
       <c r="R20" s="22">
         <v>9</v>
       </c>
-      <c r="S20" s="22"/>
+      <c r="S20" s="22">
+        <v>12</v>
+      </c>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
@@ -10678,7 +10785,9 @@
       <c r="R22" s="23">
         <v>10</v>
       </c>
-      <c r="S22" s="23"/>
+      <c r="S22" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -10843,7 +10952,9 @@
       <c r="R24" s="47">
         <v>3</v>
       </c>
-      <c r="S24" s="47"/>
+      <c r="S24" s="47">
+        <v>16</v>
+      </c>
       <c r="T24" s="47"/>
       <c r="U24" s="33"/>
       <c r="V24" s="47"/>
@@ -11008,7 +11119,9 @@
       <c r="R26" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="S26" s="50"/>
+      <c r="S26" s="50">
+        <v>11</v>
+      </c>
       <c r="T26" s="50"/>
       <c r="U26" s="38"/>
       <c r="V26" s="50"/>
@@ -11173,7 +11286,9 @@
       <c r="R28" s="25">
         <v>16</v>
       </c>
-      <c r="S28" s="25"/>
+      <c r="S28" s="25">
+        <v>18</v>
+      </c>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -11338,7 +11453,9 @@
       <c r="R30" s="32">
         <v>15</v>
       </c>
-      <c r="S30" s="42"/>
+      <c r="S30" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="T30" s="42"/>
       <c r="U30" s="32"/>
       <c r="V30" s="42"/>
@@ -11503,7 +11620,9 @@
       <c r="R32" s="27">
         <v>8</v>
       </c>
-      <c r="S32" s="27"/>
+      <c r="S32" s="27">
+        <v>7</v>
+      </c>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -11668,7 +11787,9 @@
       <c r="R34" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="S34" s="49"/>
+      <c r="S34" s="49">
+        <v>15</v>
+      </c>
       <c r="T34" s="49"/>
       <c r="U34" s="31"/>
       <c r="V34" s="49"/>
@@ -11833,7 +11954,9 @@
       <c r="R36" s="48">
         <v>12</v>
       </c>
-      <c r="S36" s="35"/>
+      <c r="S36" s="35">
+        <v>17</v>
+      </c>
       <c r="T36" s="48"/>
       <c r="U36" s="35"/>
       <c r="V36" s="48"/>
@@ -12157,7 +12280,9 @@
       <c r="R40" s="24">
         <v>14</v>
       </c>
-      <c r="S40" s="24"/>
+      <c r="S40" s="24">
+        <v>10</v>
+      </c>
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
       <c r="V40" s="24"/>
@@ -12301,8 +12426,8 @@
       </c>
       <c r="R42" s="52"/>
       <c r="S42" s="52"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
@@ -12441,9 +12566,11 @@
       <c r="R44" s="18">
         <v>13</v>
       </c>
-      <c r="S44" s="18"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
+      <c r="S44" s="18">
+        <v>13</v>
+      </c>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
       <c r="V44" s="52"/>
       <c r="W44" s="52"/>
       <c r="X44" s="52"/>
@@ -12608,11 +12735,11 @@
       </c>
       <c r="D2" s="9">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="E2" s="9">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>495</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12626,50 +12753,50 @@
         <v>65</v>
       </c>
       <c r="D3" s="14">
-        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD12</f>
-        <v>255</v>
+        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD14</f>
+        <v>273</v>
       </c>
       <c r="E3" s="14">
-        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE12</f>
-        <v>241</v>
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE14</f>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="6">
+        <f>'2023 Driver Ranking'!AD10+'2023 Driver Ranking'!AD12</f>
+        <v>228</v>
+      </c>
+      <c r="E4" s="6">
+        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE12</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD18</f>
-        <v>215</v>
-      </c>
-      <c r="E4" s="7">
+        <v>217</v>
+      </c>
+      <c r="E5" s="7">
         <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE18</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="6">
-        <f>'2023 Driver Ranking'!AD10+'2023 Driver Ranking'!AD14</f>
-        <v>201</v>
-      </c>
-      <c r="E5" s="6">
-        <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE14</f>
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12684,11 +12811,11 @@
       </c>
       <c r="D6" s="5">
         <f>'2023 Driver Ranking'!AD16+'2023 Driver Ranking'!AD24</f>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E6" s="5">
         <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE24</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12722,11 +12849,11 @@
       </c>
       <c r="D8" s="4">
         <f>'2023 Driver Ranking'!AD26+'2023 Driver Ranking'!AD38</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4">
         <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE38</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12760,11 +12887,11 @@
       </c>
       <c r="D10" s="10">
         <f>'2023 Driver Ranking'!AD30+'2023 Driver Ranking'!AD32</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10">
         <f>'2023 Driver Ranking'!AE30+'2023 Driver Ranking'!AE32</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12839,7 +12966,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12854,7 +12981,7 @@
       </c>
       <c r="D3" s="14">
         <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB10</f>
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12884,7 +13011,7 @@
       </c>
       <c r="D5" s="6">
         <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12899,7 +13026,7 @@
       </c>
       <c r="D6" s="5">
         <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB20</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12929,7 +13056,7 @@
       </c>
       <c r="D8" s="4">
         <f>'2003-2009 Driver Ranking'!AB26+'2003-2009 Driver Ranking'!AB32</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,7 +13156,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13044,7 +13171,7 @@
       </c>
       <c r="D3" s="14">
         <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB14</f>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13073,8 +13200,8 @@
         <v>67</v>
       </c>
       <c r="D5" s="6">
-        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB16</f>
-        <v>33</v>
+        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB12</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13088,7 +13215,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB20</f>
+        <f>'1991-2002 Driver Ranking'!AB16+'1991-2002 Driver Ranking'!AB20</f>
         <v>21</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="141">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,18 @@
   </si>
   <si>
     <t>Did not Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1177,7 +1189,8 @@
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -1344,7 +1357,9 @@
       <c r="T2" s="18">
         <v>5</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="18">
+        <v>1</v>
+      </c>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
@@ -1352,8 +1367,8 @@
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
-        <f>1+1+1+1+1+1</f>
-        <v>6</v>
+        <f>1+1+1+1+1+1+1</f>
+        <v>7</v>
       </c>
       <c r="AC2" s="18">
         <f>6+8+8</f>
@@ -1361,11 +1376,11 @@
       </c>
       <c r="AD2" s="18">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="AE2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>346</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1436,7 +1451,7 @@
       </c>
       <c r="U3" s="19">
         <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V3" s="19">
         <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
@@ -1528,7 +1543,9 @@
       <c r="T4" s="32">
         <v>8</v>
       </c>
-      <c r="U4" s="42"/>
+      <c r="U4" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="V4" s="42"/>
       <c r="W4" s="32"/>
       <c r="X4" s="42"/>
@@ -1712,7 +1729,9 @@
       <c r="T6" s="37">
         <v>3</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="44">
+        <v>5</v>
+      </c>
       <c r="V6" s="44"/>
       <c r="W6" s="37"/>
       <c r="X6" s="44"/>
@@ -1729,11 +1748,11 @@
       </c>
       <c r="AD6" s="44">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AE6" s="44">
         <f>SUM(F7:AA7)</f>
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1804,7 +1823,7 @@
       </c>
       <c r="U7" s="19">
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7" s="19">
         <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
@@ -1896,7 +1915,9 @@
       <c r="T8" s="30">
         <v>15</v>
       </c>
-      <c r="U8" s="43"/>
+      <c r="U8" s="43">
+        <v>8</v>
+      </c>
       <c r="V8" s="43"/>
       <c r="W8" s="30"/>
       <c r="X8" s="43"/>
@@ -1913,11 +1934,11 @@
       </c>
       <c r="AD8" s="43">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AE8" s="43">
         <f>SUM(F9:AA9)</f>
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1988,7 +2009,7 @@
       </c>
       <c r="U9" s="19">
         <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" s="19">
         <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
@@ -2080,7 +2101,9 @@
       <c r="T10" s="34">
         <v>1</v>
       </c>
-      <c r="U10" s="45"/>
+      <c r="U10" s="45">
+        <v>6</v>
+      </c>
       <c r="V10" s="45"/>
       <c r="W10" s="34"/>
       <c r="X10" s="45"/>
@@ -2094,11 +2117,11 @@
       </c>
       <c r="AD10" s="45">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AE10" s="45">
         <f>SUM(F11:AA11)</f>
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2169,7 +2192,7 @@
       </c>
       <c r="U11" s="19">
         <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V11" s="19">
         <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
@@ -2261,7 +2284,9 @@
       <c r="T12" s="20">
         <v>4</v>
       </c>
-      <c r="U12" s="20"/>
+      <c r="U12" s="20">
+        <v>4</v>
+      </c>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
@@ -2275,11 +2300,11 @@
       </c>
       <c r="AD12" s="20">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AE12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2350,7 +2375,7 @@
       </c>
       <c r="U13" s="19">
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V13" s="19">
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
@@ -2440,9 +2465,11 @@
         <v>5</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="U14" s="21"/>
+        <v>138</v>
+      </c>
+      <c r="U14" s="21">
+        <v>7</v>
+      </c>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -2459,11 +2486,11 @@
       </c>
       <c r="AD14" s="21">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE14" s="21">
         <f>SUM(F15:AA15)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2534,7 +2561,7 @@
       </c>
       <c r="U15" s="19">
         <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V15" s="19">
         <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
@@ -2626,7 +2653,9 @@
       <c r="T16" s="36">
         <v>2</v>
       </c>
-      <c r="U16" s="46"/>
+      <c r="U16" s="46">
+        <v>2</v>
+      </c>
       <c r="V16" s="46"/>
       <c r="W16" s="36"/>
       <c r="X16" s="46"/>
@@ -2640,11 +2669,11 @@
       </c>
       <c r="AD16" s="46">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AE16" s="46">
         <f>SUM(F17:AA17)</f>
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2715,7 +2744,7 @@
       </c>
       <c r="U17" s="19">
         <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V17" s="19">
         <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
@@ -2747,85 +2776,87 @@
       <c r="AE17" s="19"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="26">
-        <v>18</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="26" t="s">
+      <c r="A18" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="22">
+        <v>81</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="26">
-        <v>6</v>
-      </c>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="26">
+      <c r="G18" s="22">
+        <v>15</v>
+      </c>
+      <c r="H18" s="22">
+        <v>8</v>
+      </c>
+      <c r="I18" s="22">
+        <v>11</v>
+      </c>
+      <c r="J18" s="22">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22">
+        <v>10</v>
+      </c>
+      <c r="L18" s="22">
+        <v>13</v>
+      </c>
+      <c r="M18" s="22">
+        <v>11</v>
+      </c>
+      <c r="N18" s="22">
+        <v>16</v>
+      </c>
+      <c r="O18" s="22">
         <v>4</v>
       </c>
-      <c r="I18" s="26">
+      <c r="P18" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="R18" s="22">
+        <v>9</v>
+      </c>
+      <c r="S18" s="22">
+        <v>12</v>
+      </c>
+      <c r="T18" s="22">
         <v>7</v>
       </c>
-      <c r="J18" s="26">
-        <v>12</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="26">
-        <v>6</v>
-      </c>
-      <c r="M18" s="26">
-        <v>9</v>
-      </c>
-      <c r="N18" s="26">
-        <v>9</v>
-      </c>
-      <c r="O18" s="26">
-        <v>14</v>
-      </c>
-      <c r="P18" s="26">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>9</v>
-      </c>
-      <c r="R18" s="26">
-        <v>11</v>
-      </c>
-      <c r="S18" s="26">
-        <v>14</v>
-      </c>
-      <c r="T18" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26">
-        <f>1+5</f>
-        <v>6</v>
-      </c>
-      <c r="AD18" s="26">
+      <c r="U18" s="22">
+        <v>3</v>
+      </c>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="AD18" s="22">
         <f>SUM(F19:AA19)+SUM(AB18,AC18)</f>
-        <v>47</v>
-      </c>
-      <c r="AE18" s="26">
+        <v>57</v>
+      </c>
+      <c r="AE18" s="22">
         <f>SUM(F19:AA19)</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2836,7 +2867,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19" s="19">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
@@ -2844,11 +2875,11 @@
       </c>
       <c r="H19" s="19">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I19" s="19">
         <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" s="19">
         <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
@@ -2856,35 +2887,35 @@
       </c>
       <c r="K19" s="19">
         <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="19">
         <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M19" s="19">
         <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" s="19">
         <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" s="19">
         <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P19" s="19">
         <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="19">
         <f>IF(Q18=1,25,IF(Q18=2,18,IF(Q18=3,15,IF(Q18=4,12,IF(Q18=5,10,IF(Q18=6,8,IF(Q18=7,6,IF(Q18=8,4,IF(Q18=9,2,IF(Q18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="19">
         <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" s="19">
         <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
@@ -2892,11 +2923,11 @@
       </c>
       <c r="T19" s="19">
         <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U19" s="19">
         <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V19" s="19">
         <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
@@ -2928,85 +2959,87 @@
       <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="47">
+      <c r="A20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="26">
+        <v>6</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="26">
+        <v>4</v>
+      </c>
+      <c r="I20" s="26">
+        <v>7</v>
+      </c>
+      <c r="J20" s="26">
+        <v>12</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="26">
+        <v>6</v>
+      </c>
+      <c r="M20" s="26">
+        <v>9</v>
+      </c>
+      <c r="N20" s="26">
+        <v>9</v>
+      </c>
+      <c r="O20" s="26">
+        <v>14</v>
+      </c>
+      <c r="P20" s="26">
         <v>10</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="47">
+      <c r="Q20" s="26">
         <v>9</v>
       </c>
-      <c r="G20" s="47">
-        <v>9</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="47">
+      <c r="R20" s="26">
+        <v>11</v>
+      </c>
+      <c r="S20" s="26">
         <v>14</v>
       </c>
-      <c r="J20" s="47">
-        <v>8</v>
-      </c>
-      <c r="K20" s="47">
-        <v>7</v>
-      </c>
-      <c r="L20" s="47">
-        <v>10</v>
-      </c>
-      <c r="M20" s="47">
-        <v>12</v>
-      </c>
-      <c r="N20" s="47">
-        <v>10</v>
-      </c>
-      <c r="O20" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="47">
-        <v>11</v>
-      </c>
-      <c r="R20" s="47">
-        <v>3</v>
-      </c>
-      <c r="S20" s="47">
-        <v>16</v>
-      </c>
-      <c r="T20" s="33">
+      <c r="T20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26">
+        <f>1+5</f>
         <v>6</v>
       </c>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="AD20" s="47">
+      <c r="AD20" s="26">
         <f>SUM(F21:AA21)+SUM(AB20,AC20)</f>
-        <v>45</v>
-      </c>
-      <c r="AE20" s="47">
+        <v>47</v>
+      </c>
+      <c r="AE20" s="26">
         <f>SUM(F21:AA21)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -3017,39 +3050,39 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21" s="19">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="19">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I21" s="19">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21" s="19">
         <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" s="19">
         <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21" s="19">
         <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M21" s="19">
         <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="19">
         <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="19">
         <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
@@ -3057,15 +3090,15 @@
       </c>
       <c r="P21" s="19">
         <f>IF(P20=1,25,IF(P20=2,18,IF(P20=3,15,IF(P20=4,12,IF(P20=5,10,IF(P20=6,8,IF(P20=7,6,IF(P20=8,4,IF(P20=9,2,IF(P20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="19">
         <f>IF(Q20=1,25,IF(Q20=2,18,IF(Q20=3,15,IF(Q20=4,12,IF(Q20=5,10,IF(Q20=6,8,IF(Q20=7,6,IF(Q20=8,4,IF(Q20=9,2,IF(Q20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="19">
         <f>IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S21" s="19">
         <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
@@ -3073,7 +3106,7 @@
       </c>
       <c r="T21" s="19">
         <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U21" s="19">
         <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
@@ -3109,85 +3142,87 @@
       <c r="AE21" s="19"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="22">
-        <v>81</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="A22" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="47">
+        <v>10</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="47">
+        <v>9</v>
+      </c>
+      <c r="G22" s="47">
+        <v>9</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="47">
+        <v>14</v>
+      </c>
+      <c r="J22" s="47">
+        <v>8</v>
+      </c>
+      <c r="K22" s="47">
+        <v>7</v>
+      </c>
+      <c r="L22" s="47">
+        <v>10</v>
+      </c>
+      <c r="M22" s="47">
+        <v>12</v>
+      </c>
+      <c r="N22" s="47">
+        <v>10</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="22">
-        <v>15</v>
-      </c>
-      <c r="H22" s="22">
-        <v>8</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="Q22" s="47">
         <v>11</v>
       </c>
-      <c r="J22" s="22">
-        <v>19</v>
-      </c>
-      <c r="K22" s="22">
+      <c r="R22" s="47">
+        <v>3</v>
+      </c>
+      <c r="S22" s="47">
+        <v>16</v>
+      </c>
+      <c r="T22" s="33">
+        <v>6</v>
+      </c>
+      <c r="U22" s="47">
         <v>10</v>
       </c>
-      <c r="L22" s="22">
-        <v>13</v>
-      </c>
-      <c r="M22" s="22">
-        <v>11</v>
-      </c>
-      <c r="N22" s="22">
-        <v>16</v>
-      </c>
-      <c r="O22" s="22">
-        <v>4</v>
-      </c>
-      <c r="P22" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="R22" s="22">
-        <v>9</v>
-      </c>
-      <c r="S22" s="22">
-        <v>12</v>
-      </c>
-      <c r="T22" s="22">
-        <v>7</v>
-      </c>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22">
-        <f>7</f>
-        <v>7</v>
-      </c>
-      <c r="AD22" s="22">
+      <c r="V22" s="47"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="AD22" s="47">
         <f>SUM(F23:AA23)+SUM(AB22,AC22)</f>
-        <v>42</v>
-      </c>
-      <c r="AE22" s="22">
+        <v>46</v>
+      </c>
+      <c r="AE22" s="47">
         <f>SUM(F23:AA23)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3198,15 +3233,15 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="19">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="19">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
@@ -3214,15 +3249,15 @@
       </c>
       <c r="J23" s="19">
         <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" s="19">
         <f>IF(K22=1,25,IF(K22=2,18,IF(K22=3,15,IF(K22=4,12,IF(K22=5,10,IF(K22=6,8,IF(K22=7,6,IF(K22=8,4,IF(K22=9,2,IF(K22=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L23" s="19">
         <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="19">
         <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
@@ -3230,15 +3265,15 @@
       </c>
       <c r="N23" s="19">
         <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="19">
         <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P23" s="19">
         <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="19">
         <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
@@ -3246,7 +3281,7 @@
       </c>
       <c r="R23" s="19">
         <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S23" s="19">
         <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
@@ -3254,11 +3289,11 @@
       </c>
       <c r="T23" s="19">
         <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U23" s="19">
         <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="19">
         <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
@@ -3350,7 +3385,9 @@
       <c r="T24" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="U24" s="23"/>
+      <c r="U24" s="23">
+        <v>9</v>
+      </c>
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
@@ -3364,11 +3401,11 @@
       </c>
       <c r="AD24" s="23">
         <f>SUM(F25:AA25)+SUM(AB24,AC24)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE24" s="23">
         <f>SUM(F25:AA25)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3439,7 +3476,7 @@
       </c>
       <c r="U25" s="19">
         <f>IF(U24=1,25,IF(U24=2,18,IF(U24=3,15,IF(U24=4,12,IF(U24=5,10,IF(U24=6,8,IF(U24=7,6,IF(U24=8,4,IF(U24=9,2,IF(U24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25" s="19">
         <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
@@ -3531,7 +3568,9 @@
       <c r="T26" s="27">
         <v>11</v>
       </c>
-      <c r="U26" s="27"/>
+      <c r="U26" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
@@ -3709,7 +3748,9 @@
       <c r="T28" s="35">
         <v>13</v>
       </c>
-      <c r="U28" s="48"/>
+      <c r="U28" s="48">
+        <v>14</v>
+      </c>
       <c r="V28" s="48"/>
       <c r="W28" s="35"/>
       <c r="X28" s="48"/>
@@ -3890,7 +3931,9 @@
       <c r="T30" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="U30" s="24"/>
+      <c r="U30" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
@@ -4068,7 +4111,9 @@
       <c r="T32" s="31">
         <v>12</v>
       </c>
-      <c r="U32" s="49"/>
+      <c r="U32" s="49">
+        <v>13</v>
+      </c>
       <c r="V32" s="49"/>
       <c r="W32" s="31"/>
       <c r="X32" s="49"/>
@@ -4246,7 +4291,9 @@
       <c r="T34" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="U34" s="42"/>
+      <c r="U34" s="42">
+        <v>12</v>
+      </c>
       <c r="V34" s="42"/>
       <c r="W34" s="32"/>
       <c r="X34" s="32"/>
@@ -4424,7 +4471,9 @@
       <c r="T36" s="25">
         <v>10</v>
       </c>
-      <c r="U36" s="25"/>
+      <c r="U36" s="25">
+        <v>15</v>
+      </c>
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
@@ -4578,7 +4627,9 @@
       <c r="T38" s="18">
         <v>9</v>
       </c>
-      <c r="U38" s="18"/>
+      <c r="U38" s="18">
+        <v>11</v>
+      </c>
       <c r="V38" s="52"/>
       <c r="W38" s="52"/>
       <c r="X38" s="52"/>
@@ -4908,7 +4959,9 @@
       <c r="T42" s="38">
         <v>14</v>
       </c>
-      <c r="U42" s="50"/>
+      <c r="U42" s="50" t="s">
+        <v>140</v>
+      </c>
       <c r="V42" s="50"/>
       <c r="W42" s="38"/>
       <c r="X42" s="50"/>
@@ -5271,7 +5324,8 @@
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.25" style="29" bestFit="1" customWidth="1"/>
@@ -5428,7 +5482,9 @@
       <c r="T2" s="18">
         <v>5</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="18">
+        <v>1</v>
+      </c>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
@@ -5437,7 +5493,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5508,7 +5564,7 @@
       </c>
       <c r="U3" s="19">
         <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V3" s="19">
         <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
@@ -5597,7 +5653,9 @@
       <c r="T4" s="42">
         <v>8</v>
       </c>
-      <c r="U4" s="32"/>
+      <c r="U4" s="32" t="s">
+        <v>140</v>
+      </c>
       <c r="V4" s="32"/>
       <c r="W4" s="32"/>
       <c r="X4" s="32"/>
@@ -5766,7 +5824,9 @@
       <c r="T6" s="44">
         <v>3</v>
       </c>
-      <c r="U6" s="37"/>
+      <c r="U6" s="37">
+        <v>5</v>
+      </c>
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
       <c r="X6" s="44"/>
@@ -5775,7 +5835,7 @@
       <c r="AA6" s="44"/>
       <c r="AB6" s="44">
         <f>SUM(F7:AA7)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5846,7 +5906,7 @@
       </c>
       <c r="U7" s="19">
         <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" s="19">
         <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
@@ -5935,7 +5995,9 @@
       <c r="T8" s="43">
         <v>15</v>
       </c>
-      <c r="U8" s="30"/>
+      <c r="U8" s="30">
+        <v>8</v>
+      </c>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
@@ -5944,7 +6006,7 @@
       <c r="AA8" s="43"/>
       <c r="AB8" s="43">
         <f>SUM(F9:AA9)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -6015,7 +6077,7 @@
       </c>
       <c r="U9" s="19">
         <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="19">
         <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
@@ -6104,7 +6166,9 @@
       <c r="T10" s="45">
         <v>1</v>
       </c>
-      <c r="U10" s="34"/>
+      <c r="U10" s="34">
+        <v>6</v>
+      </c>
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
       <c r="X10" s="45"/>
@@ -6113,7 +6177,7 @@
       <c r="AA10" s="45"/>
       <c r="AB10" s="45">
         <f>SUM(F11:AA11)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -6184,7 +6248,7 @@
       </c>
       <c r="U11" s="19">
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11" s="19">
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
@@ -6273,7 +6337,9 @@
       <c r="T12" s="20">
         <v>4</v>
       </c>
-      <c r="U12" s="20"/>
+      <c r="U12" s="20">
+        <v>4</v>
+      </c>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
@@ -6282,7 +6348,7 @@
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6353,7 +6419,7 @@
       </c>
       <c r="U13" s="19">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V13" s="19">
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
@@ -6382,76 +6448,78 @@
       <c r="AB13" s="19"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="21">
-        <v>63</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="46">
+        <v>4</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="F14" s="46">
+        <v>17</v>
+      </c>
+      <c r="G14" s="46">
+        <v>17</v>
+      </c>
+      <c r="H14" s="46">
+        <v>6</v>
+      </c>
+      <c r="I14" s="46">
+        <v>9</v>
+      </c>
+      <c r="J14" s="36">
+        <v>17</v>
+      </c>
+      <c r="K14" s="46">
+        <v>9</v>
+      </c>
+      <c r="L14" s="46">
+        <v>17</v>
+      </c>
+      <c r="M14" s="46">
+        <v>13</v>
+      </c>
+      <c r="N14" s="46">
+        <v>4</v>
+      </c>
+      <c r="O14" s="36">
+        <v>2</v>
+      </c>
+      <c r="P14" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="46">
         <v>7</v>
       </c>
-      <c r="G14" s="21">
-        <v>4</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="R14" s="46">
+        <v>7</v>
+      </c>
+      <c r="S14" s="46">
         <v>8</v>
       </c>
-      <c r="J14" s="21">
-        <v>4</v>
-      </c>
-      <c r="K14" s="21">
-        <v>5</v>
-      </c>
-      <c r="L14" s="21">
-        <v>3</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="21">
-        <v>7</v>
-      </c>
-      <c r="O14" s="21">
-        <v>5</v>
-      </c>
-      <c r="P14" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>6</v>
-      </c>
-      <c r="R14" s="21">
-        <v>17</v>
-      </c>
-      <c r="S14" s="21">
-        <v>5</v>
-      </c>
-      <c r="T14" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21">
+      <c r="T14" s="46">
+        <v>2</v>
+      </c>
+      <c r="U14" s="36">
+        <v>2</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46">
         <f>SUM(F15:AA15)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6462,31 +6530,31 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="19">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="19">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="19">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="19">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K15" s="19">
         <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="19">
         <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M15" s="19">
         <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
@@ -6494,35 +6562,35 @@
       </c>
       <c r="N15" s="19">
         <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O15" s="19">
         <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" s="19">
         <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="19">
         <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T15" s="19">
         <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U15" s="19">
         <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V15" s="19">
         <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
@@ -6551,76 +6619,78 @@
       <c r="AB15" s="19"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="46">
+      <c r="A16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="21">
+        <v>63</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="21">
+        <v>7</v>
+      </c>
+      <c r="G16" s="21">
         <v>4</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="46">
+      <c r="H16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="21">
+        <v>8</v>
+      </c>
+      <c r="J16" s="21">
+        <v>4</v>
+      </c>
+      <c r="K16" s="21">
+        <v>5</v>
+      </c>
+      <c r="L16" s="21">
+        <v>3</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="21">
+        <v>7</v>
+      </c>
+      <c r="O16" s="21">
+        <v>5</v>
+      </c>
+      <c r="P16" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>6</v>
+      </c>
+      <c r="R16" s="21">
         <v>17</v>
       </c>
-      <c r="G16" s="46">
-        <v>17</v>
-      </c>
-      <c r="H16" s="46">
-        <v>6</v>
-      </c>
-      <c r="I16" s="46">
-        <v>9</v>
-      </c>
-      <c r="J16" s="36">
-        <v>17</v>
-      </c>
-      <c r="K16" s="46">
-        <v>9</v>
-      </c>
-      <c r="L16" s="46">
-        <v>17</v>
-      </c>
-      <c r="M16" s="46">
-        <v>13</v>
-      </c>
-      <c r="N16" s="46">
-        <v>4</v>
-      </c>
-      <c r="O16" s="36">
-        <v>2</v>
-      </c>
-      <c r="P16" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="46">
+      <c r="S16" s="21">
+        <v>5</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="21">
         <v>7</v>
       </c>
-      <c r="R16" s="46">
-        <v>7</v>
-      </c>
-      <c r="S16" s="46">
-        <v>8</v>
-      </c>
-      <c r="T16" s="46">
-        <v>2</v>
-      </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46">
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21">
         <f>SUM(F17:AA17)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6631,31 +6701,31 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19">
         <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="19">
         <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="19">
         <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
         <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="19">
         <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" s="19">
         <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="19">
         <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17" s="19">
         <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
@@ -6663,35 +6733,35 @@
       </c>
       <c r="N17" s="19">
         <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O17" s="19">
         <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P17" s="19">
         <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="19">
         <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" s="19">
         <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="19">
         <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T17" s="19">
         <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U17" s="19">
         <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" s="19">
         <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
@@ -6720,76 +6790,78 @@
       <c r="AB17" s="19"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="26">
+      <c r="A18" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="22">
+        <v>81</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="41">
+        <v>15</v>
+      </c>
+      <c r="H18" s="22">
+        <v>8</v>
+      </c>
+      <c r="I18" s="22">
+        <v>11</v>
+      </c>
+      <c r="J18" s="22">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22">
+        <v>10</v>
+      </c>
+      <c r="L18" s="22">
+        <v>13</v>
+      </c>
+      <c r="M18" s="22">
+        <v>11</v>
+      </c>
+      <c r="N18" s="22">
+        <v>16</v>
+      </c>
+      <c r="O18" s="22">
+        <v>4</v>
+      </c>
+      <c r="P18" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="22">
+        <v>9</v>
+      </c>
+      <c r="S18" s="22">
+        <v>12</v>
+      </c>
+      <c r="T18" s="22">
+        <v>7</v>
+      </c>
+      <c r="U18" s="22">
+        <v>3</v>
+      </c>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22">
+        <f>SUM(F19:AA19)</f>
         <v>18</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="26">
-        <v>6</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="26">
-        <v>4</v>
-      </c>
-      <c r="I18" s="26">
-        <v>7</v>
-      </c>
-      <c r="J18" s="26">
-        <v>12</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="26">
-        <v>6</v>
-      </c>
-      <c r="M18" s="26">
-        <v>9</v>
-      </c>
-      <c r="N18" s="26">
-        <v>9</v>
-      </c>
-      <c r="O18" s="26">
-        <v>14</v>
-      </c>
-      <c r="P18" s="26">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>9</v>
-      </c>
-      <c r="R18" s="26">
-        <v>11</v>
-      </c>
-      <c r="S18" s="26">
-        <v>14</v>
-      </c>
-      <c r="T18" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26">
-        <f>SUM(F19:AA19)</f>
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6800,7 +6872,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19">
         <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="19">
         <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
@@ -6808,11 +6880,11 @@
       </c>
       <c r="H19" s="19">
         <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="19">
         <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="19">
         <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
@@ -6824,7 +6896,7 @@
       </c>
       <c r="L19" s="19">
         <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="19">
         <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
@@ -6836,11 +6908,11 @@
       </c>
       <c r="O19" s="19">
         <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P19" s="19">
         <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="19">
         <f>IF(Q18=1,10,IF(Q18=2,8,IF(Q18=3,6,IF(Q18=4,5,IF(Q18=5,4,IF(Q18=6,3,IF(Q18=7,2,IF(Q18=8,1,0))))))))</f>
@@ -6856,11 +6928,11 @@
       </c>
       <c r="T19" s="19">
         <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19" s="19">
         <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V19" s="19">
         <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
@@ -6889,76 +6961,78 @@
       <c r="AB19" s="19"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="22">
-        <v>81</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="A20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="26">
+        <v>6</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="26">
+        <v>4</v>
+      </c>
+      <c r="I20" s="26">
+        <v>7</v>
+      </c>
+      <c r="J20" s="26">
+        <v>12</v>
+      </c>
+      <c r="K20" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="41">
-        <v>15</v>
-      </c>
-      <c r="H20" s="22">
-        <v>8</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="L20" s="26">
+        <v>6</v>
+      </c>
+      <c r="M20" s="26">
+        <v>9</v>
+      </c>
+      <c r="N20" s="26">
+        <v>9</v>
+      </c>
+      <c r="O20" s="26">
+        <v>14</v>
+      </c>
+      <c r="P20" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>9</v>
+      </c>
+      <c r="R20" s="26">
         <v>11</v>
       </c>
-      <c r="J20" s="22">
-        <v>19</v>
-      </c>
-      <c r="K20" s="22">
-        <v>10</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="S20" s="26">
+        <v>14</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26">
+        <f>SUM(F21:AA21)</f>
         <v>13</v>
-      </c>
-      <c r="M20" s="22">
-        <v>11</v>
-      </c>
-      <c r="N20" s="22">
-        <v>16</v>
-      </c>
-      <c r="O20" s="22">
-        <v>4</v>
-      </c>
-      <c r="P20" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="R20" s="22">
-        <v>9</v>
-      </c>
-      <c r="S20" s="22">
-        <v>12</v>
-      </c>
-      <c r="T20" s="22">
-        <v>7</v>
-      </c>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22">
-        <f>SUM(F21:AA21)</f>
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -6969,7 +7043,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19">
         <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="19">
         <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
@@ -6977,11 +7051,11 @@
       </c>
       <c r="H21" s="19">
         <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21" s="19">
         <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="19">
         <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
@@ -6993,7 +7067,7 @@
       </c>
       <c r="L21" s="19">
         <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="19">
         <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
@@ -7005,11 +7079,11 @@
       </c>
       <c r="O21" s="19">
         <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P21" s="19">
         <f>IF(P20=1,10,IF(P20=2,8,IF(P20=3,6,IF(P20=4,5,IF(P20=5,4,IF(P20=6,3,IF(P20=7,2,IF(P20=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="19">
         <f>IF(Q20=1,10,IF(Q20=2,8,IF(Q20=3,6,IF(Q20=4,5,IF(Q20=5,4,IF(Q20=6,3,IF(Q20=7,2,IF(Q20=8,1,0))))))))</f>
@@ -7025,7 +7099,7 @@
       </c>
       <c r="T21" s="19">
         <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="19">
         <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
@@ -7118,7 +7192,9 @@
       <c r="T22" s="47">
         <v>6</v>
       </c>
-      <c r="U22" s="33"/>
+      <c r="U22" s="33">
+        <v>10</v>
+      </c>
       <c r="V22" s="33"/>
       <c r="W22" s="33"/>
       <c r="X22" s="47"/>
@@ -7287,7 +7363,9 @@
       <c r="T24" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="U24" s="23"/>
+      <c r="U24" s="23">
+        <v>9</v>
+      </c>
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
@@ -7456,7 +7534,9 @@
       <c r="T26" s="27">
         <v>11</v>
       </c>
-      <c r="U26" s="27"/>
+      <c r="U26" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
@@ -7625,7 +7705,9 @@
       <c r="T28" s="48">
         <v>13</v>
       </c>
-      <c r="U28" s="35"/>
+      <c r="U28" s="35">
+        <v>14</v>
+      </c>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -7794,7 +7876,9 @@
       <c r="T30" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="U30" s="24"/>
+      <c r="U30" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
@@ -7963,7 +8047,9 @@
       <c r="T32" s="50">
         <v>14</v>
       </c>
-      <c r="U32" s="38"/>
+      <c r="U32" s="38" t="s">
+        <v>140</v>
+      </c>
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
       <c r="X32" s="50"/>
@@ -8132,7 +8218,9 @@
       <c r="T34" s="25">
         <v>10</v>
       </c>
-      <c r="U34" s="25"/>
+      <c r="U34" s="25">
+        <v>15</v>
+      </c>
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
       <c r="X34" s="25"/>
@@ -8301,7 +8389,9 @@
       <c r="T36" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="U36" s="32"/>
+      <c r="U36" s="32">
+        <v>12</v>
+      </c>
       <c r="V36" s="32"/>
       <c r="W36" s="32"/>
       <c r="X36" s="42"/>
@@ -8470,7 +8560,9 @@
       <c r="T38" s="49">
         <v>12</v>
       </c>
-      <c r="U38" s="31"/>
+      <c r="U38" s="31">
+        <v>13</v>
+      </c>
       <c r="V38" s="31"/>
       <c r="W38" s="31"/>
       <c r="X38" s="49"/>
@@ -8917,7 +9009,9 @@
       <c r="T44" s="18">
         <v>9</v>
       </c>
-      <c r="U44" s="18"/>
+      <c r="U44" s="18">
+        <v>11</v>
+      </c>
       <c r="V44" s="52"/>
       <c r="W44" s="52"/>
       <c r="X44" s="52"/>
@@ -9059,7 +9153,7 @@
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.25" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -9217,7 +9311,9 @@
       <c r="T2" s="18">
         <v>5</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="18">
+        <v>1</v>
+      </c>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
@@ -9226,7 +9322,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -9297,7 +9393,7 @@
       </c>
       <c r="U3" s="19">
         <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V3" s="19">
         <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
@@ -9386,7 +9482,9 @@
       <c r="T4" s="42">
         <v>8</v>
       </c>
-      <c r="U4" s="32"/>
+      <c r="U4" s="32" t="s">
+        <v>139</v>
+      </c>
       <c r="V4" s="42"/>
       <c r="W4" s="32"/>
       <c r="X4" s="42"/>
@@ -9495,76 +9593,78 @@
       <c r="AB5" s="19"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="30">
-        <v>14</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="A6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="44">
+        <v>44</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43">
+      <c r="E6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="44">
+        <v>5</v>
+      </c>
+      <c r="G6" s="44">
+        <v>5</v>
+      </c>
+      <c r="H6" s="44">
+        <v>2</v>
+      </c>
+      <c r="I6" s="44">
+        <v>6</v>
+      </c>
+      <c r="J6" s="44">
+        <v>6</v>
+      </c>
+      <c r="K6" s="44">
+        <v>4</v>
+      </c>
+      <c r="L6" s="44">
+        <v>2</v>
+      </c>
+      <c r="M6" s="44">
         <v>3</v>
       </c>
-      <c r="G6" s="30">
+      <c r="N6" s="44">
+        <v>8</v>
+      </c>
+      <c r="O6" s="44">
         <v>3</v>
       </c>
-      <c r="H6" s="43">
+      <c r="P6" s="44">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>4</v>
+      </c>
+      <c r="R6" s="37">
+        <v>6</v>
+      </c>
+      <c r="S6" s="44">
+        <v>6</v>
+      </c>
+      <c r="T6" s="44">
         <v>3</v>
       </c>
-      <c r="I6" s="43">
-        <v>4</v>
-      </c>
-      <c r="J6" s="43">
-        <v>3</v>
-      </c>
-      <c r="K6" s="43">
-        <v>2</v>
-      </c>
-      <c r="L6" s="43">
-        <v>7</v>
-      </c>
-      <c r="M6" s="30">
-        <v>2</v>
-      </c>
-      <c r="N6" s="30">
+      <c r="U6" s="37">
         <v>5</v>
       </c>
-      <c r="O6" s="30">
-        <v>7</v>
-      </c>
-      <c r="P6" s="43">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>5</v>
-      </c>
-      <c r="R6" s="43">
-        <v>2</v>
-      </c>
-      <c r="S6" s="43">
-        <v>9</v>
-      </c>
-      <c r="T6" s="43">
-        <v>15</v>
-      </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43">
+      <c r="V6" s="44"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44">
         <f>SUM(F7:AA7)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -9575,67 +9675,67 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19">
         <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="19">
         <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="19">
         <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="19">
         <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="19">
         <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" s="19">
         <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7" s="19">
         <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7" s="19">
         <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" s="19">
         <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="19">
         <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" s="19">
         <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="19">
         <f>IF(Q6=1,10,IF(Q6=2,6,IF(Q6=3,4,IF(Q6=4,3,IF(Q6=5,2,IF(Q6=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" s="19">
         <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S7" s="19">
         <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="19">
         <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="19">
         <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" s="19">
         <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
@@ -9664,74 +9764,76 @@
       <c r="AB7" s="19"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="44">
-        <v>44</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="A8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="30">
+        <v>14</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="44">
+      <c r="F8" s="43">
+        <v>3</v>
+      </c>
+      <c r="G8" s="30">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43">
+        <v>3</v>
+      </c>
+      <c r="I8" s="43">
+        <v>4</v>
+      </c>
+      <c r="J8" s="43">
+        <v>3</v>
+      </c>
+      <c r="K8" s="43">
+        <v>2</v>
+      </c>
+      <c r="L8" s="43">
+        <v>7</v>
+      </c>
+      <c r="M8" s="30">
+        <v>2</v>
+      </c>
+      <c r="N8" s="30">
         <v>5</v>
       </c>
-      <c r="G8" s="44">
+      <c r="O8" s="30">
+        <v>7</v>
+      </c>
+      <c r="P8" s="43">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="43">
         <v>5</v>
       </c>
-      <c r="H8" s="44">
+      <c r="R8" s="43">
         <v>2</v>
       </c>
-      <c r="I8" s="44">
-        <v>6</v>
-      </c>
-      <c r="J8" s="44">
-        <v>6</v>
-      </c>
-      <c r="K8" s="44">
-        <v>4</v>
-      </c>
-      <c r="L8" s="44">
-        <v>2</v>
-      </c>
-      <c r="M8" s="44">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44">
+      <c r="S8" s="43">
+        <v>9</v>
+      </c>
+      <c r="T8" s="43">
+        <v>15</v>
+      </c>
+      <c r="U8" s="30">
         <v>8</v>
       </c>
-      <c r="O8" s="44">
-        <v>3</v>
-      </c>
-      <c r="P8" s="44">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="44">
-        <v>4</v>
-      </c>
-      <c r="R8" s="37">
-        <v>6</v>
-      </c>
-      <c r="S8" s="44">
-        <v>6</v>
-      </c>
-      <c r="T8" s="44">
-        <v>3</v>
-      </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44">
+      <c r="V8" s="43"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43">
         <f>SUM(F9:AA9)</f>
         <v>41</v>
       </c>
@@ -9744,63 +9846,63 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="19">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="19">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="19">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="19">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" s="19">
         <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9" s="19">
         <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M9" s="19">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9" s="19">
         <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="19">
         <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9" s="19">
         <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="19">
         <f>IF(Q8=1,10,IF(Q8=2,6,IF(Q8=3,4,IF(Q8=4,3,IF(Q8=5,2,IF(Q8=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9" s="19">
         <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S9" s="19">
         <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="19">
         <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U9" s="19">
         <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
@@ -9893,7 +9995,9 @@
       <c r="T10" s="45">
         <v>1</v>
       </c>
-      <c r="U10" s="34"/>
+      <c r="U10" s="34">
+        <v>6</v>
+      </c>
       <c r="V10" s="45"/>
       <c r="W10" s="34"/>
       <c r="X10" s="45"/>
@@ -9902,7 +10006,7 @@
       <c r="AA10" s="45"/>
       <c r="AB10" s="45">
         <f>SUM(F11:AA11)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -9973,7 +10077,7 @@
       </c>
       <c r="U11" s="19">
         <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="19">
         <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
@@ -10002,76 +10106,78 @@
       <c r="AB11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="20">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="A12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="46">
+        <v>4</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="46">
+        <v>17</v>
+      </c>
+      <c r="G12" s="46">
+        <v>17</v>
+      </c>
+      <c r="H12" s="46">
+        <v>6</v>
+      </c>
+      <c r="I12" s="46">
+        <v>9</v>
+      </c>
+      <c r="J12" s="46">
+        <v>17</v>
+      </c>
+      <c r="K12" s="46">
+        <v>9</v>
+      </c>
+      <c r="L12" s="46">
+        <v>17</v>
+      </c>
+      <c r="M12" s="46">
+        <v>13</v>
+      </c>
+      <c r="N12" s="46">
+        <v>4</v>
+      </c>
+      <c r="O12" s="36">
+        <v>2</v>
+      </c>
+      <c r="P12" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="46">
         <v>7</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="20">
-        <v>3</v>
-      </c>
-      <c r="J12" s="20">
+      <c r="R12" s="46">
         <v>7</v>
       </c>
-      <c r="K12" s="20">
-        <v>6</v>
-      </c>
-      <c r="L12" s="20">
-        <v>11</v>
-      </c>
-      <c r="M12" s="20">
-        <v>4</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="S12" s="46">
+        <v>8</v>
+      </c>
+      <c r="T12" s="46">
         <v>2</v>
       </c>
-      <c r="O12" s="20">
-        <v>9</v>
-      </c>
-      <c r="P12" s="20">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>3</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="S12" s="20">
-        <v>4</v>
-      </c>
-      <c r="T12" s="20">
-        <v>4</v>
-      </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="U12" s="36">
+        <v>2</v>
+      </c>
+      <c r="V12" s="46"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46">
         <f>SUM(F13:AA13)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -10090,11 +10196,11 @@
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
@@ -10102,7 +10208,7 @@
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
@@ -10110,23 +10216,23 @@
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,10,IF(Q12=2,6,IF(Q12=3,4,IF(Q12=4,3,IF(Q12=5,2,IF(Q12=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13" s="19">
         <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
@@ -10134,15 +10240,15 @@
       </c>
       <c r="S13" s="19">
         <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" s="19">
         <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U13" s="19">
         <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V13" s="19">
         <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
@@ -10171,76 +10277,78 @@
       <c r="AB13" s="19"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="46">
+      <c r="A14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="20">
+        <v>7</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="20">
+        <v>3</v>
+      </c>
+      <c r="J14" s="20">
+        <v>7</v>
+      </c>
+      <c r="K14" s="20">
+        <v>6</v>
+      </c>
+      <c r="L14" s="20">
+        <v>11</v>
+      </c>
+      <c r="M14" s="20">
         <v>4</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="46">
-        <v>17</v>
-      </c>
-      <c r="G14" s="46">
-        <v>17</v>
-      </c>
-      <c r="H14" s="46">
-        <v>6</v>
-      </c>
-      <c r="I14" s="46">
+      <c r="N14" s="20">
+        <v>2</v>
+      </c>
+      <c r="O14" s="20">
         <v>9</v>
       </c>
-      <c r="J14" s="46">
-        <v>17</v>
-      </c>
-      <c r="K14" s="46">
-        <v>9</v>
-      </c>
-      <c r="L14" s="46">
-        <v>17</v>
-      </c>
-      <c r="M14" s="46">
-        <v>13</v>
-      </c>
-      <c r="N14" s="46">
+      <c r="P14" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>3</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="20">
         <v>4</v>
       </c>
-      <c r="O14" s="36">
-        <v>2</v>
-      </c>
-      <c r="P14" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="46">
-        <v>7</v>
-      </c>
-      <c r="R14" s="46">
-        <v>7</v>
-      </c>
-      <c r="S14" s="46">
-        <v>8</v>
-      </c>
-      <c r="T14" s="46">
-        <v>2</v>
-      </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46">
+      <c r="T14" s="20">
+        <v>4</v>
+      </c>
+      <c r="U14" s="20">
+        <v>4</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20">
         <f>SUM(F15:AA15)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -10259,11 +10367,11 @@
       </c>
       <c r="H15" s="19">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="19">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="19">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
@@ -10271,7 +10379,7 @@
       </c>
       <c r="K15" s="19">
         <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="19">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
@@ -10279,23 +10387,23 @@
       </c>
       <c r="M15" s="19">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="19">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O15" s="19">
         <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15" s="19">
         <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
@@ -10303,15 +10411,15 @@
       </c>
       <c r="S15" s="19">
         <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15" s="19">
         <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U15" s="19">
         <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V15" s="19">
         <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
@@ -10398,9 +10506,11 @@
         <v>5</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="U16" s="21"/>
+        <v>138</v>
+      </c>
+      <c r="U16" s="21">
+        <v>7</v>
+      </c>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
@@ -10509,76 +10619,78 @@
       <c r="AB17" s="19"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="26">
-        <v>18</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="26" t="s">
+      <c r="A18" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="22">
+        <v>81</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="26">
-        <v>6</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="26">
+      <c r="F18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="22">
+        <v>15</v>
+      </c>
+      <c r="H18" s="22">
+        <v>8</v>
+      </c>
+      <c r="I18" s="22">
+        <v>11</v>
+      </c>
+      <c r="J18" s="22">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22">
+        <v>10</v>
+      </c>
+      <c r="L18" s="22">
+        <v>13</v>
+      </c>
+      <c r="M18" s="22">
+        <v>11</v>
+      </c>
+      <c r="N18" s="22">
+        <v>16</v>
+      </c>
+      <c r="O18" s="22">
         <v>4</v>
       </c>
-      <c r="I18" s="26">
+      <c r="P18" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="R18" s="22">
+        <v>9</v>
+      </c>
+      <c r="S18" s="22">
+        <v>12</v>
+      </c>
+      <c r="T18" s="22">
         <v>7</v>
       </c>
-      <c r="J18" s="26">
-        <v>12</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="26">
-        <v>6</v>
-      </c>
-      <c r="M18" s="26">
+      <c r="U18" s="22">
+        <v>3</v>
+      </c>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22">
+        <f>SUM(F19:AA19)</f>
         <v>9</v>
-      </c>
-      <c r="N18" s="26">
-        <v>9</v>
-      </c>
-      <c r="O18" s="26">
-        <v>14</v>
-      </c>
-      <c r="P18" s="26">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>9</v>
-      </c>
-      <c r="R18" s="26">
-        <v>11</v>
-      </c>
-      <c r="S18" s="26">
-        <v>14</v>
-      </c>
-      <c r="T18" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26">
-        <f>SUM(F19:AA19)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -10589,7 +10701,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19">
         <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="19">
         <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
@@ -10597,7 +10709,7 @@
       </c>
       <c r="H19" s="19">
         <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="19">
         <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
@@ -10613,7 +10725,7 @@
       </c>
       <c r="L19" s="19">
         <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="19">
         <f>IF(M18=1,10,IF(M18=2,6,IF(M18=3,4,IF(M18=4,3,IF(M18=5,2,IF(M18=6,1,0))))))</f>
@@ -10625,11 +10737,11 @@
       </c>
       <c r="O19" s="19">
         <f>IF(O18=1,10,IF(O18=2,6,IF(O18=3,4,IF(O18=4,3,IF(O18=5,2,IF(O18=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="19">
         <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="19">
         <f>IF(Q18=1,10,IF(Q18=2,6,IF(Q18=3,4,IF(Q18=4,3,IF(Q18=5,2,IF(Q18=6,1,0))))))</f>
@@ -10649,7 +10761,7 @@
       </c>
       <c r="U19" s="19">
         <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V19" s="19">
         <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
@@ -10678,74 +10790,76 @@
       <c r="AB19" s="19"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="22">
-        <v>81</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="A20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="26">
+        <v>6</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="26">
+        <v>4</v>
+      </c>
+      <c r="I20" s="26">
+        <v>7</v>
+      </c>
+      <c r="J20" s="26">
+        <v>12</v>
+      </c>
+      <c r="K20" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="22">
-        <v>15</v>
-      </c>
-      <c r="H20" s="22">
-        <v>8</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="L20" s="26">
+        <v>6</v>
+      </c>
+      <c r="M20" s="26">
+        <v>9</v>
+      </c>
+      <c r="N20" s="26">
+        <v>9</v>
+      </c>
+      <c r="O20" s="26">
+        <v>14</v>
+      </c>
+      <c r="P20" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>9</v>
+      </c>
+      <c r="R20" s="26">
         <v>11</v>
       </c>
-      <c r="J20" s="22">
-        <v>19</v>
-      </c>
-      <c r="K20" s="22">
-        <v>10</v>
-      </c>
-      <c r="L20" s="22">
-        <v>13</v>
-      </c>
-      <c r="M20" s="22">
-        <v>11</v>
-      </c>
-      <c r="N20" s="22">
-        <v>16</v>
-      </c>
-      <c r="O20" s="22">
-        <v>4</v>
-      </c>
-      <c r="P20" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="R20" s="22">
-        <v>9</v>
-      </c>
-      <c r="S20" s="22">
-        <v>12</v>
-      </c>
-      <c r="T20" s="22">
-        <v>7</v>
-      </c>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22">
+      <c r="S20" s="26">
+        <v>14</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26">
         <f>SUM(F21:AA21)</f>
         <v>5</v>
       </c>
@@ -10758,7 +10872,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19">
         <f>IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="19">
         <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
@@ -10766,7 +10880,7 @@
       </c>
       <c r="H21" s="19">
         <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="19">
         <f>IF(I20=1,10,IF(I20=2,6,IF(I20=3,4,IF(I20=4,3,IF(I20=5,2,IF(I20=6,1,0))))))</f>
@@ -10782,7 +10896,7 @@
       </c>
       <c r="L21" s="19">
         <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="19">
         <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
@@ -10794,11 +10908,11 @@
       </c>
       <c r="O21" s="19">
         <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="19">
         <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="19">
         <f>IF(Q20=1,10,IF(Q20=2,6,IF(Q20=3,4,IF(Q20=4,3,IF(Q20=5,2,IF(Q20=6,1,0))))))</f>
@@ -10907,7 +11021,9 @@
       <c r="T22" s="47">
         <v>6</v>
       </c>
-      <c r="U22" s="33"/>
+      <c r="U22" s="33">
+        <v>10</v>
+      </c>
       <c r="V22" s="47"/>
       <c r="W22" s="33"/>
       <c r="X22" s="47"/>
@@ -11076,7 +11192,9 @@
       <c r="T24" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="U24" s="23"/>
+      <c r="U24" s="23">
+        <v>9</v>
+      </c>
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
@@ -11245,7 +11363,9 @@
       <c r="T26" s="50">
         <v>14</v>
       </c>
-      <c r="U26" s="38"/>
+      <c r="U26" s="38" t="s">
+        <v>140</v>
+      </c>
       <c r="V26" s="50"/>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
@@ -11414,7 +11534,9 @@
       <c r="T28" s="25">
         <v>10</v>
       </c>
-      <c r="U28" s="25"/>
+      <c r="U28" s="25">
+        <v>15</v>
+      </c>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
       <c r="X28" s="25"/>
@@ -11583,7 +11705,9 @@
       <c r="T30" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="U30" s="32"/>
+      <c r="U30" s="32">
+        <v>12</v>
+      </c>
       <c r="V30" s="42"/>
       <c r="W30" s="32"/>
       <c r="X30" s="42"/>
@@ -11752,7 +11876,9 @@
       <c r="T32" s="27">
         <v>11</v>
       </c>
-      <c r="U32" s="27"/>
+      <c r="U32" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="V32" s="27"/>
       <c r="W32" s="27"/>
       <c r="X32" s="27"/>
@@ -11921,7 +12047,9 @@
       <c r="T34" s="49">
         <v>12</v>
       </c>
-      <c r="U34" s="31"/>
+      <c r="U34" s="31">
+        <v>13</v>
+      </c>
       <c r="V34" s="49"/>
       <c r="W34" s="31"/>
       <c r="X34" s="31"/>
@@ -12090,7 +12218,9 @@
       <c r="T36" s="48">
         <v>13</v>
       </c>
-      <c r="U36" s="35"/>
+      <c r="U36" s="35">
+        <v>14</v>
+      </c>
       <c r="V36" s="48"/>
       <c r="W36" s="35"/>
       <c r="X36" s="48"/>
@@ -12418,7 +12548,9 @@
       <c r="T40" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="U40" s="24"/>
+      <c r="U40" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="V40" s="24"/>
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
@@ -12706,7 +12838,9 @@
       <c r="T44" s="18">
         <v>9</v>
       </c>
-      <c r="U44" s="18"/>
+      <c r="U44" s="18">
+        <v>11</v>
+      </c>
       <c r="V44" s="52"/>
       <c r="W44" s="52"/>
       <c r="X44" s="52"/>
@@ -12871,11 +13005,11 @@
       </c>
       <c r="D2" s="9">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="E2" s="9">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>552</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12890,11 +13024,11 @@
       </c>
       <c r="D3" s="14">
         <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD14</f>
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E3" s="14">
         <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE14</f>
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12909,11 +13043,11 @@
       </c>
       <c r="D4" s="6">
         <f>'2023 Driver Ranking'!AD10+'2023 Driver Ranking'!AD12</f>
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E4" s="6">
         <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE12</f>
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12927,12 +13061,12 @@
         <v>73</v>
       </c>
       <c r="D5" s="7">
-        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD18</f>
-        <v>217</v>
+        <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD20</f>
+        <v>221</v>
       </c>
       <c r="E5" s="7">
-        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE18</f>
-        <v>203</v>
+        <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE20</f>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12946,12 +13080,12 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'2023 Driver Ranking'!AD16+'2023 Driver Ranking'!AD22</f>
-        <v>139</v>
+        <f>'2023 Driver Ranking'!AD16+'2023 Driver Ranking'!AD18</f>
+        <v>172</v>
       </c>
       <c r="E6" s="5">
-        <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE22</f>
-        <v>129</v>
+        <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE18</f>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12965,12 +13099,12 @@
         <v>69</v>
       </c>
       <c r="D7" s="2">
-        <f>'2023 Driver Ranking'!AD20+'2023 Driver Ranking'!AD24</f>
-        <v>81</v>
+        <f>'2023 Driver Ranking'!AD22+'2023 Driver Ranking'!AD24</f>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
-        <f>'2023 Driver Ranking'!AE20+'2023 Driver Ranking'!AE24</f>
-        <v>73</v>
+        <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE24</f>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13102,7 +13236,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13116,8 +13250,8 @@
         <v>65</v>
       </c>
       <c r="D3" s="14">
-        <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB14</f>
-        <v>109</v>
+        <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB16</f>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13132,7 +13266,7 @@
       </c>
       <c r="D4" s="6">
         <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB12</f>
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13146,8 +13280,8 @@
         <v>73</v>
       </c>
       <c r="D5" s="7">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB18</f>
-        <v>78</v>
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB20</f>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13161,8 +13295,8 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB20</f>
-        <v>49</v>
+        <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB18</f>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13292,7 +13426,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13306,8 +13440,8 @@
         <v>65</v>
       </c>
       <c r="D3" s="14">
-        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB16</f>
-        <v>59</v>
+        <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB16</f>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13321,8 +13455,8 @@
         <v>67</v>
       </c>
       <c r="D4" s="6">
-        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB12</f>
-        <v>53</v>
+        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB14</f>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13336,7 +13470,7 @@
         <v>73</v>
       </c>
       <c r="D5" s="7">
-        <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB18</f>
+        <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB20</f>
         <v>46</v>
       </c>
     </row>
@@ -13351,8 +13485,8 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'1991-2002 Driver Ranking'!AB14+'1991-2002 Driver Ranking'!AB20</f>
-        <v>27</v>
+        <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB18</f>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="144">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +598,18 @@
   </si>
   <si>
     <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1189,8 +1201,7 @@
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -1360,27 +1371,29 @@
       <c r="U2" s="18">
         <v>1</v>
       </c>
-      <c r="V2" s="18"/>
+      <c r="V2" s="18">
+        <v>1</v>
+      </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
-        <f>1+1+1+1+1+1+1</f>
-        <v>7</v>
+        <f>1+1+1+1+1+1+1+1</f>
+        <v>8</v>
       </c>
       <c r="AC2" s="18">
-        <f>6+8+8</f>
-        <v>22</v>
+        <f>6+8+8+7</f>
+        <v>29</v>
       </c>
       <c r="AD2" s="18">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="AE2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1455,7 +1468,7 @@
       </c>
       <c r="V3" s="19">
         <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W3" s="19">
         <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
@@ -1544,9 +1557,11 @@
         <v>8</v>
       </c>
       <c r="U4" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="V4" s="42"/>
+        <v>107</v>
+      </c>
+      <c r="V4" s="42">
+        <v>10</v>
+      </c>
       <c r="W4" s="32"/>
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
@@ -1562,11 +1577,11 @@
       </c>
       <c r="AD4" s="42">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AE4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1641,7 +1656,7 @@
       </c>
       <c r="V5" s="19">
         <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="19">
         <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
@@ -1732,7 +1747,9 @@
       <c r="U6" s="44">
         <v>5</v>
       </c>
-      <c r="V6" s="44"/>
+      <c r="V6" s="44" t="s">
+        <v>140</v>
+      </c>
       <c r="W6" s="37"/>
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
@@ -1743,12 +1760,12 @@
         <v>3</v>
       </c>
       <c r="AC6" s="44">
-        <f>2+2</f>
-        <v>4</v>
+        <f>2+2+4</f>
+        <v>8</v>
       </c>
       <c r="AD6" s="44">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AE6" s="44">
         <f>SUM(F7:AA7)</f>
@@ -1918,7 +1935,9 @@
       <c r="U8" s="43">
         <v>8</v>
       </c>
-      <c r="V8" s="43"/>
+      <c r="V8" s="43">
+        <v>6</v>
+      </c>
       <c r="W8" s="30"/>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
@@ -1929,16 +1948,16 @@
         <v>1</v>
       </c>
       <c r="AC8" s="43">
-        <f>3+4</f>
-        <v>7</v>
+        <f>3+4+1</f>
+        <v>8</v>
       </c>
       <c r="AD8" s="43">
         <f>SUM(F9:AA9)+SUM(AB8,AC8)</f>
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AE8" s="43">
         <f>SUM(F9:AA9)</f>
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -2013,7 +2032,7 @@
       </c>
       <c r="V9" s="19">
         <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W9" s="19">
         <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
@@ -2104,7 +2123,9 @@
       <c r="U10" s="45">
         <v>6</v>
       </c>
-      <c r="V10" s="45"/>
+      <c r="V10" s="45" t="s">
+        <v>142</v>
+      </c>
       <c r="W10" s="34"/>
       <c r="X10" s="45"/>
       <c r="Y10" s="45"/>
@@ -2112,12 +2133,12 @@
       <c r="AA10" s="45"/>
       <c r="AB10" s="45"/>
       <c r="AC10" s="45">
-        <f>4+6+5</f>
-        <v>15</v>
+        <f>4+6+5+3</f>
+        <v>18</v>
       </c>
       <c r="AD10" s="45">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AE10" s="45">
         <f>SUM(F11:AA11)</f>
@@ -2287,7 +2308,9 @@
       <c r="U12" s="20">
         <v>4</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="20">
+        <v>5</v>
+      </c>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
@@ -2300,11 +2323,11 @@
       </c>
       <c r="AD12" s="20">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AE12" s="20">
         <f>SUM(F13:AA13)</f>
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2379,7 +2402,7 @@
       </c>
       <c r="V13" s="19">
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W13" s="19">
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
@@ -2407,90 +2430,89 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="21">
-        <v>63</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="A14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="46">
+        <v>4</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="46">
+        <v>17</v>
+      </c>
+      <c r="G14" s="46">
+        <v>17</v>
+      </c>
+      <c r="H14" s="46">
+        <v>6</v>
+      </c>
+      <c r="I14" s="46">
+        <v>9</v>
+      </c>
+      <c r="J14" s="46">
+        <v>17</v>
+      </c>
+      <c r="K14" s="46">
+        <v>9</v>
+      </c>
+      <c r="L14" s="46">
+        <v>17</v>
+      </c>
+      <c r="M14" s="46">
+        <v>13</v>
+      </c>
+      <c r="N14" s="46">
+        <v>4</v>
+      </c>
+      <c r="O14" s="46">
+        <v>2</v>
+      </c>
+      <c r="P14" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="46">
         <v>7</v>
       </c>
-      <c r="G14" s="21">
-        <v>4</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="R14" s="46">
+        <v>7</v>
+      </c>
+      <c r="S14" s="46">
         <v>8</v>
       </c>
-      <c r="J14" s="21">
-        <v>4</v>
-      </c>
-      <c r="K14" s="21">
-        <v>5</v>
-      </c>
-      <c r="L14" s="21">
+      <c r="T14" s="36">
+        <v>2</v>
+      </c>
+      <c r="U14" s="46">
+        <v>2</v>
+      </c>
+      <c r="V14" s="46">
         <v>3</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="21">
-        <v>7</v>
-      </c>
-      <c r="O14" s="21">
-        <v>5</v>
-      </c>
-      <c r="P14" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>6</v>
-      </c>
-      <c r="R14" s="21">
-        <v>17</v>
-      </c>
-      <c r="S14" s="21">
-        <v>5</v>
-      </c>
-      <c r="T14" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14" s="21">
-        <v>7</v>
-      </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AC14" s="21">
-        <f>5+1+1</f>
-        <v>7</v>
-      </c>
-      <c r="AD14" s="21">
+      <c r="W14" s="36"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46">
+        <f>3+6</f>
+        <v>9</v>
+      </c>
+      <c r="AD14" s="46">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>115</v>
-      </c>
-      <c r="AE14" s="21">
+        <v>136</v>
+      </c>
+      <c r="AE14" s="46">
         <f>SUM(F15:AA15)</f>
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2501,31 +2523,31 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="19">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H15" s="19">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I15" s="19">
         <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="19">
         <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K15" s="19">
         <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L15" s="19">
         <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M15" s="19">
         <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
@@ -2533,39 +2555,39 @@
       </c>
       <c r="N15" s="19">
         <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O15" s="19">
         <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R15" s="19">
         <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S15" s="19">
         <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T15" s="19">
         <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U15" s="19">
         <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V15" s="19">
         <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W15" s="19">
         <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
@@ -2593,87 +2615,92 @@
       <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="46">
+      <c r="A16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="21">
+        <v>63</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="21">
+        <v>7</v>
+      </c>
+      <c r="G16" s="21">
         <v>4</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="46">
+      <c r="H16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="21">
+        <v>8</v>
+      </c>
+      <c r="J16" s="21">
+        <v>4</v>
+      </c>
+      <c r="K16" s="21">
+        <v>5</v>
+      </c>
+      <c r="L16" s="21">
+        <v>3</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="21">
+        <v>7</v>
+      </c>
+      <c r="O16" s="21">
+        <v>5</v>
+      </c>
+      <c r="P16" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>6</v>
+      </c>
+      <c r="R16" s="21">
         <v>17</v>
       </c>
-      <c r="G16" s="46">
-        <v>17</v>
-      </c>
-      <c r="H16" s="46">
-        <v>6</v>
-      </c>
-      <c r="I16" s="46">
-        <v>9</v>
-      </c>
-      <c r="J16" s="46">
-        <v>17</v>
-      </c>
-      <c r="K16" s="46">
-        <v>9</v>
-      </c>
-      <c r="L16" s="46">
-        <v>17</v>
-      </c>
-      <c r="M16" s="46">
-        <v>13</v>
-      </c>
-      <c r="N16" s="46">
+      <c r="S16" s="21">
+        <v>5</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="21">
+        <v>7</v>
+      </c>
+      <c r="V16" s="21">
         <v>4</v>
       </c>
-      <c r="O16" s="46">
-        <v>2</v>
-      </c>
-      <c r="P16" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="46">
-        <v>7</v>
-      </c>
-      <c r="R16" s="46">
-        <v>7</v>
-      </c>
-      <c r="S16" s="46">
-        <v>8</v>
-      </c>
-      <c r="T16" s="36">
-        <v>2</v>
-      </c>
-      <c r="U16" s="46">
-        <v>2</v>
-      </c>
-      <c r="V16" s="46"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="AD16" s="46">
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="21">
+        <f>5+1+1+5</f>
+        <v>12</v>
+      </c>
+      <c r="AD16" s="21">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>115</v>
-      </c>
-      <c r="AE16" s="46">
+        <v>132</v>
+      </c>
+      <c r="AE16" s="21">
         <f>SUM(F17:AA17)</f>
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2684,31 +2711,31 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19">
         <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="19">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H17" s="19">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I17" s="19">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="19">
         <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K17" s="19">
         <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L17" s="19">
         <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M17" s="19">
         <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
@@ -2716,39 +2743,39 @@
       </c>
       <c r="N17" s="19">
         <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O17" s="19">
         <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P17" s="19">
         <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="19">
         <f>IF(Q16=1,25,IF(Q16=2,18,IF(Q16=3,15,IF(Q16=4,12,IF(Q16=5,10,IF(Q16=6,8,IF(Q16=7,6,IF(Q16=8,4,IF(Q16=9,2,IF(Q16=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R17" s="19">
         <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S17" s="19">
         <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T17" s="19">
         <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U17" s="19">
         <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V17" s="19">
         <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W17" s="19">
         <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
@@ -2839,7 +2866,9 @@
       <c r="U18" s="22">
         <v>3</v>
       </c>
-      <c r="V18" s="22"/>
+      <c r="V18" s="22">
+        <v>2</v>
+      </c>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -2847,16 +2876,16 @@
       <c r="AA18" s="22"/>
       <c r="AB18" s="22"/>
       <c r="AC18" s="22">
-        <f>7</f>
-        <v>7</v>
+        <f>7+8</f>
+        <v>15</v>
       </c>
       <c r="AD18" s="22">
         <f>SUM(F19:AA19)+SUM(AB18,AC18)</f>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="AE18" s="22">
         <f>SUM(F19:AA19)</f>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2931,7 +2960,7 @@
       </c>
       <c r="V19" s="19">
         <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W19" s="19">
         <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
@@ -3020,9 +3049,11 @@
         <v>134</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="V20" s="26"/>
+        <v>139</v>
+      </c>
+      <c r="V20" s="26">
+        <v>11</v>
+      </c>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
@@ -3205,7 +3236,9 @@
       <c r="U22" s="47">
         <v>10</v>
       </c>
-      <c r="V22" s="47"/>
+      <c r="V22" s="47">
+        <v>12</v>
+      </c>
       <c r="W22" s="33"/>
       <c r="X22" s="47"/>
       <c r="Y22" s="47"/>
@@ -3388,7 +3421,9 @@
       <c r="U24" s="23">
         <v>9</v>
       </c>
-      <c r="V24" s="23"/>
+      <c r="V24" s="23">
+        <v>7</v>
+      </c>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
@@ -3401,11 +3436,11 @@
       </c>
       <c r="AD24" s="23">
         <f>SUM(F25:AA25)+SUM(AB24,AC24)</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AE24" s="23">
         <f>SUM(F25:AA25)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3480,7 +3515,7 @@
       </c>
       <c r="V25" s="19">
         <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W25" s="19">
         <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
@@ -3569,19 +3604,24 @@
         <v>11</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="V26" s="27"/>
+        <v>139</v>
+      </c>
+      <c r="V26" s="27">
+        <v>13</v>
+      </c>
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
       <c r="Z26" s="27"/>
       <c r="AA26" s="27"/>
       <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
+      <c r="AC26" s="27">
+        <f>2</f>
+        <v>2</v>
+      </c>
       <c r="AD26" s="27">
         <f>SUM(F27:AA27)+SUM(AB26,AC26)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE26" s="27">
         <f>SUM(F27:AA27)</f>
@@ -3688,87 +3728,86 @@
       <c r="AE27" s="19"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="48">
-        <v>27</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="48">
+      <c r="A28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="24">
+        <v>77</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="24">
+        <v>8</v>
+      </c>
+      <c r="G28" s="24">
+        <v>18</v>
+      </c>
+      <c r="H28" s="24">
+        <v>11</v>
+      </c>
+      <c r="I28" s="24">
+        <v>18</v>
+      </c>
+      <c r="J28" s="24">
+        <v>13</v>
+      </c>
+      <c r="K28" s="24">
+        <v>11</v>
+      </c>
+      <c r="L28" s="24">
+        <v>19</v>
+      </c>
+      <c r="M28" s="24">
+        <v>10</v>
+      </c>
+      <c r="N28" s="24">
         <v>15</v>
       </c>
-      <c r="G28" s="48">
+      <c r="O28" s="24">
         <v>12</v>
       </c>
-      <c r="H28" s="48">
-        <v>7</v>
-      </c>
-      <c r="I28" s="48">
-        <v>17</v>
-      </c>
-      <c r="J28" s="48">
-        <v>15</v>
-      </c>
-      <c r="K28" s="48">
-        <v>17</v>
-      </c>
-      <c r="L28" s="48">
-        <v>15</v>
-      </c>
-      <c r="M28" s="48">
-        <v>15</v>
-      </c>
-      <c r="N28" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="O28" s="48">
-        <v>13</v>
-      </c>
-      <c r="P28" s="48">
+      <c r="P28" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>12</v>
+      </c>
+      <c r="R28" s="24">
         <v>14</v>
       </c>
-      <c r="Q28" s="48">
-        <v>18</v>
-      </c>
-      <c r="R28" s="48">
-        <v>12</v>
-      </c>
-      <c r="S28" s="48">
-        <v>17</v>
-      </c>
-      <c r="T28" s="35">
-        <v>13</v>
-      </c>
-      <c r="U28" s="48">
-        <v>14</v>
-      </c>
-      <c r="V28" s="48"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="48">
+      <c r="S28" s="24">
+        <v>10</v>
+      </c>
+      <c r="T28" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="U28" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="V28" s="24">
+        <v>8</v>
+      </c>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24">
         <f>SUM(F29:AA29)+SUM(AB28,AC28)</f>
-        <v>9</v>
-      </c>
-      <c r="AE28" s="48">
+        <v>10</v>
+      </c>
+      <c r="AE28" s="24">
         <f>SUM(F29:AA29)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -3779,7 +3818,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19">
         <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="19">
         <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
@@ -3787,7 +3826,7 @@
       </c>
       <c r="H29" s="19">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29" s="19">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
@@ -3807,7 +3846,7 @@
       </c>
       <c r="M29" s="19">
         <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="19">
         <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
@@ -3831,7 +3870,7 @@
       </c>
       <c r="S29" s="19">
         <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="19">
         <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
@@ -3843,7 +3882,7 @@
       </c>
       <c r="V29" s="19">
         <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="19">
         <f>IF(W28=1,25,IF(W28=2,18,IF(W28=3,15,IF(W28=4,12,IF(W28=5,10,IF(W28=6,8,IF(W28=7,6,IF(W28=8,4,IF(W28=9,2,IF(W28=10,1,0))))))))))</f>
@@ -3871,82 +3910,87 @@
       <c r="AE29" s="19"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="24">
-        <v>77</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="24">
-        <v>8</v>
-      </c>
-      <c r="G30" s="24">
+      <c r="A30" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="48">
+        <v>27</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="48">
+        <v>15</v>
+      </c>
+      <c r="G30" s="48">
+        <v>12</v>
+      </c>
+      <c r="H30" s="48">
+        <v>7</v>
+      </c>
+      <c r="I30" s="48">
+        <v>17</v>
+      </c>
+      <c r="J30" s="48">
+        <v>15</v>
+      </c>
+      <c r="K30" s="48">
+        <v>17</v>
+      </c>
+      <c r="L30" s="48">
+        <v>15</v>
+      </c>
+      <c r="M30" s="48">
+        <v>15</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" s="48">
+        <v>13</v>
+      </c>
+      <c r="P30" s="48">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="48">
         <v>18</v>
       </c>
-      <c r="H30" s="24">
-        <v>11</v>
-      </c>
-      <c r="I30" s="24">
-        <v>18</v>
-      </c>
-      <c r="J30" s="24">
+      <c r="R30" s="48">
+        <v>12</v>
+      </c>
+      <c r="S30" s="48">
+        <v>17</v>
+      </c>
+      <c r="T30" s="35">
         <v>13</v>
       </c>
-      <c r="K30" s="24">
-        <v>11</v>
-      </c>
-      <c r="L30" s="24">
-        <v>19</v>
-      </c>
-      <c r="M30" s="24">
-        <v>10</v>
-      </c>
-      <c r="N30" s="24">
-        <v>15</v>
-      </c>
-      <c r="O30" s="24">
-        <v>12</v>
-      </c>
-      <c r="P30" s="24">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="24">
-        <v>12</v>
-      </c>
-      <c r="R30" s="24">
+      <c r="U30" s="48">
         <v>14</v>
       </c>
-      <c r="S30" s="24">
-        <v>10</v>
-      </c>
-      <c r="T30" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="U30" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24">
+      <c r="V30" s="48">
+        <v>16</v>
+      </c>
+      <c r="W30" s="35"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="AD30" s="48">
         <f>SUM(F31:AA31)+SUM(AB30,AC30)</f>
-        <v>6</v>
-      </c>
-      <c r="AE30" s="24">
+        <v>9</v>
+      </c>
+      <c r="AE30" s="48">
         <f>SUM(F31:AA31)</f>
         <v>6</v>
       </c>
@@ -3959,7 +4003,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19">
         <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="19">
         <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
@@ -3967,7 +4011,7 @@
       </c>
       <c r="H31" s="19">
         <f>IF(H30=1,25,IF(H30=2,18,IF(H30=3,15,IF(H30=4,12,IF(H30=5,10,IF(H30=6,8,IF(H30=7,6,IF(H30=8,4,IF(H30=9,2,IF(H30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I31" s="19">
         <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
@@ -3987,7 +4031,7 @@
       </c>
       <c r="M31" s="19">
         <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="19">
         <f>IF(N30=1,25,IF(N30=2,18,IF(N30=3,15,IF(N30=4,12,IF(N30=5,10,IF(N30=6,8,IF(N30=7,6,IF(N30=8,4,IF(N30=9,2,IF(N30=10,1,0))))))))))</f>
@@ -4011,7 +4055,7 @@
       </c>
       <c r="S31" s="19">
         <f>IF(S30=1,25,IF(S30=2,18,IF(S30=3,15,IF(S30=4,12,IF(S30=5,10,IF(S30=6,8,IF(S30=7,6,IF(S30=8,4,IF(S30=9,2,IF(S30=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="19">
         <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
@@ -4114,7 +4158,9 @@
       <c r="U32" s="49">
         <v>13</v>
       </c>
-      <c r="V32" s="49"/>
+      <c r="V32" s="49">
+        <v>9</v>
+      </c>
       <c r="W32" s="31"/>
       <c r="X32" s="49"/>
       <c r="Y32" s="49"/>
@@ -4124,11 +4170,11 @@
       <c r="AC32" s="49"/>
       <c r="AD32" s="49">
         <f>SUM(F33:AA33)+SUM(AB32,AC32)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE32" s="49">
         <f>SUM(F33:AA33)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -4203,7 +4249,7 @@
       </c>
       <c r="V33" s="19">
         <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33" s="19">
         <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
@@ -4294,7 +4340,9 @@
       <c r="U34" s="42">
         <v>12</v>
       </c>
-      <c r="V34" s="42"/>
+      <c r="V34" s="42">
+        <v>15</v>
+      </c>
       <c r="W34" s="32"/>
       <c r="X34" s="32"/>
       <c r="Y34" s="42"/>
@@ -4474,7 +4522,9 @@
       <c r="U36" s="25">
         <v>15</v>
       </c>
-      <c r="V36" s="25"/>
+      <c r="V36" s="25">
+        <v>14</v>
+      </c>
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
       <c r="Y36" s="25"/>
@@ -4630,7 +4680,9 @@
       <c r="U38" s="18">
         <v>11</v>
       </c>
-      <c r="V38" s="52"/>
+      <c r="V38" s="18">
+        <v>17</v>
+      </c>
       <c r="W38" s="52"/>
       <c r="X38" s="52"/>
       <c r="Y38" s="52"/>
@@ -4782,7 +4834,7 @@
       <c r="S40" s="52"/>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
-      <c r="V40" s="18"/>
+      <c r="V40" s="52"/>
       <c r="W40" s="28"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
@@ -4960,9 +5012,11 @@
         <v>14</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="V42" s="50"/>
+        <v>139</v>
+      </c>
+      <c r="V42" s="50" t="s">
+        <v>141</v>
+      </c>
       <c r="W42" s="38"/>
       <c r="X42" s="50"/>
       <c r="Y42" s="50"/>
@@ -5324,8 +5378,7 @@
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="20.25" style="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.25" style="29" bestFit="1" customWidth="1"/>
@@ -5485,7 +5538,9 @@
       <c r="U2" s="18">
         <v>1</v>
       </c>
-      <c r="V2" s="18"/>
+      <c r="V2" s="18">
+        <v>1</v>
+      </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
@@ -5493,7 +5548,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5568,7 +5623,7 @@
       </c>
       <c r="V3" s="19">
         <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W3" s="19">
         <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
@@ -5654,9 +5709,11 @@
         <v>8</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="V4" s="32"/>
+        <v>143</v>
+      </c>
+      <c r="V4" s="32">
+        <v>10</v>
+      </c>
       <c r="W4" s="32"/>
       <c r="X4" s="32"/>
       <c r="Y4" s="32"/>
@@ -5827,7 +5884,9 @@
       <c r="U6" s="37">
         <v>5</v>
       </c>
-      <c r="V6" s="37"/>
+      <c r="V6" s="37" t="s">
+        <v>140</v>
+      </c>
       <c r="W6" s="37"/>
       <c r="X6" s="44"/>
       <c r="Y6" s="37"/>
@@ -5998,7 +6057,9 @@
       <c r="U8" s="30">
         <v>8</v>
       </c>
-      <c r="V8" s="30"/>
+      <c r="V8" s="30">
+        <v>6</v>
+      </c>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
@@ -6006,7 +6067,7 @@
       <c r="AA8" s="43"/>
       <c r="AB8" s="43">
         <f>SUM(F9:AA9)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -6081,7 +6142,7 @@
       </c>
       <c r="V9" s="19">
         <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" s="19">
         <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
@@ -6106,78 +6167,80 @@
       <c r="AB9" s="19"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="45">
-        <v>55</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="45" t="s">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="20">
+        <v>7</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="20">
+        <v>3</v>
+      </c>
+      <c r="J10" s="20">
+        <v>7</v>
+      </c>
+      <c r="K10" s="20">
+        <v>6</v>
+      </c>
+      <c r="L10" s="51">
+        <v>11</v>
+      </c>
+      <c r="M10" s="20">
         <v>4</v>
       </c>
-      <c r="G10" s="45">
-        <v>6</v>
-      </c>
-      <c r="H10" s="34">
-        <v>12</v>
-      </c>
-      <c r="I10" s="34">
+      <c r="N10" s="20">
+        <v>2</v>
+      </c>
+      <c r="O10" s="20">
+        <v>9</v>
+      </c>
+      <c r="P10" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>3</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="20">
+        <v>4</v>
+      </c>
+      <c r="T10" s="20">
+        <v>4</v>
+      </c>
+      <c r="U10" s="20">
+        <v>4</v>
+      </c>
+      <c r="V10" s="20">
         <v>5</v>
       </c>
-      <c r="J10" s="45">
-        <v>5</v>
-      </c>
-      <c r="K10" s="45">
-        <v>8</v>
-      </c>
-      <c r="L10" s="34">
-        <v>5</v>
-      </c>
-      <c r="M10" s="45">
-        <v>5</v>
-      </c>
-      <c r="N10" s="45">
-        <v>6</v>
-      </c>
-      <c r="O10" s="45">
-        <v>10</v>
-      </c>
-      <c r="P10" s="45">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="R10" s="45">
-        <v>5</v>
-      </c>
-      <c r="S10" s="45">
-        <v>3</v>
-      </c>
-      <c r="T10" s="45">
-        <v>1</v>
-      </c>
-      <c r="U10" s="34">
-        <v>6</v>
-      </c>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45">
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20">
         <f>SUM(F11:AA11)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -6188,11 +6251,11 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="19">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="19">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
@@ -6200,27 +6263,27 @@
       </c>
       <c r="I11" s="19">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="19">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" s="19">
         <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="19">
         <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="19">
         <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="19">
         <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O11" s="19">
         <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
@@ -6228,31 +6291,31 @@
       </c>
       <c r="P11" s="19">
         <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="19">
         <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R11" s="19">
         <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S11" s="19">
         <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T11" s="19">
         <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U11" s="19">
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" s="19">
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W11" s="19">
         <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
@@ -6277,78 +6340,80 @@
       <c r="AB11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="20">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="45">
+        <v>55</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="20">
-        <v>7</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="F12" s="45">
+        <v>4</v>
+      </c>
+      <c r="G12" s="45">
+        <v>6</v>
+      </c>
+      <c r="H12" s="34">
+        <v>12</v>
+      </c>
+      <c r="I12" s="34">
+        <v>5</v>
+      </c>
+      <c r="J12" s="45">
+        <v>5</v>
+      </c>
+      <c r="K12" s="45">
+        <v>8</v>
+      </c>
+      <c r="L12" s="34">
+        <v>5</v>
+      </c>
+      <c r="M12" s="45">
+        <v>5</v>
+      </c>
+      <c r="N12" s="45">
+        <v>6</v>
+      </c>
+      <c r="O12" s="45">
+        <v>10</v>
+      </c>
+      <c r="P12" s="45">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="45">
+        <v>5</v>
+      </c>
+      <c r="S12" s="45">
         <v>3</v>
       </c>
-      <c r="J12" s="20">
-        <v>7</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="T12" s="45">
+        <v>1</v>
+      </c>
+      <c r="U12" s="34">
         <v>6</v>
       </c>
-      <c r="L12" s="51">
-        <v>11</v>
-      </c>
-      <c r="M12" s="20">
-        <v>4</v>
-      </c>
-      <c r="N12" s="20">
-        <v>2</v>
-      </c>
-      <c r="O12" s="20">
-        <v>9</v>
-      </c>
-      <c r="P12" s="20">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>3</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="S12" s="20">
-        <v>4</v>
-      </c>
-      <c r="T12" s="20">
-        <v>4</v>
-      </c>
-      <c r="U12" s="20">
-        <v>4</v>
-      </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="V12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="W12" s="34"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45">
         <f>SUM(F13:AA13)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6359,11 +6424,11 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="19">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
@@ -6371,27 +6436,27 @@
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
@@ -6399,27 +6464,27 @@
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R13" s="19">
         <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" s="19">
         <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T13" s="19">
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U13" s="19">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" s="19">
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
@@ -6511,7 +6576,9 @@
       <c r="U14" s="36">
         <v>2</v>
       </c>
-      <c r="V14" s="36"/>
+      <c r="V14" s="36">
+        <v>3</v>
+      </c>
       <c r="W14" s="36"/>
       <c r="X14" s="46"/>
       <c r="Y14" s="36"/>
@@ -6519,7 +6586,7 @@
       <c r="AA14" s="46"/>
       <c r="AB14" s="46">
         <f>SUM(F15:AA15)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6594,7 +6661,7 @@
       </c>
       <c r="V15" s="19">
         <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W15" s="19">
         <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
@@ -6682,7 +6749,9 @@
       <c r="U16" s="21">
         <v>7</v>
       </c>
-      <c r="V16" s="21"/>
+      <c r="V16" s="21">
+        <v>4</v>
+      </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
@@ -6690,7 +6759,7 @@
       <c r="AA16" s="21"/>
       <c r="AB16" s="21">
         <f>SUM(F17:AA17)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6765,7 +6834,7 @@
       </c>
       <c r="V17" s="19">
         <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W17" s="19">
         <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
@@ -6853,7 +6922,9 @@
       <c r="U18" s="22">
         <v>3</v>
       </c>
-      <c r="V18" s="22"/>
+      <c r="V18" s="22">
+        <v>2</v>
+      </c>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -6861,7 +6932,7 @@
       <c r="AA18" s="22"/>
       <c r="AB18" s="22">
         <f>SUM(F19:AA19)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6936,7 +7007,7 @@
       </c>
       <c r="V19" s="19">
         <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W19" s="19">
         <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
@@ -7022,9 +7093,11 @@
         <v>134</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="V20" s="26"/>
+        <v>139</v>
+      </c>
+      <c r="V20" s="26">
+        <v>11</v>
+      </c>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
@@ -7195,7 +7268,9 @@
       <c r="U22" s="33">
         <v>10</v>
       </c>
-      <c r="V22" s="33"/>
+      <c r="V22" s="33">
+        <v>12</v>
+      </c>
       <c r="W22" s="33"/>
       <c r="X22" s="47"/>
       <c r="Y22" s="33"/>
@@ -7366,7 +7441,9 @@
       <c r="U24" s="23">
         <v>9</v>
       </c>
-      <c r="V24" s="23"/>
+      <c r="V24" s="23">
+        <v>7</v>
+      </c>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
@@ -7374,7 +7451,7 @@
       <c r="AA24" s="23"/>
       <c r="AB24" s="23">
         <f>SUM(F25:AA25)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -7449,7 +7526,7 @@
       </c>
       <c r="V25" s="19">
         <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W25" s="19">
         <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
@@ -7535,9 +7612,11 @@
         <v>11</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="V26" s="27"/>
+        <v>139</v>
+      </c>
+      <c r="V26" s="27">
+        <v>13</v>
+      </c>
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
@@ -7708,7 +7787,9 @@
       <c r="U28" s="35">
         <v>14</v>
       </c>
-      <c r="V28" s="35"/>
+      <c r="V28" s="35">
+        <v>16</v>
+      </c>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -7877,9 +7958,11 @@
         <v>133</v>
       </c>
       <c r="U30" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="V30" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="V30" s="24">
+        <v>8</v>
+      </c>
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
       <c r="Y30" s="24"/>
@@ -7887,7 +7970,7 @@
       <c r="AA30" s="24"/>
       <c r="AB30" s="24">
         <f>SUM(F31:AA31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -7962,7 +8045,7 @@
       </c>
       <c r="V31" s="19">
         <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="19">
         <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
@@ -8048,9 +8131,11 @@
         <v>14</v>
       </c>
       <c r="U32" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="V32" s="38"/>
+        <v>139</v>
+      </c>
+      <c r="V32" s="38" t="s">
+        <v>141</v>
+      </c>
       <c r="W32" s="38"/>
       <c r="X32" s="50"/>
       <c r="Y32" s="38"/>
@@ -8221,7 +8306,9 @@
       <c r="U34" s="25">
         <v>15</v>
       </c>
-      <c r="V34" s="25"/>
+      <c r="V34" s="25">
+        <v>14</v>
+      </c>
       <c r="W34" s="25"/>
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
@@ -8392,7 +8479,9 @@
       <c r="U36" s="32">
         <v>12</v>
       </c>
-      <c r="V36" s="32"/>
+      <c r="V36" s="32">
+        <v>15</v>
+      </c>
       <c r="W36" s="32"/>
       <c r="X36" s="42"/>
       <c r="Y36" s="32"/>
@@ -8563,7 +8652,9 @@
       <c r="U38" s="31">
         <v>13</v>
       </c>
-      <c r="V38" s="31"/>
+      <c r="V38" s="31">
+        <v>9</v>
+      </c>
       <c r="W38" s="31"/>
       <c r="X38" s="49"/>
       <c r="Y38" s="31"/>
@@ -8865,7 +8956,7 @@
       <c r="S42" s="52"/>
       <c r="T42" s="52"/>
       <c r="U42" s="52"/>
-      <c r="V42" s="18"/>
+      <c r="V42" s="52"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
@@ -9012,7 +9103,9 @@
       <c r="U44" s="18">
         <v>11</v>
       </c>
-      <c r="V44" s="52"/>
+      <c r="V44" s="18">
+        <v>17</v>
+      </c>
       <c r="W44" s="52"/>
       <c r="X44" s="52"/>
       <c r="Y44" s="52"/>
@@ -9154,7 +9247,7 @@
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.25" style="29" bestFit="1" customWidth="1"/>
@@ -9314,7 +9407,9 @@
       <c r="U2" s="18">
         <v>1</v>
       </c>
-      <c r="V2" s="18"/>
+      <c r="V2" s="18">
+        <v>1</v>
+      </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
@@ -9322,7 +9417,7 @@
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -9397,7 +9492,7 @@
       </c>
       <c r="V3" s="19">
         <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W3" s="19">
         <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
@@ -9483,9 +9578,11 @@
         <v>8</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="V4" s="42"/>
+        <v>107</v>
+      </c>
+      <c r="V4" s="42">
+        <v>10</v>
+      </c>
       <c r="W4" s="32"/>
       <c r="X4" s="42"/>
       <c r="Y4" s="32"/>
@@ -9656,7 +9753,9 @@
       <c r="U6" s="37">
         <v>5</v>
       </c>
-      <c r="V6" s="44"/>
+      <c r="V6" s="44" t="s">
+        <v>141</v>
+      </c>
       <c r="W6" s="37"/>
       <c r="X6" s="44"/>
       <c r="Y6" s="37"/>
@@ -9827,7 +9926,9 @@
       <c r="U8" s="30">
         <v>8</v>
       </c>
-      <c r="V8" s="43"/>
+      <c r="V8" s="43">
+        <v>6</v>
+      </c>
       <c r="W8" s="30"/>
       <c r="X8" s="43"/>
       <c r="Y8" s="30"/>
@@ -9835,7 +9936,7 @@
       <c r="AA8" s="43"/>
       <c r="AB8" s="43">
         <f>SUM(F9:AA9)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -9910,7 +10011,7 @@
       </c>
       <c r="V9" s="19">
         <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="19">
         <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
@@ -9935,78 +10036,80 @@
       <c r="AB9" s="19"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="45">
-        <v>55</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="45">
+      <c r="A10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="46">
         <v>4</v>
       </c>
-      <c r="G10" s="45">
+      <c r="C10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="46">
+        <v>17</v>
+      </c>
+      <c r="G10" s="46">
+        <v>17</v>
+      </c>
+      <c r="H10" s="46">
         <v>6</v>
       </c>
-      <c r="H10" s="45">
-        <v>12</v>
-      </c>
-      <c r="I10" s="45">
-        <v>5</v>
-      </c>
-      <c r="J10" s="45">
-        <v>5</v>
-      </c>
-      <c r="K10" s="45">
+      <c r="I10" s="46">
+        <v>9</v>
+      </c>
+      <c r="J10" s="46">
+        <v>17</v>
+      </c>
+      <c r="K10" s="46">
+        <v>9</v>
+      </c>
+      <c r="L10" s="46">
+        <v>17</v>
+      </c>
+      <c r="M10" s="46">
+        <v>13</v>
+      </c>
+      <c r="N10" s="46">
+        <v>4</v>
+      </c>
+      <c r="O10" s="36">
+        <v>2</v>
+      </c>
+      <c r="P10" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>7</v>
+      </c>
+      <c r="R10" s="46">
+        <v>7</v>
+      </c>
+      <c r="S10" s="46">
         <v>8</v>
       </c>
-      <c r="L10" s="45">
-        <v>5</v>
-      </c>
-      <c r="M10" s="45">
-        <v>5</v>
-      </c>
-      <c r="N10" s="45">
-        <v>6</v>
-      </c>
-      <c r="O10" s="45">
-        <v>10</v>
-      </c>
-      <c r="P10" s="45">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="R10" s="45">
-        <v>5</v>
-      </c>
-      <c r="S10" s="45">
+      <c r="T10" s="46">
+        <v>2</v>
+      </c>
+      <c r="U10" s="36">
+        <v>2</v>
+      </c>
+      <c r="V10" s="46">
         <v>3</v>
       </c>
-      <c r="T10" s="45">
-        <v>1</v>
-      </c>
-      <c r="U10" s="34">
-        <v>6</v>
-      </c>
-      <c r="V10" s="45"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45">
+      <c r="W10" s="36"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46">
         <f>SUM(F11:AA11)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -10017,23 +10120,23 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="19">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="19">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="19">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="19">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="19">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
@@ -10041,23 +10144,23 @@
       </c>
       <c r="L11" s="19">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="19">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="19">
         <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="19">
         <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P11" s="19">
         <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="19">
         <f>IF(Q10=1,10,IF(Q10=2,6,IF(Q10=3,4,IF(Q10=4,3,IF(Q10=5,2,IF(Q10=6,1,0))))))</f>
@@ -10065,23 +10168,23 @@
       </c>
       <c r="R11" s="19">
         <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="19">
         <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11" s="19">
         <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U11" s="19">
         <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V11" s="19">
         <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W11" s="19">
         <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
@@ -10106,78 +10209,80 @@
       <c r="AB11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="46">
+      <c r="A12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="45">
+        <v>55</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="45">
         <v>4</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="46">
-        <v>17</v>
-      </c>
-      <c r="G12" s="46">
-        <v>17</v>
-      </c>
-      <c r="H12" s="46">
+      <c r="G12" s="45">
         <v>6</v>
       </c>
-      <c r="I12" s="46">
-        <v>9</v>
-      </c>
-      <c r="J12" s="46">
-        <v>17</v>
-      </c>
-      <c r="K12" s="46">
-        <v>9</v>
-      </c>
-      <c r="L12" s="46">
-        <v>17</v>
-      </c>
-      <c r="M12" s="46">
-        <v>13</v>
-      </c>
-      <c r="N12" s="46">
-        <v>4</v>
-      </c>
-      <c r="O12" s="36">
-        <v>2</v>
-      </c>
-      <c r="P12" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="46">
-        <v>7</v>
-      </c>
-      <c r="R12" s="46">
-        <v>7</v>
-      </c>
-      <c r="S12" s="46">
+      <c r="H12" s="45">
+        <v>12</v>
+      </c>
+      <c r="I12" s="45">
+        <v>5</v>
+      </c>
+      <c r="J12" s="45">
+        <v>5</v>
+      </c>
+      <c r="K12" s="45">
         <v>8</v>
       </c>
-      <c r="T12" s="46">
-        <v>2</v>
-      </c>
-      <c r="U12" s="36">
-        <v>2</v>
-      </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46">
+      <c r="L12" s="45">
+        <v>5</v>
+      </c>
+      <c r="M12" s="45">
+        <v>5</v>
+      </c>
+      <c r="N12" s="45">
+        <v>6</v>
+      </c>
+      <c r="O12" s="45">
+        <v>10</v>
+      </c>
+      <c r="P12" s="45">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="45">
+        <v>5</v>
+      </c>
+      <c r="S12" s="45">
+        <v>3</v>
+      </c>
+      <c r="T12" s="45">
+        <v>1</v>
+      </c>
+      <c r="U12" s="34">
+        <v>6</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="W12" s="34"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45">
         <f>SUM(F13:AA13)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -10188,23 +10293,23 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="19">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
@@ -10212,23 +10317,23 @@
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,10,IF(Q12=2,6,IF(Q12=3,4,IF(Q12=4,3,IF(Q12=5,2,IF(Q12=6,1,0))))))</f>
@@ -10236,19 +10341,19 @@
       </c>
       <c r="R13" s="19">
         <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="19">
         <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" s="19">
         <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U13" s="19">
         <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V13" s="19">
         <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
@@ -10340,7 +10445,9 @@
       <c r="U14" s="20">
         <v>4</v>
       </c>
-      <c r="V14" s="20"/>
+      <c r="V14" s="20">
+        <v>5</v>
+      </c>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
@@ -10348,7 +10455,7 @@
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
         <f>SUM(F15:AA15)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -10423,7 +10530,7 @@
       </c>
       <c r="V15" s="19">
         <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="19">
         <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
@@ -10511,7 +10618,9 @@
       <c r="U16" s="21">
         <v>7</v>
       </c>
-      <c r="V16" s="21"/>
+      <c r="V16" s="21">
+        <v>4</v>
+      </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
@@ -10519,7 +10628,7 @@
       <c r="AA16" s="21"/>
       <c r="AB16" s="21">
         <f>SUM(F17:AA17)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -10594,7 +10703,7 @@
       </c>
       <c r="V17" s="19">
         <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17" s="19">
         <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
@@ -10682,7 +10791,9 @@
       <c r="U18" s="22">
         <v>3</v>
       </c>
-      <c r="V18" s="22"/>
+      <c r="V18" s="22">
+        <v>2</v>
+      </c>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -10690,7 +10801,7 @@
       <c r="AA18" s="22"/>
       <c r="AB18" s="22">
         <f>SUM(F19:AA19)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -10765,7 +10876,7 @@
       </c>
       <c r="V19" s="19">
         <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W19" s="19">
         <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
@@ -10851,9 +10962,11 @@
         <v>134</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="V20" s="26"/>
+        <v>139</v>
+      </c>
+      <c r="V20" s="26">
+        <v>11</v>
+      </c>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
@@ -11024,7 +11137,9 @@
       <c r="U22" s="33">
         <v>10</v>
       </c>
-      <c r="V22" s="47"/>
+      <c r="V22" s="47">
+        <v>12</v>
+      </c>
       <c r="W22" s="33"/>
       <c r="X22" s="47"/>
       <c r="Y22" s="33"/>
@@ -11195,7 +11310,9 @@
       <c r="U24" s="23">
         <v>9</v>
       </c>
-      <c r="V24" s="23"/>
+      <c r="V24" s="23">
+        <v>7</v>
+      </c>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
@@ -11364,9 +11481,11 @@
         <v>14</v>
       </c>
       <c r="U26" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="V26" s="50"/>
+        <v>139</v>
+      </c>
+      <c r="V26" s="50" t="s">
+        <v>141</v>
+      </c>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
@@ -11537,7 +11656,9 @@
       <c r="U28" s="25">
         <v>15</v>
       </c>
-      <c r="V28" s="25"/>
+      <c r="V28" s="25">
+        <v>14</v>
+      </c>
       <c r="W28" s="25"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
@@ -11708,7 +11829,9 @@
       <c r="U30" s="32">
         <v>12</v>
       </c>
-      <c r="V30" s="42"/>
+      <c r="V30" s="42">
+        <v>15</v>
+      </c>
       <c r="W30" s="32"/>
       <c r="X30" s="42"/>
       <c r="Y30" s="32"/>
@@ -11877,9 +12000,11 @@
         <v>11</v>
       </c>
       <c r="U32" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="V32" s="27"/>
+        <v>139</v>
+      </c>
+      <c r="V32" s="27">
+        <v>13</v>
+      </c>
       <c r="W32" s="27"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
@@ -12050,7 +12175,9 @@
       <c r="U34" s="31">
         <v>13</v>
       </c>
-      <c r="V34" s="49"/>
+      <c r="V34" s="49">
+        <v>9</v>
+      </c>
       <c r="W34" s="31"/>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
@@ -12221,7 +12348,9 @@
       <c r="U36" s="35">
         <v>14</v>
       </c>
-      <c r="V36" s="48"/>
+      <c r="V36" s="48">
+        <v>16</v>
+      </c>
       <c r="W36" s="35"/>
       <c r="X36" s="48"/>
       <c r="Y36" s="35"/>
@@ -12549,9 +12678,11 @@
         <v>133</v>
       </c>
       <c r="U40" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="V40" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="V40" s="24">
+        <v>8</v>
+      </c>
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
       <c r="Y40" s="24"/>
@@ -12694,7 +12825,7 @@
       <c r="S42" s="52"/>
       <c r="T42" s="52"/>
       <c r="U42" s="52"/>
-      <c r="V42" s="18"/>
+      <c r="V42" s="52"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
@@ -12841,7 +12972,9 @@
       <c r="U44" s="18">
         <v>11</v>
       </c>
-      <c r="V44" s="52"/>
+      <c r="V44" s="18">
+        <v>17</v>
+      </c>
       <c r="W44" s="52"/>
       <c r="X44" s="52"/>
       <c r="Y44" s="52"/>
@@ -13005,11 +13138,11 @@
       </c>
       <c r="D2" s="9">
         <f>'2023 Driver Ranking'!AD2+'2023 Driver Ranking'!AD4</f>
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="E2" s="9">
         <f>'2023 Driver Ranking'!AE2+'2023 Driver Ranking'!AE4</f>
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13023,12 +13156,12 @@
         <v>65</v>
       </c>
       <c r="D3" s="14">
-        <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD14</f>
-        <v>305</v>
+        <f>'2023 Driver Ranking'!AD6+'2023 Driver Ranking'!AD16</f>
+        <v>326</v>
       </c>
       <c r="E3" s="14">
-        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE14</f>
-        <v>290</v>
+        <f>'2023 Driver Ranking'!AE6+'2023 Driver Ranking'!AE16</f>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13043,11 +13176,11 @@
       </c>
       <c r="D4" s="6">
         <f>'2023 Driver Ranking'!AD10+'2023 Driver Ranking'!AD12</f>
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="E4" s="6">
         <f>'2023 Driver Ranking'!AE10+'2023 Driver Ranking'!AE12</f>
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13062,11 +13195,11 @@
       </c>
       <c r="D5" s="7">
         <f>'2023 Driver Ranking'!AD8+'2023 Driver Ranking'!AD20</f>
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E5" s="7">
         <f>'2023 Driver Ranking'!AE8+'2023 Driver Ranking'!AE20</f>
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13080,12 +13213,12 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'2023 Driver Ranking'!AD16+'2023 Driver Ranking'!AD18</f>
-        <v>172</v>
+        <f>'2023 Driver Ranking'!AD14+'2023 Driver Ranking'!AD18</f>
+        <v>219</v>
       </c>
       <c r="E6" s="5">
-        <f>'2023 Driver Ranking'!AE16+'2023 Driver Ranking'!AE18</f>
-        <v>162</v>
+        <f>'2023 Driver Ranking'!AE14+'2023 Driver Ranking'!AE18</f>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13100,11 +13233,11 @@
       </c>
       <c r="D7" s="2">
         <f>'2023 Driver Ranking'!AD22+'2023 Driver Ranking'!AD24</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <f>'2023 Driver Ranking'!AE22+'2023 Driver Ranking'!AE24</f>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13119,7 +13252,7 @@
       </c>
       <c r="D8" s="4">
         <f>'2023 Driver Ranking'!AD26+'2023 Driver Ranking'!AD42</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4">
         <f>'2023 Driver Ranking'!AE26+'2023 Driver Ranking'!AE42</f>
@@ -13127,41 +13260,41 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10">
+        <f>'2023 Driver Ranking'!AD28+'2023 Driver Ranking'!AD32</f>
+        <v>16</v>
+      </c>
+      <c r="E9" s="10">
+        <f>'2023 Driver Ranking'!AE28+'2023 Driver Ranking'!AE32</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="3">
-        <f>'2023 Driver Ranking'!AD28+'2023 Driver Ranking'!AD36</f>
+      <c r="D10" s="3">
+        <f>'2023 Driver Ranking'!AD30+'2023 Driver Ranking'!AD36</f>
         <v>12</v>
       </c>
-      <c r="E9" s="3">
-        <f>'2023 Driver Ranking'!AE28+'2023 Driver Ranking'!AE36</f>
+      <c r="E10" s="3">
+        <f>'2023 Driver Ranking'!AE30+'2023 Driver Ranking'!AE36</f>
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="10">
-        <f>'2023 Driver Ranking'!AD30+'2023 Driver Ranking'!AD32</f>
-        <v>10</v>
-      </c>
-      <c r="E10" s="10">
-        <f>'2023 Driver Ranking'!AE30+'2023 Driver Ranking'!AE32</f>
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13236,7 +13369,7 @@
       </c>
       <c r="D2" s="9">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13251,7 +13384,7 @@
       </c>
       <c r="D3" s="14">
         <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB16</f>
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13266,7 +13399,7 @@
       </c>
       <c r="D4" s="6">
         <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB12</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13281,7 +13414,7 @@
       </c>
       <c r="D5" s="7">
         <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB20</f>
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13296,7 +13429,7 @@
       </c>
       <c r="D6" s="5">
         <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB18</f>
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13311,7 +13444,7 @@
       </c>
       <c r="D7" s="2">
         <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB24</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13356,7 +13489,7 @@
       </c>
       <c r="D10" s="10">
         <f>'2003-2009 Driver Ranking'!AB30+'2003-2009 Driver Ranking'!AB38</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13426,7 +13559,7 @@
       </c>
       <c r="D2" s="9">
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13441,7 +13574,7 @@
       </c>
       <c r="D3" s="14">
         <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB16</f>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13455,8 +13588,8 @@
         <v>67</v>
       </c>
       <c r="D4" s="6">
-        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB14</f>
-        <v>57</v>
+        <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB14</f>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13471,7 +13604,7 @@
       </c>
       <c r="D5" s="7">
         <f>'1991-2002 Driver Ranking'!AB8+'1991-2002 Driver Ranking'!AB20</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13485,8 +13618,8 @@
         <v>73</v>
       </c>
       <c r="D6" s="5">
-        <f>'1991-2002 Driver Ranking'!AB12+'1991-2002 Driver Ranking'!AB18</f>
-        <v>37</v>
+        <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB18</f>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2023.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="149">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,11 +605,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Did not Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Did not Start</t>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disqualified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disqualified</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1202,7 +1222,7 @@
     <col min="16" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.25" style="29" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.25" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
@@ -1374,7 +1394,9 @@
       <c r="V2" s="18">
         <v>1</v>
       </c>
-      <c r="W2" s="18"/>
+      <c r="W2" s="18">
+        <v>1</v>
+      </c>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
@@ -1384,16 +1406,16 @@
         <v>8</v>
       </c>
       <c r="AC2" s="18">
-        <f>6+8+8+7</f>
-        <v>29</v>
+        <f>6+8+8+7+8</f>
+        <v>37</v>
       </c>
       <c r="AD2" s="18">
         <f>SUM(F3:AA3)+SUM(AB2,AC2)</f>
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="AE2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1472,7 +1494,7 @@
       </c>
       <c r="W3" s="19">
         <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X3" s="19">
         <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
@@ -1562,7 +1584,9 @@
       <c r="V4" s="42">
         <v>10</v>
       </c>
-      <c r="W4" s="32"/>
+      <c r="W4" s="32">
+        <v>4</v>
+      </c>
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
@@ -1572,16 +1596,16 @@
         <v>2</v>
       </c>
       <c r="AC4" s="42">
-        <f>8+7</f>
-        <v>15</v>
+        <f>8+7+4</f>
+        <v>19</v>
       </c>
       <c r="AD4" s="42">
         <f>SUM(F5:AA5)+SUM(AB4,AC4)</f>
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="AE4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1660,7 +1684,7 @@
       </c>
       <c r="W5" s="19">
         <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X5" s="19">
         <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
@@ -1748,9 +1772,11 @@
         <v>5</v>
       </c>
       <c r="V6" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" s="37"/>
+        <v>107</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>147</v>
+      </c>
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
       <c r="Z6" s="44"/>
@@ -1760,12 +1786,12 @@
         <v>3</v>
       </c>
       <c r="AC6" s="44">
-        <f>2+2+4</f>
-        <v>8</v>
+        <f>2+2+4+7</f>
+        <v>15</v>
       </c>
       <c r="AD6" s="44">
         <f>SUM(F7:AA7)+SUM(AB6,AC6)</f>
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AE6" s="44">
         <f>SUM(F7:AA7)</f>
@@ -1938,7 +1964,9 @@
       <c r="V8" s="43">
         <v>6</v>
       </c>
-      <c r="W8" s="30"/>
+      <c r="W8" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
@@ -2124,25 +2152,27 @@
         <v>6</v>
       </c>
       <c r="V10" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="W10" s="34"/>
+        <v>141</v>
+      </c>
+      <c r="W10" s="34">
+        <v>3</v>
+      </c>
       <c r="X10" s="45"/>
       <c r="Y10" s="45"/>
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
       <c r="AB10" s="45"/>
       <c r="AC10" s="45">
-        <f>4+6+5+3</f>
-        <v>18</v>
+        <f>4+6+5+3+3</f>
+        <v>21</v>
       </c>
       <c r="AD10" s="45">
         <f>SUM(F11:AA11)+SUM(AB10,AC10)</f>
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AE10" s="45">
         <f>SUM(F11:AA11)</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2221,7 +2251,7 @@
       </c>
       <c r="W11" s="19">
         <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X11" s="19">
         <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
@@ -2245,89 +2275,91 @@
       <c r="AE11" s="19"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="20">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="A12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="46">
+        <v>4</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="46">
+        <v>17</v>
+      </c>
+      <c r="G12" s="46">
+        <v>17</v>
+      </c>
+      <c r="H12" s="46">
+        <v>6</v>
+      </c>
+      <c r="I12" s="46">
+        <v>9</v>
+      </c>
+      <c r="J12" s="46">
+        <v>17</v>
+      </c>
+      <c r="K12" s="46">
+        <v>9</v>
+      </c>
+      <c r="L12" s="46">
+        <v>17</v>
+      </c>
+      <c r="M12" s="46">
+        <v>13</v>
+      </c>
+      <c r="N12" s="46">
+        <v>4</v>
+      </c>
+      <c r="O12" s="46">
+        <v>2</v>
+      </c>
+      <c r="P12" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="46">
         <v>7</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="R12" s="46">
+        <v>7</v>
+      </c>
+      <c r="S12" s="46">
+        <v>8</v>
+      </c>
+      <c r="T12" s="36">
+        <v>2</v>
+      </c>
+      <c r="U12" s="46">
+        <v>2</v>
+      </c>
+      <c r="V12" s="46">
         <v>3</v>
       </c>
-      <c r="J12" s="20">
-        <v>7</v>
-      </c>
-      <c r="K12" s="20">
-        <v>6</v>
-      </c>
-      <c r="L12" s="20">
-        <v>11</v>
-      </c>
-      <c r="M12" s="20">
-        <v>4</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="W12" s="36">
         <v>2</v>
       </c>
-      <c r="O12" s="20">
-        <v>9</v>
-      </c>
-      <c r="P12" s="20">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>3</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="S12" s="20">
-        <v>4</v>
-      </c>
-      <c r="T12" s="20">
-        <v>4</v>
-      </c>
-      <c r="U12" s="20">
-        <v>4</v>
-      </c>
-      <c r="V12" s="20">
-        <v>5</v>
-      </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20">
-        <f>7+4</f>
-        <v>11</v>
-      </c>
-      <c r="AD12" s="20">
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46">
+        <f>3+6+5</f>
+        <v>14</v>
+      </c>
+      <c r="AD12" s="46">
         <f>SUM(F13:AA13)+SUM(AB12,AC12)</f>
+        <v>159</v>
+      </c>
+      <c r="AE12" s="46">
+        <f>SUM(F13:AA13)</f>
         <v>145</v>
-      </c>
-      <c r="AE12" s="20">
-        <f>SUM(F13:AA13)</f>
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2342,23 +2374,23 @@
       </c>
       <c r="G13" s="19">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13" s="19">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="19">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J13" s="19">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13" s="19">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L13" s="19">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
@@ -2366,47 +2398,47 @@
       </c>
       <c r="M13" s="19">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N13" s="19">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O13" s="19">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P13" s="19">
         <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="19">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R13" s="19">
         <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S13" s="19">
         <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T13" s="19">
         <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U13" s="19">
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="V13" s="19">
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W13" s="19">
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X13" s="19">
         <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
@@ -2430,89 +2462,91 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="46">
+      <c r="A14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20">
+        <v>16</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="20">
+        <v>7</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="20">
+        <v>3</v>
+      </c>
+      <c r="J14" s="20">
+        <v>7</v>
+      </c>
+      <c r="K14" s="20">
+        <v>6</v>
+      </c>
+      <c r="L14" s="20">
+        <v>11</v>
+      </c>
+      <c r="M14" s="20">
         <v>4</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="46">
+      <c r="N14" s="20">
+        <v>2</v>
+      </c>
+      <c r="O14" s="20">
+        <v>9</v>
+      </c>
+      <c r="P14" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>3</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="20">
+        <v>4</v>
+      </c>
+      <c r="T14" s="20">
+        <v>4</v>
+      </c>
+      <c r="U14" s="20">
+        <v>4</v>
+      </c>
+      <c r="V14" s="20">
+        <v>5</v>
+      </c>
+      <c r="W14" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
+        <f>7+4+6</f>
         <v>17</v>
       </c>
-      <c r="G14" s="46">
-        <v>17</v>
-      </c>
-      <c r="H14" s="46">
-        <v>6</v>
-      </c>
-      <c r="I14" s="46">
-        <v>9</v>
-      </c>
-      <c r="J14" s="46">
-        <v>17</v>
-      </c>
-      <c r="K14" s="46">
-        <v>9</v>
-      </c>
-      <c r="L14" s="46">
-        <v>17</v>
-      </c>
-      <c r="M14" s="46">
-        <v>13</v>
-      </c>
-      <c r="N14" s="46">
-        <v>4</v>
-      </c>
-      <c r="O14" s="46">
-        <v>2</v>
-      </c>
-      <c r="P14" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="46">
-        <v>7</v>
-      </c>
-      <c r="R14" s="46">
-        <v>7</v>
-      </c>
-      <c r="S14" s="46">
-        <v>8</v>
-      </c>
-      <c r="T14" s="36">
-        <v>2</v>
-      </c>
-      <c r="U14" s="46">
-        <v>2</v>
-      </c>
-      <c r="V14" s="46">
-        <v>3</v>
-      </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46">
-        <f>3+6</f>
-        <v>9</v>
-      </c>
-      <c r="AD14" s="46">
+      <c r="AD14" s="20">
         <f>SUM(F15:AA15)+SUM(AB14,AC14)</f>
-        <v>136</v>
-      </c>
-      <c r="AE14" s="46">
+        <v>151</v>
+      </c>
+      <c r="AE14" s="20">
         <f>SUM(F15:AA15)</f>
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2527,23 +2561,23 @@
       </c>
       <c r="G15" s="19">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="19">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15" s="19">
         <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J15" s="19">
         <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="19">
         <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L15" s="19">
         <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
@@ -2551,43 +2585,43 @@
       </c>
       <c r="M15" s="19">
         <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N15" s="19">
         <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O15" s="19">
         <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P15" s="19">
         <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="19">
         <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R15" s="19">
         <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S15" s="19">
         <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T15" s="19">
         <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="U15" s="19">
         <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="V15" s="19">
         <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W15" s="19">
         <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
@@ -2681,7 +2715,9 @@
       <c r="V16" s="21">
         <v>4</v>
       </c>
-      <c r="W16" s="21"/>
+      <c r="W16" s="21">
+        <v>5</v>
+      </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
@@ -2691,16 +2727,16 @@
         <v>1</v>
       </c>
       <c r="AC16" s="21">
-        <f>5+1+1+5</f>
-        <v>12</v>
+        <f>5+1+1+5+1</f>
+        <v>13</v>
       </c>
       <c r="AD16" s="21">
         <f>SUM(F17:AA17)+SUM(AB16,AC16)</f>
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AE16" s="21">
         <f>SUM(F17:AA17)</f>
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2779,7 +2815,7 @@
       </c>
       <c r="W17" s="19">
         <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X17" s="19">
         <f>IF(X16=1,25,IF(X16=2,18,IF(X16=3,15,IF(X16=4,12,IF(X16=5,10,IF(X16=6,8,IF(X16=7,6,IF(X16=8,4,IF(X16=9,2,IF(X16=10,1,0))))))))))</f>
@@ -2869,7 +2905,9 @@
       <c r="V18" s="22">
         <v>2</v>
       </c>
-      <c r="W18" s="22"/>
+      <c r="W18" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
@@ -2988,89 +3026,91 @@
       <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="26">
-        <v>18</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="26">
+      <c r="A20" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="47">
+        <v>10</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="47">
+        <v>9</v>
+      </c>
+      <c r="G20" s="47">
+        <v>9</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="47">
+        <v>14</v>
+      </c>
+      <c r="J20" s="47">
+        <v>8</v>
+      </c>
+      <c r="K20" s="47">
+        <v>7</v>
+      </c>
+      <c r="L20" s="47">
+        <v>10</v>
+      </c>
+      <c r="M20" s="47">
+        <v>12</v>
+      </c>
+      <c r="N20" s="47">
+        <v>10</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="47">
+        <v>11</v>
+      </c>
+      <c r="R20" s="47">
+        <v>3</v>
+      </c>
+      <c r="S20" s="47">
+        <v>16</v>
+      </c>
+      <c r="T20" s="33">
         <v>6</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="26">
-        <v>4</v>
-      </c>
-      <c r="I20" s="26">
-        <v>7</v>
-      </c>
-      <c r="J20" s="26">
+      <c r="U20" s="47">
+        <v>10</v>
+      </c>
+      <c r="V20" s="47">
         <v>12</v>
       </c>
-      <c r="K20" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="26">
+      <c r="W20" s="33">
         <v>6</v>
       </c>
-      <c r="M20" s="26">
-        <v>9</v>
-      </c>
-      <c r="N20" s="26">
-        <v>9</v>
-      </c>
-      <c r="O20" s="26">
-        <v>14</v>
-      </c>
-      <c r="P20" s="26">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="26">
-        <v>9</v>
-      </c>
-      <c r="R20" s="26">
-        <v>11</v>
-      </c>
-      <c r="S20" s="26">
-        <v>14</v>
-      </c>
-      <c r="T20" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="U20" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="V20" s="26">
-        <v>11</v>
-      </c>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26">
-        <f>1+5</f>
-        <v>6</v>
-      </c>
-      <c r="AD20" s="26">
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47">
+        <f>6+2</f>
+        <v>8</v>
+      </c>
+      <c r="AD20" s="47">
         <f>SUM(F21:AA21)+SUM(AB20,AC20)</f>
-        <v>47</v>
-      </c>
-      <c r="AE20" s="26">
+        <v>56</v>
+      </c>
+      <c r="AE20" s="47">
         <f>SUM(F21:AA21)</f>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -3081,39 +3121,39 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G21" s="19">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="19">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I21" s="19">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J21" s="19">
         <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" s="19">
         <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21" s="19">
         <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M21" s="19">
         <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="19">
         <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="19">
         <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
@@ -3121,15 +3161,15 @@
       </c>
       <c r="P21" s="19">
         <f>IF(P20=1,25,IF(P20=2,18,IF(P20=3,15,IF(P20=4,12,IF(P20=5,10,IF(P20=6,8,IF(P20=7,6,IF(P20=8,4,IF(P20=9,2,IF(P20=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="19">
         <f>IF(Q20=1,25,IF(Q20=2,18,IF(Q20=3,15,IF(Q20=4,12,IF(Q20=5,10,IF(Q20=6,8,IF(Q20=7,6,IF(Q20=8,4,IF(Q20=9,2,IF(Q20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="19">
         <f>IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S21" s="19">
         <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
@@ -3137,11 +3177,11 @@
       </c>
       <c r="T21" s="19">
         <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U21" s="19">
         <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="19">
         <f>IF(V20=1,25,IF(V20=2,18,IF(V20=3,15,IF(V20=4,12,IF(V20=5,10,IF(V20=6,8,IF(V20=7,6,IF(V20=8,4,IF(V20=9,2,IF(V20=10,1,0))))))))))</f>
@@ -3149,7 +3189,7 @@
       </c>
       <c r="W21" s="19">
         <f>IF(W20=1,25,IF(W20=2,18,IF(W20=3,15,IF(W20=4,12,IF(W20=5,10,IF(W20=6,8,IF(W20=7,6,IF(W20=8,4,IF(W20=9,2,IF(W20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X21" s="19">
         <f>IF(X20=1,25,IF(X20=2,18,IF(X20=3,15,IF(X20=4,12,IF(X20=5,10,IF(X20=6,8,IF(X20=7,6,IF(X20=8,4,IF(X20=9,2,IF(X20=10,1,0))))))))))</f>
@@ -3173,89 +3213,91 @@
       <c r="AE21" s="19"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="47">
+      <c r="A22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="26">
+        <v>18</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="26">
+        <v>6</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="26">
+        <v>4</v>
+      </c>
+      <c r="I22" s="26">
+        <v>7</v>
+      </c>
+      <c r="J22" s="26">
+        <v>12</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="26">
+        <v>6</v>
+      </c>
+      <c r="M22" s="26">
+        <v>9</v>
+      </c>
+      <c r="N22" s="26">
+        <v>9</v>
+      </c>
+      <c r="O22" s="26">
+        <v>14</v>
+      </c>
+      <c r="P22" s="26">
         <v>10</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="47">
+      <c r="Q22" s="26">
         <v>9</v>
       </c>
-      <c r="G22" s="47">
-        <v>9</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="47">
+      <c r="R22" s="26">
+        <v>11</v>
+      </c>
+      <c r="S22" s="26">
         <v>14</v>
       </c>
-      <c r="J22" s="47">
-        <v>8</v>
-      </c>
-      <c r="K22" s="47">
+      <c r="T22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="V22" s="26">
+        <v>11</v>
+      </c>
+      <c r="W22" s="26">
         <v>7</v>
       </c>
-      <c r="L22" s="47">
-        <v>10</v>
-      </c>
-      <c r="M22" s="47">
-        <v>12</v>
-      </c>
-      <c r="N22" s="47">
-        <v>10</v>
-      </c>
-      <c r="O22" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="P22" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="47">
-        <v>11</v>
-      </c>
-      <c r="R22" s="47">
-        <v>3</v>
-      </c>
-      <c r="S22" s="47">
-        <v>16</v>
-      </c>
-      <c r="T22" s="33">
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26">
+        <f>1+5</f>
         <v>6</v>
       </c>
-      <c r="U22" s="47">
-        <v>10</v>
-      </c>
-      <c r="V22" s="47">
-        <v>12</v>
-      </c>
-      <c r="W22" s="33"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="AD22" s="47">
+      <c r="AD22" s="26">
         <f>SUM(F23:AA23)+SUM(AB22,AC22)</f>
-        <v>46</v>
-      </c>
-      <c r="AE22" s="47">
+        <v>53</v>
+      </c>
+      <c r="AE22" s="26">
         <f>SUM(F23:AA23)</f>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3266,39 +3308,39 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G23" s="19">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="19">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I23" s="19">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="19">
         <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="19">
         <f>IF(K22=1,25,IF(K22=2,18,IF(K22=3,15,IF(K22=4,12,IF(K22=5,10,IF(K22=6,8,IF(K22=7,6,IF(K22=8,4,IF(K22=9,2,IF(K22=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L23" s="19">
         <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M23" s="19">
         <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="19">
         <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="19">
         <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
@@ -3306,15 +3348,15 @@
       </c>
       <c r="P23" s="19">
         <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="19">
         <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="19">
         <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S23" s="19">
         <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
@@ -3322,11 +3364,11 @@
       </c>
       <c r="T23" s="19">
         <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U23" s="19">
         <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="19">
         <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
@@ -3334,7 +3376,7 @@
       </c>
       <c r="W23" s="19">
         <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X23" s="19">
         <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
@@ -3424,7 +3466,9 @@
       <c r="V24" s="23">
         <v>7</v>
       </c>
-      <c r="W24" s="23"/>
+      <c r="W24" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
@@ -3609,7 +3653,9 @@
       <c r="V26" s="27">
         <v>13</v>
       </c>
-      <c r="W26" s="27"/>
+      <c r="W26" s="27">
+        <v>9</v>
+      </c>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
       <c r="Z26" s="27"/>
@@ -3621,11 +3667,11 @@
       </c>
       <c r="AD26" s="27">
         <f>SUM(F27:AA27)+SUM(AB26,AC26)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE26" s="27">
         <f>SUM(F27:AA27)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3704,7 +3750,7 @@
       </c>
       <c r="W27" s="19">
         <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X27" s="19">
         <f>IF(X26=1,25,IF(X26=2,18,IF(X26=3,15,IF(X26=4,12,IF(X26=5,10,IF(X26=6,8,IF(X26=7,6,IF(X26=8,4,IF(X26=9,2,IF(X26=10,1,0))))))))))</f>
@@ -3794,7 +3840,9 @@
       <c r="V28" s="24">
         <v>8</v>
       </c>
-      <c r="W28" s="24"/>
+      <c r="W28" s="24">
+        <v>12</v>
+      </c>
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
@@ -3976,7 +4024,9 @@
       <c r="V30" s="48">
         <v>16</v>
       </c>
-      <c r="W30" s="35"/>
+      <c r="W30" s="35">
+        <v>11</v>
+      </c>
       <c r="X30" s="48"/>
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
@@ -4095,86 +4145,91 @@
       <c r="AE31" s="19"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="49">
-        <v>24</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="49">
+      <c r="A32" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="42">
+        <v>22</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="42">
+        <v>11</v>
+      </c>
+      <c r="G32" s="42">
+        <v>11</v>
+      </c>
+      <c r="H32" s="42">
+        <v>10</v>
+      </c>
+      <c r="I32" s="42">
+        <v>10</v>
+      </c>
+      <c r="J32" s="42">
+        <v>11</v>
+      </c>
+      <c r="K32" s="42">
+        <v>15</v>
+      </c>
+      <c r="L32" s="42">
+        <v>12</v>
+      </c>
+      <c r="M32" s="42">
+        <v>14</v>
+      </c>
+      <c r="N32" s="42">
+        <v>19</v>
+      </c>
+      <c r="O32" s="42">
         <v>16</v>
       </c>
-      <c r="G32" s="49">
-        <v>13</v>
-      </c>
-      <c r="H32" s="49">
-        <v>9</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="49">
-        <v>16</v>
-      </c>
-      <c r="K32" s="49">
-        <v>13</v>
-      </c>
-      <c r="L32" s="49">
-        <v>9</v>
-      </c>
-      <c r="M32" s="49">
-        <v>16</v>
-      </c>
-      <c r="N32" s="49">
+      <c r="P32" s="42">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>10</v>
+      </c>
+      <c r="R32" s="32">
+        <v>15</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="U32" s="42">
         <v>12</v>
       </c>
-      <c r="O32" s="49">
+      <c r="V32" s="42">
         <v>15</v>
       </c>
-      <c r="P32" s="49">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="49">
-        <v>13</v>
-      </c>
-      <c r="R32" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="S32" s="49">
-        <v>15</v>
-      </c>
-      <c r="T32" s="31">
-        <v>12</v>
-      </c>
-      <c r="U32" s="49">
-        <v>13</v>
-      </c>
-      <c r="V32" s="49">
-        <v>9</v>
-      </c>
-      <c r="W32" s="31"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49">
+      <c r="W32" s="32">
+        <v>8</v>
+      </c>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42">
         <f>SUM(F33:AA33)+SUM(AB32,AC32)</f>
-        <v>6</v>
-      </c>
-      <c r="AE32" s="49">
+        <v>8</v>
+      </c>
+      <c r="AE32" s="42">
         <f>SUM(F33:AA33)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -4193,11 +4248,11 @@
       </c>
       <c r="H33" s="19">
         <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="19">
         <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="19">
         <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
@@ -4209,7 +4264,7 @@
       </c>
       <c r="L33" s="19">
         <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="19">
         <f>IF(M32=1,25,IF(M32=2,18,IF(M32=3,15,IF(M32=4,12,IF(M32=5,10,IF(M32=6,8,IF(M32=7,6,IF(M32=8,4,IF(M32=9,2,IF(M32=10,1,0))))))))))</f>
@@ -4229,7 +4284,7 @@
       </c>
       <c r="Q33" s="19">
         <f>IF(Q32=1,25,IF(Q32=2,18,IF(Q32=3,15,IF(Q32=4,12,IF(Q32=5,10,IF(Q32=6,8,IF(Q32=7,6,IF(Q32=8,4,IF(Q32=9,2,IF(Q32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="19">
         <f>IF(R32=1,25,IF(R32=2,18,IF(R32=3,15,IF(R32=4,12,IF(R32=5,10,IF(R32=6,8,IF(R32=7,6,IF(R32=8,4,IF(R32=9,2,IF(R32=10,1,0))))))))))</f>
@@ -4249,11 +4304,11 @@
       </c>
       <c r="V33" s="19">
         <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33" s="19">
         <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X33" s="19">
         <f>IF(X32=1,25,IF(X32=2,18,IF(X32=3,15,IF(X32=4,12,IF(X32=5,10,IF(X32=6,8,IF(X32=7,6,IF(X32=8,4,IF(X32=9,2,IF(X32=10,1,0))))))))))</f>
@@ -4277,86 +4332,88 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="42">
-        <v>22</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="42">
-        <v>11</v>
-      </c>
-      <c r="G34" s="42">
-        <v>11</v>
-      </c>
-      <c r="H34" s="42">
-        <v>10</v>
-      </c>
-      <c r="I34" s="42">
-        <v>10</v>
-      </c>
-      <c r="J34" s="42">
-        <v>11</v>
-      </c>
-      <c r="K34" s="42">
+      <c r="A34" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="49">
+        <v>24</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="49">
+        <v>16</v>
+      </c>
+      <c r="G34" s="49">
+        <v>13</v>
+      </c>
+      <c r="H34" s="49">
+        <v>9</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="49">
+        <v>16</v>
+      </c>
+      <c r="K34" s="49">
+        <v>13</v>
+      </c>
+      <c r="L34" s="49">
+        <v>9</v>
+      </c>
+      <c r="M34" s="49">
+        <v>16</v>
+      </c>
+      <c r="N34" s="49">
+        <v>12</v>
+      </c>
+      <c r="O34" s="49">
         <v>15</v>
       </c>
-      <c r="L34" s="42">
+      <c r="P34" s="49">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="49">
+        <v>13</v>
+      </c>
+      <c r="R34" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="S34" s="49">
+        <v>15</v>
+      </c>
+      <c r="T34" s="31">
         <v>12</v>
       </c>
-      <c r="M34" s="42">
-        <v>14</v>
-      </c>
-      <c r="N34" s="42">
-        <v>19</v>
-      </c>
-      <c r="O34" s="42">
-        <v>16</v>
-      </c>
-      <c r="P34" s="42">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="42">
-        <v>10</v>
-      </c>
-      <c r="R34" s="32">
-        <v>15</v>
-      </c>
-      <c r="S34" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="T34" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="U34" s="42">
-        <v>12</v>
-      </c>
-      <c r="V34" s="42">
-        <v>15</v>
-      </c>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42">
+      <c r="U34" s="49">
+        <v>13</v>
+      </c>
+      <c r="V34" s="49">
+        <v>9</v>
+      </c>
+      <c r="W34" s="31">
+        <v>13</v>
+      </c>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49">
         <f>SUM(F35:AA35)+SUM(AB34,AC34)</f>
-        <v>3</v>
-      </c>
-      <c r="AE34" s="42">
+        <v>6</v>
+      </c>
+      <c r="AE34" s="49">
         <f>SUM(F35:AA35)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -4375,11 +4432,11 @@
       </c>
       <c r="H35" s="19">
         <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="19">
         <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="19">
         <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
@@ -4391,7 +4448,7 @@
       </c>
       <c r="L35" s="19">
         <f>IF(L34=1,25,IF(L34=2,18,IF(L34=3,15,IF(L34=4,12,IF(L34=5,10,IF(L34=6,8,IF(L34=7,6,IF(L34=8,4,IF(L34=9,2,IF(L34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="19">
         <f>IF(M34=1,25,IF(M34=2,18,IF(M34=3,15,IF(M34=4,12,IF(M34=5,10,IF(M34=6,8,IF(M34=7,6,IF(M34=8,4,IF(M34=9,2,IF(M34=10,1,0))))))))))</f>
@@ -4411,7 +4468,7 @@
       </c>
       <c r="Q35" s="19">
         <f>IF(Q34=1,25,IF(Q34=2,18,IF(Q34=3,15,IF(Q34=4,12,IF(Q34=5,10,IF(Q34=6,8,IF(Q34=7,6,IF(Q34=8,4,IF(Q34=9,2,IF(Q34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="19">
         <f>IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
@@ -4431,7 +4488,7 @@
       </c>
       <c r="V35" s="19">
         <f>IF(V34=1,25,IF(V34=2,18,IF(V34=3,15,IF(V34=4,12,IF(V34=5,10,IF(V34=6,8,IF(V34=7,6,IF(V34=8,4,IF(V34=9,2,IF(V34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="19">
         <f>IF(W34=1,25,IF(W34=2,18,IF(W34=3,15,IF(W34=4,12,IF(W34=5,10,IF(W34=6,8,IF(W34=7,6,IF(W34=8,4,IF(W34=9,2,IF(W34=10,1,0))))))))))</f>
@@ -4525,7 +4582,9 @@
       <c r="V36" s="25">
         <v>14</v>
       </c>
-      <c r="W36" s="25"/>
+      <c r="W36" s="25">
+        <v>14</v>
+      </c>
       <c r="X36" s="25"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
@@ -4799,56 +4858,88 @@
       <c r="AE39" s="19"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="18">
-        <v>3</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="18">
+      <c r="A40" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="50">
+        <v>2</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="50">
+        <v>12</v>
+      </c>
+      <c r="G40" s="50">
+        <v>16</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="50">
+        <v>16</v>
+      </c>
+      <c r="J40" s="50">
+        <v>20</v>
+      </c>
+      <c r="K40" s="50">
+        <v>18</v>
+      </c>
+      <c r="L40" s="50">
+        <v>20</v>
+      </c>
+      <c r="M40" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N40" s="50">
         <v>13</v>
       </c>
-      <c r="Q40" s="18">
-        <v>16</v>
-      </c>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18">
+      <c r="O40" s="50">
+        <v>11</v>
+      </c>
+      <c r="P40" s="50">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="50">
+        <v>17</v>
+      </c>
+      <c r="R40" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="S40" s="50">
+        <v>11</v>
+      </c>
+      <c r="T40" s="38">
+        <v>14</v>
+      </c>
+      <c r="U40" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="V40" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="W40" s="38">
+        <v>10</v>
+      </c>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50">
         <f>SUM(F41:AA41)+SUM(AB40,AC40)</f>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="50">
         <f>SUM(F41:AA41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
@@ -4927,7 +5018,7 @@
       </c>
       <c r="W41" s="19">
         <f>IF(W40=1,25,IF(W40=2,18,IF(W40=3,15,IF(W40=4,12,IF(W40=5,10,IF(W40=6,8,IF(W40=7,6,IF(W40=8,4,IF(W40=9,2,IF(W40=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="19">
         <f>IF(X40=1,25,IF(X40=2,18,IF(X40=3,15,IF(X40=4,12,IF(X40=5,10,IF(X40=6,8,IF(X40=7,6,IF(X40=8,4,IF(X40=9,2,IF(X40=10,1,0))))))))))</f>
@@ -4951,84 +5042,56 @@
       <c r="AE41" s="19"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="50">
-        <v>2</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="50">
-        <v>12</v>
-      </c>
-      <c r="G42" s="50">
+      <c r="A42" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="18">
+        <v>3</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="18">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="18">
         <v>16</v>
       </c>
-      <c r="H42" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42" s="50">
-        <v>16</v>
-      </c>
-      <c r="J42" s="50">
-        <v>20</v>
-      </c>
-      <c r="K42" s="50">
-        <v>18</v>
-      </c>
-      <c r="L42" s="50">
-        <v>20</v>
-      </c>
-      <c r="M42" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="N42" s="50">
-        <v>13</v>
-      </c>
-      <c r="O42" s="50">
-        <v>11</v>
-      </c>
-      <c r="P42" s="50">
-        <v>18</v>
-      </c>
-      <c r="Q42" s="50">
-        <v>17</v>
-      </c>
-      <c r="R42" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="S42" s="50">
-        <v>11</v>
-      </c>
-      <c r="T42" s="38">
-        <v>14</v>
-      </c>
-      <c r="U42" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="V42" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="W42" s="38"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50">
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="28">
+        <v>15</v>
+      </c>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18">
         <f>SUM(F43:AA43)+SUM(AB42,AC42)</f>
         <v>0</v>
       </c>
-      <c r="AE42" s="50">
+      <c r="AE42" s="18">
         <f>SUM(F43:AA43)</f>
         <v>0</v>
       </c>
@@ -5378,8 +5441,7 @@
     <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="20.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="20.25" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.25" style="29" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.25" style="29" bestFit="1" customWidth="1"/>
@@ -5541,14 +5603,16 @@
       <c r="V2" s="18">
         <v>1</v>
       </c>
-      <c r="W2" s="18"/>
+      <c r="W2" s="18">
+        <v>1</v>
+      </c>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18">
         <f>SUM(F3:AA3)</f>
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5627,7 +5691,7 @@
       </c>
       <c r="W3" s="19">
         <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X3" s="19">
         <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
@@ -5709,19 +5773,21 @@
         <v>8</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V4" s="32">
         <v>10</v>
       </c>
-      <c r="W4" s="32"/>
+      <c r="W4" s="32">
+        <v>4</v>
+      </c>
       <c r="X4" s="32"/>
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
       <c r="AA4" s="42"/>
       <c r="AB4" s="42">
         <f>SUM(F5:AA5)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5800,7 +5866,7 @@
       </c>
       <c r="W5" s="19">
         <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="19">
         <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
@@ -5885,9 +5951,11 @@
         <v>5</v>
       </c>
       <c r="V6" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" s="37"/>
+        <v>145</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="X6" s="44"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="37"/>
@@ -6060,7 +6128,9 @@
       <c r="V8" s="30">
         <v>6</v>
       </c>
-      <c r="W8" s="30"/>
+      <c r="W8" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
@@ -6167,80 +6237,82 @@
       <c r="AB9" s="19"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="20">
-        <v>16</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="A10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="46">
+        <v>4</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="46">
+        <v>17</v>
+      </c>
+      <c r="G10" s="46">
+        <v>17</v>
+      </c>
+      <c r="H10" s="46">
+        <v>6</v>
+      </c>
+      <c r="I10" s="46">
+        <v>9</v>
+      </c>
+      <c r="J10" s="36">
+        <v>17</v>
+      </c>
+      <c r="K10" s="46">
+        <v>9</v>
+      </c>
+      <c r="L10" s="46">
+        <v>17</v>
+      </c>
+      <c r="M10" s="46">
+        <v>13</v>
+      </c>
+      <c r="N10" s="46">
+        <v>4</v>
+      </c>
+      <c r="O10" s="36">
+        <v>2</v>
+      </c>
+      <c r="P10" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="46">
         <v>7</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="20">
+      <c r="R10" s="46">
+        <v>7</v>
+      </c>
+      <c r="S10" s="46">
+    